--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11973200</v>
+        <v>11290000</v>
       </c>
       <c r="E8" s="3">
-        <v>12158400</v>
+        <v>11464700</v>
       </c>
       <c r="F8" s="3">
-        <v>13604100</v>
+        <v>12827900</v>
       </c>
       <c r="G8" s="3">
-        <v>13905700</v>
+        <v>13112300</v>
       </c>
       <c r="H8" s="3">
-        <v>12090500</v>
+        <v>11400600</v>
       </c>
       <c r="I8" s="3">
-        <v>10755500</v>
+        <v>10141800</v>
       </c>
       <c r="J8" s="3">
-        <v>11035400</v>
+        <v>10405800</v>
       </c>
       <c r="K8" s="3">
         <v>12147000</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2840300</v>
+        <v>2678200</v>
       </c>
       <c r="E9" s="3">
-        <v>2921400</v>
+        <v>2754700</v>
       </c>
       <c r="F9" s="3">
-        <v>7230000</v>
+        <v>6817500</v>
       </c>
       <c r="G9" s="3">
-        <v>3813100</v>
+        <v>3595500</v>
       </c>
       <c r="H9" s="3">
-        <v>6689500</v>
+        <v>6307800</v>
       </c>
       <c r="I9" s="3">
+        <v>5631000</v>
+      </c>
+      <c r="J9" s="3">
         <v>5971700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>6333000</v>
       </c>
       <c r="K9" s="3">
         <v>4729200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9132900</v>
+        <v>8611800</v>
       </c>
       <c r="E10" s="3">
-        <v>9236900</v>
+        <v>8709900</v>
       </c>
       <c r="F10" s="3">
-        <v>6374100</v>
+        <v>6010400</v>
       </c>
       <c r="G10" s="3">
-        <v>10092600</v>
+        <v>9516800</v>
       </c>
       <c r="H10" s="3">
-        <v>5401000</v>
+        <v>5092800</v>
       </c>
       <c r="I10" s="3">
-        <v>4783800</v>
+        <v>4510800</v>
       </c>
       <c r="J10" s="3">
-        <v>4702400</v>
+        <v>4434100</v>
       </c>
       <c r="K10" s="3">
         <v>7417900</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>335600</v>
+        <v>316400</v>
       </c>
       <c r="E14" s="3">
-        <v>905300</v>
+        <v>853700</v>
       </c>
       <c r="F14" s="3">
-        <v>1072200</v>
+        <v>1011000</v>
       </c>
       <c r="G14" s="3">
-        <v>259300</v>
+        <v>244500</v>
       </c>
       <c r="H14" s="3">
-        <v>93600</v>
+        <v>88300</v>
       </c>
       <c r="I14" s="3">
-        <v>111000</v>
+        <v>104700</v>
       </c>
       <c r="J14" s="3">
-        <v>1775000</v>
+        <v>1673700</v>
       </c>
       <c r="K14" s="3">
         <v>598500</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2180900</v>
+        <v>2056400</v>
       </c>
       <c r="E15" s="3">
-        <v>2127700</v>
+        <v>2006300</v>
       </c>
       <c r="F15" s="3">
-        <v>4296500</v>
+        <v>4051400</v>
       </c>
       <c r="G15" s="3">
-        <v>1985900</v>
+        <v>1872600</v>
       </c>
       <c r="H15" s="3">
-        <v>3359600</v>
+        <v>3167900</v>
       </c>
       <c r="I15" s="3">
-        <v>2890200</v>
+        <v>2725300</v>
       </c>
       <c r="J15" s="3">
-        <v>3114000</v>
+        <v>2936300</v>
       </c>
       <c r="K15" s="3">
         <v>1887600</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9576500</v>
+        <v>9030100</v>
       </c>
       <c r="E17" s="3">
-        <v>10092200</v>
+        <v>9516400</v>
       </c>
       <c r="F17" s="3">
-        <v>10888600</v>
+        <v>10267300</v>
       </c>
       <c r="G17" s="3">
-        <v>11409100</v>
+        <v>10758200</v>
       </c>
       <c r="H17" s="3">
-        <v>9388400</v>
+        <v>8852700</v>
       </c>
       <c r="I17" s="3">
-        <v>8501900</v>
+        <v>8016800</v>
       </c>
       <c r="J17" s="3">
-        <v>9977800</v>
+        <v>9408500</v>
       </c>
       <c r="K17" s="3">
         <v>10865600</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2396700</v>
+        <v>2259900</v>
       </c>
       <c r="E18" s="3">
-        <v>2066200</v>
+        <v>1948300</v>
       </c>
       <c r="F18" s="3">
-        <v>2715500</v>
+        <v>2560600</v>
       </c>
       <c r="G18" s="3">
-        <v>2496600</v>
+        <v>2354100</v>
       </c>
       <c r="H18" s="3">
-        <v>2702100</v>
+        <v>2547900</v>
       </c>
       <c r="I18" s="3">
-        <v>2253600</v>
+        <v>2125000</v>
       </c>
       <c r="J18" s="3">
-        <v>1057600</v>
+        <v>997200</v>
       </c>
       <c r="K18" s="3">
         <v>1281500</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-120600</v>
+        <v>-113800</v>
       </c>
       <c r="E20" s="3">
-        <v>342800</v>
+        <v>323300</v>
       </c>
       <c r="F20" s="3">
-        <v>-93400</v>
+        <v>-88100</v>
       </c>
       <c r="G20" s="3">
-        <v>-833500</v>
+        <v>-786000</v>
       </c>
       <c r="H20" s="3">
-        <v>-231100</v>
+        <v>-217900</v>
       </c>
       <c r="I20" s="3">
-        <v>55000</v>
+        <v>51900</v>
       </c>
       <c r="J20" s="3">
-        <v>369600</v>
+        <v>348500</v>
       </c>
       <c r="K20" s="3">
         <v>274100</v>
@@ -1053,22 +1053,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4539500</v>
+        <v>4259300</v>
       </c>
       <c r="E21" s="3">
-        <v>4815800</v>
+        <v>4518500</v>
       </c>
       <c r="F21" s="3">
-        <v>5665900</v>
+        <v>5314200</v>
       </c>
       <c r="G21" s="3">
-        <v>3896000</v>
+        <v>3652800</v>
       </c>
       <c r="H21" s="3">
-        <v>4160900</v>
+        <v>3907700</v>
       </c>
       <c r="I21" s="3">
-        <v>3815900</v>
+        <v>3584100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>231200</v>
+        <v>218000</v>
       </c>
       <c r="E22" s="3">
-        <v>282100</v>
+        <v>266000</v>
       </c>
       <c r="F22" s="3">
-        <v>528000</v>
+        <v>497900</v>
       </c>
       <c r="G22" s="3">
-        <v>250500</v>
+        <v>236200</v>
       </c>
       <c r="H22" s="3">
-        <v>371000</v>
+        <v>349900</v>
       </c>
       <c r="I22" s="3">
-        <v>399200</v>
+        <v>376500</v>
       </c>
       <c r="J22" s="3">
-        <v>258700</v>
+        <v>244000</v>
       </c>
       <c r="K22" s="3">
         <v>5100</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2044800</v>
+        <v>1928200</v>
       </c>
       <c r="E23" s="3">
-        <v>2126900</v>
+        <v>2005600</v>
       </c>
       <c r="F23" s="3">
-        <v>2094100</v>
+        <v>1974600</v>
       </c>
       <c r="G23" s="3">
-        <v>1412500</v>
+        <v>1331900</v>
       </c>
       <c r="H23" s="3">
-        <v>2099900</v>
+        <v>1980100</v>
       </c>
       <c r="I23" s="3">
-        <v>1909300</v>
+        <v>1800400</v>
       </c>
       <c r="J23" s="3">
-        <v>1168400</v>
+        <v>1101800</v>
       </c>
       <c r="K23" s="3">
         <v>1550500</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>670400</v>
+        <v>632100</v>
       </c>
       <c r="E24" s="3">
-        <v>704200</v>
+        <v>664000</v>
       </c>
       <c r="F24" s="3">
-        <v>642700</v>
+        <v>606000</v>
       </c>
       <c r="G24" s="3">
-        <v>685300</v>
+        <v>646200</v>
       </c>
       <c r="H24" s="3">
-        <v>715800</v>
+        <v>675000</v>
       </c>
       <c r="I24" s="3">
-        <v>615000</v>
+        <v>579900</v>
       </c>
       <c r="J24" s="3">
-        <v>189100</v>
+        <v>178300</v>
       </c>
       <c r="K24" s="3">
         <v>660600</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1374500</v>
+        <v>1296000</v>
       </c>
       <c r="E26" s="3">
-        <v>1422700</v>
+        <v>1341600</v>
       </c>
       <c r="F26" s="3">
-        <v>1451400</v>
+        <v>1368600</v>
       </c>
       <c r="G26" s="3">
-        <v>727200</v>
+        <v>685700</v>
       </c>
       <c r="H26" s="3">
-        <v>1384100</v>
+        <v>1305100</v>
       </c>
       <c r="I26" s="3">
-        <v>1294300</v>
+        <v>1220400</v>
       </c>
       <c r="J26" s="3">
-        <v>979300</v>
+        <v>923500</v>
       </c>
       <c r="K26" s="3">
         <v>889900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1080300</v>
+        <v>1018700</v>
       </c>
       <c r="E27" s="3">
-        <v>1106500</v>
+        <v>1043400</v>
       </c>
       <c r="F27" s="3">
-        <v>1128600</v>
+        <v>1064200</v>
       </c>
       <c r="G27" s="3">
-        <v>370400</v>
+        <v>349300</v>
       </c>
       <c r="H27" s="3">
-        <v>984800</v>
+        <v>928600</v>
       </c>
       <c r="I27" s="3">
-        <v>928000</v>
+        <v>875100</v>
       </c>
       <c r="J27" s="3">
-        <v>955700</v>
+        <v>901200</v>
       </c>
       <c r="K27" s="3">
         <v>883400</v>
@@ -1293,22 +1293,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>517800</v>
+        <v>488300</v>
       </c>
       <c r="E29" s="3">
-        <v>193500</v>
+        <v>182500</v>
       </c>
       <c r="F29" s="3">
-        <v>-821500</v>
+        <v>-774600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-10800</v>
+        <v>-10200</v>
       </c>
       <c r="I29" s="3">
-        <v>20900</v>
+        <v>19700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>120600</v>
+        <v>113800</v>
       </c>
       <c r="E32" s="3">
-        <v>-342800</v>
+        <v>-323300</v>
       </c>
       <c r="F32" s="3">
-        <v>93400</v>
+        <v>88100</v>
       </c>
       <c r="G32" s="3">
-        <v>833500</v>
+        <v>786000</v>
       </c>
       <c r="H32" s="3">
-        <v>231100</v>
+        <v>217900</v>
       </c>
       <c r="I32" s="3">
-        <v>-55000</v>
+        <v>-51900</v>
       </c>
       <c r="J32" s="3">
-        <v>-369600</v>
+        <v>-348500</v>
       </c>
       <c r="K32" s="3">
         <v>-274100</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1598200</v>
+        <v>1507000</v>
       </c>
       <c r="E33" s="3">
-        <v>1300000</v>
+        <v>1225900</v>
       </c>
       <c r="F33" s="3">
-        <v>307100</v>
+        <v>289600</v>
       </c>
       <c r="G33" s="3">
-        <v>370400</v>
+        <v>349300</v>
       </c>
       <c r="H33" s="3">
-        <v>973900</v>
+        <v>918300</v>
       </c>
       <c r="I33" s="3">
-        <v>949000</v>
+        <v>894800</v>
       </c>
       <c r="J33" s="3">
-        <v>955700</v>
+        <v>901200</v>
       </c>
       <c r="K33" s="3">
         <v>883400</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1598200</v>
+        <v>1507000</v>
       </c>
       <c r="E35" s="3">
-        <v>1300000</v>
+        <v>1225900</v>
       </c>
       <c r="F35" s="3">
-        <v>307100</v>
+        <v>289600</v>
       </c>
       <c r="G35" s="3">
-        <v>370400</v>
+        <v>349300</v>
       </c>
       <c r="H35" s="3">
-        <v>973900</v>
+        <v>918300</v>
       </c>
       <c r="I35" s="3">
-        <v>949000</v>
+        <v>894800</v>
       </c>
       <c r="J35" s="3">
-        <v>955700</v>
+        <v>901200</v>
       </c>
       <c r="K35" s="3">
         <v>883400</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2006200</v>
+        <v>1906500</v>
       </c>
       <c r="E41" s="3">
-        <v>2446000</v>
+        <v>2324500</v>
       </c>
       <c r="F41" s="3">
-        <v>2504500</v>
+        <v>2380100</v>
       </c>
       <c r="G41" s="3">
-        <v>1514100</v>
+        <v>1438900</v>
       </c>
       <c r="H41" s="3">
-        <v>1339900</v>
+        <v>1273300</v>
       </c>
       <c r="I41" s="3">
-        <v>1299500</v>
+        <v>1234900</v>
       </c>
       <c r="J41" s="3">
-        <v>955300</v>
+        <v>907800</v>
       </c>
       <c r="K41" s="3">
         <v>1590400</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>64200</v>
+        <v>61000</v>
       </c>
       <c r="E42" s="3">
-        <v>109700</v>
+        <v>104200</v>
       </c>
       <c r="F42" s="3">
-        <v>253400</v>
+        <v>240800</v>
       </c>
       <c r="G42" s="3">
-        <v>130600</v>
+        <v>124100</v>
       </c>
       <c r="H42" s="3">
-        <v>107400</v>
+        <v>102100</v>
       </c>
       <c r="I42" s="3">
-        <v>109400</v>
+        <v>103900</v>
       </c>
       <c r="J42" s="3">
-        <v>307100</v>
+        <v>291900</v>
       </c>
       <c r="K42" s="3">
         <v>282600</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2164500</v>
+        <v>2056900</v>
       </c>
       <c r="E43" s="3">
-        <v>1746800</v>
+        <v>1660000</v>
       </c>
       <c r="F43" s="3">
-        <v>1611300</v>
+        <v>1531200</v>
       </c>
       <c r="G43" s="3">
-        <v>1620300</v>
+        <v>1539800</v>
       </c>
       <c r="H43" s="3">
-        <v>1438900</v>
+        <v>1367400</v>
       </c>
       <c r="I43" s="3">
-        <v>1380800</v>
+        <v>1312200</v>
       </c>
       <c r="J43" s="3">
-        <v>5244100</v>
+        <v>4983500</v>
       </c>
       <c r="K43" s="3">
         <v>1343000</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>184800</v>
+        <v>175600</v>
       </c>
       <c r="E44" s="3">
-        <v>192400</v>
+        <v>182800</v>
       </c>
       <c r="F44" s="3">
-        <v>195500</v>
+        <v>185800</v>
       </c>
       <c r="G44" s="3">
-        <v>246400</v>
+        <v>234100</v>
       </c>
       <c r="H44" s="3">
-        <v>222600</v>
+        <v>211600</v>
       </c>
       <c r="I44" s="3">
-        <v>172200</v>
+        <v>163600</v>
       </c>
       <c r="J44" s="3">
-        <v>130000</v>
+        <v>123500</v>
       </c>
       <c r="K44" s="3">
         <v>122300</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>382500</v>
+        <v>363500</v>
       </c>
       <c r="E45" s="3">
-        <v>1305900</v>
+        <v>1241000</v>
       </c>
       <c r="F45" s="3">
-        <v>1184300</v>
+        <v>1125400</v>
       </c>
       <c r="G45" s="3">
-        <v>1079200</v>
+        <v>1025500</v>
       </c>
       <c r="H45" s="3">
-        <v>1017500</v>
+        <v>967000</v>
       </c>
       <c r="I45" s="3">
-        <v>816900</v>
+        <v>776300</v>
       </c>
       <c r="J45" s="3">
-        <v>870000</v>
+        <v>826800</v>
       </c>
       <c r="K45" s="3">
         <v>892900</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4802200</v>
+        <v>4563600</v>
       </c>
       <c r="E46" s="3">
-        <v>5800700</v>
+        <v>5512600</v>
       </c>
       <c r="F46" s="3">
-        <v>5749000</v>
+        <v>5463400</v>
       </c>
       <c r="G46" s="3">
-        <v>4590500</v>
+        <v>4362500</v>
       </c>
       <c r="H46" s="3">
-        <v>4126400</v>
+        <v>3921400</v>
       </c>
       <c r="I46" s="3">
-        <v>3778700</v>
+        <v>3591000</v>
       </c>
       <c r="J46" s="3">
-        <v>3248300</v>
+        <v>3086900</v>
       </c>
       <c r="K46" s="3">
         <v>4231300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1104300</v>
+        <v>1049500</v>
       </c>
       <c r="E47" s="3">
-        <v>1247200</v>
+        <v>1185200</v>
       </c>
       <c r="F47" s="3">
-        <v>2040200</v>
+        <v>1938800</v>
       </c>
       <c r="G47" s="3">
-        <v>2479600</v>
+        <v>2356500</v>
       </c>
       <c r="H47" s="3">
-        <v>2990300</v>
+        <v>2841700</v>
       </c>
       <c r="I47" s="3">
-        <v>3962700</v>
+        <v>3765800</v>
       </c>
       <c r="J47" s="3">
-        <v>4525600</v>
+        <v>4300700</v>
       </c>
       <c r="K47" s="3">
         <v>4188100</v>
@@ -1776,22 +1776,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7958900</v>
+        <v>7563500</v>
       </c>
       <c r="E48" s="3">
-        <v>8197200</v>
+        <v>7789900</v>
       </c>
       <c r="F48" s="3">
-        <v>7813000</v>
+        <v>7424800</v>
       </c>
       <c r="G48" s="3">
-        <v>7508700</v>
+        <v>7135700</v>
       </c>
       <c r="H48" s="3">
-        <v>6461900</v>
+        <v>6140800</v>
       </c>
       <c r="I48" s="3">
-        <v>5375400</v>
+        <v>5108300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5508500</v>
+        <v>5234800</v>
       </c>
       <c r="E49" s="3">
-        <v>6189000</v>
+        <v>5881500</v>
       </c>
       <c r="F49" s="3">
-        <v>6246400</v>
+        <v>5936100</v>
       </c>
       <c r="G49" s="3">
-        <v>6993600</v>
+        <v>6646100</v>
       </c>
       <c r="H49" s="3">
-        <v>6778000</v>
+        <v>6441300</v>
       </c>
       <c r="I49" s="3">
-        <v>5827300</v>
+        <v>5537800</v>
       </c>
       <c r="J49" s="3">
-        <v>13216000</v>
+        <v>12559400</v>
       </c>
       <c r="K49" s="3">
         <v>5415200</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1377200</v>
+        <v>1308800</v>
       </c>
       <c r="E52" s="3">
-        <v>455300</v>
+        <v>432700</v>
       </c>
       <c r="F52" s="3">
-        <v>535000</v>
+        <v>508400</v>
       </c>
       <c r="G52" s="3">
-        <v>658100</v>
+        <v>625400</v>
       </c>
       <c r="H52" s="3">
-        <v>664000</v>
+        <v>631000</v>
       </c>
       <c r="I52" s="3">
-        <v>689500</v>
+        <v>655200</v>
       </c>
       <c r="J52" s="3">
-        <v>1131100</v>
+        <v>1074900</v>
       </c>
       <c r="K52" s="3">
         <v>556800</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20751100</v>
+        <v>19720100</v>
       </c>
       <c r="E54" s="3">
-        <v>21889500</v>
+        <v>20802000</v>
       </c>
       <c r="F54" s="3">
-        <v>22383500</v>
+        <v>21271500</v>
       </c>
       <c r="G54" s="3">
-        <v>22230600</v>
+        <v>21126100</v>
       </c>
       <c r="H54" s="3">
-        <v>21020500</v>
+        <v>19976100</v>
       </c>
       <c r="I54" s="3">
-        <v>19633500</v>
+        <v>18658100</v>
       </c>
       <c r="J54" s="3">
-        <v>18212000</v>
+        <v>17307200</v>
       </c>
       <c r="K54" s="3">
         <v>20509600</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>889000</v>
+        <v>844800</v>
       </c>
       <c r="E57" s="3">
-        <v>953300</v>
+        <v>905900</v>
       </c>
       <c r="F57" s="3">
-        <v>506100</v>
+        <v>481000</v>
       </c>
       <c r="G57" s="3">
-        <v>460200</v>
+        <v>437400</v>
       </c>
       <c r="H57" s="3">
-        <v>362700</v>
+        <v>344700</v>
       </c>
       <c r="I57" s="3">
-        <v>288300</v>
+        <v>273900</v>
       </c>
       <c r="J57" s="3">
-        <v>3334900</v>
+        <v>3169200</v>
       </c>
       <c r="K57" s="3">
         <v>800700</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1707600</v>
+        <v>1622800</v>
       </c>
       <c r="E58" s="3">
-        <v>2463800</v>
+        <v>2341400</v>
       </c>
       <c r="F58" s="3">
-        <v>2817500</v>
+        <v>2677500</v>
       </c>
       <c r="G58" s="3">
-        <v>1369800</v>
+        <v>1301700</v>
       </c>
       <c r="H58" s="3">
-        <v>810900</v>
+        <v>770600</v>
       </c>
       <c r="I58" s="3">
-        <v>1579100</v>
+        <v>1500600</v>
       </c>
       <c r="J58" s="3">
-        <v>1114700</v>
+        <v>1059400</v>
       </c>
       <c r="K58" s="3">
         <v>1329400</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4721700</v>
+        <v>4487100</v>
       </c>
       <c r="E59" s="3">
-        <v>4902200</v>
+        <v>4658700</v>
       </c>
       <c r="F59" s="3">
-        <v>5097200</v>
+        <v>4843900</v>
       </c>
       <c r="G59" s="3">
-        <v>5219500</v>
+        <v>4960100</v>
       </c>
       <c r="H59" s="3">
-        <v>4830400</v>
+        <v>4590400</v>
       </c>
       <c r="I59" s="3">
-        <v>3733600</v>
+        <v>3548100</v>
       </c>
       <c r="J59" s="3">
-        <v>5393000</v>
+        <v>5125100</v>
       </c>
       <c r="K59" s="3">
         <v>3739300</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7318300</v>
+        <v>6954700</v>
       </c>
       <c r="E60" s="3">
-        <v>8319300</v>
+        <v>7906000</v>
       </c>
       <c r="F60" s="3">
-        <v>8420800</v>
+        <v>8002400</v>
       </c>
       <c r="G60" s="3">
-        <v>7049500</v>
+        <v>6699200</v>
       </c>
       <c r="H60" s="3">
-        <v>5707100</v>
+        <v>5423600</v>
       </c>
       <c r="I60" s="3">
-        <v>4812800</v>
+        <v>4573700</v>
       </c>
       <c r="J60" s="3">
-        <v>4766300</v>
+        <v>4529500</v>
       </c>
       <c r="K60" s="3">
         <v>5867600</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6067400</v>
+        <v>5766000</v>
       </c>
       <c r="E61" s="3">
-        <v>5596700</v>
+        <v>5318600</v>
       </c>
       <c r="F61" s="3">
-        <v>6551800</v>
+        <v>6226300</v>
       </c>
       <c r="G61" s="3">
-        <v>6921900</v>
+        <v>6578000</v>
       </c>
       <c r="H61" s="3">
-        <v>6630100</v>
+        <v>6300800</v>
       </c>
       <c r="I61" s="3">
-        <v>5533100</v>
+        <v>5258200</v>
       </c>
       <c r="J61" s="3">
-        <v>4320700</v>
+        <v>4106100</v>
       </c>
       <c r="K61" s="3">
         <v>2855300</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1457600</v>
+        <v>1385100</v>
       </c>
       <c r="E62" s="3">
-        <v>1210700</v>
+        <v>1150600</v>
       </c>
       <c r="F62" s="3">
-        <v>1401000</v>
+        <v>1331400</v>
       </c>
       <c r="G62" s="3">
-        <v>1410700</v>
+        <v>1340600</v>
       </c>
       <c r="H62" s="3">
-        <v>1251100</v>
+        <v>1188900</v>
       </c>
       <c r="I62" s="3">
-        <v>929900</v>
+        <v>883700</v>
       </c>
       <c r="J62" s="3">
-        <v>973400</v>
+        <v>925000</v>
       </c>
       <c r="K62" s="3">
         <v>1071600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15386700</v>
+        <v>14622300</v>
       </c>
       <c r="E66" s="3">
-        <v>15651700</v>
+        <v>14874100</v>
       </c>
       <c r="F66" s="3">
-        <v>16863700</v>
+        <v>16025900</v>
       </c>
       <c r="G66" s="3">
-        <v>15887600</v>
+        <v>15098300</v>
       </c>
       <c r="H66" s="3">
-        <v>14103700</v>
+        <v>13403000</v>
       </c>
       <c r="I66" s="3">
-        <v>11674200</v>
+        <v>11094200</v>
       </c>
       <c r="J66" s="3">
-        <v>10253700</v>
+        <v>9744300</v>
       </c>
       <c r="K66" s="3">
         <v>10153300</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4642700</v>
+        <v>4412100</v>
       </c>
       <c r="E72" s="3">
-        <v>5627300</v>
+        <v>5347700</v>
       </c>
       <c r="F72" s="3">
-        <v>4519400</v>
+        <v>4294800</v>
       </c>
       <c r="G72" s="3">
-        <v>4913100</v>
+        <v>4669000</v>
       </c>
       <c r="H72" s="3">
-        <v>5814700</v>
+        <v>5525900</v>
       </c>
       <c r="I72" s="3">
-        <v>7512600</v>
+        <v>7139400</v>
       </c>
       <c r="J72" s="3">
-        <v>16483800</v>
+        <v>15664800</v>
       </c>
       <c r="K72" s="3">
         <v>9950600</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5364400</v>
+        <v>5097900</v>
       </c>
       <c r="E76" s="3">
-        <v>6237700</v>
+        <v>5927800</v>
       </c>
       <c r="F76" s="3">
-        <v>5519900</v>
+        <v>5245600</v>
       </c>
       <c r="G76" s="3">
-        <v>6343000</v>
+        <v>6027800</v>
       </c>
       <c r="H76" s="3">
-        <v>6916800</v>
+        <v>6573100</v>
       </c>
       <c r="I76" s="3">
-        <v>7959400</v>
+        <v>7563900</v>
       </c>
       <c r="J76" s="3">
-        <v>7958300</v>
+        <v>7562900</v>
       </c>
       <c r="K76" s="3">
         <v>10356200</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1598200</v>
+        <v>1507000</v>
       </c>
       <c r="E81" s="3">
-        <v>1300000</v>
+        <v>1225900</v>
       </c>
       <c r="F81" s="3">
-        <v>307100</v>
+        <v>289600</v>
       </c>
       <c r="G81" s="3">
-        <v>370400</v>
+        <v>349300</v>
       </c>
       <c r="H81" s="3">
-        <v>973900</v>
+        <v>918300</v>
       </c>
       <c r="I81" s="3">
-        <v>949000</v>
+        <v>894800</v>
       </c>
       <c r="J81" s="3">
-        <v>955700</v>
+        <v>901200</v>
       </c>
       <c r="K81" s="3">
         <v>883400</v>
@@ -2707,22 +2707,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2261600</v>
+        <v>2132500</v>
       </c>
       <c r="E83" s="3">
-        <v>2404800</v>
+        <v>2267600</v>
       </c>
       <c r="F83" s="3">
-        <v>3041300</v>
+        <v>2867800</v>
       </c>
       <c r="G83" s="3">
-        <v>2231100</v>
+        <v>2103800</v>
       </c>
       <c r="H83" s="3">
-        <v>1688500</v>
+        <v>1592200</v>
       </c>
       <c r="I83" s="3">
-        <v>1506100</v>
+        <v>1420100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3948400</v>
+        <v>3723100</v>
       </c>
       <c r="E89" s="3">
-        <v>4417900</v>
+        <v>4165900</v>
       </c>
       <c r="F89" s="3">
-        <v>4315500</v>
+        <v>4069300</v>
       </c>
       <c r="G89" s="3">
-        <v>4025700</v>
+        <v>3796000</v>
       </c>
       <c r="H89" s="3">
-        <v>3672500</v>
+        <v>3463000</v>
       </c>
       <c r="I89" s="3">
-        <v>4013000</v>
+        <v>3784100</v>
       </c>
       <c r="J89" s="3">
-        <v>2604000</v>
+        <v>2455400</v>
       </c>
       <c r="K89" s="3">
         <v>3340400</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2279500</v>
+        <v>-2149400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2248600</v>
+        <v>-2120300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2574100</v>
+        <v>-2427300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2296500</v>
+        <v>-2165500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2245000</v>
+        <v>-2116900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1693700</v>
+        <v>-1597100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1832600</v>
+        <v>-1728100</v>
       </c>
       <c r="K91" s="3">
         <v>-1635100</v>
@@ -3021,22 +3021,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66500</v>
+        <v>-62700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1310000</v>
+        <v>-1235300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2289700</v>
+        <v>-2159000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2200300</v>
+        <v>-2074700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2278000</v>
+        <v>-2148000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2236400</v>
+        <v>-2108800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1994200</v>
+        <v>-1880400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1295800</v>
+        <v>-1221900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1220100</v>
+        <v>-1150500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1163400</v>
+        <v>-1097100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1146400</v>
+        <v>-1081000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1002300</v>
+        <v>-945100</v>
       </c>
       <c r="J96" s="3">
-        <v>-859800</v>
+        <v>-810700</v>
       </c>
       <c r="K96" s="3">
         <v>-765200</v>
@@ -3185,22 +3185,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4283900</v>
+        <v>-4039500</v>
       </c>
       <c r="E100" s="3">
-        <v>-3225700</v>
+        <v>-3041700</v>
       </c>
       <c r="F100" s="3">
-        <v>-980400</v>
+        <v>-924500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1631800</v>
+        <v>-1538700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1504300</v>
+        <v>-1418500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1493700</v>
+        <v>-1408500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3215,22 +3215,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-30800</v>
+        <v>-29100</v>
       </c>
       <c r="E101" s="3">
-        <v>49300</v>
+        <v>46400</v>
       </c>
       <c r="F101" s="3">
-        <v>-48400</v>
+        <v>-45600</v>
       </c>
       <c r="G101" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="H101" s="3">
-        <v>100600</v>
+        <v>94800</v>
       </c>
       <c r="I101" s="3">
-        <v>61500</v>
+        <v>58000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-432900</v>
+        <v>-408200</v>
       </c>
       <c r="E102" s="3">
-        <v>-68600</v>
+        <v>-64700</v>
       </c>
       <c r="F102" s="3">
-        <v>997000</v>
+        <v>940100</v>
       </c>
       <c r="G102" s="3">
-        <v>202400</v>
+        <v>190900</v>
       </c>
       <c r="H102" s="3">
-        <v>-9200</v>
+        <v>-8700</v>
       </c>
       <c r="I102" s="3">
-        <v>344500</v>
+        <v>324800</v>
       </c>
       <c r="J102" s="3">
-        <v>-444300</v>
+        <v>-418900</v>
       </c>
       <c r="K102" s="3">
         <v>-87000</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11290000</v>
+        <v>12823800</v>
       </c>
       <c r="E8" s="3">
-        <v>11464700</v>
+        <v>11950200</v>
       </c>
       <c r="F8" s="3">
-        <v>12827900</v>
+        <v>12643600</v>
       </c>
       <c r="G8" s="3">
-        <v>13112300</v>
+        <v>14147100</v>
       </c>
       <c r="H8" s="3">
-        <v>11400600</v>
+        <v>14460700</v>
       </c>
       <c r="I8" s="3">
-        <v>10141800</v>
+        <v>12573000</v>
       </c>
       <c r="J8" s="3">
+        <v>11184700</v>
+      </c>
+      <c r="K8" s="3">
         <v>10405800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12147000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2678200</v>
+        <v>3149000</v>
       </c>
       <c r="E9" s="3">
-        <v>2754700</v>
+        <v>2700800</v>
       </c>
       <c r="F9" s="3">
-        <v>6817500</v>
+        <v>3038000</v>
       </c>
       <c r="G9" s="3">
-        <v>3595500</v>
+        <v>7518600</v>
       </c>
       <c r="H9" s="3">
-        <v>6307800</v>
+        <v>3965300</v>
       </c>
       <c r="I9" s="3">
-        <v>5631000</v>
+        <v>6956500</v>
       </c>
       <c r="J9" s="3">
+        <v>6210100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5971700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4729200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8611800</v>
+        <v>9674800</v>
       </c>
       <c r="E10" s="3">
-        <v>8709900</v>
+        <v>9249400</v>
       </c>
       <c r="F10" s="3">
-        <v>6010400</v>
+        <v>9605600</v>
       </c>
       <c r="G10" s="3">
-        <v>9516800</v>
+        <v>6628500</v>
       </c>
       <c r="H10" s="3">
-        <v>5092800</v>
+        <v>10495400</v>
       </c>
       <c r="I10" s="3">
-        <v>4510800</v>
+        <v>5616500</v>
       </c>
       <c r="J10" s="3">
+        <v>4974700</v>
+      </c>
+      <c r="K10" s="3">
         <v>4434100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7417900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>316400</v>
+        <v>95100</v>
       </c>
       <c r="E14" s="3">
-        <v>853700</v>
+        <v>346700</v>
       </c>
       <c r="F14" s="3">
-        <v>1011000</v>
+        <v>941500</v>
       </c>
       <c r="G14" s="3">
-        <v>244500</v>
+        <v>1115000</v>
       </c>
       <c r="H14" s="3">
-        <v>88300</v>
+        <v>269600</v>
       </c>
       <c r="I14" s="3">
-        <v>104700</v>
+        <v>97400</v>
       </c>
       <c r="J14" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K14" s="3">
         <v>1673700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>598500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2056400</v>
+        <v>2767400</v>
       </c>
       <c r="E15" s="3">
-        <v>2006300</v>
+        <v>2261000</v>
       </c>
       <c r="F15" s="3">
-        <v>4051400</v>
+        <v>2212600</v>
       </c>
       <c r="G15" s="3">
-        <v>1872600</v>
+        <v>4468000</v>
       </c>
       <c r="H15" s="3">
-        <v>3167900</v>
+        <v>2065200</v>
       </c>
       <c r="I15" s="3">
-        <v>2725300</v>
+        <v>3493700</v>
       </c>
       <c r="J15" s="3">
+        <v>3005500</v>
+      </c>
+      <c r="K15" s="3">
         <v>2936300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1887600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9030100</v>
+        <v>9910400</v>
       </c>
       <c r="E17" s="3">
-        <v>9516400</v>
+        <v>9587000</v>
       </c>
       <c r="F17" s="3">
-        <v>10267300</v>
+        <v>10495000</v>
       </c>
       <c r="G17" s="3">
-        <v>10758200</v>
+        <v>11323200</v>
       </c>
       <c r="H17" s="3">
-        <v>8852700</v>
+        <v>11864500</v>
       </c>
       <c r="I17" s="3">
-        <v>8016800</v>
+        <v>9763100</v>
       </c>
       <c r="J17" s="3">
+        <v>8841300</v>
+      </c>
+      <c r="K17" s="3">
         <v>9408500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10865600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2259900</v>
+        <v>2913400</v>
       </c>
       <c r="E18" s="3">
-        <v>1948300</v>
+        <v>2363200</v>
       </c>
       <c r="F18" s="3">
-        <v>2560600</v>
+        <v>2148700</v>
       </c>
       <c r="G18" s="3">
-        <v>2354100</v>
+        <v>2823900</v>
       </c>
       <c r="H18" s="3">
-        <v>2547900</v>
+        <v>2596200</v>
       </c>
       <c r="I18" s="3">
-        <v>2125000</v>
+        <v>2809900</v>
       </c>
       <c r="J18" s="3">
+        <v>2343500</v>
+      </c>
+      <c r="K18" s="3">
         <v>997200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1281500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-113800</v>
+        <v>-33200</v>
       </c>
       <c r="E20" s="3">
-        <v>323300</v>
+        <v>-125900</v>
       </c>
       <c r="F20" s="3">
-        <v>-88100</v>
+        <v>356500</v>
       </c>
       <c r="G20" s="3">
-        <v>-786000</v>
+        <v>-97100</v>
       </c>
       <c r="H20" s="3">
-        <v>-217900</v>
+        <v>-866800</v>
       </c>
       <c r="I20" s="3">
-        <v>51900</v>
+        <v>-240300</v>
       </c>
       <c r="J20" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K20" s="3">
         <v>348500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>274100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4259300</v>
+        <v>5627100</v>
       </c>
       <c r="E21" s="3">
-        <v>4518500</v>
+        <v>4562700</v>
       </c>
       <c r="F21" s="3">
-        <v>5314200</v>
+        <v>4977800</v>
       </c>
       <c r="G21" s="3">
-        <v>3652800</v>
+        <v>5853800</v>
       </c>
       <c r="H21" s="3">
-        <v>3907700</v>
+        <v>4023400</v>
       </c>
       <c r="I21" s="3">
-        <v>3584100</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>4305800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3949200</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3969400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>218000</v>
+        <v>514600</v>
       </c>
       <c r="E22" s="3">
-        <v>266000</v>
+        <v>240300</v>
       </c>
       <c r="F22" s="3">
-        <v>497900</v>
+        <v>293300</v>
       </c>
       <c r="G22" s="3">
-        <v>236200</v>
+        <v>549100</v>
       </c>
       <c r="H22" s="3">
-        <v>349900</v>
+        <v>260500</v>
       </c>
       <c r="I22" s="3">
-        <v>376500</v>
+        <v>385800</v>
       </c>
       <c r="J22" s="3">
+        <v>415200</v>
+      </c>
+      <c r="K22" s="3">
         <v>244000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1928200</v>
+        <v>2365600</v>
       </c>
       <c r="E23" s="3">
-        <v>2005600</v>
+        <v>1997000</v>
       </c>
       <c r="F23" s="3">
-        <v>1974600</v>
+        <v>2211800</v>
       </c>
       <c r="G23" s="3">
-        <v>1331900</v>
+        <v>2177700</v>
       </c>
       <c r="H23" s="3">
-        <v>1980100</v>
+        <v>1468900</v>
       </c>
       <c r="I23" s="3">
-        <v>1800400</v>
+        <v>2183700</v>
       </c>
       <c r="J23" s="3">
+        <v>1985500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1101800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1550500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>632100</v>
+        <v>1019100</v>
       </c>
       <c r="E24" s="3">
-        <v>664000</v>
+        <v>679600</v>
       </c>
       <c r="F24" s="3">
-        <v>606000</v>
+        <v>732300</v>
       </c>
       <c r="G24" s="3">
-        <v>646200</v>
+        <v>668300</v>
       </c>
       <c r="H24" s="3">
-        <v>675000</v>
+        <v>712700</v>
       </c>
       <c r="I24" s="3">
-        <v>579900</v>
+        <v>744400</v>
       </c>
       <c r="J24" s="3">
+        <v>639600</v>
+      </c>
+      <c r="K24" s="3">
         <v>178300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>660600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1296000</v>
+        <v>1346500</v>
       </c>
       <c r="E26" s="3">
-        <v>1341600</v>
+        <v>1317400</v>
       </c>
       <c r="F26" s="3">
-        <v>1368600</v>
+        <v>1479500</v>
       </c>
       <c r="G26" s="3">
-        <v>685700</v>
+        <v>1509300</v>
       </c>
       <c r="H26" s="3">
-        <v>1305100</v>
+        <v>756200</v>
       </c>
       <c r="I26" s="3">
-        <v>1220400</v>
+        <v>1439400</v>
       </c>
       <c r="J26" s="3">
+        <v>1345900</v>
+      </c>
+      <c r="K26" s="3">
         <v>923500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>889900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1018700</v>
+        <v>960700</v>
       </c>
       <c r="E27" s="3">
-        <v>1043400</v>
+        <v>1011500</v>
       </c>
       <c r="F27" s="3">
-        <v>1064200</v>
+        <v>1150700</v>
       </c>
       <c r="G27" s="3">
-        <v>349300</v>
+        <v>1173700</v>
       </c>
       <c r="H27" s="3">
-        <v>928600</v>
+        <v>385200</v>
       </c>
       <c r="I27" s="3">
-        <v>875100</v>
+        <v>1024100</v>
       </c>
       <c r="J27" s="3">
+        <v>965100</v>
+      </c>
+      <c r="K27" s="3">
         <v>901200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>883400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>488300</v>
+        <v>-83700</v>
       </c>
       <c r="E29" s="3">
-        <v>182500</v>
+        <v>650400</v>
       </c>
       <c r="F29" s="3">
-        <v>-774600</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>201300</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-854300</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-10200</v>
-      </c>
       <c r="I29" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>-11300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>113800</v>
+        <v>33200</v>
       </c>
       <c r="E32" s="3">
-        <v>-323300</v>
+        <v>125900</v>
       </c>
       <c r="F32" s="3">
-        <v>88100</v>
+        <v>-356500</v>
       </c>
       <c r="G32" s="3">
-        <v>786000</v>
+        <v>97100</v>
       </c>
       <c r="H32" s="3">
-        <v>217900</v>
+        <v>866800</v>
       </c>
       <c r="I32" s="3">
-        <v>-51900</v>
+        <v>240300</v>
       </c>
       <c r="J32" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-348500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-274100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1507000</v>
+        <v>876900</v>
       </c>
       <c r="E33" s="3">
-        <v>1225900</v>
+        <v>1662000</v>
       </c>
       <c r="F33" s="3">
-        <v>289600</v>
+        <v>1351900</v>
       </c>
       <c r="G33" s="3">
-        <v>349300</v>
+        <v>319400</v>
       </c>
       <c r="H33" s="3">
-        <v>918300</v>
+        <v>385200</v>
       </c>
       <c r="I33" s="3">
-        <v>894800</v>
+        <v>1012800</v>
       </c>
       <c r="J33" s="3">
+        <v>986800</v>
+      </c>
+      <c r="K33" s="3">
         <v>901200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>883400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1507000</v>
+        <v>876900</v>
       </c>
       <c r="E35" s="3">
-        <v>1225900</v>
+        <v>1662000</v>
       </c>
       <c r="F35" s="3">
-        <v>289600</v>
+        <v>1351900</v>
       </c>
       <c r="G35" s="3">
-        <v>349300</v>
+        <v>319400</v>
       </c>
       <c r="H35" s="3">
-        <v>918300</v>
+        <v>385200</v>
       </c>
       <c r="I35" s="3">
-        <v>894800</v>
+        <v>1012800</v>
       </c>
       <c r="J35" s="3">
+        <v>986800</v>
+      </c>
+      <c r="K35" s="3">
         <v>901200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>883400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1906500</v>
+        <v>1564500</v>
       </c>
       <c r="E41" s="3">
-        <v>2324500</v>
+        <v>2086300</v>
       </c>
       <c r="F41" s="3">
-        <v>2380100</v>
+        <v>2543600</v>
       </c>
       <c r="G41" s="3">
-        <v>1438900</v>
+        <v>2604400</v>
       </c>
       <c r="H41" s="3">
-        <v>1273300</v>
+        <v>1574500</v>
       </c>
       <c r="I41" s="3">
-        <v>1234900</v>
+        <v>1393300</v>
       </c>
       <c r="J41" s="3">
+        <v>1351400</v>
+      </c>
+      <c r="K41" s="3">
         <v>907800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1590400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61000</v>
+        <v>63500</v>
       </c>
       <c r="E42" s="3">
-        <v>104200</v>
+        <v>66800</v>
       </c>
       <c r="F42" s="3">
-        <v>240800</v>
+        <v>114100</v>
       </c>
       <c r="G42" s="3">
-        <v>124100</v>
+        <v>263500</v>
       </c>
       <c r="H42" s="3">
-        <v>102100</v>
+        <v>135800</v>
       </c>
       <c r="I42" s="3">
-        <v>103900</v>
+        <v>111700</v>
       </c>
       <c r="J42" s="3">
+        <v>113700</v>
+      </c>
+      <c r="K42" s="3">
         <v>291900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>282600</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2056900</v>
+        <v>2588900</v>
       </c>
       <c r="E43" s="3">
-        <v>1660000</v>
+        <v>2250900</v>
       </c>
       <c r="F43" s="3">
-        <v>1531200</v>
+        <v>1816500</v>
       </c>
       <c r="G43" s="3">
-        <v>1539800</v>
+        <v>1675600</v>
       </c>
       <c r="H43" s="3">
-        <v>1367400</v>
+        <v>1685000</v>
       </c>
       <c r="I43" s="3">
-        <v>1312200</v>
+        <v>1496300</v>
       </c>
       <c r="J43" s="3">
+        <v>1435900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4983500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1343000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>175600</v>
+        <v>167500</v>
       </c>
       <c r="E44" s="3">
-        <v>182800</v>
+        <v>192100</v>
       </c>
       <c r="F44" s="3">
-        <v>185800</v>
+        <v>200000</v>
       </c>
       <c r="G44" s="3">
-        <v>234100</v>
+        <v>203300</v>
       </c>
       <c r="H44" s="3">
-        <v>211600</v>
+        <v>256200</v>
       </c>
       <c r="I44" s="3">
-        <v>163600</v>
+        <v>231500</v>
       </c>
       <c r="J44" s="3">
+        <v>179000</v>
+      </c>
+      <c r="K44" s="3">
         <v>123500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>122300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>363500</v>
+        <v>902100</v>
       </c>
       <c r="E45" s="3">
-        <v>1241000</v>
+        <v>397800</v>
       </c>
       <c r="F45" s="3">
-        <v>1125400</v>
+        <v>1358000</v>
       </c>
       <c r="G45" s="3">
-        <v>1025500</v>
+        <v>1231500</v>
       </c>
       <c r="H45" s="3">
-        <v>967000</v>
+        <v>1122200</v>
       </c>
       <c r="I45" s="3">
-        <v>776300</v>
+        <v>1058100</v>
       </c>
       <c r="J45" s="3">
+        <v>849500</v>
+      </c>
+      <c r="K45" s="3">
         <v>826800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>892900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4563600</v>
+        <v>5286500</v>
       </c>
       <c r="E46" s="3">
-        <v>5512600</v>
+        <v>4993900</v>
       </c>
       <c r="F46" s="3">
-        <v>5463400</v>
+        <v>6032300</v>
       </c>
       <c r="G46" s="3">
-        <v>4362500</v>
+        <v>5978400</v>
       </c>
       <c r="H46" s="3">
-        <v>3921400</v>
+        <v>4773800</v>
       </c>
       <c r="I46" s="3">
-        <v>3591000</v>
+        <v>4291100</v>
       </c>
       <c r="J46" s="3">
+        <v>3929500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3086900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4231300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1049500</v>
+        <v>842800</v>
       </c>
       <c r="E47" s="3">
-        <v>1185200</v>
+        <v>1148400</v>
       </c>
       <c r="F47" s="3">
-        <v>1938800</v>
+        <v>1297000</v>
       </c>
       <c r="G47" s="3">
-        <v>2356500</v>
+        <v>2121600</v>
       </c>
       <c r="H47" s="3">
-        <v>2841700</v>
+        <v>2578600</v>
       </c>
       <c r="I47" s="3">
-        <v>3765800</v>
+        <v>3109700</v>
       </c>
       <c r="J47" s="3">
+        <v>4120900</v>
+      </c>
+      <c r="K47" s="3">
         <v>4300700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4188100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7563500</v>
+        <v>16083600</v>
       </c>
       <c r="E48" s="3">
-        <v>7789900</v>
+        <v>8276600</v>
       </c>
       <c r="F48" s="3">
-        <v>7424800</v>
+        <v>8524300</v>
       </c>
       <c r="G48" s="3">
-        <v>7135700</v>
+        <v>8124800</v>
       </c>
       <c r="H48" s="3">
-        <v>6140800</v>
+        <v>7808400</v>
       </c>
       <c r="I48" s="3">
-        <v>5108300</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>6719800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5589900</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6118100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5234800</v>
+        <v>4379800</v>
       </c>
       <c r="E49" s="3">
-        <v>5881500</v>
+        <v>5728300</v>
       </c>
       <c r="F49" s="3">
-        <v>5936100</v>
+        <v>6436000</v>
       </c>
       <c r="G49" s="3">
-        <v>6646100</v>
+        <v>6495700</v>
       </c>
       <c r="H49" s="3">
-        <v>6441300</v>
+        <v>7272700</v>
       </c>
       <c r="I49" s="3">
-        <v>5537800</v>
+        <v>7048500</v>
       </c>
       <c r="J49" s="3">
+        <v>6059900</v>
+      </c>
+      <c r="K49" s="3">
         <v>12559400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5415200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1308800</v>
+        <v>1488100</v>
       </c>
       <c r="E52" s="3">
-        <v>432700</v>
+        <v>1432100</v>
       </c>
       <c r="F52" s="3">
-        <v>508400</v>
+        <v>473500</v>
       </c>
       <c r="G52" s="3">
-        <v>625400</v>
+        <v>556300</v>
       </c>
       <c r="H52" s="3">
-        <v>631000</v>
+        <v>684400</v>
       </c>
       <c r="I52" s="3">
-        <v>655200</v>
+        <v>690500</v>
       </c>
       <c r="J52" s="3">
+        <v>717000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1074900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>556800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19720100</v>
+        <v>28080800</v>
       </c>
       <c r="E54" s="3">
-        <v>20802000</v>
+        <v>21579300</v>
       </c>
       <c r="F54" s="3">
-        <v>21271500</v>
+        <v>22763100</v>
       </c>
       <c r="G54" s="3">
-        <v>21126100</v>
+        <v>23276900</v>
       </c>
       <c r="H54" s="3">
-        <v>19976100</v>
+        <v>23117800</v>
       </c>
       <c r="I54" s="3">
-        <v>18658100</v>
+        <v>21859400</v>
       </c>
       <c r="J54" s="3">
+        <v>20417100</v>
+      </c>
+      <c r="K54" s="3">
         <v>17307200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20509600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>844800</v>
+        <v>1061500</v>
       </c>
       <c r="E57" s="3">
-        <v>905900</v>
+        <v>924400</v>
       </c>
       <c r="F57" s="3">
-        <v>481000</v>
+        <v>991300</v>
       </c>
       <c r="G57" s="3">
-        <v>437400</v>
+        <v>526300</v>
       </c>
       <c r="H57" s="3">
-        <v>344700</v>
+        <v>478600</v>
       </c>
       <c r="I57" s="3">
-        <v>273900</v>
+        <v>377200</v>
       </c>
       <c r="J57" s="3">
+        <v>299800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3169200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1622800</v>
+        <v>2714000</v>
       </c>
       <c r="E58" s="3">
-        <v>2341400</v>
+        <v>1775800</v>
       </c>
       <c r="F58" s="3">
-        <v>2677500</v>
+        <v>2562100</v>
       </c>
       <c r="G58" s="3">
-        <v>1301700</v>
+        <v>2929900</v>
       </c>
       <c r="H58" s="3">
-        <v>770600</v>
+        <v>1424500</v>
       </c>
       <c r="I58" s="3">
-        <v>1500600</v>
+        <v>843200</v>
       </c>
       <c r="J58" s="3">
+        <v>1642100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1059400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1329400</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4487100</v>
+        <v>4463900</v>
       </c>
       <c r="E59" s="3">
-        <v>4658700</v>
+        <v>4910200</v>
       </c>
       <c r="F59" s="3">
-        <v>4843900</v>
+        <v>5097900</v>
       </c>
       <c r="G59" s="3">
-        <v>4960100</v>
+        <v>5300600</v>
       </c>
       <c r="H59" s="3">
-        <v>4590400</v>
+        <v>5427800</v>
       </c>
       <c r="I59" s="3">
-        <v>3548100</v>
+        <v>5023200</v>
       </c>
       <c r="J59" s="3">
+        <v>3882600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5125100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3739300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6954700</v>
+        <v>8239500</v>
       </c>
       <c r="E60" s="3">
-        <v>7906000</v>
+        <v>7610400</v>
       </c>
       <c r="F60" s="3">
-        <v>8002400</v>
+        <v>8651400</v>
       </c>
       <c r="G60" s="3">
-        <v>6699200</v>
+        <v>8756900</v>
       </c>
       <c r="H60" s="3">
-        <v>5423600</v>
+        <v>7330800</v>
       </c>
       <c r="I60" s="3">
-        <v>4573700</v>
+        <v>5934900</v>
       </c>
       <c r="J60" s="3">
+        <v>5004900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4529500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5867600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5766000</v>
+        <v>13085900</v>
       </c>
       <c r="E61" s="3">
-        <v>5318600</v>
+        <v>6309600</v>
       </c>
       <c r="F61" s="3">
-        <v>6226300</v>
+        <v>5820000</v>
       </c>
       <c r="G61" s="3">
-        <v>6578000</v>
+        <v>6813300</v>
       </c>
       <c r="H61" s="3">
-        <v>6300800</v>
+        <v>7198100</v>
       </c>
       <c r="I61" s="3">
-        <v>5258200</v>
+        <v>6894800</v>
       </c>
       <c r="J61" s="3">
+        <v>5753900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4106100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2855300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1385100</v>
+        <v>1865900</v>
       </c>
       <c r="E62" s="3">
-        <v>1150600</v>
+        <v>1515700</v>
       </c>
       <c r="F62" s="3">
-        <v>1331400</v>
+        <v>1259100</v>
       </c>
       <c r="G62" s="3">
-        <v>1340600</v>
+        <v>1457000</v>
       </c>
       <c r="H62" s="3">
-        <v>1188900</v>
+        <v>1467000</v>
       </c>
       <c r="I62" s="3">
-        <v>883700</v>
+        <v>1301000</v>
       </c>
       <c r="J62" s="3">
+        <v>967000</v>
+      </c>
+      <c r="K62" s="3">
         <v>925000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1071600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14622300</v>
+        <v>23787600</v>
       </c>
       <c r="E66" s="3">
-        <v>14874100</v>
+        <v>16000800</v>
       </c>
       <c r="F66" s="3">
-        <v>16025900</v>
+        <v>16276400</v>
       </c>
       <c r="G66" s="3">
-        <v>15098300</v>
+        <v>17536700</v>
       </c>
       <c r="H66" s="3">
-        <v>13403000</v>
+        <v>16521700</v>
       </c>
       <c r="I66" s="3">
-        <v>11094200</v>
+        <v>14666600</v>
       </c>
       <c r="J66" s="3">
+        <v>12140100</v>
+      </c>
+      <c r="K66" s="3">
         <v>9744300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10153300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4412100</v>
+        <v>3631700</v>
       </c>
       <c r="E72" s="3">
-        <v>5347700</v>
+        <v>4828000</v>
       </c>
       <c r="F72" s="3">
-        <v>4294800</v>
+        <v>5851900</v>
       </c>
       <c r="G72" s="3">
-        <v>4669000</v>
+        <v>4699700</v>
       </c>
       <c r="H72" s="3">
-        <v>5525900</v>
+        <v>5109200</v>
       </c>
       <c r="I72" s="3">
-        <v>7139400</v>
+        <v>6046800</v>
       </c>
       <c r="J72" s="3">
+        <v>7812400</v>
+      </c>
+      <c r="K72" s="3">
         <v>15664800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9950600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5097900</v>
+        <v>4293100</v>
       </c>
       <c r="E76" s="3">
-        <v>5927800</v>
+        <v>5578500</v>
       </c>
       <c r="F76" s="3">
-        <v>5245600</v>
+        <v>6486700</v>
       </c>
       <c r="G76" s="3">
-        <v>6027800</v>
+        <v>5740200</v>
       </c>
       <c r="H76" s="3">
-        <v>6573100</v>
+        <v>6596100</v>
       </c>
       <c r="I76" s="3">
-        <v>7563900</v>
+        <v>7192800</v>
       </c>
       <c r="J76" s="3">
+        <v>8277000</v>
+      </c>
+      <c r="K76" s="3">
         <v>7562900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10356200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1507000</v>
+        <v>876900</v>
       </c>
       <c r="E81" s="3">
-        <v>1225900</v>
+        <v>1662000</v>
       </c>
       <c r="F81" s="3">
-        <v>289600</v>
+        <v>1351900</v>
       </c>
       <c r="G81" s="3">
-        <v>349300</v>
+        <v>319400</v>
       </c>
       <c r="H81" s="3">
-        <v>918300</v>
+        <v>385200</v>
       </c>
       <c r="I81" s="3">
-        <v>894800</v>
+        <v>1012800</v>
       </c>
       <c r="J81" s="3">
+        <v>986800</v>
+      </c>
+      <c r="K81" s="3">
         <v>901200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>883400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2132500</v>
+        <v>2778200</v>
       </c>
       <c r="E83" s="3">
-        <v>2267600</v>
+        <v>2351800</v>
       </c>
       <c r="F83" s="3">
-        <v>2867800</v>
+        <v>2500800</v>
       </c>
       <c r="G83" s="3">
-        <v>2103800</v>
+        <v>3162700</v>
       </c>
       <c r="H83" s="3">
-        <v>1592200</v>
+        <v>2320100</v>
       </c>
       <c r="I83" s="3">
-        <v>1420100</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1755900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1566200</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2422700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3723100</v>
+        <v>3861000</v>
       </c>
       <c r="E89" s="3">
-        <v>4165900</v>
+        <v>4106000</v>
       </c>
       <c r="F89" s="3">
-        <v>4069300</v>
+        <v>4594300</v>
       </c>
       <c r="G89" s="3">
-        <v>3796000</v>
+        <v>4487800</v>
       </c>
       <c r="H89" s="3">
-        <v>3463000</v>
+        <v>4186400</v>
       </c>
       <c r="I89" s="3">
-        <v>3784100</v>
+        <v>3819100</v>
       </c>
       <c r="J89" s="3">
+        <v>4173200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2455400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3340400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2149400</v>
+        <v>-2601500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2120300</v>
+        <v>-2370500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2427300</v>
+        <v>-2338300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2165500</v>
+        <v>-2676900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2116900</v>
+        <v>-2388200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1597100</v>
+        <v>-2334600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1761300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1728100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1635100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-62700</v>
+        <v>-4910600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1235300</v>
+        <v>-69200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2159000</v>
+        <v>-1362300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2074700</v>
+        <v>-2381100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2148000</v>
+        <v>-2288100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2108800</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-2368900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2325700</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1781800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1880400</v>
+        <v>-1367500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1221900</v>
+        <v>-2073700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1150500</v>
+        <v>-1347500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1097100</v>
+        <v>-1268800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1081000</v>
+        <v>-1209900</v>
       </c>
       <c r="I96" s="3">
-        <v>-945100</v>
+        <v>-1192200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1042300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-810700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-765200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4039500</v>
+        <v>488700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3041700</v>
+        <v>-4454900</v>
       </c>
       <c r="F100" s="3">
-        <v>-924500</v>
+        <v>-3354500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1538700</v>
+        <v>-1019600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1418500</v>
+        <v>-1696900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1408500</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-1564400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1553300</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1586600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-29100</v>
+        <v>72300</v>
       </c>
       <c r="E101" s="3">
-        <v>46400</v>
+        <v>-32000</v>
       </c>
       <c r="F101" s="3">
-        <v>-45600</v>
+        <v>51200</v>
       </c>
       <c r="G101" s="3">
-        <v>8300</v>
+        <v>-50300</v>
       </c>
       <c r="H101" s="3">
-        <v>94800</v>
+        <v>9100</v>
       </c>
       <c r="I101" s="3">
-        <v>58000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>104600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-59300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-408200</v>
+        <v>-488500</v>
       </c>
       <c r="E102" s="3">
-        <v>-64700</v>
+        <v>-450200</v>
       </c>
       <c r="F102" s="3">
-        <v>940100</v>
+        <v>-71300</v>
       </c>
       <c r="G102" s="3">
-        <v>190900</v>
+        <v>1036800</v>
       </c>
       <c r="H102" s="3">
-        <v>-8700</v>
+        <v>210500</v>
       </c>
       <c r="I102" s="3">
-        <v>324800</v>
+        <v>-9600</v>
       </c>
       <c r="J102" s="3">
+        <v>358200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-418900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-87000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12823800</v>
+        <v>12868100</v>
       </c>
       <c r="E8" s="3">
-        <v>11950200</v>
+        <v>11991500</v>
       </c>
       <c r="F8" s="3">
-        <v>12643600</v>
+        <v>12687300</v>
       </c>
       <c r="G8" s="3">
-        <v>14147100</v>
+        <v>14196000</v>
       </c>
       <c r="H8" s="3">
-        <v>14460700</v>
+        <v>14510700</v>
       </c>
       <c r="I8" s="3">
-        <v>12573000</v>
+        <v>12616500</v>
       </c>
       <c r="J8" s="3">
-        <v>11184700</v>
+        <v>11223400</v>
       </c>
       <c r="K8" s="3">
         <v>10405800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3149000</v>
+        <v>3159900</v>
       </c>
       <c r="E9" s="3">
-        <v>2700800</v>
+        <v>2710100</v>
       </c>
       <c r="F9" s="3">
-        <v>3038000</v>
+        <v>3048500</v>
       </c>
       <c r="G9" s="3">
-        <v>7518600</v>
+        <v>7544500</v>
       </c>
       <c r="H9" s="3">
-        <v>3965300</v>
+        <v>3979000</v>
       </c>
       <c r="I9" s="3">
-        <v>6956500</v>
+        <v>6980500</v>
       </c>
       <c r="J9" s="3">
-        <v>6210100</v>
+        <v>6231500</v>
       </c>
       <c r="K9" s="3">
         <v>5971700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9674800</v>
+        <v>9708200</v>
       </c>
       <c r="E10" s="3">
-        <v>9249400</v>
+        <v>9281400</v>
       </c>
       <c r="F10" s="3">
-        <v>9605600</v>
+        <v>9638800</v>
       </c>
       <c r="G10" s="3">
-        <v>6628500</v>
+        <v>6651400</v>
       </c>
       <c r="H10" s="3">
-        <v>10495400</v>
+        <v>10531700</v>
       </c>
       <c r="I10" s="3">
-        <v>5616500</v>
+        <v>5635900</v>
       </c>
       <c r="J10" s="3">
-        <v>4974700</v>
+        <v>4991900</v>
       </c>
       <c r="K10" s="3">
         <v>4434100</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>95100</v>
+        <v>95400</v>
       </c>
       <c r="E14" s="3">
-        <v>346700</v>
+        <v>347900</v>
       </c>
       <c r="F14" s="3">
-        <v>941500</v>
+        <v>944700</v>
       </c>
       <c r="G14" s="3">
-        <v>1115000</v>
+        <v>1118900</v>
       </c>
       <c r="H14" s="3">
-        <v>269600</v>
+        <v>270600</v>
       </c>
       <c r="I14" s="3">
-        <v>97400</v>
+        <v>97700</v>
       </c>
       <c r="J14" s="3">
-        <v>115400</v>
+        <v>115800</v>
       </c>
       <c r="K14" s="3">
         <v>1673700</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2767400</v>
+        <v>2776900</v>
       </c>
       <c r="E15" s="3">
-        <v>2261000</v>
+        <v>2268800</v>
       </c>
       <c r="F15" s="3">
-        <v>2212600</v>
+        <v>2220300</v>
       </c>
       <c r="G15" s="3">
-        <v>4468000</v>
+        <v>4483500</v>
       </c>
       <c r="H15" s="3">
-        <v>2065200</v>
+        <v>2072300</v>
       </c>
       <c r="I15" s="3">
-        <v>3493700</v>
+        <v>3505800</v>
       </c>
       <c r="J15" s="3">
-        <v>3005500</v>
+        <v>3015900</v>
       </c>
       <c r="K15" s="3">
         <v>2936300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9910400</v>
+        <v>9944700</v>
       </c>
       <c r="E17" s="3">
-        <v>9587000</v>
+        <v>9620100</v>
       </c>
       <c r="F17" s="3">
-        <v>10495000</v>
+        <v>10531200</v>
       </c>
       <c r="G17" s="3">
-        <v>11323200</v>
+        <v>11362300</v>
       </c>
       <c r="H17" s="3">
-        <v>11864500</v>
+        <v>11905500</v>
       </c>
       <c r="I17" s="3">
-        <v>9763100</v>
+        <v>9796900</v>
       </c>
       <c r="J17" s="3">
-        <v>8841300</v>
+        <v>8871800</v>
       </c>
       <c r="K17" s="3">
         <v>9408500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2913400</v>
+        <v>2923400</v>
       </c>
       <c r="E18" s="3">
-        <v>2363200</v>
+        <v>2371400</v>
       </c>
       <c r="F18" s="3">
-        <v>2148700</v>
+        <v>2156100</v>
       </c>
       <c r="G18" s="3">
-        <v>2823900</v>
+        <v>2833600</v>
       </c>
       <c r="H18" s="3">
-        <v>2596200</v>
+        <v>2605200</v>
       </c>
       <c r="I18" s="3">
-        <v>2809900</v>
+        <v>2819600</v>
       </c>
       <c r="J18" s="3">
-        <v>2343500</v>
+        <v>2351600</v>
       </c>
       <c r="K18" s="3">
         <v>997200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33200</v>
+        <v>-33300</v>
       </c>
       <c r="E20" s="3">
-        <v>-125900</v>
+        <v>-126300</v>
       </c>
       <c r="F20" s="3">
-        <v>356500</v>
+        <v>357700</v>
       </c>
       <c r="G20" s="3">
-        <v>-97100</v>
+        <v>-97500</v>
       </c>
       <c r="H20" s="3">
-        <v>-866800</v>
+        <v>-869800</v>
       </c>
       <c r="I20" s="3">
-        <v>-240300</v>
+        <v>-241100</v>
       </c>
       <c r="J20" s="3">
-        <v>57200</v>
+        <v>57400</v>
       </c>
       <c r="K20" s="3">
         <v>348500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5627100</v>
+        <v>5664600</v>
       </c>
       <c r="E21" s="3">
-        <v>4562700</v>
+        <v>4593800</v>
       </c>
       <c r="F21" s="3">
-        <v>4977800</v>
+        <v>5011300</v>
       </c>
       <c r="G21" s="3">
-        <v>5853800</v>
+        <v>5894700</v>
       </c>
       <c r="H21" s="3">
-        <v>4023400</v>
+        <v>4052500</v>
       </c>
       <c r="I21" s="3">
-        <v>4305800</v>
+        <v>4332100</v>
       </c>
       <c r="J21" s="3">
-        <v>3949200</v>
+        <v>3973100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>514600</v>
+        <v>516400</v>
       </c>
       <c r="E22" s="3">
-        <v>240300</v>
+        <v>241100</v>
       </c>
       <c r="F22" s="3">
-        <v>293300</v>
+        <v>294300</v>
       </c>
       <c r="G22" s="3">
-        <v>549100</v>
+        <v>551000</v>
       </c>
       <c r="H22" s="3">
-        <v>260500</v>
+        <v>261400</v>
       </c>
       <c r="I22" s="3">
-        <v>385800</v>
+        <v>387200</v>
       </c>
       <c r="J22" s="3">
-        <v>415200</v>
+        <v>416600</v>
       </c>
       <c r="K22" s="3">
         <v>244000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2365600</v>
+        <v>2373800</v>
       </c>
       <c r="E23" s="3">
-        <v>1997000</v>
+        <v>2003900</v>
       </c>
       <c r="F23" s="3">
-        <v>2211800</v>
+        <v>2219500</v>
       </c>
       <c r="G23" s="3">
-        <v>2177700</v>
+        <v>2185200</v>
       </c>
       <c r="H23" s="3">
-        <v>1468900</v>
+        <v>1474000</v>
       </c>
       <c r="I23" s="3">
-        <v>2183700</v>
+        <v>2191300</v>
       </c>
       <c r="J23" s="3">
-        <v>1985500</v>
+        <v>1992400</v>
       </c>
       <c r="K23" s="3">
         <v>1101800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1019100</v>
+        <v>1022600</v>
       </c>
       <c r="E24" s="3">
-        <v>679600</v>
+        <v>682000</v>
       </c>
       <c r="F24" s="3">
-        <v>732300</v>
+        <v>734800</v>
       </c>
       <c r="G24" s="3">
-        <v>668300</v>
+        <v>670700</v>
       </c>
       <c r="H24" s="3">
-        <v>712700</v>
+        <v>715100</v>
       </c>
       <c r="I24" s="3">
-        <v>744400</v>
+        <v>747000</v>
       </c>
       <c r="J24" s="3">
-        <v>639600</v>
+        <v>641800</v>
       </c>
       <c r="K24" s="3">
         <v>178300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1346500</v>
+        <v>1351200</v>
       </c>
       <c r="E26" s="3">
-        <v>1317400</v>
+        <v>1322000</v>
       </c>
       <c r="F26" s="3">
-        <v>1479500</v>
+        <v>1484600</v>
       </c>
       <c r="G26" s="3">
-        <v>1509300</v>
+        <v>1514500</v>
       </c>
       <c r="H26" s="3">
-        <v>756200</v>
+        <v>758800</v>
       </c>
       <c r="I26" s="3">
-        <v>1439400</v>
+        <v>1444300</v>
       </c>
       <c r="J26" s="3">
-        <v>1345900</v>
+        <v>1350600</v>
       </c>
       <c r="K26" s="3">
         <v>923500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>960700</v>
+        <v>964000</v>
       </c>
       <c r="E27" s="3">
-        <v>1011500</v>
+        <v>1015000</v>
       </c>
       <c r="F27" s="3">
-        <v>1150700</v>
+        <v>1154600</v>
       </c>
       <c r="G27" s="3">
-        <v>1173700</v>
+        <v>1177700</v>
       </c>
       <c r="H27" s="3">
-        <v>385200</v>
+        <v>386500</v>
       </c>
       <c r="I27" s="3">
-        <v>1024100</v>
+        <v>1027600</v>
       </c>
       <c r="J27" s="3">
-        <v>965100</v>
+        <v>968400</v>
       </c>
       <c r="K27" s="3">
         <v>901200</v>
@@ -1353,16 +1353,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-83700</v>
+        <v>-84000</v>
       </c>
       <c r="E29" s="3">
-        <v>650400</v>
+        <v>652700</v>
       </c>
       <c r="F29" s="3">
-        <v>201300</v>
+        <v>202000</v>
       </c>
       <c r="G29" s="3">
-        <v>-854300</v>
+        <v>-857200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33200</v>
+        <v>33300</v>
       </c>
       <c r="E32" s="3">
-        <v>125900</v>
+        <v>126300</v>
       </c>
       <c r="F32" s="3">
-        <v>-356500</v>
+        <v>-357700</v>
       </c>
       <c r="G32" s="3">
-        <v>97100</v>
+        <v>97500</v>
       </c>
       <c r="H32" s="3">
-        <v>866800</v>
+        <v>869800</v>
       </c>
       <c r="I32" s="3">
-        <v>240300</v>
+        <v>241100</v>
       </c>
       <c r="J32" s="3">
-        <v>-57200</v>
+        <v>-57400</v>
       </c>
       <c r="K32" s="3">
         <v>-348500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>876900</v>
+        <v>880000</v>
       </c>
       <c r="E33" s="3">
-        <v>1662000</v>
+        <v>1667700</v>
       </c>
       <c r="F33" s="3">
-        <v>1351900</v>
+        <v>1356600</v>
       </c>
       <c r="G33" s="3">
-        <v>319400</v>
+        <v>320500</v>
       </c>
       <c r="H33" s="3">
-        <v>385200</v>
+        <v>386500</v>
       </c>
       <c r="I33" s="3">
-        <v>1012800</v>
+        <v>1016300</v>
       </c>
       <c r="J33" s="3">
-        <v>986800</v>
+        <v>990200</v>
       </c>
       <c r="K33" s="3">
         <v>901200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>876900</v>
+        <v>880000</v>
       </c>
       <c r="E35" s="3">
-        <v>1662000</v>
+        <v>1667700</v>
       </c>
       <c r="F35" s="3">
-        <v>1351900</v>
+        <v>1356600</v>
       </c>
       <c r="G35" s="3">
-        <v>319400</v>
+        <v>320500</v>
       </c>
       <c r="H35" s="3">
-        <v>385200</v>
+        <v>386500</v>
       </c>
       <c r="I35" s="3">
-        <v>1012800</v>
+        <v>1016300</v>
       </c>
       <c r="J35" s="3">
-        <v>986800</v>
+        <v>990200</v>
       </c>
       <c r="K35" s="3">
         <v>901200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1564500</v>
+        <v>1569900</v>
       </c>
       <c r="E41" s="3">
-        <v>2086300</v>
+        <v>2093500</v>
       </c>
       <c r="F41" s="3">
-        <v>2543600</v>
+        <v>2552400</v>
       </c>
       <c r="G41" s="3">
-        <v>2604400</v>
+        <v>2613500</v>
       </c>
       <c r="H41" s="3">
-        <v>1574500</v>
+        <v>1580000</v>
       </c>
       <c r="I41" s="3">
-        <v>1393300</v>
+        <v>1398100</v>
       </c>
       <c r="J41" s="3">
-        <v>1351400</v>
+        <v>1356000</v>
       </c>
       <c r="K41" s="3">
         <v>907800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63500</v>
+        <v>63700</v>
       </c>
       <c r="E42" s="3">
-        <v>66800</v>
+        <v>67000</v>
       </c>
       <c r="F42" s="3">
+        <v>114500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>264500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>136300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>112100</v>
+      </c>
+      <c r="J42" s="3">
         <v>114100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>263500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>135800</v>
-      </c>
-      <c r="I42" s="3">
-        <v>111700</v>
-      </c>
-      <c r="J42" s="3">
-        <v>113700</v>
       </c>
       <c r="K42" s="3">
         <v>291900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2588900</v>
+        <v>2597800</v>
       </c>
       <c r="E43" s="3">
-        <v>2250900</v>
+        <v>2258700</v>
       </c>
       <c r="F43" s="3">
-        <v>1816500</v>
+        <v>1822800</v>
       </c>
       <c r="G43" s="3">
-        <v>1675600</v>
+        <v>1681400</v>
       </c>
       <c r="H43" s="3">
-        <v>1685000</v>
+        <v>1690800</v>
       </c>
       <c r="I43" s="3">
-        <v>1496300</v>
+        <v>1501500</v>
       </c>
       <c r="J43" s="3">
-        <v>1435900</v>
+        <v>1440800</v>
       </c>
       <c r="K43" s="3">
         <v>4983500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>167500</v>
+        <v>168100</v>
       </c>
       <c r="E44" s="3">
-        <v>192100</v>
+        <v>192800</v>
       </c>
       <c r="F44" s="3">
-        <v>200000</v>
+        <v>200700</v>
       </c>
       <c r="G44" s="3">
-        <v>203300</v>
+        <v>204000</v>
       </c>
       <c r="H44" s="3">
-        <v>256200</v>
+        <v>257100</v>
       </c>
       <c r="I44" s="3">
-        <v>231500</v>
+        <v>232300</v>
       </c>
       <c r="J44" s="3">
-        <v>179000</v>
+        <v>179700</v>
       </c>
       <c r="K44" s="3">
         <v>123500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>902100</v>
+        <v>905200</v>
       </c>
       <c r="E45" s="3">
-        <v>397800</v>
+        <v>399200</v>
       </c>
       <c r="F45" s="3">
-        <v>1358000</v>
+        <v>1362700</v>
       </c>
       <c r="G45" s="3">
-        <v>1231500</v>
+        <v>1235800</v>
       </c>
       <c r="H45" s="3">
-        <v>1122200</v>
+        <v>1126100</v>
       </c>
       <c r="I45" s="3">
-        <v>1058100</v>
+        <v>1061800</v>
       </c>
       <c r="J45" s="3">
-        <v>849500</v>
+        <v>852500</v>
       </c>
       <c r="K45" s="3">
         <v>826800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5286500</v>
+        <v>5304800</v>
       </c>
       <c r="E46" s="3">
-        <v>4993900</v>
+        <v>5011100</v>
       </c>
       <c r="F46" s="3">
-        <v>6032300</v>
+        <v>6053100</v>
       </c>
       <c r="G46" s="3">
-        <v>5978400</v>
+        <v>5999100</v>
       </c>
       <c r="H46" s="3">
-        <v>4773800</v>
+        <v>4790300</v>
       </c>
       <c r="I46" s="3">
-        <v>4291100</v>
+        <v>4305900</v>
       </c>
       <c r="J46" s="3">
-        <v>3929500</v>
+        <v>3943100</v>
       </c>
       <c r="K46" s="3">
         <v>3086900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>842800</v>
+        <v>845700</v>
       </c>
       <c r="E47" s="3">
-        <v>1148400</v>
+        <v>1152400</v>
       </c>
       <c r="F47" s="3">
-        <v>1297000</v>
+        <v>1301500</v>
       </c>
       <c r="G47" s="3">
-        <v>2121600</v>
+        <v>2128900</v>
       </c>
       <c r="H47" s="3">
-        <v>2578600</v>
+        <v>2587500</v>
       </c>
       <c r="I47" s="3">
-        <v>3109700</v>
+        <v>3120400</v>
       </c>
       <c r="J47" s="3">
-        <v>4120900</v>
+        <v>4135100</v>
       </c>
       <c r="K47" s="3">
         <v>4300700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16083600</v>
+        <v>16139200</v>
       </c>
       <c r="E48" s="3">
-        <v>8276600</v>
+        <v>8305200</v>
       </c>
       <c r="F48" s="3">
-        <v>8524300</v>
+        <v>8553800</v>
       </c>
       <c r="G48" s="3">
-        <v>8124800</v>
+        <v>8152900</v>
       </c>
       <c r="H48" s="3">
-        <v>7808400</v>
+        <v>7835400</v>
       </c>
       <c r="I48" s="3">
-        <v>6719800</v>
+        <v>6743000</v>
       </c>
       <c r="J48" s="3">
-        <v>5589900</v>
+        <v>5609200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4379800</v>
+        <v>4394900</v>
       </c>
       <c r="E49" s="3">
-        <v>5728300</v>
+        <v>5748100</v>
       </c>
       <c r="F49" s="3">
-        <v>6436000</v>
+        <v>6458300</v>
       </c>
       <c r="G49" s="3">
-        <v>6495700</v>
+        <v>6518200</v>
       </c>
       <c r="H49" s="3">
-        <v>7272700</v>
+        <v>7297900</v>
       </c>
       <c r="I49" s="3">
-        <v>7048500</v>
+        <v>7072900</v>
       </c>
       <c r="J49" s="3">
-        <v>6059900</v>
+        <v>6080800</v>
       </c>
       <c r="K49" s="3">
         <v>12559400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1488100</v>
+        <v>1493200</v>
       </c>
       <c r="E52" s="3">
-        <v>1432100</v>
+        <v>1437100</v>
       </c>
       <c r="F52" s="3">
-        <v>473500</v>
+        <v>475100</v>
       </c>
       <c r="G52" s="3">
-        <v>556300</v>
+        <v>558200</v>
       </c>
       <c r="H52" s="3">
-        <v>684400</v>
+        <v>686700</v>
       </c>
       <c r="I52" s="3">
-        <v>690500</v>
+        <v>692800</v>
       </c>
       <c r="J52" s="3">
-        <v>717000</v>
+        <v>719400</v>
       </c>
       <c r="K52" s="3">
         <v>1074900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28080800</v>
+        <v>28177900</v>
       </c>
       <c r="E54" s="3">
-        <v>21579300</v>
+        <v>21653900</v>
       </c>
       <c r="F54" s="3">
-        <v>22763100</v>
+        <v>22841800</v>
       </c>
       <c r="G54" s="3">
-        <v>23276900</v>
+        <v>23357400</v>
       </c>
       <c r="H54" s="3">
-        <v>23117800</v>
+        <v>23197700</v>
       </c>
       <c r="I54" s="3">
-        <v>21859400</v>
+        <v>21935000</v>
       </c>
       <c r="J54" s="3">
-        <v>20417100</v>
+        <v>20487700</v>
       </c>
       <c r="K54" s="3">
         <v>17307200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1061500</v>
+        <v>1065200</v>
       </c>
       <c r="E57" s="3">
-        <v>924400</v>
+        <v>927600</v>
       </c>
       <c r="F57" s="3">
-        <v>991300</v>
+        <v>994800</v>
       </c>
       <c r="G57" s="3">
-        <v>526300</v>
+        <v>528100</v>
       </c>
       <c r="H57" s="3">
-        <v>478600</v>
+        <v>480200</v>
       </c>
       <c r="I57" s="3">
-        <v>377200</v>
+        <v>378500</v>
       </c>
       <c r="J57" s="3">
-        <v>299800</v>
+        <v>300800</v>
       </c>
       <c r="K57" s="3">
         <v>3169200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2714000</v>
+        <v>2723400</v>
       </c>
       <c r="E58" s="3">
-        <v>1775800</v>
+        <v>1781900</v>
       </c>
       <c r="F58" s="3">
-        <v>2562100</v>
+        <v>2571000</v>
       </c>
       <c r="G58" s="3">
-        <v>2929900</v>
+        <v>2940100</v>
       </c>
       <c r="H58" s="3">
-        <v>1424500</v>
+        <v>1429400</v>
       </c>
       <c r="I58" s="3">
-        <v>843200</v>
+        <v>846100</v>
       </c>
       <c r="J58" s="3">
-        <v>1642100</v>
+        <v>1647800</v>
       </c>
       <c r="K58" s="3">
         <v>1059400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4463900</v>
+        <v>4479400</v>
       </c>
       <c r="E59" s="3">
-        <v>4910200</v>
+        <v>4927100</v>
       </c>
       <c r="F59" s="3">
-        <v>5097900</v>
+        <v>5115500</v>
       </c>
       <c r="G59" s="3">
-        <v>5300600</v>
+        <v>5318900</v>
       </c>
       <c r="H59" s="3">
-        <v>5427800</v>
+        <v>5446500</v>
       </c>
       <c r="I59" s="3">
-        <v>5023200</v>
+        <v>5040600</v>
       </c>
       <c r="J59" s="3">
-        <v>3882600</v>
+        <v>3896000</v>
       </c>
       <c r="K59" s="3">
         <v>5125100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8239500</v>
+        <v>8268000</v>
       </c>
       <c r="E60" s="3">
-        <v>7610400</v>
+        <v>7636700</v>
       </c>
       <c r="F60" s="3">
-        <v>8651400</v>
+        <v>8681300</v>
       </c>
       <c r="G60" s="3">
-        <v>8756900</v>
+        <v>8787100</v>
       </c>
       <c r="H60" s="3">
-        <v>7330800</v>
+        <v>7356200</v>
       </c>
       <c r="I60" s="3">
-        <v>5934900</v>
+        <v>5955400</v>
       </c>
       <c r="J60" s="3">
-        <v>5004900</v>
+        <v>5022200</v>
       </c>
       <c r="K60" s="3">
         <v>4529500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13085900</v>
+        <v>13131100</v>
       </c>
       <c r="E61" s="3">
-        <v>6309600</v>
+        <v>6331400</v>
       </c>
       <c r="F61" s="3">
-        <v>5820000</v>
+        <v>5840200</v>
       </c>
       <c r="G61" s="3">
-        <v>6813300</v>
+        <v>6836900</v>
       </c>
       <c r="H61" s="3">
-        <v>7198100</v>
+        <v>7223000</v>
       </c>
       <c r="I61" s="3">
-        <v>6894800</v>
+        <v>6918600</v>
       </c>
       <c r="J61" s="3">
-        <v>5753900</v>
+        <v>5773800</v>
       </c>
       <c r="K61" s="3">
         <v>4106100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1865900</v>
+        <v>1872400</v>
       </c>
       <c r="E62" s="3">
-        <v>1515700</v>
+        <v>1521000</v>
       </c>
       <c r="F62" s="3">
-        <v>1259100</v>
+        <v>1263400</v>
       </c>
       <c r="G62" s="3">
-        <v>1457000</v>
+        <v>1462000</v>
       </c>
       <c r="H62" s="3">
-        <v>1467000</v>
+        <v>1472100</v>
       </c>
       <c r="I62" s="3">
-        <v>1301000</v>
+        <v>1305500</v>
       </c>
       <c r="J62" s="3">
-        <v>967000</v>
+        <v>970300</v>
       </c>
       <c r="K62" s="3">
         <v>925000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23787600</v>
+        <v>23869900</v>
       </c>
       <c r="E66" s="3">
-        <v>16000800</v>
+        <v>16056100</v>
       </c>
       <c r="F66" s="3">
-        <v>16276400</v>
+        <v>16332700</v>
       </c>
       <c r="G66" s="3">
-        <v>17536700</v>
+        <v>17597400</v>
       </c>
       <c r="H66" s="3">
-        <v>16521700</v>
+        <v>16578800</v>
       </c>
       <c r="I66" s="3">
-        <v>14666600</v>
+        <v>14717300</v>
       </c>
       <c r="J66" s="3">
-        <v>12140100</v>
+        <v>12182100</v>
       </c>
       <c r="K66" s="3">
         <v>9744300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3631700</v>
+        <v>3644200</v>
       </c>
       <c r="E72" s="3">
-        <v>4828000</v>
+        <v>4844700</v>
       </c>
       <c r="F72" s="3">
-        <v>5851900</v>
+        <v>5872100</v>
       </c>
       <c r="G72" s="3">
-        <v>4699700</v>
+        <v>4716000</v>
       </c>
       <c r="H72" s="3">
-        <v>5109200</v>
+        <v>5126800</v>
       </c>
       <c r="I72" s="3">
-        <v>6046800</v>
+        <v>6067700</v>
       </c>
       <c r="J72" s="3">
-        <v>7812400</v>
+        <v>7839500</v>
       </c>
       <c r="K72" s="3">
         <v>15664800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4293100</v>
+        <v>4308000</v>
       </c>
       <c r="E76" s="3">
-        <v>5578500</v>
+        <v>5597800</v>
       </c>
       <c r="F76" s="3">
-        <v>6486700</v>
+        <v>6509100</v>
       </c>
       <c r="G76" s="3">
-        <v>5740200</v>
+        <v>5760000</v>
       </c>
       <c r="H76" s="3">
-        <v>6596100</v>
+        <v>6618900</v>
       </c>
       <c r="I76" s="3">
-        <v>7192800</v>
+        <v>7217700</v>
       </c>
       <c r="J76" s="3">
-        <v>8277000</v>
+        <v>8305700</v>
       </c>
       <c r="K76" s="3">
         <v>7562900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>876900</v>
+        <v>880000</v>
       </c>
       <c r="E81" s="3">
-        <v>1662000</v>
+        <v>1667700</v>
       </c>
       <c r="F81" s="3">
-        <v>1351900</v>
+        <v>1356600</v>
       </c>
       <c r="G81" s="3">
-        <v>319400</v>
+        <v>320500</v>
       </c>
       <c r="H81" s="3">
-        <v>385200</v>
+        <v>386500</v>
       </c>
       <c r="I81" s="3">
-        <v>1012800</v>
+        <v>1016300</v>
       </c>
       <c r="J81" s="3">
-        <v>986800</v>
+        <v>990200</v>
       </c>
       <c r="K81" s="3">
         <v>901200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2778200</v>
+        <v>2787800</v>
       </c>
       <c r="E83" s="3">
-        <v>2351800</v>
+        <v>2360000</v>
       </c>
       <c r="F83" s="3">
-        <v>2500800</v>
+        <v>2509400</v>
       </c>
       <c r="G83" s="3">
-        <v>3162700</v>
+        <v>3173600</v>
       </c>
       <c r="H83" s="3">
-        <v>2320100</v>
+        <v>2328200</v>
       </c>
       <c r="I83" s="3">
-        <v>1755900</v>
+        <v>1762000</v>
       </c>
       <c r="J83" s="3">
-        <v>1566200</v>
+        <v>1571600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3861000</v>
+        <v>3874400</v>
       </c>
       <c r="E89" s="3">
-        <v>4106000</v>
+        <v>4120200</v>
       </c>
       <c r="F89" s="3">
-        <v>4594300</v>
+        <v>4610100</v>
       </c>
       <c r="G89" s="3">
-        <v>4487800</v>
+        <v>4503300</v>
       </c>
       <c r="H89" s="3">
-        <v>4186400</v>
+        <v>4200900</v>
       </c>
       <c r="I89" s="3">
-        <v>3819100</v>
+        <v>3832300</v>
       </c>
       <c r="J89" s="3">
-        <v>4173200</v>
+        <v>4187600</v>
       </c>
       <c r="K89" s="3">
         <v>2455400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2601500</v>
+        <v>-2610500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2370500</v>
+        <v>-2378700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2338300</v>
+        <v>-2346400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2676900</v>
+        <v>-2686100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2388200</v>
+        <v>-2396400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2334600</v>
+        <v>-2342700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1761300</v>
+        <v>-1767400</v>
       </c>
       <c r="K91" s="3">
         <v>-1728100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4910600</v>
+        <v>-4927600</v>
       </c>
       <c r="E94" s="3">
-        <v>-69200</v>
+        <v>-69400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1362300</v>
+        <v>-1367000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2381100</v>
+        <v>-2389300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2288100</v>
+        <v>-2296000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2368900</v>
+        <v>-2377100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2325700</v>
+        <v>-2333700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1367500</v>
+        <v>-1372200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2073700</v>
+        <v>-2080900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1347500</v>
+        <v>-1352200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1268800</v>
+        <v>-1273200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1209900</v>
+        <v>-1214100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1192200</v>
+        <v>-1196300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1042300</v>
+        <v>-1045900</v>
       </c>
       <c r="K96" s="3">
         <v>-810700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>488700</v>
+        <v>490400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4454900</v>
+        <v>-4470300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3354500</v>
+        <v>-3366100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1019600</v>
+        <v>-1023100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1696900</v>
+        <v>-1702800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1564400</v>
+        <v>-1569800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1553300</v>
+        <v>-1558700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>72300</v>
+        <v>72600</v>
       </c>
       <c r="E101" s="3">
-        <v>-32000</v>
+        <v>-32200</v>
       </c>
       <c r="F101" s="3">
-        <v>51200</v>
+        <v>51400</v>
       </c>
       <c r="G101" s="3">
-        <v>-50300</v>
+        <v>-50500</v>
       </c>
       <c r="H101" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="I101" s="3">
-        <v>104600</v>
+        <v>104900</v>
       </c>
       <c r="J101" s="3">
-        <v>64000</v>
+        <v>64200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-488500</v>
+        <v>-490200</v>
       </c>
       <c r="E102" s="3">
-        <v>-450200</v>
+        <v>-451700</v>
       </c>
       <c r="F102" s="3">
-        <v>-71300</v>
+        <v>-71500</v>
       </c>
       <c r="G102" s="3">
-        <v>1036800</v>
+        <v>1040400</v>
       </c>
       <c r="H102" s="3">
-        <v>210500</v>
+        <v>211200</v>
       </c>
       <c r="I102" s="3">
         <v>-9600</v>
       </c>
       <c r="J102" s="3">
-        <v>358200</v>
+        <v>359400</v>
       </c>
       <c r="K102" s="3">
         <v>-418900</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12868100</v>
+        <v>14200600</v>
       </c>
       <c r="E8" s="3">
-        <v>11991500</v>
+        <v>13143200</v>
       </c>
       <c r="F8" s="3">
-        <v>12687300</v>
+        <v>12247900</v>
       </c>
       <c r="G8" s="3">
-        <v>14196000</v>
+        <v>12958500</v>
       </c>
       <c r="H8" s="3">
-        <v>14510700</v>
+        <v>14499400</v>
       </c>
       <c r="I8" s="3">
-        <v>12616500</v>
+        <v>14820900</v>
       </c>
       <c r="J8" s="3">
+        <v>12886200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11223400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10405800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12147000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3159900</v>
+        <v>3442100</v>
       </c>
       <c r="E9" s="3">
-        <v>2710100</v>
+        <v>3227500</v>
       </c>
       <c r="F9" s="3">
-        <v>3048500</v>
+        <v>2768100</v>
       </c>
       <c r="G9" s="3">
-        <v>7544500</v>
+        <v>3113700</v>
       </c>
       <c r="H9" s="3">
-        <v>3979000</v>
+        <v>7705800</v>
       </c>
       <c r="I9" s="3">
-        <v>6980500</v>
+        <v>4064000</v>
       </c>
       <c r="J9" s="3">
+        <v>7129700</v>
+      </c>
+      <c r="K9" s="3">
         <v>6231500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5971700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4729200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9708200</v>
+        <v>10758600</v>
       </c>
       <c r="E10" s="3">
-        <v>9281400</v>
+        <v>9915700</v>
       </c>
       <c r="F10" s="3">
-        <v>9638800</v>
+        <v>9479800</v>
       </c>
       <c r="G10" s="3">
-        <v>6651400</v>
+        <v>9844900</v>
       </c>
       <c r="H10" s="3">
-        <v>10531700</v>
+        <v>6793600</v>
       </c>
       <c r="I10" s="3">
-        <v>5635900</v>
+        <v>10756800</v>
       </c>
       <c r="J10" s="3">
+        <v>5756400</v>
+      </c>
+      <c r="K10" s="3">
         <v>4991900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4434100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7417900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>95400</v>
+        <v>222500</v>
       </c>
       <c r="E14" s="3">
-        <v>347900</v>
+        <v>97500</v>
       </c>
       <c r="F14" s="3">
-        <v>944700</v>
+        <v>355300</v>
       </c>
       <c r="G14" s="3">
-        <v>1118900</v>
+        <v>964900</v>
       </c>
       <c r="H14" s="3">
-        <v>270600</v>
+        <v>1142800</v>
       </c>
       <c r="I14" s="3">
-        <v>97700</v>
+        <v>276400</v>
       </c>
       <c r="J14" s="3">
+        <v>99800</v>
+      </c>
+      <c r="K14" s="3">
         <v>115800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1673700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>598500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2776900</v>
+        <v>3359400</v>
       </c>
       <c r="E15" s="3">
-        <v>2268800</v>
+        <v>2836300</v>
       </c>
       <c r="F15" s="3">
-        <v>2220300</v>
+        <v>2317300</v>
       </c>
       <c r="G15" s="3">
-        <v>4483500</v>
+        <v>2267700</v>
       </c>
       <c r="H15" s="3">
-        <v>2072300</v>
+        <v>4579300</v>
       </c>
       <c r="I15" s="3">
-        <v>3505800</v>
+        <v>2116600</v>
       </c>
       <c r="J15" s="3">
+        <v>3580700</v>
+      </c>
+      <c r="K15" s="3">
         <v>3015900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2936300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1887600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9944700</v>
+        <v>10783400</v>
       </c>
       <c r="E17" s="3">
-        <v>9620100</v>
+        <v>10157300</v>
       </c>
       <c r="F17" s="3">
-        <v>10531200</v>
+        <v>9825800</v>
       </c>
       <c r="G17" s="3">
-        <v>11362300</v>
+        <v>10756400</v>
       </c>
       <c r="H17" s="3">
-        <v>11905500</v>
+        <v>11605200</v>
       </c>
       <c r="I17" s="3">
-        <v>9796900</v>
+        <v>12160000</v>
       </c>
       <c r="J17" s="3">
+        <v>10006300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8871800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9408500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10865600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2923400</v>
+        <v>3417200</v>
       </c>
       <c r="E18" s="3">
-        <v>2371400</v>
+        <v>2985900</v>
       </c>
       <c r="F18" s="3">
-        <v>2156100</v>
+        <v>2422100</v>
       </c>
       <c r="G18" s="3">
-        <v>2833600</v>
+        <v>2202200</v>
       </c>
       <c r="H18" s="3">
-        <v>2605200</v>
+        <v>2894200</v>
       </c>
       <c r="I18" s="3">
-        <v>2819600</v>
+        <v>2660900</v>
       </c>
       <c r="J18" s="3">
+        <v>2879900</v>
+      </c>
+      <c r="K18" s="3">
         <v>2351600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>997200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1281500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33300</v>
+        <v>6700</v>
       </c>
       <c r="E20" s="3">
-        <v>-126300</v>
+        <v>-34000</v>
       </c>
       <c r="F20" s="3">
-        <v>357700</v>
+        <v>-129000</v>
       </c>
       <c r="G20" s="3">
-        <v>-97500</v>
+        <v>365400</v>
       </c>
       <c r="H20" s="3">
-        <v>-869800</v>
+        <v>-99600</v>
       </c>
       <c r="I20" s="3">
-        <v>-241100</v>
+        <v>-888400</v>
       </c>
       <c r="J20" s="3">
+        <v>-246300</v>
+      </c>
+      <c r="K20" s="3">
         <v>57400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>348500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>274100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5664600</v>
+        <v>6287600</v>
       </c>
       <c r="E21" s="3">
-        <v>4593800</v>
+        <v>5376100</v>
       </c>
       <c r="F21" s="3">
-        <v>5011300</v>
+        <v>4870700</v>
       </c>
       <c r="G21" s="3">
-        <v>5894700</v>
+        <v>5827500</v>
       </c>
       <c r="H21" s="3">
-        <v>4052500</v>
+        <v>5186200</v>
       </c>
       <c r="I21" s="3">
-        <v>4332100</v>
-      </c>
-      <c r="J21" s="3">
+        <v>3582400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>3973100</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3969400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>516400</v>
+        <v>459100</v>
       </c>
       <c r="E22" s="3">
-        <v>241100</v>
+        <v>527400</v>
       </c>
       <c r="F22" s="3">
-        <v>294300</v>
+        <v>246300</v>
       </c>
       <c r="G22" s="3">
-        <v>551000</v>
+        <v>300600</v>
       </c>
       <c r="H22" s="3">
-        <v>261400</v>
+        <v>562800</v>
       </c>
       <c r="I22" s="3">
-        <v>387200</v>
+        <v>267000</v>
       </c>
       <c r="J22" s="3">
+        <v>395500</v>
+      </c>
+      <c r="K22" s="3">
         <v>416600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>244000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2373800</v>
+        <v>2964900</v>
       </c>
       <c r="E23" s="3">
-        <v>2003900</v>
+        <v>2424500</v>
       </c>
       <c r="F23" s="3">
-        <v>2219500</v>
+        <v>2046800</v>
       </c>
       <c r="G23" s="3">
-        <v>2185200</v>
+        <v>2266900</v>
       </c>
       <c r="H23" s="3">
-        <v>1474000</v>
+        <v>2231900</v>
       </c>
       <c r="I23" s="3">
-        <v>2191300</v>
+        <v>1505500</v>
       </c>
       <c r="J23" s="3">
+        <v>2238100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1992400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1101800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1550500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1022600</v>
+        <v>760500</v>
       </c>
       <c r="E24" s="3">
-        <v>682000</v>
+        <v>1044500</v>
       </c>
       <c r="F24" s="3">
-        <v>734800</v>
+        <v>696600</v>
       </c>
       <c r="G24" s="3">
-        <v>670700</v>
+        <v>750600</v>
       </c>
       <c r="H24" s="3">
-        <v>715100</v>
+        <v>685000</v>
       </c>
       <c r="I24" s="3">
-        <v>747000</v>
+        <v>730400</v>
       </c>
       <c r="J24" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K24" s="3">
         <v>641800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>178300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>660600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1351200</v>
+        <v>2204400</v>
       </c>
       <c r="E26" s="3">
-        <v>1322000</v>
+        <v>1380000</v>
       </c>
       <c r="F26" s="3">
-        <v>1484600</v>
+        <v>1350200</v>
       </c>
       <c r="G26" s="3">
-        <v>1514500</v>
+        <v>1516400</v>
       </c>
       <c r="H26" s="3">
-        <v>758800</v>
+        <v>1546900</v>
       </c>
       <c r="I26" s="3">
-        <v>1444300</v>
+        <v>775100</v>
       </c>
       <c r="J26" s="3">
+        <v>1475200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1350600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>923500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>889900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>964000</v>
+        <v>1774500</v>
       </c>
       <c r="E27" s="3">
-        <v>1015000</v>
+        <v>984600</v>
       </c>
       <c r="F27" s="3">
-        <v>1154600</v>
+        <v>1036700</v>
       </c>
       <c r="G27" s="3">
-        <v>1177700</v>
+        <v>1179300</v>
       </c>
       <c r="H27" s="3">
-        <v>386500</v>
+        <v>1202900</v>
       </c>
       <c r="I27" s="3">
-        <v>1027600</v>
+        <v>394800</v>
       </c>
       <c r="J27" s="3">
+        <v>1049600</v>
+      </c>
+      <c r="K27" s="3">
         <v>968400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>901200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>883400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-84000</v>
+        <v>230700</v>
       </c>
       <c r="E29" s="3">
-        <v>652700</v>
+        <v>-85800</v>
       </c>
       <c r="F29" s="3">
-        <v>202000</v>
+        <v>666600</v>
       </c>
       <c r="G29" s="3">
-        <v>-857200</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>206300</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-875600</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>-11300</v>
-      </c>
       <c r="J29" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K29" s="3">
         <v>21800</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33300</v>
+        <v>-6700</v>
       </c>
       <c r="E32" s="3">
-        <v>126300</v>
+        <v>34000</v>
       </c>
       <c r="F32" s="3">
-        <v>-357700</v>
+        <v>129000</v>
       </c>
       <c r="G32" s="3">
-        <v>97500</v>
+        <v>-365400</v>
       </c>
       <c r="H32" s="3">
-        <v>869800</v>
+        <v>99600</v>
       </c>
       <c r="I32" s="3">
-        <v>241100</v>
+        <v>888400</v>
       </c>
       <c r="J32" s="3">
+        <v>246300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-57400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-348500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-274100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>880000</v>
+        <v>2005100</v>
       </c>
       <c r="E33" s="3">
-        <v>1667700</v>
+        <v>898800</v>
       </c>
       <c r="F33" s="3">
-        <v>1356600</v>
+        <v>1703300</v>
       </c>
       <c r="G33" s="3">
-        <v>320500</v>
+        <v>1385600</v>
       </c>
       <c r="H33" s="3">
-        <v>386500</v>
+        <v>327300</v>
       </c>
       <c r="I33" s="3">
-        <v>1016300</v>
+        <v>394800</v>
       </c>
       <c r="J33" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="K33" s="3">
         <v>990200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>901200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>883400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>880000</v>
+        <v>2005100</v>
       </c>
       <c r="E35" s="3">
-        <v>1667700</v>
+        <v>898800</v>
       </c>
       <c r="F35" s="3">
-        <v>1356600</v>
+        <v>1703300</v>
       </c>
       <c r="G35" s="3">
-        <v>320500</v>
+        <v>1385600</v>
       </c>
       <c r="H35" s="3">
-        <v>386500</v>
+        <v>327300</v>
       </c>
       <c r="I35" s="3">
-        <v>1016300</v>
+        <v>394800</v>
       </c>
       <c r="J35" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="K35" s="3">
         <v>990200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>901200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>883400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1569900</v>
+        <v>2379300</v>
       </c>
       <c r="E41" s="3">
-        <v>2093500</v>
+        <v>1603400</v>
       </c>
       <c r="F41" s="3">
-        <v>2552400</v>
+        <v>2138200</v>
       </c>
       <c r="G41" s="3">
-        <v>2613500</v>
+        <v>2607000</v>
       </c>
       <c r="H41" s="3">
-        <v>1580000</v>
+        <v>2669300</v>
       </c>
       <c r="I41" s="3">
-        <v>1398100</v>
+        <v>1613700</v>
       </c>
       <c r="J41" s="3">
+        <v>1428000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1356000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>907800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1590400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63700</v>
+        <v>66600</v>
       </c>
       <c r="E42" s="3">
-        <v>67000</v>
+        <v>65100</v>
       </c>
       <c r="F42" s="3">
+        <v>68500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>116900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>270100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>139200</v>
+      </c>
+      <c r="J42" s="3">
         <v>114500</v>
       </c>
-      <c r="G42" s="3">
-        <v>264500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>136300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>112100</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>114100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>291900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>282600</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2597800</v>
+        <v>3191200</v>
       </c>
       <c r="E43" s="3">
-        <v>2258700</v>
+        <v>2653400</v>
       </c>
       <c r="F43" s="3">
-        <v>1822800</v>
+        <v>2306900</v>
       </c>
       <c r="G43" s="3">
-        <v>1681400</v>
+        <v>1861800</v>
       </c>
       <c r="H43" s="3">
-        <v>1690800</v>
+        <v>1717300</v>
       </c>
       <c r="I43" s="3">
-        <v>1501500</v>
+        <v>1726900</v>
       </c>
       <c r="J43" s="3">
+        <v>1533600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1440800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4983500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1343000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>168100</v>
+        <v>151800</v>
       </c>
       <c r="E44" s="3">
-        <v>192800</v>
+        <v>171700</v>
       </c>
       <c r="F44" s="3">
-        <v>200700</v>
+        <v>196900</v>
       </c>
       <c r="G44" s="3">
-        <v>204000</v>
+        <v>205000</v>
       </c>
       <c r="H44" s="3">
-        <v>257100</v>
+        <v>208400</v>
       </c>
       <c r="I44" s="3">
-        <v>232300</v>
+        <v>262600</v>
       </c>
       <c r="J44" s="3">
+        <v>237300</v>
+      </c>
+      <c r="K44" s="3">
         <v>179700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>123500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>122300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>905200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>399200</v>
+        <v>924600</v>
       </c>
       <c r="F45" s="3">
-        <v>1362700</v>
+        <v>407700</v>
       </c>
       <c r="G45" s="3">
-        <v>1235800</v>
+        <v>1391800</v>
       </c>
       <c r="H45" s="3">
-        <v>1126100</v>
+        <v>1262200</v>
       </c>
       <c r="I45" s="3">
-        <v>1061800</v>
+        <v>1150200</v>
       </c>
       <c r="J45" s="3">
+        <v>1084500</v>
+      </c>
+      <c r="K45" s="3">
         <v>852500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>826800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>892900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5304800</v>
+        <v>5789000</v>
       </c>
       <c r="E46" s="3">
-        <v>5011100</v>
+        <v>5418200</v>
       </c>
       <c r="F46" s="3">
-        <v>6053100</v>
+        <v>5118200</v>
       </c>
       <c r="G46" s="3">
-        <v>5999100</v>
+        <v>6182500</v>
       </c>
       <c r="H46" s="3">
-        <v>4790300</v>
+        <v>6127300</v>
       </c>
       <c r="I46" s="3">
-        <v>4305900</v>
+        <v>4892700</v>
       </c>
       <c r="J46" s="3">
+        <v>4398000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3943100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3086900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4231300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>845700</v>
+        <v>742000</v>
       </c>
       <c r="E47" s="3">
-        <v>1152400</v>
+        <v>863800</v>
       </c>
       <c r="F47" s="3">
-        <v>1301500</v>
+        <v>1177000</v>
       </c>
       <c r="G47" s="3">
-        <v>2128900</v>
+        <v>1329300</v>
       </c>
       <c r="H47" s="3">
-        <v>2587500</v>
+        <v>2174400</v>
       </c>
       <c r="I47" s="3">
-        <v>3120400</v>
+        <v>2642800</v>
       </c>
       <c r="J47" s="3">
+        <v>3187100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4135100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4300700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4188100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16139200</v>
+        <v>16440300</v>
       </c>
       <c r="E48" s="3">
-        <v>8305200</v>
+        <v>16484200</v>
       </c>
       <c r="F48" s="3">
-        <v>8553800</v>
+        <v>8482700</v>
       </c>
       <c r="G48" s="3">
-        <v>8152900</v>
+        <v>8736700</v>
       </c>
       <c r="H48" s="3">
-        <v>7835400</v>
+        <v>8327200</v>
       </c>
       <c r="I48" s="3">
-        <v>6743000</v>
+        <v>8002900</v>
       </c>
       <c r="J48" s="3">
+        <v>6887200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5609200</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6118100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4394900</v>
+        <v>4644700</v>
       </c>
       <c r="E49" s="3">
-        <v>5748100</v>
+        <v>4488900</v>
       </c>
       <c r="F49" s="3">
-        <v>6458300</v>
+        <v>5871000</v>
       </c>
       <c r="G49" s="3">
-        <v>6518200</v>
+        <v>6596300</v>
       </c>
       <c r="H49" s="3">
-        <v>7297900</v>
+        <v>6657500</v>
       </c>
       <c r="I49" s="3">
-        <v>7072900</v>
+        <v>7453900</v>
       </c>
       <c r="J49" s="3">
+        <v>7224100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6080800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12559400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5415200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1493200</v>
+        <v>2046400</v>
       </c>
       <c r="E52" s="3">
-        <v>1437100</v>
+        <v>1525200</v>
       </c>
       <c r="F52" s="3">
-        <v>475100</v>
+        <v>1467800</v>
       </c>
       <c r="G52" s="3">
-        <v>558200</v>
+        <v>485300</v>
       </c>
       <c r="H52" s="3">
-        <v>686700</v>
+        <v>570200</v>
       </c>
       <c r="I52" s="3">
-        <v>692800</v>
+        <v>701400</v>
       </c>
       <c r="J52" s="3">
+        <v>707700</v>
+      </c>
+      <c r="K52" s="3">
         <v>719400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1074900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>556800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28177900</v>
+        <v>29662400</v>
       </c>
       <c r="E54" s="3">
-        <v>21653900</v>
+        <v>28780200</v>
       </c>
       <c r="F54" s="3">
-        <v>22841800</v>
+        <v>22116800</v>
       </c>
       <c r="G54" s="3">
-        <v>23357400</v>
+        <v>23330100</v>
       </c>
       <c r="H54" s="3">
-        <v>23197700</v>
+        <v>23856700</v>
       </c>
       <c r="I54" s="3">
-        <v>21935000</v>
+        <v>23693600</v>
       </c>
       <c r="J54" s="3">
+        <v>22403900</v>
+      </c>
+      <c r="K54" s="3">
         <v>20487700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17307200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20509600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1065200</v>
+        <v>3918800</v>
       </c>
       <c r="E57" s="3">
-        <v>927600</v>
+        <v>1088000</v>
       </c>
       <c r="F57" s="3">
-        <v>994800</v>
+        <v>947500</v>
       </c>
       <c r="G57" s="3">
-        <v>528100</v>
+        <v>1016000</v>
       </c>
       <c r="H57" s="3">
-        <v>480200</v>
+        <v>539400</v>
       </c>
       <c r="I57" s="3">
-        <v>378500</v>
+        <v>490500</v>
       </c>
       <c r="J57" s="3">
+        <v>386600</v>
+      </c>
+      <c r="K57" s="3">
         <v>300800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3169200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2723400</v>
+        <v>1918800</v>
       </c>
       <c r="E58" s="3">
-        <v>1781900</v>
+        <v>2781600</v>
       </c>
       <c r="F58" s="3">
-        <v>2571000</v>
+        <v>1820000</v>
       </c>
       <c r="G58" s="3">
-        <v>2940100</v>
+        <v>2626000</v>
       </c>
       <c r="H58" s="3">
-        <v>1429400</v>
+        <v>3002900</v>
       </c>
       <c r="I58" s="3">
-        <v>846100</v>
+        <v>1459900</v>
       </c>
       <c r="J58" s="3">
+        <v>864200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1647800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1059400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1329400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4479400</v>
+        <v>1162200</v>
       </c>
       <c r="E59" s="3">
-        <v>4927100</v>
+        <v>4575100</v>
       </c>
       <c r="F59" s="3">
-        <v>5115500</v>
+        <v>5032400</v>
       </c>
       <c r="G59" s="3">
-        <v>5318900</v>
+        <v>5224900</v>
       </c>
       <c r="H59" s="3">
-        <v>5446500</v>
+        <v>5432600</v>
       </c>
       <c r="I59" s="3">
-        <v>5040600</v>
+        <v>5563000</v>
       </c>
       <c r="J59" s="3">
+        <v>5148300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3896000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5125100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3739300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8268000</v>
+        <v>6999800</v>
       </c>
       <c r="E60" s="3">
-        <v>7636700</v>
+        <v>8444700</v>
       </c>
       <c r="F60" s="3">
-        <v>8681300</v>
+        <v>7799900</v>
       </c>
       <c r="G60" s="3">
-        <v>8787100</v>
+        <v>8866900</v>
       </c>
       <c r="H60" s="3">
-        <v>7356200</v>
+        <v>8975000</v>
       </c>
       <c r="I60" s="3">
-        <v>5955400</v>
+        <v>7513400</v>
       </c>
       <c r="J60" s="3">
+        <v>6082700</v>
+      </c>
+      <c r="K60" s="3">
         <v>5022200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4529500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5867600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13131100</v>
+        <v>15518800</v>
       </c>
       <c r="E61" s="3">
-        <v>6331400</v>
+        <v>13411800</v>
       </c>
       <c r="F61" s="3">
-        <v>5840200</v>
+        <v>6466700</v>
       </c>
       <c r="G61" s="3">
-        <v>6836900</v>
+        <v>5965000</v>
       </c>
       <c r="H61" s="3">
-        <v>7223000</v>
+        <v>6983000</v>
       </c>
       <c r="I61" s="3">
-        <v>6918600</v>
+        <v>7377400</v>
       </c>
       <c r="J61" s="3">
+        <v>7066500</v>
+      </c>
+      <c r="K61" s="3">
         <v>5773800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4106100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2855300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1872400</v>
+        <v>2065600</v>
       </c>
       <c r="E62" s="3">
-        <v>1521000</v>
+        <v>1912400</v>
       </c>
       <c r="F62" s="3">
-        <v>1263400</v>
+        <v>1553500</v>
       </c>
       <c r="G62" s="3">
-        <v>1462000</v>
+        <v>1290400</v>
       </c>
       <c r="H62" s="3">
-        <v>1472100</v>
+        <v>1493200</v>
       </c>
       <c r="I62" s="3">
-        <v>1305500</v>
+        <v>1503500</v>
       </c>
       <c r="J62" s="3">
+        <v>1333400</v>
+      </c>
+      <c r="K62" s="3">
         <v>970300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>925000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1071600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23869900</v>
+        <v>25231000</v>
       </c>
       <c r="E66" s="3">
-        <v>16056100</v>
+        <v>24380100</v>
       </c>
       <c r="F66" s="3">
-        <v>16332700</v>
+        <v>16399300</v>
       </c>
       <c r="G66" s="3">
-        <v>17597400</v>
+        <v>16681800</v>
       </c>
       <c r="H66" s="3">
-        <v>16578800</v>
+        <v>17973500</v>
       </c>
       <c r="I66" s="3">
-        <v>14717300</v>
+        <v>16933200</v>
       </c>
       <c r="J66" s="3">
+        <v>15031900</v>
+      </c>
+      <c r="K66" s="3">
         <v>12182100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9744300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10153300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>3644200</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>4844700</v>
+        <v>3722100</v>
       </c>
       <c r="F72" s="3">
-        <v>5872100</v>
+        <v>4948300</v>
       </c>
       <c r="G72" s="3">
-        <v>4716000</v>
+        <v>5997600</v>
       </c>
       <c r="H72" s="3">
-        <v>5126800</v>
+        <v>4816800</v>
       </c>
       <c r="I72" s="3">
-        <v>6067700</v>
+        <v>5236400</v>
       </c>
       <c r="J72" s="3">
+        <v>6197400</v>
+      </c>
+      <c r="K72" s="3">
         <v>7839500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15664800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9950600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4308000</v>
+        <v>4431400</v>
       </c>
       <c r="E76" s="3">
-        <v>5597800</v>
+        <v>4400100</v>
       </c>
       <c r="F76" s="3">
-        <v>6509100</v>
+        <v>5717400</v>
       </c>
       <c r="G76" s="3">
-        <v>5760000</v>
+        <v>6648300</v>
       </c>
       <c r="H76" s="3">
-        <v>6618900</v>
+        <v>5883100</v>
       </c>
       <c r="I76" s="3">
-        <v>7217700</v>
+        <v>6760400</v>
       </c>
       <c r="J76" s="3">
+        <v>7372000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8305700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7562900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10356200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>880000</v>
+        <v>2005100</v>
       </c>
       <c r="E81" s="3">
-        <v>1667700</v>
+        <v>898800</v>
       </c>
       <c r="F81" s="3">
-        <v>1356600</v>
+        <v>1703300</v>
       </c>
       <c r="G81" s="3">
-        <v>320500</v>
+        <v>1385600</v>
       </c>
       <c r="H81" s="3">
-        <v>386500</v>
+        <v>327300</v>
       </c>
       <c r="I81" s="3">
-        <v>1016300</v>
+        <v>394800</v>
       </c>
       <c r="J81" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="K81" s="3">
         <v>990200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>901200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>883400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2787800</v>
+        <v>3360600</v>
       </c>
       <c r="E83" s="3">
-        <v>2360000</v>
+        <v>2847400</v>
       </c>
       <c r="F83" s="3">
-        <v>2509400</v>
+        <v>2410400</v>
       </c>
       <c r="G83" s="3">
-        <v>3173600</v>
+        <v>2563100</v>
       </c>
       <c r="H83" s="3">
-        <v>2328200</v>
+        <v>3241500</v>
       </c>
       <c r="I83" s="3">
-        <v>1762000</v>
+        <v>2377900</v>
       </c>
       <c r="J83" s="3">
+        <v>1799700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1571600</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2422700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3874400</v>
+        <v>5066800</v>
       </c>
       <c r="E89" s="3">
-        <v>4120200</v>
+        <v>3957200</v>
       </c>
       <c r="F89" s="3">
-        <v>4610100</v>
+        <v>4208200</v>
       </c>
       <c r="G89" s="3">
-        <v>4503300</v>
+        <v>4708700</v>
       </c>
       <c r="H89" s="3">
-        <v>4200900</v>
+        <v>4599500</v>
       </c>
       <c r="I89" s="3">
-        <v>3832300</v>
+        <v>4290700</v>
       </c>
       <c r="J89" s="3">
+        <v>3914200</v>
+      </c>
+      <c r="K89" s="3">
         <v>4187600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2455400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3340400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2610500</v>
+        <v>-2197000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2378700</v>
+        <v>-2666300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2346400</v>
+        <v>-2429500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2686100</v>
+        <v>-2396500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2396400</v>
+        <v>-2743600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2342700</v>
+        <v>-2447700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2392700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1767400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1728100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1635100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4927600</v>
+        <v>-1221600</v>
       </c>
       <c r="E94" s="3">
-        <v>-69400</v>
+        <v>-5032900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1367000</v>
+        <v>-70900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2389300</v>
+        <v>-1396200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2296000</v>
+        <v>-2440400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2377100</v>
+        <v>-2345100</v>
       </c>
       <c r="J94" s="3">
+        <v>-2427900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2333700</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1781800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1372200</v>
+        <v>-1419600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2080900</v>
+        <v>-1401600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1352200</v>
+        <v>-2125400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1273200</v>
+        <v>-1381100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1214100</v>
+        <v>-1300400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1196300</v>
+        <v>-1240000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1221900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1045900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-810700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-765200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>490400</v>
+        <v>-3189400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4470300</v>
+        <v>500900</v>
       </c>
       <c r="F100" s="3">
-        <v>-3366100</v>
+        <v>-4565900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1023100</v>
+        <v>-3438000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1702800</v>
+        <v>-1044900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1569800</v>
+        <v>-1739200</v>
       </c>
       <c r="J100" s="3">
+        <v>-1603300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1558700</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1586600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>72600</v>
+        <v>48600</v>
       </c>
       <c r="E101" s="3">
-        <v>-32200</v>
+        <v>74100</v>
       </c>
       <c r="F101" s="3">
-        <v>51400</v>
+        <v>-32800</v>
       </c>
       <c r="G101" s="3">
-        <v>-50500</v>
+        <v>52500</v>
       </c>
       <c r="H101" s="3">
-        <v>9200</v>
+        <v>-51600</v>
       </c>
       <c r="I101" s="3">
-        <v>104900</v>
+        <v>9400</v>
       </c>
       <c r="J101" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K101" s="3">
         <v>64200</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-59300</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-490200</v>
+        <v>704300</v>
       </c>
       <c r="E102" s="3">
-        <v>-451700</v>
+        <v>-500700</v>
       </c>
       <c r="F102" s="3">
-        <v>-71500</v>
+        <v>-461400</v>
       </c>
       <c r="G102" s="3">
-        <v>1040400</v>
+        <v>-73100</v>
       </c>
       <c r="H102" s="3">
-        <v>211200</v>
+        <v>1062600</v>
       </c>
       <c r="I102" s="3">
-        <v>-9600</v>
+        <v>215800</v>
       </c>
       <c r="J102" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K102" s="3">
         <v>359400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-418900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-87000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14200600</v>
+        <v>14781500</v>
       </c>
       <c r="E8" s="3">
-        <v>13143200</v>
+        <v>13680800</v>
       </c>
       <c r="F8" s="3">
-        <v>12247900</v>
+        <v>12748900</v>
       </c>
       <c r="G8" s="3">
-        <v>12958500</v>
+        <v>13488600</v>
       </c>
       <c r="H8" s="3">
-        <v>14499400</v>
+        <v>15092500</v>
       </c>
       <c r="I8" s="3">
-        <v>14820900</v>
+        <v>15427100</v>
       </c>
       <c r="J8" s="3">
-        <v>12886200</v>
+        <v>13413300</v>
       </c>
       <c r="K8" s="3">
         <v>11223400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3442100</v>
+        <v>3582900</v>
       </c>
       <c r="E9" s="3">
-        <v>3227500</v>
+        <v>3359500</v>
       </c>
       <c r="F9" s="3">
-        <v>2768100</v>
+        <v>2881300</v>
       </c>
       <c r="G9" s="3">
-        <v>3113700</v>
+        <v>3241100</v>
       </c>
       <c r="H9" s="3">
-        <v>7705800</v>
+        <v>8021000</v>
       </c>
       <c r="I9" s="3">
-        <v>4064000</v>
+        <v>4230300</v>
       </c>
       <c r="J9" s="3">
-        <v>7129700</v>
+        <v>7421400</v>
       </c>
       <c r="K9" s="3">
         <v>6231500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10758600</v>
+        <v>11198700</v>
       </c>
       <c r="E10" s="3">
-        <v>9915700</v>
+        <v>10321400</v>
       </c>
       <c r="F10" s="3">
-        <v>9479800</v>
+        <v>9867600</v>
       </c>
       <c r="G10" s="3">
-        <v>9844900</v>
+        <v>10247600</v>
       </c>
       <c r="H10" s="3">
-        <v>6793600</v>
+        <v>7071500</v>
       </c>
       <c r="I10" s="3">
-        <v>10756800</v>
+        <v>11196900</v>
       </c>
       <c r="J10" s="3">
-        <v>5756400</v>
+        <v>5991900</v>
       </c>
       <c r="K10" s="3">
         <v>4991900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>222500</v>
+        <v>231600</v>
       </c>
       <c r="E14" s="3">
-        <v>97500</v>
+        <v>101500</v>
       </c>
       <c r="F14" s="3">
-        <v>355300</v>
+        <v>369900</v>
       </c>
       <c r="G14" s="3">
-        <v>964900</v>
+        <v>1004400</v>
       </c>
       <c r="H14" s="3">
-        <v>1142800</v>
+        <v>1189500</v>
       </c>
       <c r="I14" s="3">
-        <v>276400</v>
+        <v>287700</v>
       </c>
       <c r="J14" s="3">
-        <v>99800</v>
+        <v>103900</v>
       </c>
       <c r="K14" s="3">
         <v>115800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3359400</v>
+        <v>3496800</v>
       </c>
       <c r="E15" s="3">
-        <v>2836300</v>
+        <v>2952300</v>
       </c>
       <c r="F15" s="3">
-        <v>2317300</v>
+        <v>2412100</v>
       </c>
       <c r="G15" s="3">
-        <v>2267700</v>
+        <v>2360500</v>
       </c>
       <c r="H15" s="3">
-        <v>4579300</v>
+        <v>4766600</v>
       </c>
       <c r="I15" s="3">
-        <v>2116600</v>
+        <v>2203200</v>
       </c>
       <c r="J15" s="3">
-        <v>3580700</v>
+        <v>3727200</v>
       </c>
       <c r="K15" s="3">
         <v>3015900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10783400</v>
+        <v>11224500</v>
       </c>
       <c r="E17" s="3">
-        <v>10157300</v>
+        <v>10572800</v>
       </c>
       <c r="F17" s="3">
-        <v>9825800</v>
+        <v>10227700</v>
       </c>
       <c r="G17" s="3">
-        <v>10756400</v>
+        <v>11196400</v>
       </c>
       <c r="H17" s="3">
-        <v>11605200</v>
+        <v>12079900</v>
       </c>
       <c r="I17" s="3">
-        <v>12160000</v>
+        <v>12657400</v>
       </c>
       <c r="J17" s="3">
-        <v>10006300</v>
+        <v>10415600</v>
       </c>
       <c r="K17" s="3">
         <v>8871800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3417200</v>
+        <v>3557000</v>
       </c>
       <c r="E18" s="3">
-        <v>2985900</v>
+        <v>3108100</v>
       </c>
       <c r="F18" s="3">
-        <v>2422100</v>
+        <v>2521200</v>
       </c>
       <c r="G18" s="3">
-        <v>2202200</v>
+        <v>2292300</v>
       </c>
       <c r="H18" s="3">
-        <v>2894200</v>
+        <v>3012600</v>
       </c>
       <c r="I18" s="3">
-        <v>2660900</v>
+        <v>2769700</v>
       </c>
       <c r="J18" s="3">
-        <v>2879900</v>
+        <v>2997700</v>
       </c>
       <c r="K18" s="3">
         <v>2351600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>-34000</v>
+        <v>-35400</v>
       </c>
       <c r="F20" s="3">
-        <v>-129000</v>
+        <v>-134300</v>
       </c>
       <c r="G20" s="3">
-        <v>365400</v>
+        <v>380300</v>
       </c>
       <c r="H20" s="3">
-        <v>-99600</v>
+        <v>-103600</v>
       </c>
       <c r="I20" s="3">
-        <v>-888400</v>
+        <v>-924700</v>
       </c>
       <c r="J20" s="3">
-        <v>-246300</v>
+        <v>-256400</v>
       </c>
       <c r="K20" s="3">
         <v>57400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6287600</v>
+        <v>7052700</v>
       </c>
       <c r="E21" s="3">
-        <v>5376100</v>
+        <v>6028700</v>
       </c>
       <c r="F21" s="3">
-        <v>4870700</v>
+        <v>4889200</v>
       </c>
       <c r="G21" s="3">
-        <v>5827500</v>
+        <v>5333400</v>
       </c>
       <c r="H21" s="3">
-        <v>5186200</v>
+        <v>6274100</v>
       </c>
       <c r="I21" s="3">
-        <v>3582400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>4313600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4609600</v>
       </c>
       <c r="K21" s="3">
         <v>3973100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>459100</v>
+        <v>477800</v>
       </c>
       <c r="E22" s="3">
-        <v>527400</v>
+        <v>549000</v>
       </c>
       <c r="F22" s="3">
-        <v>246300</v>
+        <v>256400</v>
       </c>
       <c r="G22" s="3">
-        <v>300600</v>
+        <v>312900</v>
       </c>
       <c r="H22" s="3">
-        <v>562800</v>
+        <v>585800</v>
       </c>
       <c r="I22" s="3">
-        <v>267000</v>
+        <v>277900</v>
       </c>
       <c r="J22" s="3">
-        <v>395500</v>
+        <v>411600</v>
       </c>
       <c r="K22" s="3">
         <v>416600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2964900</v>
+        <v>3086200</v>
       </c>
       <c r="E23" s="3">
-        <v>2424500</v>
+        <v>2523700</v>
       </c>
       <c r="F23" s="3">
-        <v>2046800</v>
+        <v>2130500</v>
       </c>
       <c r="G23" s="3">
-        <v>2266900</v>
+        <v>2359700</v>
       </c>
       <c r="H23" s="3">
-        <v>2231900</v>
+        <v>2323200</v>
       </c>
       <c r="I23" s="3">
-        <v>1505500</v>
+        <v>1567100</v>
       </c>
       <c r="J23" s="3">
-        <v>2238100</v>
+        <v>2329700</v>
       </c>
       <c r="K23" s="3">
         <v>1992400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>760500</v>
+        <v>791600</v>
       </c>
       <c r="E24" s="3">
-        <v>1044500</v>
+        <v>1087200</v>
       </c>
       <c r="F24" s="3">
-        <v>696600</v>
+        <v>725000</v>
       </c>
       <c r="G24" s="3">
-        <v>750600</v>
+        <v>781300</v>
       </c>
       <c r="H24" s="3">
-        <v>685000</v>
+        <v>713000</v>
       </c>
       <c r="I24" s="3">
-        <v>730400</v>
+        <v>760300</v>
       </c>
       <c r="J24" s="3">
-        <v>762900</v>
+        <v>794100</v>
       </c>
       <c r="K24" s="3">
         <v>641800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2204400</v>
+        <v>2294500</v>
       </c>
       <c r="E26" s="3">
-        <v>1380000</v>
+        <v>1436500</v>
       </c>
       <c r="F26" s="3">
-        <v>1350200</v>
+        <v>1405400</v>
       </c>
       <c r="G26" s="3">
-        <v>1516400</v>
+        <v>1578400</v>
       </c>
       <c r="H26" s="3">
-        <v>1546900</v>
+        <v>1610200</v>
       </c>
       <c r="I26" s="3">
-        <v>775100</v>
+        <v>806800</v>
       </c>
       <c r="J26" s="3">
-        <v>1475200</v>
+        <v>1535600</v>
       </c>
       <c r="K26" s="3">
         <v>1350600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1774500</v>
+        <v>1847000</v>
       </c>
       <c r="E27" s="3">
-        <v>984600</v>
+        <v>1024900</v>
       </c>
       <c r="F27" s="3">
-        <v>1036700</v>
+        <v>1079100</v>
       </c>
       <c r="G27" s="3">
-        <v>1179300</v>
+        <v>1227600</v>
       </c>
       <c r="H27" s="3">
-        <v>1202900</v>
+        <v>1252100</v>
       </c>
       <c r="I27" s="3">
-        <v>394800</v>
+        <v>410900</v>
       </c>
       <c r="J27" s="3">
-        <v>1049600</v>
+        <v>1092500</v>
       </c>
       <c r="K27" s="3">
         <v>968400</v>
@@ -1413,25 +1413,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>230700</v>
+        <v>240100</v>
       </c>
       <c r="E29" s="3">
-        <v>-85800</v>
+        <v>-89300</v>
       </c>
       <c r="F29" s="3">
-        <v>666600</v>
+        <v>693900</v>
       </c>
       <c r="G29" s="3">
-        <v>206300</v>
+        <v>214700</v>
       </c>
       <c r="H29" s="3">
-        <v>-875600</v>
+        <v>-911400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>-11600</v>
+        <v>-12000</v>
       </c>
       <c r="K29" s="3">
         <v>21800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>34000</v>
+        <v>35400</v>
       </c>
       <c r="F32" s="3">
-        <v>129000</v>
+        <v>134300</v>
       </c>
       <c r="G32" s="3">
-        <v>-365400</v>
+        <v>-380300</v>
       </c>
       <c r="H32" s="3">
-        <v>99600</v>
+        <v>103600</v>
       </c>
       <c r="I32" s="3">
-        <v>888400</v>
+        <v>924700</v>
       </c>
       <c r="J32" s="3">
-        <v>246300</v>
+        <v>256400</v>
       </c>
       <c r="K32" s="3">
         <v>-57400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2005100</v>
+        <v>2087200</v>
       </c>
       <c r="E33" s="3">
-        <v>898800</v>
+        <v>935600</v>
       </c>
       <c r="F33" s="3">
-        <v>1703300</v>
+        <v>1773000</v>
       </c>
       <c r="G33" s="3">
-        <v>1385600</v>
+        <v>1442300</v>
       </c>
       <c r="H33" s="3">
-        <v>327300</v>
+        <v>340700</v>
       </c>
       <c r="I33" s="3">
-        <v>394800</v>
+        <v>410900</v>
       </c>
       <c r="J33" s="3">
-        <v>1038000</v>
+        <v>1080500</v>
       </c>
       <c r="K33" s="3">
         <v>990200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2005100</v>
+        <v>2087200</v>
       </c>
       <c r="E35" s="3">
-        <v>898800</v>
+        <v>935600</v>
       </c>
       <c r="F35" s="3">
-        <v>1703300</v>
+        <v>1773000</v>
       </c>
       <c r="G35" s="3">
-        <v>1385600</v>
+        <v>1442300</v>
       </c>
       <c r="H35" s="3">
-        <v>327300</v>
+        <v>340700</v>
       </c>
       <c r="I35" s="3">
-        <v>394800</v>
+        <v>410900</v>
       </c>
       <c r="J35" s="3">
-        <v>1038000</v>
+        <v>1080500</v>
       </c>
       <c r="K35" s="3">
         <v>990200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2379300</v>
+        <v>2476600</v>
       </c>
       <c r="E41" s="3">
-        <v>1603400</v>
+        <v>1669000</v>
       </c>
       <c r="F41" s="3">
-        <v>2138200</v>
+        <v>2225700</v>
       </c>
       <c r="G41" s="3">
-        <v>2607000</v>
+        <v>2713600</v>
       </c>
       <c r="H41" s="3">
-        <v>2669300</v>
+        <v>2778500</v>
       </c>
       <c r="I41" s="3">
-        <v>1613700</v>
+        <v>1679700</v>
       </c>
       <c r="J41" s="3">
-        <v>1428000</v>
+        <v>1486400</v>
       </c>
       <c r="K41" s="3">
         <v>1356000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66600</v>
+        <v>48000</v>
       </c>
       <c r="E42" s="3">
-        <v>65100</v>
+        <v>67800</v>
       </c>
       <c r="F42" s="3">
-        <v>68500</v>
+        <v>71300</v>
       </c>
       <c r="G42" s="3">
-        <v>116900</v>
+        <v>121700</v>
       </c>
       <c r="H42" s="3">
-        <v>270100</v>
+        <v>281200</v>
       </c>
       <c r="I42" s="3">
-        <v>139200</v>
+        <v>144900</v>
       </c>
       <c r="J42" s="3">
-        <v>114500</v>
+        <v>119200</v>
       </c>
       <c r="K42" s="3">
         <v>114100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3191200</v>
+        <v>2794200</v>
       </c>
       <c r="E43" s="3">
-        <v>2653400</v>
+        <v>2761900</v>
       </c>
       <c r="F43" s="3">
-        <v>2306900</v>
+        <v>2401300</v>
       </c>
       <c r="G43" s="3">
-        <v>1861800</v>
+        <v>1937900</v>
       </c>
       <c r="H43" s="3">
-        <v>1717300</v>
+        <v>1787600</v>
       </c>
       <c r="I43" s="3">
-        <v>1726900</v>
+        <v>1797600</v>
       </c>
       <c r="J43" s="3">
-        <v>1533600</v>
+        <v>1596300</v>
       </c>
       <c r="K43" s="3">
         <v>1440800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>151800</v>
+        <v>158000</v>
       </c>
       <c r="E44" s="3">
-        <v>171700</v>
+        <v>178700</v>
       </c>
       <c r="F44" s="3">
-        <v>196900</v>
+        <v>205000</v>
       </c>
       <c r="G44" s="3">
-        <v>205000</v>
+        <v>213400</v>
       </c>
       <c r="H44" s="3">
-        <v>208400</v>
+        <v>216900</v>
       </c>
       <c r="I44" s="3">
-        <v>262600</v>
+        <v>273300</v>
       </c>
       <c r="J44" s="3">
-        <v>237300</v>
+        <v>247000</v>
       </c>
       <c r="K44" s="3">
         <v>179700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>549000</v>
       </c>
       <c r="E45" s="3">
-        <v>924600</v>
+        <v>962400</v>
       </c>
       <c r="F45" s="3">
-        <v>407700</v>
+        <v>424400</v>
       </c>
       <c r="G45" s="3">
-        <v>1391800</v>
+        <v>1448800</v>
       </c>
       <c r="H45" s="3">
-        <v>1262200</v>
+        <v>1313800</v>
       </c>
       <c r="I45" s="3">
-        <v>1150200</v>
+        <v>1197200</v>
       </c>
       <c r="J45" s="3">
-        <v>1084500</v>
+        <v>1128900</v>
       </c>
       <c r="K45" s="3">
         <v>852500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5789000</v>
+        <v>6025800</v>
       </c>
       <c r="E46" s="3">
-        <v>5418200</v>
+        <v>5639800</v>
       </c>
       <c r="F46" s="3">
-        <v>5118200</v>
+        <v>5327600</v>
       </c>
       <c r="G46" s="3">
-        <v>6182500</v>
+        <v>6435400</v>
       </c>
       <c r="H46" s="3">
-        <v>6127300</v>
+        <v>6378000</v>
       </c>
       <c r="I46" s="3">
-        <v>4892700</v>
+        <v>5092800</v>
       </c>
       <c r="J46" s="3">
-        <v>4398000</v>
+        <v>4577900</v>
       </c>
       <c r="K46" s="3">
         <v>3943100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>742000</v>
+        <v>1139600</v>
       </c>
       <c r="E47" s="3">
-        <v>863800</v>
+        <v>899100</v>
       </c>
       <c r="F47" s="3">
-        <v>1177000</v>
+        <v>1225100</v>
       </c>
       <c r="G47" s="3">
-        <v>1329300</v>
+        <v>1383700</v>
       </c>
       <c r="H47" s="3">
-        <v>2174400</v>
+        <v>2263400</v>
       </c>
       <c r="I47" s="3">
-        <v>2642800</v>
+        <v>2750900</v>
       </c>
       <c r="J47" s="3">
-        <v>3187100</v>
+        <v>3317500</v>
       </c>
       <c r="K47" s="3">
         <v>4135100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16440300</v>
+        <v>17112800</v>
       </c>
       <c r="E48" s="3">
-        <v>16484200</v>
+        <v>17158500</v>
       </c>
       <c r="F48" s="3">
-        <v>8482700</v>
+        <v>8829700</v>
       </c>
       <c r="G48" s="3">
-        <v>8736700</v>
+        <v>9094000</v>
       </c>
       <c r="H48" s="3">
-        <v>8327200</v>
+        <v>8667800</v>
       </c>
       <c r="I48" s="3">
-        <v>8002900</v>
+        <v>8330200</v>
       </c>
       <c r="J48" s="3">
-        <v>6887200</v>
+        <v>7168900</v>
       </c>
       <c r="K48" s="3">
         <v>5609200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4644700</v>
+        <v>4834700</v>
       </c>
       <c r="E49" s="3">
-        <v>4488900</v>
+        <v>4672500</v>
       </c>
       <c r="F49" s="3">
-        <v>5871000</v>
+        <v>6111200</v>
       </c>
       <c r="G49" s="3">
-        <v>6596300</v>
+        <v>6866200</v>
       </c>
       <c r="H49" s="3">
-        <v>6657500</v>
+        <v>6929800</v>
       </c>
       <c r="I49" s="3">
-        <v>7453900</v>
+        <v>7758800</v>
       </c>
       <c r="J49" s="3">
-        <v>7224100</v>
+        <v>7519600</v>
       </c>
       <c r="K49" s="3">
         <v>6080800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2046400</v>
+        <v>1762900</v>
       </c>
       <c r="E52" s="3">
-        <v>1525200</v>
+        <v>1587500</v>
       </c>
       <c r="F52" s="3">
-        <v>1467800</v>
+        <v>1527800</v>
       </c>
       <c r="G52" s="3">
-        <v>485300</v>
+        <v>505200</v>
       </c>
       <c r="H52" s="3">
-        <v>570200</v>
+        <v>593500</v>
       </c>
       <c r="I52" s="3">
-        <v>701400</v>
+        <v>730100</v>
       </c>
       <c r="J52" s="3">
-        <v>707700</v>
+        <v>736600</v>
       </c>
       <c r="K52" s="3">
         <v>719400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29662400</v>
+        <v>30875800</v>
       </c>
       <c r="E54" s="3">
-        <v>28780200</v>
+        <v>29957500</v>
       </c>
       <c r="F54" s="3">
-        <v>22116800</v>
+        <v>23021500</v>
       </c>
       <c r="G54" s="3">
-        <v>23330100</v>
+        <v>24284400</v>
       </c>
       <c r="H54" s="3">
-        <v>23856700</v>
+        <v>24832600</v>
       </c>
       <c r="I54" s="3">
-        <v>23693600</v>
+        <v>24662800</v>
       </c>
       <c r="J54" s="3">
-        <v>22403900</v>
+        <v>23320400</v>
       </c>
       <c r="K54" s="3">
         <v>20487700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3918800</v>
+        <v>1090900</v>
       </c>
       <c r="E57" s="3">
-        <v>1088000</v>
+        <v>1132500</v>
       </c>
       <c r="F57" s="3">
-        <v>947500</v>
+        <v>986200</v>
       </c>
       <c r="G57" s="3">
-        <v>1016000</v>
+        <v>1057600</v>
       </c>
       <c r="H57" s="3">
-        <v>539400</v>
+        <v>561500</v>
       </c>
       <c r="I57" s="3">
-        <v>490500</v>
+        <v>510600</v>
       </c>
       <c r="J57" s="3">
-        <v>386600</v>
+        <v>402400</v>
       </c>
       <c r="K57" s="3">
         <v>300800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1918800</v>
+        <v>1997300</v>
       </c>
       <c r="E58" s="3">
-        <v>2781600</v>
+        <v>2895400</v>
       </c>
       <c r="F58" s="3">
-        <v>1820000</v>
+        <v>1894500</v>
       </c>
       <c r="G58" s="3">
-        <v>2626000</v>
+        <v>2733400</v>
       </c>
       <c r="H58" s="3">
-        <v>3002900</v>
+        <v>3125700</v>
       </c>
       <c r="I58" s="3">
-        <v>1459900</v>
+        <v>1519700</v>
       </c>
       <c r="J58" s="3">
-        <v>864200</v>
+        <v>899600</v>
       </c>
       <c r="K58" s="3">
         <v>1647800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1162200</v>
+        <v>4197900</v>
       </c>
       <c r="E59" s="3">
-        <v>4575100</v>
+        <v>4762300</v>
       </c>
       <c r="F59" s="3">
-        <v>5032400</v>
+        <v>5238300</v>
       </c>
       <c r="G59" s="3">
-        <v>5224900</v>
+        <v>5438600</v>
       </c>
       <c r="H59" s="3">
-        <v>5432600</v>
+        <v>5654900</v>
       </c>
       <c r="I59" s="3">
-        <v>5563000</v>
+        <v>5790500</v>
       </c>
       <c r="J59" s="3">
-        <v>5148300</v>
+        <v>5358900</v>
       </c>
       <c r="K59" s="3">
         <v>3896000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6999800</v>
+        <v>7286100</v>
       </c>
       <c r="E60" s="3">
-        <v>8444700</v>
+        <v>8790100</v>
       </c>
       <c r="F60" s="3">
-        <v>7799900</v>
+        <v>8119000</v>
       </c>
       <c r="G60" s="3">
-        <v>8866900</v>
+        <v>9229600</v>
       </c>
       <c r="H60" s="3">
-        <v>8975000</v>
+        <v>9342100</v>
       </c>
       <c r="I60" s="3">
-        <v>7513400</v>
+        <v>7820800</v>
       </c>
       <c r="J60" s="3">
-        <v>6082700</v>
+        <v>6331500</v>
       </c>
       <c r="K60" s="3">
         <v>5022200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15518800</v>
+        <v>16153600</v>
       </c>
       <c r="E61" s="3">
-        <v>13411800</v>
+        <v>13960400</v>
       </c>
       <c r="F61" s="3">
-        <v>6466700</v>
+        <v>6731300</v>
       </c>
       <c r="G61" s="3">
-        <v>5965000</v>
+        <v>6209000</v>
       </c>
       <c r="H61" s="3">
-        <v>6983000</v>
+        <v>7268700</v>
       </c>
       <c r="I61" s="3">
-        <v>7377400</v>
+        <v>7679200</v>
       </c>
       <c r="J61" s="3">
-        <v>7066500</v>
+        <v>7355600</v>
       </c>
       <c r="K61" s="3">
         <v>5773800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2065600</v>
+        <v>2150100</v>
       </c>
       <c r="E62" s="3">
-        <v>1912400</v>
+        <v>1990600</v>
       </c>
       <c r="F62" s="3">
-        <v>1553500</v>
+        <v>1617000</v>
       </c>
       <c r="G62" s="3">
-        <v>1290400</v>
+        <v>1343200</v>
       </c>
       <c r="H62" s="3">
-        <v>1493200</v>
+        <v>1554300</v>
       </c>
       <c r="I62" s="3">
-        <v>1503500</v>
+        <v>1565000</v>
       </c>
       <c r="J62" s="3">
-        <v>1333400</v>
+        <v>1388000</v>
       </c>
       <c r="K62" s="3">
         <v>970300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25231000</v>
+        <v>26263200</v>
       </c>
       <c r="E66" s="3">
-        <v>24380100</v>
+        <v>25377400</v>
       </c>
       <c r="F66" s="3">
-        <v>16399300</v>
+        <v>17070200</v>
       </c>
       <c r="G66" s="3">
-        <v>16681800</v>
+        <v>17364200</v>
       </c>
       <c r="H66" s="3">
-        <v>17973500</v>
+        <v>18708800</v>
       </c>
       <c r="I66" s="3">
-        <v>16933200</v>
+        <v>17625900</v>
       </c>
       <c r="J66" s="3">
-        <v>15031900</v>
+        <v>15646800</v>
       </c>
       <c r="K66" s="3">
         <v>12182100</v>
@@ -2793,26 +2793,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>3976100</v>
       </c>
       <c r="E72" s="3">
-        <v>3722100</v>
+        <v>3874400</v>
       </c>
       <c r="F72" s="3">
-        <v>4948300</v>
+        <v>5150700</v>
       </c>
       <c r="G72" s="3">
-        <v>5997600</v>
+        <v>6243000</v>
       </c>
       <c r="H72" s="3">
-        <v>4816800</v>
+        <v>5013800</v>
       </c>
       <c r="I72" s="3">
-        <v>5236400</v>
+        <v>5450600</v>
       </c>
       <c r="J72" s="3">
-        <v>6197400</v>
+        <v>6450900</v>
       </c>
       <c r="K72" s="3">
         <v>7839500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4431400</v>
+        <v>4612700</v>
       </c>
       <c r="E76" s="3">
-        <v>4400100</v>
+        <v>4580100</v>
       </c>
       <c r="F76" s="3">
-        <v>5717400</v>
+        <v>5951300</v>
       </c>
       <c r="G76" s="3">
-        <v>6648300</v>
+        <v>6920200</v>
       </c>
       <c r="H76" s="3">
-        <v>5883100</v>
+        <v>6123800</v>
       </c>
       <c r="I76" s="3">
-        <v>6760400</v>
+        <v>7037000</v>
       </c>
       <c r="J76" s="3">
-        <v>7372000</v>
+        <v>7673600</v>
       </c>
       <c r="K76" s="3">
         <v>8305700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2005100</v>
+        <v>2087200</v>
       </c>
       <c r="E81" s="3">
-        <v>898800</v>
+        <v>935600</v>
       </c>
       <c r="F81" s="3">
-        <v>1703300</v>
+        <v>1773000</v>
       </c>
       <c r="G81" s="3">
-        <v>1385600</v>
+        <v>1442300</v>
       </c>
       <c r="H81" s="3">
-        <v>327300</v>
+        <v>340700</v>
       </c>
       <c r="I81" s="3">
-        <v>394800</v>
+        <v>410900</v>
       </c>
       <c r="J81" s="3">
-        <v>1038000</v>
+        <v>1080500</v>
       </c>
       <c r="K81" s="3">
         <v>990200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3360600</v>
+        <v>3498000</v>
       </c>
       <c r="E83" s="3">
-        <v>2847400</v>
+        <v>2963900</v>
       </c>
       <c r="F83" s="3">
-        <v>2410400</v>
+        <v>2509000</v>
       </c>
       <c r="G83" s="3">
-        <v>2563100</v>
+        <v>2667900</v>
       </c>
       <c r="H83" s="3">
-        <v>3241500</v>
+        <v>3374100</v>
       </c>
       <c r="I83" s="3">
-        <v>2377900</v>
+        <v>2475200</v>
       </c>
       <c r="J83" s="3">
-        <v>1799700</v>
+        <v>1873300</v>
       </c>
       <c r="K83" s="3">
         <v>1571600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5066800</v>
+        <v>5274100</v>
       </c>
       <c r="E89" s="3">
-        <v>3957200</v>
+        <v>4119100</v>
       </c>
       <c r="F89" s="3">
-        <v>4208200</v>
+        <v>4380400</v>
       </c>
       <c r="G89" s="3">
-        <v>4708700</v>
+        <v>4901300</v>
       </c>
       <c r="H89" s="3">
-        <v>4599500</v>
+        <v>4787700</v>
       </c>
       <c r="I89" s="3">
-        <v>4290700</v>
+        <v>4466200</v>
       </c>
       <c r="J89" s="3">
-        <v>3914200</v>
+        <v>4074300</v>
       </c>
       <c r="K89" s="3">
         <v>4187600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2197000</v>
+        <v>-2286800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2666300</v>
+        <v>-2775400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2429500</v>
+        <v>-2528900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2396500</v>
+        <v>-2494600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2743600</v>
+        <v>-2855800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2447700</v>
+        <v>-2547800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2392700</v>
+        <v>-2490600</v>
       </c>
       <c r="K91" s="3">
         <v>-1767400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1221600</v>
+        <v>-1271600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5032900</v>
+        <v>-5238800</v>
       </c>
       <c r="F94" s="3">
-        <v>-70900</v>
+        <v>-73800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1396200</v>
+        <v>-1453300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2440400</v>
+        <v>-2540200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2345100</v>
+        <v>-2441000</v>
       </c>
       <c r="J94" s="3">
-        <v>-2427900</v>
+        <v>-2527200</v>
       </c>
       <c r="K94" s="3">
         <v>-2333700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1419600</v>
+        <v>-1477700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1401600</v>
+        <v>-1458900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2125400</v>
+        <v>-2212300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1381100</v>
+        <v>-1437600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1300400</v>
+        <v>-1353600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1240000</v>
+        <v>-1290700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1221900</v>
+        <v>-1271800</v>
       </c>
       <c r="K96" s="3">
         <v>-1045900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3189400</v>
+        <v>-3319900</v>
       </c>
       <c r="E100" s="3">
-        <v>500900</v>
+        <v>521400</v>
       </c>
       <c r="F100" s="3">
-        <v>-4565900</v>
+        <v>-4752700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3438000</v>
+        <v>-3578700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1044900</v>
+        <v>-1087700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1739200</v>
+        <v>-1810300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1603300</v>
+        <v>-1668900</v>
       </c>
       <c r="K100" s="3">
         <v>-1558700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>48600</v>
+        <v>50600</v>
       </c>
       <c r="E101" s="3">
-        <v>74100</v>
+        <v>77200</v>
       </c>
       <c r="F101" s="3">
-        <v>-32800</v>
+        <v>-34200</v>
       </c>
       <c r="G101" s="3">
-        <v>52500</v>
+        <v>54600</v>
       </c>
       <c r="H101" s="3">
-        <v>-51600</v>
+        <v>-53700</v>
       </c>
       <c r="I101" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="J101" s="3">
-        <v>107200</v>
+        <v>111600</v>
       </c>
       <c r="K101" s="3">
         <v>64200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>704300</v>
+        <v>733100</v>
       </c>
       <c r="E102" s="3">
-        <v>-500700</v>
+        <v>-521200</v>
       </c>
       <c r="F102" s="3">
-        <v>-461400</v>
+        <v>-480200</v>
       </c>
       <c r="G102" s="3">
-        <v>-73100</v>
+        <v>-76100</v>
       </c>
       <c r="H102" s="3">
-        <v>1062600</v>
+        <v>1106100</v>
       </c>
       <c r="I102" s="3">
-        <v>215800</v>
+        <v>224600</v>
       </c>
       <c r="J102" s="3">
-        <v>-9800</v>
+        <v>-10200</v>
       </c>
       <c r="K102" s="3">
         <v>359400</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14781500</v>
+        <v>12821100</v>
       </c>
       <c r="E8" s="3">
-        <v>13680800</v>
+        <v>12580600</v>
       </c>
       <c r="F8" s="3">
-        <v>12748900</v>
+        <v>11723600</v>
       </c>
       <c r="G8" s="3">
-        <v>13488600</v>
+        <v>12403800</v>
       </c>
       <c r="H8" s="3">
-        <v>15092500</v>
+        <v>13878700</v>
       </c>
       <c r="I8" s="3">
-        <v>15427100</v>
+        <v>14186400</v>
       </c>
       <c r="J8" s="3">
-        <v>13413300</v>
+        <v>12334500</v>
       </c>
       <c r="K8" s="3">
         <v>11223400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3582900</v>
+        <v>6508500</v>
       </c>
       <c r="E9" s="3">
-        <v>3359500</v>
+        <v>3089300</v>
       </c>
       <c r="F9" s="3">
-        <v>2881300</v>
+        <v>2649600</v>
       </c>
       <c r="G9" s="3">
-        <v>3241100</v>
+        <v>2980400</v>
       </c>
       <c r="H9" s="3">
-        <v>8021000</v>
+        <v>7375900</v>
       </c>
       <c r="I9" s="3">
-        <v>4230300</v>
+        <v>3890100</v>
       </c>
       <c r="J9" s="3">
-        <v>7421400</v>
+        <v>6824500</v>
       </c>
       <c r="K9" s="3">
         <v>6231500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11198700</v>
+        <v>6312500</v>
       </c>
       <c r="E10" s="3">
-        <v>10321400</v>
+        <v>9491300</v>
       </c>
       <c r="F10" s="3">
-        <v>9867600</v>
+        <v>9074000</v>
       </c>
       <c r="G10" s="3">
-        <v>10247600</v>
+        <v>9423400</v>
       </c>
       <c r="H10" s="3">
-        <v>7071500</v>
+        <v>6502800</v>
       </c>
       <c r="I10" s="3">
-        <v>11196900</v>
+        <v>10296300</v>
       </c>
       <c r="J10" s="3">
-        <v>5991900</v>
+        <v>5510000</v>
       </c>
       <c r="K10" s="3">
         <v>4991900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>231600</v>
+        <v>213800</v>
       </c>
       <c r="E14" s="3">
-        <v>101500</v>
+        <v>93300</v>
       </c>
       <c r="F14" s="3">
-        <v>369900</v>
+        <v>340100</v>
       </c>
       <c r="G14" s="3">
-        <v>1004400</v>
+        <v>923600</v>
       </c>
       <c r="H14" s="3">
-        <v>1189500</v>
+        <v>1093900</v>
       </c>
       <c r="I14" s="3">
-        <v>287700</v>
+        <v>264500</v>
       </c>
       <c r="J14" s="3">
-        <v>103900</v>
+        <v>95500</v>
       </c>
       <c r="K14" s="3">
         <v>115800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3496800</v>
+        <v>6126200</v>
       </c>
       <c r="E15" s="3">
-        <v>2952300</v>
+        <v>2714900</v>
       </c>
       <c r="F15" s="3">
-        <v>2412100</v>
+        <v>2218100</v>
       </c>
       <c r="G15" s="3">
-        <v>2360500</v>
+        <v>2170700</v>
       </c>
       <c r="H15" s="3">
-        <v>4766600</v>
+        <v>4383300</v>
       </c>
       <c r="I15" s="3">
-        <v>2203200</v>
+        <v>2026000</v>
       </c>
       <c r="J15" s="3">
-        <v>3727200</v>
+        <v>3427400</v>
       </c>
       <c r="K15" s="3">
         <v>3015900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11224500</v>
+        <v>9723800</v>
       </c>
       <c r="E17" s="3">
-        <v>10572800</v>
+        <v>9722500</v>
       </c>
       <c r="F17" s="3">
-        <v>10227700</v>
+        <v>9405100</v>
       </c>
       <c r="G17" s="3">
-        <v>11196400</v>
+        <v>10295900</v>
       </c>
       <c r="H17" s="3">
-        <v>12079900</v>
+        <v>11108400</v>
       </c>
       <c r="I17" s="3">
-        <v>12657400</v>
+        <v>11639400</v>
       </c>
       <c r="J17" s="3">
-        <v>10415600</v>
+        <v>9577900</v>
       </c>
       <c r="K17" s="3">
         <v>8871800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3557000</v>
+        <v>3097300</v>
       </c>
       <c r="E18" s="3">
-        <v>3108100</v>
+        <v>2858100</v>
       </c>
       <c r="F18" s="3">
-        <v>2521200</v>
+        <v>2318400</v>
       </c>
       <c r="G18" s="3">
-        <v>2292300</v>
+        <v>2107900</v>
       </c>
       <c r="H18" s="3">
-        <v>3012600</v>
+        <v>2770300</v>
       </c>
       <c r="I18" s="3">
-        <v>2769700</v>
+        <v>2547000</v>
       </c>
       <c r="J18" s="3">
-        <v>2997700</v>
+        <v>2756600</v>
       </c>
       <c r="K18" s="3">
         <v>2351600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>355200</v>
       </c>
       <c r="E20" s="3">
-        <v>-35400</v>
+        <v>-32500</v>
       </c>
       <c r="F20" s="3">
-        <v>-134300</v>
+        <v>-123500</v>
       </c>
       <c r="G20" s="3">
-        <v>380300</v>
+        <v>349700</v>
       </c>
       <c r="H20" s="3">
-        <v>-103600</v>
+        <v>-95300</v>
       </c>
       <c r="I20" s="3">
-        <v>-924700</v>
+        <v>-850400</v>
       </c>
       <c r="J20" s="3">
-        <v>-256400</v>
+        <v>-235700</v>
       </c>
       <c r="K20" s="3">
         <v>57400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7052700</v>
+        <v>6718500</v>
       </c>
       <c r="E21" s="3">
-        <v>6028700</v>
+        <v>5592900</v>
       </c>
       <c r="F21" s="3">
-        <v>4889200</v>
+        <v>4537600</v>
       </c>
       <c r="G21" s="3">
-        <v>5333400</v>
+        <v>4948700</v>
       </c>
       <c r="H21" s="3">
-        <v>6274100</v>
+        <v>5825400</v>
       </c>
       <c r="I21" s="3">
-        <v>4313600</v>
+        <v>4007700</v>
       </c>
       <c r="J21" s="3">
-        <v>4609600</v>
+        <v>4269900</v>
       </c>
       <c r="K21" s="3">
         <v>3973100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>477800</v>
+        <v>763800</v>
       </c>
       <c r="E22" s="3">
-        <v>549000</v>
+        <v>504800</v>
       </c>
       <c r="F22" s="3">
-        <v>256400</v>
+        <v>235700</v>
       </c>
       <c r="G22" s="3">
-        <v>312900</v>
+        <v>287800</v>
       </c>
       <c r="H22" s="3">
-        <v>585800</v>
+        <v>538700</v>
       </c>
       <c r="I22" s="3">
-        <v>277900</v>
+        <v>255600</v>
       </c>
       <c r="J22" s="3">
-        <v>411600</v>
+        <v>378500</v>
       </c>
       <c r="K22" s="3">
         <v>416600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3086200</v>
+        <v>2688600</v>
       </c>
       <c r="E23" s="3">
-        <v>2523700</v>
+        <v>2320700</v>
       </c>
       <c r="F23" s="3">
-        <v>2130500</v>
+        <v>1959100</v>
       </c>
       <c r="G23" s="3">
-        <v>2359700</v>
+        <v>2169900</v>
       </c>
       <c r="H23" s="3">
-        <v>2323200</v>
+        <v>2136300</v>
       </c>
       <c r="I23" s="3">
-        <v>1567100</v>
+        <v>1441100</v>
       </c>
       <c r="J23" s="3">
-        <v>2329700</v>
+        <v>2142300</v>
       </c>
       <c r="K23" s="3">
         <v>1992400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>791600</v>
+        <v>710500</v>
       </c>
       <c r="E24" s="3">
-        <v>1087200</v>
+        <v>999800</v>
       </c>
       <c r="F24" s="3">
-        <v>725000</v>
+        <v>666700</v>
       </c>
       <c r="G24" s="3">
-        <v>781300</v>
+        <v>718400</v>
       </c>
       <c r="H24" s="3">
-        <v>713000</v>
+        <v>655700</v>
       </c>
       <c r="I24" s="3">
-        <v>760300</v>
+        <v>699200</v>
       </c>
       <c r="J24" s="3">
-        <v>794100</v>
+        <v>730300</v>
       </c>
       <c r="K24" s="3">
         <v>641800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2294500</v>
+        <v>1978200</v>
       </c>
       <c r="E26" s="3">
-        <v>1436500</v>
+        <v>1321000</v>
       </c>
       <c r="F26" s="3">
-        <v>1405400</v>
+        <v>1292400</v>
       </c>
       <c r="G26" s="3">
-        <v>1578400</v>
+        <v>1451500</v>
       </c>
       <c r="H26" s="3">
-        <v>1610200</v>
+        <v>1480700</v>
       </c>
       <c r="I26" s="3">
-        <v>806800</v>
+        <v>741900</v>
       </c>
       <c r="J26" s="3">
-        <v>1535600</v>
+        <v>1412100</v>
       </c>
       <c r="K26" s="3">
         <v>1350600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1847000</v>
+        <v>1566700</v>
       </c>
       <c r="E27" s="3">
-        <v>1024900</v>
+        <v>942400</v>
       </c>
       <c r="F27" s="3">
-        <v>1079100</v>
+        <v>992400</v>
       </c>
       <c r="G27" s="3">
-        <v>1227600</v>
+        <v>1128800</v>
       </c>
       <c r="H27" s="3">
-        <v>1252100</v>
+        <v>1151400</v>
       </c>
       <c r="I27" s="3">
-        <v>410900</v>
+        <v>377900</v>
       </c>
       <c r="J27" s="3">
-        <v>1092500</v>
+        <v>1004600</v>
       </c>
       <c r="K27" s="3">
         <v>968400</v>
@@ -1413,25 +1413,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>240100</v>
+        <v>352600</v>
       </c>
       <c r="E29" s="3">
-        <v>-89300</v>
+        <v>-82100</v>
       </c>
       <c r="F29" s="3">
-        <v>693900</v>
+        <v>638100</v>
       </c>
       <c r="G29" s="3">
-        <v>214700</v>
+        <v>197500</v>
       </c>
       <c r="H29" s="3">
-        <v>-911400</v>
+        <v>-838100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>-12000</v>
+        <v>-11100</v>
       </c>
       <c r="K29" s="3">
         <v>21800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-355200</v>
       </c>
       <c r="E32" s="3">
-        <v>35400</v>
+        <v>32500</v>
       </c>
       <c r="F32" s="3">
-        <v>134300</v>
+        <v>123500</v>
       </c>
       <c r="G32" s="3">
-        <v>-380300</v>
+        <v>-349700</v>
       </c>
       <c r="H32" s="3">
-        <v>103600</v>
+        <v>95300</v>
       </c>
       <c r="I32" s="3">
-        <v>924700</v>
+        <v>850400</v>
       </c>
       <c r="J32" s="3">
-        <v>256400</v>
+        <v>235700</v>
       </c>
       <c r="K32" s="3">
         <v>-57400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2087200</v>
+        <v>1919300</v>
       </c>
       <c r="E33" s="3">
-        <v>935600</v>
+        <v>860300</v>
       </c>
       <c r="F33" s="3">
-        <v>1773000</v>
+        <v>1630400</v>
       </c>
       <c r="G33" s="3">
-        <v>1442300</v>
+        <v>1326300</v>
       </c>
       <c r="H33" s="3">
-        <v>340700</v>
+        <v>313300</v>
       </c>
       <c r="I33" s="3">
-        <v>410900</v>
+        <v>377900</v>
       </c>
       <c r="J33" s="3">
-        <v>1080500</v>
+        <v>993600</v>
       </c>
       <c r="K33" s="3">
         <v>990200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2087200</v>
+        <v>1919300</v>
       </c>
       <c r="E35" s="3">
-        <v>935600</v>
+        <v>860300</v>
       </c>
       <c r="F35" s="3">
-        <v>1773000</v>
+        <v>1630400</v>
       </c>
       <c r="G35" s="3">
-        <v>1442300</v>
+        <v>1326300</v>
       </c>
       <c r="H35" s="3">
-        <v>340700</v>
+        <v>313300</v>
       </c>
       <c r="I35" s="3">
-        <v>410900</v>
+        <v>377900</v>
       </c>
       <c r="J35" s="3">
-        <v>1080500</v>
+        <v>993600</v>
       </c>
       <c r="K35" s="3">
         <v>990200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2476600</v>
+        <v>2277500</v>
       </c>
       <c r="E41" s="3">
-        <v>1669000</v>
+        <v>1534800</v>
       </c>
       <c r="F41" s="3">
-        <v>2225700</v>
+        <v>2046700</v>
       </c>
       <c r="G41" s="3">
-        <v>2713600</v>
+        <v>2495400</v>
       </c>
       <c r="H41" s="3">
-        <v>2778500</v>
+        <v>2555000</v>
       </c>
       <c r="I41" s="3">
-        <v>1679700</v>
+        <v>1544700</v>
       </c>
       <c r="J41" s="3">
-        <v>1486400</v>
+        <v>1366900</v>
       </c>
       <c r="K41" s="3">
         <v>1356000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>48000</v>
+        <v>44200</v>
       </c>
       <c r="E42" s="3">
-        <v>67800</v>
+        <v>62300</v>
       </c>
       <c r="F42" s="3">
-        <v>71300</v>
+        <v>65500</v>
       </c>
       <c r="G42" s="3">
-        <v>121700</v>
+        <v>111900</v>
       </c>
       <c r="H42" s="3">
-        <v>281200</v>
+        <v>258500</v>
       </c>
       <c r="I42" s="3">
-        <v>144900</v>
+        <v>133300</v>
       </c>
       <c r="J42" s="3">
-        <v>119200</v>
+        <v>109600</v>
       </c>
       <c r="K42" s="3">
         <v>114100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2794200</v>
+        <v>2569400</v>
       </c>
       <c r="E43" s="3">
-        <v>2761900</v>
+        <v>2539800</v>
       </c>
       <c r="F43" s="3">
-        <v>2401300</v>
+        <v>2208200</v>
       </c>
       <c r="G43" s="3">
-        <v>1937900</v>
+        <v>1782100</v>
       </c>
       <c r="H43" s="3">
-        <v>1787600</v>
+        <v>1643800</v>
       </c>
       <c r="I43" s="3">
-        <v>1797600</v>
+        <v>1653000</v>
       </c>
       <c r="J43" s="3">
-        <v>1596300</v>
+        <v>1467900</v>
       </c>
       <c r="K43" s="3">
         <v>1440800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>158000</v>
+        <v>145300</v>
       </c>
       <c r="E44" s="3">
-        <v>178700</v>
+        <v>164400</v>
       </c>
       <c r="F44" s="3">
-        <v>205000</v>
+        <v>188500</v>
       </c>
       <c r="G44" s="3">
-        <v>213400</v>
+        <v>196200</v>
       </c>
       <c r="H44" s="3">
-        <v>216900</v>
+        <v>199400</v>
       </c>
       <c r="I44" s="3">
-        <v>273300</v>
+        <v>251400</v>
       </c>
       <c r="J44" s="3">
-        <v>247000</v>
+        <v>227100</v>
       </c>
       <c r="K44" s="3">
         <v>179700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>549000</v>
+        <v>504800</v>
       </c>
       <c r="E45" s="3">
-        <v>962400</v>
+        <v>885000</v>
       </c>
       <c r="F45" s="3">
-        <v>424400</v>
+        <v>390300</v>
       </c>
       <c r="G45" s="3">
-        <v>1448800</v>
+        <v>1332300</v>
       </c>
       <c r="H45" s="3">
-        <v>1313800</v>
+        <v>1208200</v>
       </c>
       <c r="I45" s="3">
-        <v>1197200</v>
+        <v>1100900</v>
       </c>
       <c r="J45" s="3">
-        <v>1128900</v>
+        <v>1038100</v>
       </c>
       <c r="K45" s="3">
         <v>852500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6025800</v>
+        <v>5541200</v>
       </c>
       <c r="E46" s="3">
-        <v>5639800</v>
+        <v>5186200</v>
       </c>
       <c r="F46" s="3">
-        <v>5327600</v>
+        <v>4899100</v>
       </c>
       <c r="G46" s="3">
-        <v>6435400</v>
+        <v>5917800</v>
       </c>
       <c r="H46" s="3">
-        <v>6378000</v>
+        <v>5865000</v>
       </c>
       <c r="I46" s="3">
-        <v>5092800</v>
+        <v>4683200</v>
       </c>
       <c r="J46" s="3">
-        <v>4577900</v>
+        <v>4209700</v>
       </c>
       <c r="K46" s="3">
         <v>3943100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1139600</v>
+        <v>1047900</v>
       </c>
       <c r="E47" s="3">
-        <v>899100</v>
+        <v>826800</v>
       </c>
       <c r="F47" s="3">
-        <v>1225100</v>
+        <v>1126600</v>
       </c>
       <c r="G47" s="3">
-        <v>1383700</v>
+        <v>1272400</v>
       </c>
       <c r="H47" s="3">
-        <v>2263400</v>
+        <v>2081300</v>
       </c>
       <c r="I47" s="3">
-        <v>2750900</v>
+        <v>2529700</v>
       </c>
       <c r="J47" s="3">
-        <v>3317500</v>
+        <v>3050700</v>
       </c>
       <c r="K47" s="3">
         <v>4135100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17112800</v>
+        <v>15736500</v>
       </c>
       <c r="E48" s="3">
-        <v>17158500</v>
+        <v>15778500</v>
       </c>
       <c r="F48" s="3">
-        <v>8829700</v>
+        <v>8119600</v>
       </c>
       <c r="G48" s="3">
-        <v>9094000</v>
+        <v>8362600</v>
       </c>
       <c r="H48" s="3">
-        <v>8667800</v>
+        <v>7970700</v>
       </c>
       <c r="I48" s="3">
-        <v>8330200</v>
+        <v>7660300</v>
       </c>
       <c r="J48" s="3">
-        <v>7168900</v>
+        <v>6592300</v>
       </c>
       <c r="K48" s="3">
         <v>5609200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4834700</v>
+        <v>4445900</v>
       </c>
       <c r="E49" s="3">
-        <v>4672500</v>
+        <v>4296700</v>
       </c>
       <c r="F49" s="3">
-        <v>6111200</v>
+        <v>5619700</v>
       </c>
       <c r="G49" s="3">
-        <v>6866200</v>
+        <v>6314000</v>
       </c>
       <c r="H49" s="3">
-        <v>6929800</v>
+        <v>6372500</v>
       </c>
       <c r="I49" s="3">
-        <v>7758800</v>
+        <v>7134800</v>
       </c>
       <c r="J49" s="3">
-        <v>7519600</v>
+        <v>6914800</v>
       </c>
       <c r="K49" s="3">
         <v>6080800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1762900</v>
+        <v>1621100</v>
       </c>
       <c r="E52" s="3">
-        <v>1587500</v>
+        <v>1459900</v>
       </c>
       <c r="F52" s="3">
-        <v>1527800</v>
+        <v>1405000</v>
       </c>
       <c r="G52" s="3">
-        <v>505200</v>
+        <v>464500</v>
       </c>
       <c r="H52" s="3">
-        <v>593500</v>
+        <v>545800</v>
       </c>
       <c r="I52" s="3">
-        <v>730100</v>
+        <v>671400</v>
       </c>
       <c r="J52" s="3">
-        <v>736600</v>
+        <v>677400</v>
       </c>
       <c r="K52" s="3">
         <v>719400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30875800</v>
+        <v>28392600</v>
       </c>
       <c r="E54" s="3">
-        <v>29957500</v>
+        <v>27548100</v>
       </c>
       <c r="F54" s="3">
-        <v>23021500</v>
+        <v>21170000</v>
       </c>
       <c r="G54" s="3">
-        <v>24284400</v>
+        <v>22331400</v>
       </c>
       <c r="H54" s="3">
-        <v>24832600</v>
+        <v>22835400</v>
       </c>
       <c r="I54" s="3">
-        <v>24662800</v>
+        <v>22679300</v>
       </c>
       <c r="J54" s="3">
-        <v>23320400</v>
+        <v>21444800</v>
       </c>
       <c r="K54" s="3">
         <v>20487700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1090900</v>
+        <v>1003200</v>
       </c>
       <c r="E57" s="3">
-        <v>1132500</v>
+        <v>1041400</v>
       </c>
       <c r="F57" s="3">
-        <v>986200</v>
+        <v>906900</v>
       </c>
       <c r="G57" s="3">
-        <v>1057600</v>
+        <v>972500</v>
       </c>
       <c r="H57" s="3">
-        <v>561500</v>
+        <v>516300</v>
       </c>
       <c r="I57" s="3">
-        <v>510600</v>
+        <v>469500</v>
       </c>
       <c r="J57" s="3">
-        <v>402400</v>
+        <v>370000</v>
       </c>
       <c r="K57" s="3">
         <v>300800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1997300</v>
+        <v>1836600</v>
       </c>
       <c r="E58" s="3">
-        <v>2895400</v>
+        <v>2662500</v>
       </c>
       <c r="F58" s="3">
-        <v>1894500</v>
+        <v>1742100</v>
       </c>
       <c r="G58" s="3">
-        <v>2733400</v>
+        <v>2513500</v>
       </c>
       <c r="H58" s="3">
-        <v>3125700</v>
+        <v>2874400</v>
       </c>
       <c r="I58" s="3">
-        <v>1519700</v>
+        <v>1397400</v>
       </c>
       <c r="J58" s="3">
-        <v>899600</v>
+        <v>827200</v>
       </c>
       <c r="K58" s="3">
         <v>1647800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4197900</v>
+        <v>3860300</v>
       </c>
       <c r="E59" s="3">
-        <v>4762300</v>
+        <v>4379300</v>
       </c>
       <c r="F59" s="3">
-        <v>5238300</v>
+        <v>4817000</v>
       </c>
       <c r="G59" s="3">
-        <v>5438600</v>
+        <v>5001200</v>
       </c>
       <c r="H59" s="3">
-        <v>5654900</v>
+        <v>5200100</v>
       </c>
       <c r="I59" s="3">
-        <v>5790500</v>
+        <v>5324800</v>
       </c>
       <c r="J59" s="3">
-        <v>5358900</v>
+        <v>4927900</v>
       </c>
       <c r="K59" s="3">
         <v>3896000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7286100</v>
+        <v>6700100</v>
       </c>
       <c r="E60" s="3">
-        <v>8790100</v>
+        <v>8083200</v>
       </c>
       <c r="F60" s="3">
-        <v>8119000</v>
+        <v>7466000</v>
       </c>
       <c r="G60" s="3">
-        <v>9229600</v>
+        <v>8487300</v>
       </c>
       <c r="H60" s="3">
-        <v>9342100</v>
+        <v>8590800</v>
       </c>
       <c r="I60" s="3">
-        <v>7820800</v>
+        <v>7191800</v>
       </c>
       <c r="J60" s="3">
-        <v>6331500</v>
+        <v>5822300</v>
       </c>
       <c r="K60" s="3">
         <v>5022200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16153600</v>
+        <v>14854500</v>
       </c>
       <c r="E61" s="3">
-        <v>13960400</v>
+        <v>12837700</v>
       </c>
       <c r="F61" s="3">
-        <v>6731300</v>
+        <v>6189900</v>
       </c>
       <c r="G61" s="3">
-        <v>6209000</v>
+        <v>5709600</v>
       </c>
       <c r="H61" s="3">
-        <v>7268700</v>
+        <v>6684100</v>
       </c>
       <c r="I61" s="3">
-        <v>7679200</v>
+        <v>7061600</v>
       </c>
       <c r="J61" s="3">
-        <v>7355600</v>
+        <v>6764000</v>
       </c>
       <c r="K61" s="3">
         <v>5773800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2150100</v>
+        <v>1977200</v>
       </c>
       <c r="E62" s="3">
-        <v>1990600</v>
+        <v>1830500</v>
       </c>
       <c r="F62" s="3">
-        <v>1617000</v>
+        <v>1487000</v>
       </c>
       <c r="G62" s="3">
-        <v>1343200</v>
+        <v>1235200</v>
       </c>
       <c r="H62" s="3">
-        <v>1554300</v>
+        <v>1429300</v>
       </c>
       <c r="I62" s="3">
-        <v>1565000</v>
+        <v>1439200</v>
       </c>
       <c r="J62" s="3">
-        <v>1388000</v>
+        <v>1276400</v>
       </c>
       <c r="K62" s="3">
         <v>970300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26263200</v>
+        <v>24150900</v>
       </c>
       <c r="E66" s="3">
-        <v>25377400</v>
+        <v>23336400</v>
       </c>
       <c r="F66" s="3">
-        <v>17070200</v>
+        <v>15697300</v>
       </c>
       <c r="G66" s="3">
-        <v>17364200</v>
+        <v>15967700</v>
       </c>
       <c r="H66" s="3">
-        <v>18708800</v>
+        <v>17204100</v>
       </c>
       <c r="I66" s="3">
-        <v>17625900</v>
+        <v>16208300</v>
       </c>
       <c r="J66" s="3">
-        <v>15646800</v>
+        <v>14388400</v>
       </c>
       <c r="K66" s="3">
         <v>12182100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3976100</v>
+        <v>3656300</v>
       </c>
       <c r="E72" s="3">
-        <v>3874400</v>
+        <v>3562800</v>
       </c>
       <c r="F72" s="3">
-        <v>5150700</v>
+        <v>4736400</v>
       </c>
       <c r="G72" s="3">
-        <v>6243000</v>
+        <v>5740900</v>
       </c>
       <c r="H72" s="3">
-        <v>5013800</v>
+        <v>4610600</v>
       </c>
       <c r="I72" s="3">
-        <v>5450600</v>
+        <v>5012300</v>
       </c>
       <c r="J72" s="3">
-        <v>6450900</v>
+        <v>5932100</v>
       </c>
       <c r="K72" s="3">
         <v>7839500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4612700</v>
+        <v>4241700</v>
       </c>
       <c r="E76" s="3">
-        <v>4580100</v>
+        <v>4211700</v>
       </c>
       <c r="F76" s="3">
-        <v>5951300</v>
+        <v>5472700</v>
       </c>
       <c r="G76" s="3">
-        <v>6920200</v>
+        <v>6363700</v>
       </c>
       <c r="H76" s="3">
-        <v>6123800</v>
+        <v>5631300</v>
       </c>
       <c r="I76" s="3">
-        <v>7037000</v>
+        <v>6471000</v>
       </c>
       <c r="J76" s="3">
-        <v>7673600</v>
+        <v>7056400</v>
       </c>
       <c r="K76" s="3">
         <v>8305700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2087200</v>
+        <v>1919300</v>
       </c>
       <c r="E81" s="3">
-        <v>935600</v>
+        <v>860300</v>
       </c>
       <c r="F81" s="3">
-        <v>1773000</v>
+        <v>1630400</v>
       </c>
       <c r="G81" s="3">
-        <v>1442300</v>
+        <v>1326300</v>
       </c>
       <c r="H81" s="3">
-        <v>340700</v>
+        <v>313300</v>
       </c>
       <c r="I81" s="3">
-        <v>410900</v>
+        <v>377900</v>
       </c>
       <c r="J81" s="3">
-        <v>1080500</v>
+        <v>993600</v>
       </c>
       <c r="K81" s="3">
         <v>990200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3498000</v>
+        <v>3216700</v>
       </c>
       <c r="E83" s="3">
-        <v>2963900</v>
+        <v>2725500</v>
       </c>
       <c r="F83" s="3">
-        <v>2509000</v>
+        <v>2307200</v>
       </c>
       <c r="G83" s="3">
-        <v>2667900</v>
+        <v>2453300</v>
       </c>
       <c r="H83" s="3">
-        <v>3374100</v>
+        <v>3102700</v>
       </c>
       <c r="I83" s="3">
-        <v>2475200</v>
+        <v>2276100</v>
       </c>
       <c r="J83" s="3">
-        <v>1873300</v>
+        <v>1722600</v>
       </c>
       <c r="K83" s="3">
         <v>1571600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5274100</v>
+        <v>4849900</v>
       </c>
       <c r="E89" s="3">
-        <v>4119100</v>
+        <v>3787800</v>
       </c>
       <c r="F89" s="3">
-        <v>4380400</v>
+        <v>4028100</v>
       </c>
       <c r="G89" s="3">
-        <v>4901300</v>
+        <v>4507100</v>
       </c>
       <c r="H89" s="3">
-        <v>4787700</v>
+        <v>4402600</v>
       </c>
       <c r="I89" s="3">
-        <v>4466200</v>
+        <v>4107000</v>
       </c>
       <c r="J89" s="3">
-        <v>4074300</v>
+        <v>3746600</v>
       </c>
       <c r="K89" s="3">
         <v>4187600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2286800</v>
+        <v>-2102900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2775400</v>
+        <v>-2552200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2528900</v>
+        <v>-2325500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2494600</v>
+        <v>-2294000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2855800</v>
+        <v>-2626100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2547800</v>
+        <v>-2342900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2490600</v>
+        <v>-2290300</v>
       </c>
       <c r="K91" s="3">
         <v>-1767400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1271600</v>
+        <v>-1169300</v>
       </c>
       <c r="E94" s="3">
-        <v>-5238800</v>
+        <v>-4817500</v>
       </c>
       <c r="F94" s="3">
-        <v>-73800</v>
+        <v>-67800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1453300</v>
+        <v>-1336500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2540200</v>
+        <v>-2335900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2441000</v>
+        <v>-2244700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2527200</v>
+        <v>-2323900</v>
       </c>
       <c r="K94" s="3">
         <v>-2333700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1477700</v>
+        <v>-1358800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1458900</v>
+        <v>-1341600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2212300</v>
+        <v>-2034400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1437600</v>
+        <v>-1322000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1353600</v>
+        <v>-1244700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1290700</v>
+        <v>-1186900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1271800</v>
+        <v>-1169600</v>
       </c>
       <c r="K96" s="3">
         <v>-1045900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3319900</v>
+        <v>-3052900</v>
       </c>
       <c r="E100" s="3">
-        <v>521400</v>
+        <v>479500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4752700</v>
+        <v>-4370400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3578700</v>
+        <v>-3290800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1087700</v>
+        <v>-1000200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1810300</v>
+        <v>-1664700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1668900</v>
+        <v>-1534700</v>
       </c>
       <c r="K100" s="3">
         <v>-1558700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>50600</v>
+        <v>46500</v>
       </c>
       <c r="E101" s="3">
-        <v>77200</v>
+        <v>70900</v>
       </c>
       <c r="F101" s="3">
-        <v>-34200</v>
+        <v>-31400</v>
       </c>
       <c r="G101" s="3">
-        <v>54600</v>
+        <v>50200</v>
       </c>
       <c r="H101" s="3">
-        <v>-53700</v>
+        <v>-49400</v>
       </c>
       <c r="I101" s="3">
-        <v>9700</v>
+        <v>9000</v>
       </c>
       <c r="J101" s="3">
-        <v>111600</v>
+        <v>102600</v>
       </c>
       <c r="K101" s="3">
         <v>64200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>733100</v>
+        <v>674200</v>
       </c>
       <c r="E102" s="3">
-        <v>-521200</v>
+        <v>-479200</v>
       </c>
       <c r="F102" s="3">
-        <v>-480200</v>
+        <v>-441600</v>
       </c>
       <c r="G102" s="3">
-        <v>-76100</v>
+        <v>-69900</v>
       </c>
       <c r="H102" s="3">
-        <v>1106100</v>
+        <v>1017100</v>
       </c>
       <c r="I102" s="3">
-        <v>224600</v>
+        <v>206500</v>
       </c>
       <c r="J102" s="3">
-        <v>-10200</v>
+        <v>-9400</v>
       </c>
       <c r="K102" s="3">
         <v>359400</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12821100</v>
+        <v>12853500</v>
       </c>
       <c r="E8" s="3">
-        <v>12580600</v>
+        <v>12612400</v>
       </c>
       <c r="F8" s="3">
-        <v>11723600</v>
+        <v>11753200</v>
       </c>
       <c r="G8" s="3">
-        <v>12403800</v>
+        <v>12435200</v>
       </c>
       <c r="H8" s="3">
-        <v>13878700</v>
+        <v>13913800</v>
       </c>
       <c r="I8" s="3">
-        <v>14186400</v>
+        <v>14222300</v>
       </c>
       <c r="J8" s="3">
-        <v>12334500</v>
+        <v>12365700</v>
       </c>
       <c r="K8" s="3">
         <v>11223400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6508500</v>
+        <v>6525000</v>
       </c>
       <c r="E9" s="3">
-        <v>3089300</v>
+        <v>3097100</v>
       </c>
       <c r="F9" s="3">
-        <v>2649600</v>
+        <v>2656300</v>
       </c>
       <c r="G9" s="3">
-        <v>2980400</v>
+        <v>2987900</v>
       </c>
       <c r="H9" s="3">
-        <v>7375900</v>
+        <v>7394600</v>
       </c>
       <c r="I9" s="3">
-        <v>3890100</v>
+        <v>3899900</v>
       </c>
       <c r="J9" s="3">
-        <v>6824500</v>
+        <v>6841800</v>
       </c>
       <c r="K9" s="3">
         <v>6231500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6312500</v>
+        <v>6328500</v>
       </c>
       <c r="E10" s="3">
-        <v>9491300</v>
+        <v>9515300</v>
       </c>
       <c r="F10" s="3">
-        <v>9074000</v>
+        <v>9096900</v>
       </c>
       <c r="G10" s="3">
-        <v>9423400</v>
+        <v>9447200</v>
       </c>
       <c r="H10" s="3">
-        <v>6502800</v>
+        <v>6519200</v>
       </c>
       <c r="I10" s="3">
-        <v>10296300</v>
+        <v>10322400</v>
       </c>
       <c r="J10" s="3">
-        <v>5510000</v>
+        <v>5523900</v>
       </c>
       <c r="K10" s="3">
         <v>4991900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>213800</v>
+        <v>214400</v>
       </c>
       <c r="E14" s="3">
-        <v>93300</v>
+        <v>93500</v>
       </c>
       <c r="F14" s="3">
-        <v>340100</v>
+        <v>341000</v>
       </c>
       <c r="G14" s="3">
-        <v>923600</v>
+        <v>926000</v>
       </c>
       <c r="H14" s="3">
-        <v>1093900</v>
+        <v>1096600</v>
       </c>
       <c r="I14" s="3">
-        <v>264500</v>
+        <v>265200</v>
       </c>
       <c r="J14" s="3">
-        <v>95500</v>
+        <v>95800</v>
       </c>
       <c r="K14" s="3">
         <v>115800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6126200</v>
+        <v>6141700</v>
       </c>
       <c r="E15" s="3">
-        <v>2714900</v>
+        <v>2721700</v>
       </c>
       <c r="F15" s="3">
-        <v>2218100</v>
+        <v>2223700</v>
       </c>
       <c r="G15" s="3">
-        <v>2170700</v>
+        <v>2176100</v>
       </c>
       <c r="H15" s="3">
-        <v>4383300</v>
+        <v>4394300</v>
       </c>
       <c r="I15" s="3">
-        <v>2026000</v>
+        <v>2031100</v>
       </c>
       <c r="J15" s="3">
-        <v>3427400</v>
+        <v>3436100</v>
       </c>
       <c r="K15" s="3">
         <v>3015900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9723800</v>
+        <v>9748400</v>
       </c>
       <c r="E17" s="3">
-        <v>9722500</v>
+        <v>9747100</v>
       </c>
       <c r="F17" s="3">
-        <v>9405100</v>
+        <v>9428900</v>
       </c>
       <c r="G17" s="3">
-        <v>10295900</v>
+        <v>10321900</v>
       </c>
       <c r="H17" s="3">
-        <v>11108400</v>
+        <v>11136500</v>
       </c>
       <c r="I17" s="3">
-        <v>11639400</v>
+        <v>11668900</v>
       </c>
       <c r="J17" s="3">
-        <v>9577900</v>
+        <v>9602100</v>
       </c>
       <c r="K17" s="3">
         <v>8871800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3097300</v>
+        <v>3105100</v>
       </c>
       <c r="E18" s="3">
-        <v>2858100</v>
+        <v>2865300</v>
       </c>
       <c r="F18" s="3">
-        <v>2318400</v>
+        <v>2324300</v>
       </c>
       <c r="G18" s="3">
-        <v>2107900</v>
+        <v>2113200</v>
       </c>
       <c r="H18" s="3">
-        <v>2770300</v>
+        <v>2777300</v>
       </c>
       <c r="I18" s="3">
-        <v>2547000</v>
+        <v>2553400</v>
       </c>
       <c r="J18" s="3">
-        <v>2756600</v>
+        <v>2763600</v>
       </c>
       <c r="K18" s="3">
         <v>2351600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>355200</v>
+        <v>356100</v>
       </c>
       <c r="E20" s="3">
-        <v>-32500</v>
+        <v>-32600</v>
       </c>
       <c r="F20" s="3">
-        <v>-123500</v>
+        <v>-123800</v>
       </c>
       <c r="G20" s="3">
-        <v>349700</v>
+        <v>350600</v>
       </c>
       <c r="H20" s="3">
-        <v>-95300</v>
+        <v>-95500</v>
       </c>
       <c r="I20" s="3">
-        <v>-850400</v>
+        <v>-852500</v>
       </c>
       <c r="J20" s="3">
-        <v>-235700</v>
+        <v>-236300</v>
       </c>
       <c r="K20" s="3">
         <v>57400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6718500</v>
+        <v>6678400</v>
       </c>
       <c r="E21" s="3">
-        <v>5592900</v>
+        <v>5558700</v>
       </c>
       <c r="F21" s="3">
-        <v>4537600</v>
+        <v>4508100</v>
       </c>
       <c r="G21" s="3">
-        <v>4948700</v>
+        <v>4917600</v>
       </c>
       <c r="H21" s="3">
-        <v>5825400</v>
+        <v>5785000</v>
       </c>
       <c r="I21" s="3">
-        <v>4007700</v>
+        <v>3977500</v>
       </c>
       <c r="J21" s="3">
-        <v>4269900</v>
+        <v>4250200</v>
       </c>
       <c r="K21" s="3">
         <v>3973100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>763800</v>
+        <v>765700</v>
       </c>
       <c r="E22" s="3">
-        <v>504800</v>
+        <v>506100</v>
       </c>
       <c r="F22" s="3">
-        <v>235700</v>
+        <v>236300</v>
       </c>
       <c r="G22" s="3">
-        <v>287800</v>
+        <v>288500</v>
       </c>
       <c r="H22" s="3">
-        <v>538700</v>
+        <v>540000</v>
       </c>
       <c r="I22" s="3">
-        <v>255600</v>
+        <v>256200</v>
       </c>
       <c r="J22" s="3">
-        <v>378500</v>
+        <v>379500</v>
       </c>
       <c r="K22" s="3">
         <v>416600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2688600</v>
+        <v>2695400</v>
       </c>
       <c r="E23" s="3">
-        <v>2320700</v>
+        <v>2326600</v>
       </c>
       <c r="F23" s="3">
-        <v>1959100</v>
+        <v>1964100</v>
       </c>
       <c r="G23" s="3">
-        <v>2169900</v>
+        <v>2175400</v>
       </c>
       <c r="H23" s="3">
-        <v>2136300</v>
+        <v>2141700</v>
       </c>
       <c r="I23" s="3">
-        <v>1441100</v>
+        <v>1444700</v>
       </c>
       <c r="J23" s="3">
-        <v>2142300</v>
+        <v>2147700</v>
       </c>
       <c r="K23" s="3">
         <v>1992400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>710500</v>
+        <v>712300</v>
       </c>
       <c r="E24" s="3">
-        <v>999800</v>
+        <v>1002300</v>
       </c>
       <c r="F24" s="3">
-        <v>666700</v>
+        <v>668400</v>
       </c>
       <c r="G24" s="3">
-        <v>718400</v>
+        <v>720200</v>
       </c>
       <c r="H24" s="3">
-        <v>655700</v>
+        <v>657300</v>
       </c>
       <c r="I24" s="3">
-        <v>699200</v>
+        <v>700900</v>
       </c>
       <c r="J24" s="3">
-        <v>730300</v>
+        <v>732100</v>
       </c>
       <c r="K24" s="3">
         <v>641800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1978200</v>
+        <v>1983200</v>
       </c>
       <c r="E26" s="3">
-        <v>1321000</v>
+        <v>1324300</v>
       </c>
       <c r="F26" s="3">
-        <v>1292400</v>
+        <v>1295700</v>
       </c>
       <c r="G26" s="3">
-        <v>1451500</v>
+        <v>1455100</v>
       </c>
       <c r="H26" s="3">
-        <v>1480700</v>
+        <v>1484400</v>
       </c>
       <c r="I26" s="3">
-        <v>741900</v>
+        <v>743800</v>
       </c>
       <c r="J26" s="3">
-        <v>1412100</v>
+        <v>1415600</v>
       </c>
       <c r="K26" s="3">
         <v>1350600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1566700</v>
+        <v>1570600</v>
       </c>
       <c r="E27" s="3">
-        <v>942400</v>
+        <v>944800</v>
       </c>
       <c r="F27" s="3">
-        <v>992400</v>
+        <v>994900</v>
       </c>
       <c r="G27" s="3">
-        <v>1128800</v>
+        <v>1131700</v>
       </c>
       <c r="H27" s="3">
-        <v>1151400</v>
+        <v>1154300</v>
       </c>
       <c r="I27" s="3">
-        <v>377900</v>
+        <v>378800</v>
       </c>
       <c r="J27" s="3">
-        <v>1004600</v>
+        <v>1007200</v>
       </c>
       <c r="K27" s="3">
         <v>968400</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>352600</v>
+        <v>353500</v>
       </c>
       <c r="E29" s="3">
-        <v>-82100</v>
+        <v>-82300</v>
       </c>
       <c r="F29" s="3">
-        <v>638100</v>
+        <v>639700</v>
       </c>
       <c r="G29" s="3">
-        <v>197500</v>
+        <v>198000</v>
       </c>
       <c r="H29" s="3">
-        <v>-838100</v>
+        <v>-840200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-355200</v>
+        <v>-356100</v>
       </c>
       <c r="E32" s="3">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="F32" s="3">
-        <v>123500</v>
+        <v>123800</v>
       </c>
       <c r="G32" s="3">
-        <v>-349700</v>
+        <v>-350600</v>
       </c>
       <c r="H32" s="3">
-        <v>95300</v>
+        <v>95500</v>
       </c>
       <c r="I32" s="3">
-        <v>850400</v>
+        <v>852500</v>
       </c>
       <c r="J32" s="3">
-        <v>235700</v>
+        <v>236300</v>
       </c>
       <c r="K32" s="3">
         <v>-57400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1919300</v>
+        <v>1924200</v>
       </c>
       <c r="E33" s="3">
-        <v>860300</v>
+        <v>862500</v>
       </c>
       <c r="F33" s="3">
-        <v>1630400</v>
+        <v>1634600</v>
       </c>
       <c r="G33" s="3">
-        <v>1326300</v>
+        <v>1329600</v>
       </c>
       <c r="H33" s="3">
-        <v>313300</v>
+        <v>314100</v>
       </c>
       <c r="I33" s="3">
-        <v>377900</v>
+        <v>378800</v>
       </c>
       <c r="J33" s="3">
-        <v>993600</v>
+        <v>996100</v>
       </c>
       <c r="K33" s="3">
         <v>990200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1919300</v>
+        <v>1924200</v>
       </c>
       <c r="E35" s="3">
-        <v>860300</v>
+        <v>862500</v>
       </c>
       <c r="F35" s="3">
-        <v>1630400</v>
+        <v>1634600</v>
       </c>
       <c r="G35" s="3">
-        <v>1326300</v>
+        <v>1329600</v>
       </c>
       <c r="H35" s="3">
-        <v>313300</v>
+        <v>314100</v>
       </c>
       <c r="I35" s="3">
-        <v>377900</v>
+        <v>378800</v>
       </c>
       <c r="J35" s="3">
-        <v>993600</v>
+        <v>996100</v>
       </c>
       <c r="K35" s="3">
         <v>990200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2277500</v>
+        <v>2283200</v>
       </c>
       <c r="E41" s="3">
-        <v>1534800</v>
+        <v>1538700</v>
       </c>
       <c r="F41" s="3">
-        <v>2046700</v>
+        <v>2051900</v>
       </c>
       <c r="G41" s="3">
-        <v>2495400</v>
+        <v>2501700</v>
       </c>
       <c r="H41" s="3">
-        <v>2555000</v>
+        <v>2561500</v>
       </c>
       <c r="I41" s="3">
-        <v>1544700</v>
+        <v>1548600</v>
       </c>
       <c r="J41" s="3">
-        <v>1366900</v>
+        <v>1370400</v>
       </c>
       <c r="K41" s="3">
         <v>1356000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="E42" s="3">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="F42" s="3">
-        <v>65500</v>
+        <v>65700</v>
       </c>
       <c r="G42" s="3">
-        <v>111900</v>
+        <v>112200</v>
       </c>
       <c r="H42" s="3">
-        <v>258500</v>
+        <v>259200</v>
       </c>
       <c r="I42" s="3">
-        <v>133300</v>
+        <v>133600</v>
       </c>
       <c r="J42" s="3">
-        <v>109600</v>
+        <v>109900</v>
       </c>
       <c r="K42" s="3">
         <v>114100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2569400</v>
+        <v>2575900</v>
       </c>
       <c r="E43" s="3">
-        <v>2539800</v>
+        <v>2546200</v>
       </c>
       <c r="F43" s="3">
-        <v>2208200</v>
+        <v>2213800</v>
       </c>
       <c r="G43" s="3">
-        <v>1782100</v>
+        <v>1786600</v>
       </c>
       <c r="H43" s="3">
-        <v>1643800</v>
+        <v>1648000</v>
       </c>
       <c r="I43" s="3">
-        <v>1653000</v>
+        <v>1657200</v>
       </c>
       <c r="J43" s="3">
-        <v>1467900</v>
+        <v>1471700</v>
       </c>
       <c r="K43" s="3">
         <v>1440800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>145300</v>
+        <v>145700</v>
       </c>
       <c r="E44" s="3">
-        <v>164400</v>
+        <v>164800</v>
       </c>
       <c r="F44" s="3">
-        <v>188500</v>
+        <v>189000</v>
       </c>
       <c r="G44" s="3">
-        <v>196200</v>
+        <v>196700</v>
       </c>
       <c r="H44" s="3">
-        <v>199400</v>
+        <v>199900</v>
       </c>
       <c r="I44" s="3">
-        <v>251400</v>
+        <v>252000</v>
       </c>
       <c r="J44" s="3">
-        <v>227100</v>
+        <v>227700</v>
       </c>
       <c r="K44" s="3">
         <v>179700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>504800</v>
+        <v>506100</v>
       </c>
       <c r="E45" s="3">
-        <v>885000</v>
+        <v>887200</v>
       </c>
       <c r="F45" s="3">
-        <v>390300</v>
+        <v>391200</v>
       </c>
       <c r="G45" s="3">
-        <v>1332300</v>
+        <v>1335600</v>
       </c>
       <c r="H45" s="3">
-        <v>1208200</v>
+        <v>1211200</v>
       </c>
       <c r="I45" s="3">
-        <v>1100900</v>
+        <v>1103700</v>
       </c>
       <c r="J45" s="3">
-        <v>1038100</v>
+        <v>1040700</v>
       </c>
       <c r="K45" s="3">
         <v>852500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5541200</v>
+        <v>5555200</v>
       </c>
       <c r="E46" s="3">
-        <v>5186200</v>
+        <v>5199400</v>
       </c>
       <c r="F46" s="3">
-        <v>4899100</v>
+        <v>4911500</v>
       </c>
       <c r="G46" s="3">
-        <v>5917800</v>
+        <v>5932800</v>
       </c>
       <c r="H46" s="3">
-        <v>5865000</v>
+        <v>5879900</v>
       </c>
       <c r="I46" s="3">
-        <v>4683200</v>
+        <v>4695100</v>
       </c>
       <c r="J46" s="3">
-        <v>4209700</v>
+        <v>4220400</v>
       </c>
       <c r="K46" s="3">
         <v>3943100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1047900</v>
+        <v>1050600</v>
       </c>
       <c r="E47" s="3">
-        <v>826800</v>
+        <v>828900</v>
       </c>
       <c r="F47" s="3">
-        <v>1126600</v>
+        <v>1129500</v>
       </c>
       <c r="G47" s="3">
-        <v>1272400</v>
+        <v>1275600</v>
       </c>
       <c r="H47" s="3">
-        <v>2081300</v>
+        <v>2086600</v>
       </c>
       <c r="I47" s="3">
-        <v>2529700</v>
+        <v>2536100</v>
       </c>
       <c r="J47" s="3">
-        <v>3050700</v>
+        <v>3058400</v>
       </c>
       <c r="K47" s="3">
         <v>4135100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15736500</v>
+        <v>15776300</v>
       </c>
       <c r="E48" s="3">
-        <v>15778500</v>
+        <v>15818500</v>
       </c>
       <c r="F48" s="3">
-        <v>8119600</v>
+        <v>8140100</v>
       </c>
       <c r="G48" s="3">
-        <v>8362600</v>
+        <v>8383800</v>
       </c>
       <c r="H48" s="3">
-        <v>7970700</v>
+        <v>7990900</v>
       </c>
       <c r="I48" s="3">
-        <v>7660300</v>
+        <v>7679700</v>
       </c>
       <c r="J48" s="3">
-        <v>6592300</v>
+        <v>6609000</v>
       </c>
       <c r="K48" s="3">
         <v>5609200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4445900</v>
+        <v>4457200</v>
       </c>
       <c r="E49" s="3">
-        <v>4296700</v>
+        <v>4307600</v>
       </c>
       <c r="F49" s="3">
-        <v>5619700</v>
+        <v>5633900</v>
       </c>
       <c r="G49" s="3">
-        <v>6314000</v>
+        <v>6329900</v>
       </c>
       <c r="H49" s="3">
-        <v>6372500</v>
+        <v>6388600</v>
       </c>
       <c r="I49" s="3">
-        <v>7134800</v>
+        <v>7152800</v>
       </c>
       <c r="J49" s="3">
-        <v>6914800</v>
+        <v>6932300</v>
       </c>
       <c r="K49" s="3">
         <v>6080800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1621100</v>
+        <v>1625200</v>
       </c>
       <c r="E52" s="3">
-        <v>1459900</v>
+        <v>1463600</v>
       </c>
       <c r="F52" s="3">
-        <v>1405000</v>
+        <v>1408500</v>
       </c>
       <c r="G52" s="3">
-        <v>464500</v>
+        <v>465700</v>
       </c>
       <c r="H52" s="3">
-        <v>545800</v>
+        <v>547100</v>
       </c>
       <c r="I52" s="3">
-        <v>671400</v>
+        <v>673100</v>
       </c>
       <c r="J52" s="3">
-        <v>677400</v>
+        <v>679100</v>
       </c>
       <c r="K52" s="3">
         <v>719400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28392600</v>
+        <v>28464500</v>
       </c>
       <c r="E54" s="3">
-        <v>27548100</v>
+        <v>27617800</v>
       </c>
       <c r="F54" s="3">
-        <v>21170000</v>
+        <v>21223500</v>
       </c>
       <c r="G54" s="3">
-        <v>22331400</v>
+        <v>22387800</v>
       </c>
       <c r="H54" s="3">
-        <v>22835400</v>
+        <v>22893200</v>
       </c>
       <c r="I54" s="3">
-        <v>22679300</v>
+        <v>22736700</v>
       </c>
       <c r="J54" s="3">
-        <v>21444800</v>
+        <v>21499100</v>
       </c>
       <c r="K54" s="3">
         <v>20487700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1003200</v>
+        <v>1005700</v>
       </c>
       <c r="E57" s="3">
-        <v>1041400</v>
+        <v>1044000</v>
       </c>
       <c r="F57" s="3">
-        <v>906900</v>
+        <v>909200</v>
       </c>
       <c r="G57" s="3">
-        <v>972500</v>
+        <v>975000</v>
       </c>
       <c r="H57" s="3">
-        <v>516300</v>
+        <v>517600</v>
       </c>
       <c r="I57" s="3">
-        <v>469500</v>
+        <v>470700</v>
       </c>
       <c r="J57" s="3">
-        <v>370000</v>
+        <v>370900</v>
       </c>
       <c r="K57" s="3">
         <v>300800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1836600</v>
+        <v>1841300</v>
       </c>
       <c r="E58" s="3">
-        <v>2662500</v>
+        <v>2669300</v>
       </c>
       <c r="F58" s="3">
-        <v>1742100</v>
+        <v>1746500</v>
       </c>
       <c r="G58" s="3">
-        <v>2513500</v>
+        <v>2519900</v>
       </c>
       <c r="H58" s="3">
-        <v>2874400</v>
+        <v>2881600</v>
       </c>
       <c r="I58" s="3">
-        <v>1397400</v>
+        <v>1401000</v>
       </c>
       <c r="J58" s="3">
-        <v>827200</v>
+        <v>829300</v>
       </c>
       <c r="K58" s="3">
         <v>1647800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3860300</v>
+        <v>3870100</v>
       </c>
       <c r="E59" s="3">
-        <v>4379300</v>
+        <v>4390400</v>
       </c>
       <c r="F59" s="3">
-        <v>4817000</v>
+        <v>4829200</v>
       </c>
       <c r="G59" s="3">
-        <v>5001200</v>
+        <v>5013800</v>
       </c>
       <c r="H59" s="3">
-        <v>5200100</v>
+        <v>5213200</v>
       </c>
       <c r="I59" s="3">
-        <v>5324800</v>
+        <v>5338300</v>
       </c>
       <c r="J59" s="3">
-        <v>4927900</v>
+        <v>4940400</v>
       </c>
       <c r="K59" s="3">
         <v>3896000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6700100</v>
+        <v>6717100</v>
       </c>
       <c r="E60" s="3">
-        <v>8083200</v>
+        <v>8103600</v>
       </c>
       <c r="F60" s="3">
-        <v>7466000</v>
+        <v>7484900</v>
       </c>
       <c r="G60" s="3">
-        <v>8487300</v>
+        <v>8508700</v>
       </c>
       <c r="H60" s="3">
-        <v>8590800</v>
+        <v>8612500</v>
       </c>
       <c r="I60" s="3">
-        <v>7191800</v>
+        <v>7210000</v>
       </c>
       <c r="J60" s="3">
-        <v>5822300</v>
+        <v>5837100</v>
       </c>
       <c r="K60" s="3">
         <v>5022200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14854500</v>
+        <v>14892100</v>
       </c>
       <c r="E61" s="3">
-        <v>12837700</v>
+        <v>12870100</v>
       </c>
       <c r="F61" s="3">
-        <v>6189900</v>
+        <v>6205500</v>
       </c>
       <c r="G61" s="3">
-        <v>5709600</v>
+        <v>5724100</v>
       </c>
       <c r="H61" s="3">
-        <v>6684100</v>
+        <v>6701000</v>
       </c>
       <c r="I61" s="3">
-        <v>7061600</v>
+        <v>7079500</v>
       </c>
       <c r="J61" s="3">
-        <v>6764000</v>
+        <v>6781100</v>
       </c>
       <c r="K61" s="3">
         <v>5773800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1977200</v>
+        <v>1982200</v>
       </c>
       <c r="E62" s="3">
-        <v>1830500</v>
+        <v>1835200</v>
       </c>
       <c r="F62" s="3">
-        <v>1487000</v>
+        <v>1490700</v>
       </c>
       <c r="G62" s="3">
-        <v>1235200</v>
+        <v>1238300</v>
       </c>
       <c r="H62" s="3">
-        <v>1429300</v>
+        <v>1432900</v>
       </c>
       <c r="I62" s="3">
-        <v>1439200</v>
+        <v>1442800</v>
       </c>
       <c r="J62" s="3">
-        <v>1276400</v>
+        <v>1279600</v>
       </c>
       <c r="K62" s="3">
         <v>970300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24150900</v>
+        <v>24212000</v>
       </c>
       <c r="E66" s="3">
-        <v>23336400</v>
+        <v>23395500</v>
       </c>
       <c r="F66" s="3">
-        <v>15697300</v>
+        <v>15737000</v>
       </c>
       <c r="G66" s="3">
-        <v>15967700</v>
+        <v>16008100</v>
       </c>
       <c r="H66" s="3">
-        <v>17204100</v>
+        <v>17247600</v>
       </c>
       <c r="I66" s="3">
-        <v>16208300</v>
+        <v>16249300</v>
       </c>
       <c r="J66" s="3">
-        <v>14388400</v>
+        <v>14424800</v>
       </c>
       <c r="K66" s="3">
         <v>12182100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3656300</v>
+        <v>3665600</v>
       </c>
       <c r="E72" s="3">
-        <v>3562800</v>
+        <v>3571800</v>
       </c>
       <c r="F72" s="3">
-        <v>4736400</v>
+        <v>4748400</v>
       </c>
       <c r="G72" s="3">
-        <v>5740900</v>
+        <v>5755400</v>
       </c>
       <c r="H72" s="3">
-        <v>4610600</v>
+        <v>4622300</v>
       </c>
       <c r="I72" s="3">
-        <v>5012300</v>
+        <v>5024900</v>
       </c>
       <c r="J72" s="3">
-        <v>5932100</v>
+        <v>5947100</v>
       </c>
       <c r="K72" s="3">
         <v>7839500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4241700</v>
+        <v>4252400</v>
       </c>
       <c r="E76" s="3">
-        <v>4211700</v>
+        <v>4222400</v>
       </c>
       <c r="F76" s="3">
-        <v>5472700</v>
+        <v>5486500</v>
       </c>
       <c r="G76" s="3">
-        <v>6363700</v>
+        <v>6379800</v>
       </c>
       <c r="H76" s="3">
-        <v>5631300</v>
+        <v>5645500</v>
       </c>
       <c r="I76" s="3">
-        <v>6471000</v>
+        <v>6487400</v>
       </c>
       <c r="J76" s="3">
-        <v>7056400</v>
+        <v>7074300</v>
       </c>
       <c r="K76" s="3">
         <v>8305700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1919300</v>
+        <v>1924200</v>
       </c>
       <c r="E81" s="3">
-        <v>860300</v>
+        <v>862500</v>
       </c>
       <c r="F81" s="3">
-        <v>1630400</v>
+        <v>1634600</v>
       </c>
       <c r="G81" s="3">
-        <v>1326300</v>
+        <v>1329600</v>
       </c>
       <c r="H81" s="3">
-        <v>313300</v>
+        <v>314100</v>
       </c>
       <c r="I81" s="3">
-        <v>377900</v>
+        <v>378800</v>
       </c>
       <c r="J81" s="3">
-        <v>993600</v>
+        <v>996100</v>
       </c>
       <c r="K81" s="3">
         <v>990200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3216700</v>
+        <v>3224800</v>
       </c>
       <c r="E83" s="3">
-        <v>2725500</v>
+        <v>2732400</v>
       </c>
       <c r="F83" s="3">
-        <v>2307200</v>
+        <v>2313100</v>
       </c>
       <c r="G83" s="3">
-        <v>2453300</v>
+        <v>2459500</v>
       </c>
       <c r="H83" s="3">
-        <v>3102700</v>
+        <v>3110500</v>
       </c>
       <c r="I83" s="3">
-        <v>2276100</v>
+        <v>2281900</v>
       </c>
       <c r="J83" s="3">
-        <v>1722600</v>
+        <v>1727000</v>
       </c>
       <c r="K83" s="3">
         <v>1571600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4849900</v>
+        <v>4862200</v>
       </c>
       <c r="E89" s="3">
-        <v>3787800</v>
+        <v>3797400</v>
       </c>
       <c r="F89" s="3">
-        <v>4028100</v>
+        <v>4038300</v>
       </c>
       <c r="G89" s="3">
-        <v>4507100</v>
+        <v>4518500</v>
       </c>
       <c r="H89" s="3">
-        <v>4402600</v>
+        <v>4413800</v>
       </c>
       <c r="I89" s="3">
-        <v>4107000</v>
+        <v>4117400</v>
       </c>
       <c r="J89" s="3">
-        <v>3746600</v>
+        <v>3756100</v>
       </c>
       <c r="K89" s="3">
         <v>4187600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2102900</v>
+        <v>-2108200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2552200</v>
+        <v>-2558600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2325500</v>
+        <v>-2331400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2294000</v>
+        <v>-2299800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2626100</v>
+        <v>-2632700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2342900</v>
+        <v>-2348800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2290300</v>
+        <v>-2296100</v>
       </c>
       <c r="K91" s="3">
         <v>-1767400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1169300</v>
+        <v>-1172300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4817500</v>
+        <v>-4829600</v>
       </c>
       <c r="F94" s="3">
-        <v>-67800</v>
+        <v>-68000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1336500</v>
+        <v>-1339800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2335900</v>
+        <v>-2341800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2244700</v>
+        <v>-2250400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2323900</v>
+        <v>-2329800</v>
       </c>
       <c r="K94" s="3">
         <v>-2333700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1358800</v>
+        <v>-1362300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1341600</v>
+        <v>-1344900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2034400</v>
+        <v>-2039600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1322000</v>
+        <v>-1325300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1244700</v>
+        <v>-1247900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1186900</v>
+        <v>-1189900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1169600</v>
+        <v>-1172500</v>
       </c>
       <c r="K96" s="3">
         <v>-1045900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3052900</v>
+        <v>-3060600</v>
       </c>
       <c r="E100" s="3">
-        <v>479500</v>
+        <v>480700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4370400</v>
+        <v>-4381500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3290800</v>
+        <v>-3299200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1000200</v>
+        <v>-1002700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1664700</v>
+        <v>-1668900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1534700</v>
+        <v>-1538600</v>
       </c>
       <c r="K100" s="3">
         <v>-1558700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="E101" s="3">
-        <v>70900</v>
+        <v>71100</v>
       </c>
       <c r="F101" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="G101" s="3">
-        <v>50200</v>
+        <v>50400</v>
       </c>
       <c r="H101" s="3">
-        <v>-49400</v>
+        <v>-49500</v>
       </c>
       <c r="I101" s="3">
         <v>9000</v>
       </c>
       <c r="J101" s="3">
-        <v>102600</v>
+        <v>102900</v>
       </c>
       <c r="K101" s="3">
         <v>64200</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>674200</v>
+        <v>675900</v>
       </c>
       <c r="E102" s="3">
-        <v>-479200</v>
+        <v>-480500</v>
       </c>
       <c r="F102" s="3">
-        <v>-441600</v>
+        <v>-442700</v>
       </c>
       <c r="G102" s="3">
-        <v>-69900</v>
+        <v>-70100</v>
       </c>
       <c r="H102" s="3">
-        <v>1017100</v>
+        <v>1019700</v>
       </c>
       <c r="I102" s="3">
-        <v>206500</v>
+        <v>207100</v>
       </c>
       <c r="J102" s="3">
         <v>-9400</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12853500</v>
+        <v>12869700</v>
       </c>
       <c r="E8" s="3">
-        <v>12612400</v>
+        <v>12628300</v>
       </c>
       <c r="F8" s="3">
-        <v>11753200</v>
+        <v>11768000</v>
       </c>
       <c r="G8" s="3">
-        <v>12435200</v>
+        <v>12450900</v>
       </c>
       <c r="H8" s="3">
-        <v>13913800</v>
+        <v>13931400</v>
       </c>
       <c r="I8" s="3">
-        <v>14222300</v>
+        <v>14240200</v>
       </c>
       <c r="J8" s="3">
-        <v>12365700</v>
+        <v>12381300</v>
       </c>
       <c r="K8" s="3">
         <v>11223400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6525000</v>
+        <v>6533200</v>
       </c>
       <c r="E9" s="3">
-        <v>3097100</v>
+        <v>3101000</v>
       </c>
       <c r="F9" s="3">
-        <v>2656300</v>
+        <v>2659600</v>
       </c>
       <c r="G9" s="3">
-        <v>2987900</v>
+        <v>2991700</v>
       </c>
       <c r="H9" s="3">
-        <v>7394600</v>
+        <v>7403900</v>
       </c>
       <c r="I9" s="3">
-        <v>3899900</v>
+        <v>3904800</v>
       </c>
       <c r="J9" s="3">
-        <v>6841800</v>
+        <v>6850400</v>
       </c>
       <c r="K9" s="3">
         <v>6231500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6328500</v>
+        <v>6336500</v>
       </c>
       <c r="E10" s="3">
-        <v>9515300</v>
+        <v>9527300</v>
       </c>
       <c r="F10" s="3">
-        <v>9096900</v>
+        <v>9108400</v>
       </c>
       <c r="G10" s="3">
-        <v>9447200</v>
+        <v>9459200</v>
       </c>
       <c r="H10" s="3">
-        <v>6519200</v>
+        <v>6527500</v>
       </c>
       <c r="I10" s="3">
-        <v>10322400</v>
+        <v>10335400</v>
       </c>
       <c r="J10" s="3">
-        <v>5523900</v>
+        <v>5530900</v>
       </c>
       <c r="K10" s="3">
         <v>4991900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>214400</v>
+        <v>214600</v>
       </c>
       <c r="E14" s="3">
-        <v>93500</v>
+        <v>93700</v>
       </c>
       <c r="F14" s="3">
-        <v>341000</v>
+        <v>341400</v>
       </c>
       <c r="G14" s="3">
-        <v>926000</v>
+        <v>927100</v>
       </c>
       <c r="H14" s="3">
-        <v>1096600</v>
+        <v>1098000</v>
       </c>
       <c r="I14" s="3">
-        <v>265200</v>
+        <v>265500</v>
       </c>
       <c r="J14" s="3">
-        <v>95800</v>
+        <v>95900</v>
       </c>
       <c r="K14" s="3">
         <v>115800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6141700</v>
+        <v>6149500</v>
       </c>
       <c r="E15" s="3">
-        <v>2721700</v>
+        <v>2725200</v>
       </c>
       <c r="F15" s="3">
-        <v>2223700</v>
+        <v>2226600</v>
       </c>
       <c r="G15" s="3">
-        <v>2176100</v>
+        <v>2178900</v>
       </c>
       <c r="H15" s="3">
-        <v>4394300</v>
+        <v>4399900</v>
       </c>
       <c r="I15" s="3">
-        <v>2031100</v>
+        <v>2033700</v>
       </c>
       <c r="J15" s="3">
-        <v>3436100</v>
+        <v>3440400</v>
       </c>
       <c r="K15" s="3">
         <v>3015900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9748400</v>
+        <v>9760700</v>
       </c>
       <c r="E17" s="3">
-        <v>9747100</v>
+        <v>9759400</v>
       </c>
       <c r="F17" s="3">
-        <v>9428900</v>
+        <v>9440800</v>
       </c>
       <c r="G17" s="3">
-        <v>10321900</v>
+        <v>10335000</v>
       </c>
       <c r="H17" s="3">
-        <v>11136500</v>
+        <v>11150600</v>
       </c>
       <c r="I17" s="3">
-        <v>11668900</v>
+        <v>11683600</v>
       </c>
       <c r="J17" s="3">
-        <v>9602100</v>
+        <v>9614300</v>
       </c>
       <c r="K17" s="3">
         <v>8871800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3105100</v>
+        <v>3109000</v>
       </c>
       <c r="E18" s="3">
-        <v>2865300</v>
+        <v>2868900</v>
       </c>
       <c r="F18" s="3">
-        <v>2324300</v>
+        <v>2327200</v>
       </c>
       <c r="G18" s="3">
-        <v>2113200</v>
+        <v>2115900</v>
       </c>
       <c r="H18" s="3">
-        <v>2777300</v>
+        <v>2780800</v>
       </c>
       <c r="I18" s="3">
-        <v>2553400</v>
+        <v>2556600</v>
       </c>
       <c r="J18" s="3">
-        <v>2763600</v>
+        <v>2767100</v>
       </c>
       <c r="K18" s="3">
         <v>2351600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>356100</v>
+        <v>356500</v>
       </c>
       <c r="E20" s="3">
-        <v>-32600</v>
+        <v>-32700</v>
       </c>
       <c r="F20" s="3">
-        <v>-123800</v>
+        <v>-124000</v>
       </c>
       <c r="G20" s="3">
-        <v>350600</v>
+        <v>351100</v>
       </c>
       <c r="H20" s="3">
-        <v>-95500</v>
+        <v>-95700</v>
       </c>
       <c r="I20" s="3">
-        <v>-852500</v>
+        <v>-853600</v>
       </c>
       <c r="J20" s="3">
-        <v>-236300</v>
+        <v>-236600</v>
       </c>
       <c r="K20" s="3">
         <v>57400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6678400</v>
+        <v>6733700</v>
       </c>
       <c r="E21" s="3">
-        <v>5558700</v>
+        <v>5605400</v>
       </c>
       <c r="F21" s="3">
-        <v>4508100</v>
+        <v>4547400</v>
       </c>
       <c r="G21" s="3">
-        <v>4917600</v>
+        <v>4959500</v>
       </c>
       <c r="H21" s="3">
-        <v>5785000</v>
+        <v>5837500</v>
       </c>
       <c r="I21" s="3">
-        <v>3977500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4250200</v>
+        <v>4015600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>3973100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>765700</v>
+        <v>766700</v>
       </c>
       <c r="E22" s="3">
-        <v>506100</v>
+        <v>506700</v>
       </c>
       <c r="F22" s="3">
-        <v>236300</v>
+        <v>236600</v>
       </c>
       <c r="G22" s="3">
-        <v>288500</v>
+        <v>288900</v>
       </c>
       <c r="H22" s="3">
-        <v>540000</v>
+        <v>540700</v>
       </c>
       <c r="I22" s="3">
-        <v>256200</v>
+        <v>256500</v>
       </c>
       <c r="J22" s="3">
-        <v>379500</v>
+        <v>380000</v>
       </c>
       <c r="K22" s="3">
         <v>416600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2695400</v>
+        <v>2698800</v>
       </c>
       <c r="E23" s="3">
-        <v>2326600</v>
+        <v>2329500</v>
       </c>
       <c r="F23" s="3">
-        <v>1964100</v>
+        <v>1966600</v>
       </c>
       <c r="G23" s="3">
-        <v>2175400</v>
+        <v>2178100</v>
       </c>
       <c r="H23" s="3">
-        <v>2141700</v>
+        <v>2144500</v>
       </c>
       <c r="I23" s="3">
-        <v>1444700</v>
+        <v>1446500</v>
       </c>
       <c r="J23" s="3">
-        <v>2147700</v>
+        <v>2150500</v>
       </c>
       <c r="K23" s="3">
         <v>1992400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>712300</v>
+        <v>713200</v>
       </c>
       <c r="E24" s="3">
-        <v>1002300</v>
+        <v>1003600</v>
       </c>
       <c r="F24" s="3">
-        <v>668400</v>
+        <v>669300</v>
       </c>
       <c r="G24" s="3">
-        <v>720200</v>
+        <v>721200</v>
       </c>
       <c r="H24" s="3">
-        <v>657300</v>
+        <v>658200</v>
       </c>
       <c r="I24" s="3">
-        <v>700900</v>
+        <v>701800</v>
       </c>
       <c r="J24" s="3">
-        <v>732100</v>
+        <v>733000</v>
       </c>
       <c r="K24" s="3">
         <v>641800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1983200</v>
+        <v>1985700</v>
       </c>
       <c r="E26" s="3">
-        <v>1324300</v>
+        <v>1326000</v>
       </c>
       <c r="F26" s="3">
-        <v>1295700</v>
+        <v>1297300</v>
       </c>
       <c r="G26" s="3">
-        <v>1455100</v>
+        <v>1457000</v>
       </c>
       <c r="H26" s="3">
-        <v>1484400</v>
+        <v>1486300</v>
       </c>
       <c r="I26" s="3">
-        <v>743800</v>
+        <v>744700</v>
       </c>
       <c r="J26" s="3">
-        <v>1415600</v>
+        <v>1417400</v>
       </c>
       <c r="K26" s="3">
         <v>1350600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1570600</v>
+        <v>1572600</v>
       </c>
       <c r="E27" s="3">
-        <v>944800</v>
+        <v>946000</v>
       </c>
       <c r="F27" s="3">
-        <v>994900</v>
+        <v>996100</v>
       </c>
       <c r="G27" s="3">
-        <v>1131700</v>
+        <v>1133100</v>
       </c>
       <c r="H27" s="3">
-        <v>1154300</v>
+        <v>1155800</v>
       </c>
       <c r="I27" s="3">
-        <v>378800</v>
+        <v>379300</v>
       </c>
       <c r="J27" s="3">
-        <v>1007200</v>
+        <v>1008500</v>
       </c>
       <c r="K27" s="3">
         <v>968400</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>353500</v>
+        <v>354000</v>
       </c>
       <c r="E29" s="3">
-        <v>-82300</v>
+        <v>-82400</v>
       </c>
       <c r="F29" s="3">
-        <v>639700</v>
+        <v>640500</v>
       </c>
       <c r="G29" s="3">
-        <v>198000</v>
+        <v>198200</v>
       </c>
       <c r="H29" s="3">
-        <v>-840200</v>
+        <v>-841200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-356100</v>
+        <v>-356500</v>
       </c>
       <c r="E32" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="F32" s="3">
-        <v>123800</v>
+        <v>124000</v>
       </c>
       <c r="G32" s="3">
-        <v>-350600</v>
+        <v>-351100</v>
       </c>
       <c r="H32" s="3">
-        <v>95500</v>
+        <v>95700</v>
       </c>
       <c r="I32" s="3">
-        <v>852500</v>
+        <v>853600</v>
       </c>
       <c r="J32" s="3">
-        <v>236300</v>
+        <v>236600</v>
       </c>
       <c r="K32" s="3">
         <v>-57400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1924200</v>
+        <v>1926600</v>
       </c>
       <c r="E33" s="3">
-        <v>862500</v>
+        <v>863600</v>
       </c>
       <c r="F33" s="3">
-        <v>1634600</v>
+        <v>1636600</v>
       </c>
       <c r="G33" s="3">
-        <v>1329600</v>
+        <v>1331300</v>
       </c>
       <c r="H33" s="3">
-        <v>314100</v>
+        <v>314500</v>
       </c>
       <c r="I33" s="3">
-        <v>378800</v>
+        <v>379300</v>
       </c>
       <c r="J33" s="3">
-        <v>996100</v>
+        <v>997300</v>
       </c>
       <c r="K33" s="3">
         <v>990200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1924200</v>
+        <v>1926600</v>
       </c>
       <c r="E35" s="3">
-        <v>862500</v>
+        <v>863600</v>
       </c>
       <c r="F35" s="3">
-        <v>1634600</v>
+        <v>1636600</v>
       </c>
       <c r="G35" s="3">
-        <v>1329600</v>
+        <v>1331300</v>
       </c>
       <c r="H35" s="3">
-        <v>314100</v>
+        <v>314500</v>
       </c>
       <c r="I35" s="3">
-        <v>378800</v>
+        <v>379300</v>
       </c>
       <c r="J35" s="3">
-        <v>996100</v>
+        <v>997300</v>
       </c>
       <c r="K35" s="3">
         <v>990200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2283200</v>
+        <v>1691300</v>
       </c>
       <c r="E41" s="3">
-        <v>1538700</v>
+        <v>2286100</v>
       </c>
       <c r="F41" s="3">
-        <v>2051900</v>
+        <v>1540600</v>
       </c>
       <c r="G41" s="3">
-        <v>2501700</v>
+        <v>2054500</v>
       </c>
       <c r="H41" s="3">
-        <v>2561500</v>
+        <v>2504900</v>
       </c>
       <c r="I41" s="3">
-        <v>1548600</v>
+        <v>2564700</v>
       </c>
       <c r="J41" s="3">
-        <v>1370400</v>
+        <v>1550500</v>
       </c>
       <c r="K41" s="3">
         <v>1356000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E42" s="3">
         <v>44300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>62500</v>
       </c>
-      <c r="F42" s="3">
-        <v>65700</v>
-      </c>
       <c r="G42" s="3">
-        <v>112200</v>
+        <v>65800</v>
       </c>
       <c r="H42" s="3">
-        <v>259200</v>
+        <v>112300</v>
       </c>
       <c r="I42" s="3">
-        <v>133600</v>
+        <v>259500</v>
       </c>
       <c r="J42" s="3">
-        <v>109900</v>
+        <v>133800</v>
       </c>
       <c r="K42" s="3">
         <v>114100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2575900</v>
+        <v>2415200</v>
       </c>
       <c r="E43" s="3">
-        <v>2546200</v>
+        <v>2441500</v>
       </c>
       <c r="F43" s="3">
-        <v>2213800</v>
+        <v>2401200</v>
       </c>
       <c r="G43" s="3">
-        <v>1786600</v>
+        <v>2127200</v>
       </c>
       <c r="H43" s="3">
-        <v>1648000</v>
+        <v>1669300</v>
       </c>
       <c r="I43" s="3">
-        <v>1657200</v>
+        <v>1568200</v>
       </c>
       <c r="J43" s="3">
-        <v>1471700</v>
+        <v>1573700</v>
       </c>
       <c r="K43" s="3">
         <v>1440800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>145700</v>
+        <v>173600</v>
       </c>
       <c r="E44" s="3">
-        <v>164800</v>
+        <v>145900</v>
       </c>
       <c r="F44" s="3">
-        <v>189000</v>
+        <v>165000</v>
       </c>
       <c r="G44" s="3">
-        <v>196700</v>
+        <v>189200</v>
       </c>
       <c r="H44" s="3">
-        <v>199900</v>
+        <v>197000</v>
       </c>
       <c r="I44" s="3">
-        <v>252000</v>
+        <v>200200</v>
       </c>
       <c r="J44" s="3">
-        <v>227700</v>
+        <v>252300</v>
       </c>
       <c r="K44" s="3">
         <v>179700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>506100</v>
+        <v>497600</v>
       </c>
       <c r="E45" s="3">
-        <v>887200</v>
+        <v>644400</v>
       </c>
       <c r="F45" s="3">
-        <v>391200</v>
+        <v>1036600</v>
       </c>
       <c r="G45" s="3">
-        <v>1335600</v>
+        <v>481100</v>
       </c>
       <c r="H45" s="3">
-        <v>1211200</v>
+        <v>1456900</v>
       </c>
       <c r="I45" s="3">
-        <v>1103700</v>
+        <v>1294600</v>
       </c>
       <c r="J45" s="3">
-        <v>1040700</v>
+        <v>1190700</v>
       </c>
       <c r="K45" s="3">
         <v>852500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5555200</v>
+        <v>4871000</v>
       </c>
       <c r="E46" s="3">
-        <v>5199400</v>
+        <v>5562200</v>
       </c>
       <c r="F46" s="3">
-        <v>4911500</v>
+        <v>5205900</v>
       </c>
       <c r="G46" s="3">
-        <v>5932800</v>
+        <v>4917700</v>
       </c>
       <c r="H46" s="3">
-        <v>5879900</v>
+        <v>5940300</v>
       </c>
       <c r="I46" s="3">
-        <v>4695100</v>
+        <v>5887300</v>
       </c>
       <c r="J46" s="3">
-        <v>4220400</v>
+        <v>4701000</v>
       </c>
       <c r="K46" s="3">
         <v>3943100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1050600</v>
+        <v>631400</v>
       </c>
       <c r="E47" s="3">
-        <v>828900</v>
+        <v>1051900</v>
       </c>
       <c r="F47" s="3">
-        <v>1129500</v>
+        <v>829900</v>
       </c>
       <c r="G47" s="3">
-        <v>1275600</v>
+        <v>1130900</v>
       </c>
       <c r="H47" s="3">
-        <v>2086600</v>
+        <v>1277200</v>
       </c>
       <c r="I47" s="3">
-        <v>2536100</v>
+        <v>2089200</v>
       </c>
       <c r="J47" s="3">
-        <v>3058400</v>
+        <v>2539300</v>
       </c>
       <c r="K47" s="3">
         <v>4135100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15776300</v>
+        <v>13813300</v>
       </c>
       <c r="E48" s="3">
-        <v>15818500</v>
+        <v>15796200</v>
       </c>
       <c r="F48" s="3">
-        <v>8140100</v>
+        <v>15838400</v>
       </c>
       <c r="G48" s="3">
-        <v>8383800</v>
+        <v>8150400</v>
       </c>
       <c r="H48" s="3">
-        <v>7990900</v>
+        <v>8394400</v>
       </c>
       <c r="I48" s="3">
-        <v>7679700</v>
+        <v>8001000</v>
       </c>
       <c r="J48" s="3">
-        <v>6609000</v>
+        <v>7689300</v>
       </c>
       <c r="K48" s="3">
         <v>5609200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4457200</v>
+        <v>4182100</v>
       </c>
       <c r="E49" s="3">
-        <v>4307600</v>
+        <v>4462800</v>
       </c>
       <c r="F49" s="3">
-        <v>5633900</v>
+        <v>4313000</v>
       </c>
       <c r="G49" s="3">
-        <v>6329900</v>
+        <v>5641000</v>
       </c>
       <c r="H49" s="3">
-        <v>6388600</v>
+        <v>6337900</v>
       </c>
       <c r="I49" s="3">
-        <v>7152800</v>
+        <v>6396700</v>
       </c>
       <c r="J49" s="3">
-        <v>6932300</v>
+        <v>7161800</v>
       </c>
       <c r="K49" s="3">
         <v>6080800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1625200</v>
+        <v>1582000</v>
       </c>
       <c r="E52" s="3">
-        <v>1463600</v>
+        <v>1627300</v>
       </c>
       <c r="F52" s="3">
-        <v>1408500</v>
+        <v>1465400</v>
       </c>
       <c r="G52" s="3">
-        <v>465700</v>
+        <v>1410300</v>
       </c>
       <c r="H52" s="3">
-        <v>547100</v>
+        <v>466300</v>
       </c>
       <c r="I52" s="3">
-        <v>673100</v>
+        <v>547800</v>
       </c>
       <c r="J52" s="3">
-        <v>679100</v>
+        <v>673900</v>
       </c>
       <c r="K52" s="3">
         <v>719400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28464500</v>
+        <v>25079700</v>
       </c>
       <c r="E54" s="3">
-        <v>27617800</v>
+        <v>28500400</v>
       </c>
       <c r="F54" s="3">
-        <v>21223500</v>
+        <v>27652700</v>
       </c>
       <c r="G54" s="3">
-        <v>22387800</v>
+        <v>21250300</v>
       </c>
       <c r="H54" s="3">
-        <v>22893200</v>
+        <v>22416100</v>
       </c>
       <c r="I54" s="3">
-        <v>22736700</v>
+        <v>22922000</v>
       </c>
       <c r="J54" s="3">
-        <v>21499100</v>
+        <v>22765400</v>
       </c>
       <c r="K54" s="3">
         <v>20487700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1005700</v>
+        <v>3590200</v>
       </c>
       <c r="E57" s="3">
-        <v>1044000</v>
+        <v>1007000</v>
       </c>
       <c r="F57" s="3">
-        <v>909200</v>
+        <v>1045300</v>
       </c>
       <c r="G57" s="3">
-        <v>975000</v>
+        <v>910400</v>
       </c>
       <c r="H57" s="3">
-        <v>517600</v>
+        <v>976200</v>
       </c>
       <c r="I57" s="3">
-        <v>470700</v>
+        <v>518300</v>
       </c>
       <c r="J57" s="3">
-        <v>370900</v>
+        <v>471300</v>
       </c>
       <c r="K57" s="3">
         <v>300800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1841300</v>
+        <v>1805700</v>
       </c>
       <c r="E58" s="3">
-        <v>2669300</v>
+        <v>1843600</v>
       </c>
       <c r="F58" s="3">
-        <v>1746500</v>
+        <v>2672600</v>
       </c>
       <c r="G58" s="3">
-        <v>2519900</v>
+        <v>1748700</v>
       </c>
       <c r="H58" s="3">
-        <v>2881600</v>
+        <v>2523100</v>
       </c>
       <c r="I58" s="3">
-        <v>1401000</v>
+        <v>2885300</v>
       </c>
       <c r="J58" s="3">
-        <v>829300</v>
+        <v>1402700</v>
       </c>
       <c r="K58" s="3">
         <v>1647800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3870100</v>
+        <v>1510800</v>
       </c>
       <c r="E59" s="3">
-        <v>4390400</v>
+        <v>3874900</v>
       </c>
       <c r="F59" s="3">
-        <v>4829200</v>
+        <v>4395900</v>
       </c>
       <c r="G59" s="3">
-        <v>5013800</v>
+        <v>4835300</v>
       </c>
       <c r="H59" s="3">
-        <v>5213200</v>
+        <v>5020200</v>
       </c>
       <c r="I59" s="3">
-        <v>5338300</v>
+        <v>5219800</v>
       </c>
       <c r="J59" s="3">
-        <v>4940400</v>
+        <v>5345000</v>
       </c>
       <c r="K59" s="3">
         <v>3896000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6717100</v>
+        <v>6906800</v>
       </c>
       <c r="E60" s="3">
-        <v>8103600</v>
+        <v>6725500</v>
       </c>
       <c r="F60" s="3">
-        <v>7484900</v>
+        <v>8113900</v>
       </c>
       <c r="G60" s="3">
-        <v>8508700</v>
+        <v>7494400</v>
       </c>
       <c r="H60" s="3">
-        <v>8612500</v>
+        <v>8519500</v>
       </c>
       <c r="I60" s="3">
-        <v>7210000</v>
+        <v>8623400</v>
       </c>
       <c r="J60" s="3">
-        <v>5837100</v>
+        <v>7219100</v>
       </c>
       <c r="K60" s="3">
         <v>5022200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14892100</v>
+        <v>12877800</v>
       </c>
       <c r="E61" s="3">
-        <v>12870100</v>
+        <v>14910800</v>
       </c>
       <c r="F61" s="3">
-        <v>6205500</v>
+        <v>12886400</v>
       </c>
       <c r="G61" s="3">
-        <v>5724100</v>
+        <v>6213400</v>
       </c>
       <c r="H61" s="3">
-        <v>6701000</v>
+        <v>5731300</v>
       </c>
       <c r="I61" s="3">
-        <v>7079500</v>
+        <v>6709400</v>
       </c>
       <c r="J61" s="3">
-        <v>6781100</v>
+        <v>7088400</v>
       </c>
       <c r="K61" s="3">
         <v>5773800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1982200</v>
+        <v>1795500</v>
       </c>
       <c r="E62" s="3">
-        <v>1835200</v>
+        <v>1984700</v>
       </c>
       <c r="F62" s="3">
-        <v>1490700</v>
+        <v>1837500</v>
       </c>
       <c r="G62" s="3">
-        <v>1238300</v>
+        <v>1492600</v>
       </c>
       <c r="H62" s="3">
-        <v>1432900</v>
+        <v>1239900</v>
       </c>
       <c r="I62" s="3">
-        <v>1442800</v>
+        <v>1434700</v>
       </c>
       <c r="J62" s="3">
-        <v>1279600</v>
+        <v>1444600</v>
       </c>
       <c r="K62" s="3">
         <v>970300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24212000</v>
+        <v>22158500</v>
       </c>
       <c r="E66" s="3">
-        <v>23395500</v>
+        <v>24242600</v>
       </c>
       <c r="F66" s="3">
-        <v>15737000</v>
+        <v>23425000</v>
       </c>
       <c r="G66" s="3">
-        <v>16008100</v>
+        <v>15756900</v>
       </c>
       <c r="H66" s="3">
-        <v>17247600</v>
+        <v>16028300</v>
       </c>
       <c r="I66" s="3">
-        <v>16249300</v>
+        <v>17269400</v>
       </c>
       <c r="J66" s="3">
-        <v>14424800</v>
+        <v>16269800</v>
       </c>
       <c r="K66" s="3">
         <v>12182100</v>
@@ -2793,26 +2793,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>3665600</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>3571800</v>
+        <v>3670200</v>
       </c>
       <c r="F72" s="3">
-        <v>4748400</v>
+        <v>3576300</v>
       </c>
       <c r="G72" s="3">
-        <v>5755400</v>
+        <v>4754400</v>
       </c>
       <c r="H72" s="3">
-        <v>4622300</v>
+        <v>5762600</v>
       </c>
       <c r="I72" s="3">
-        <v>5024900</v>
+        <v>4628100</v>
       </c>
       <c r="J72" s="3">
-        <v>5947100</v>
+        <v>5031300</v>
       </c>
       <c r="K72" s="3">
         <v>7839500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4252400</v>
+        <v>2921300</v>
       </c>
       <c r="E76" s="3">
-        <v>4222400</v>
+        <v>4257800</v>
       </c>
       <c r="F76" s="3">
-        <v>5486500</v>
+        <v>4227700</v>
       </c>
       <c r="G76" s="3">
-        <v>6379800</v>
+        <v>5493500</v>
       </c>
       <c r="H76" s="3">
-        <v>5645500</v>
+        <v>6387800</v>
       </c>
       <c r="I76" s="3">
-        <v>6487400</v>
+        <v>5652700</v>
       </c>
       <c r="J76" s="3">
-        <v>7074300</v>
+        <v>6495600</v>
       </c>
       <c r="K76" s="3">
         <v>8305700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1924200</v>
+        <v>1926600</v>
       </c>
       <c r="E81" s="3">
-        <v>862500</v>
+        <v>863600</v>
       </c>
       <c r="F81" s="3">
-        <v>1634600</v>
+        <v>1636600</v>
       </c>
       <c r="G81" s="3">
-        <v>1329600</v>
+        <v>1331300</v>
       </c>
       <c r="H81" s="3">
-        <v>314100</v>
+        <v>314500</v>
       </c>
       <c r="I81" s="3">
-        <v>378800</v>
+        <v>379300</v>
       </c>
       <c r="J81" s="3">
-        <v>996100</v>
+        <v>997300</v>
       </c>
       <c r="K81" s="3">
         <v>990200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3224800</v>
+        <v>3228900</v>
       </c>
       <c r="E83" s="3">
-        <v>2732400</v>
+        <v>2735800</v>
       </c>
       <c r="F83" s="3">
-        <v>2313100</v>
+        <v>2316000</v>
       </c>
       <c r="G83" s="3">
-        <v>2459500</v>
+        <v>2462600</v>
       </c>
       <c r="H83" s="3">
-        <v>3110500</v>
+        <v>3114500</v>
       </c>
       <c r="I83" s="3">
-        <v>2281900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1727000</v>
+        <v>2284800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>1571600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4862200</v>
+        <v>4868300</v>
       </c>
       <c r="E89" s="3">
-        <v>3797400</v>
+        <v>3802200</v>
       </c>
       <c r="F89" s="3">
-        <v>4038300</v>
+        <v>4043400</v>
       </c>
       <c r="G89" s="3">
-        <v>4518500</v>
+        <v>4524200</v>
       </c>
       <c r="H89" s="3">
-        <v>4413800</v>
+        <v>4419300</v>
       </c>
       <c r="I89" s="3">
-        <v>4117400</v>
+        <v>4122600</v>
       </c>
       <c r="J89" s="3">
-        <v>3756100</v>
+        <v>3760800</v>
       </c>
       <c r="K89" s="3">
         <v>4187600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2108200</v>
+        <v>-2110900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2558600</v>
+        <v>-2561900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2331400</v>
+        <v>-2334300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2299800</v>
+        <v>-2302700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2632700</v>
+        <v>-2636100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2348800</v>
+        <v>-2351800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2296100</v>
+        <v>-2299000</v>
       </c>
       <c r="K91" s="3">
         <v>-1767400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1172300</v>
+        <v>-1173800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4829600</v>
+        <v>-4835700</v>
       </c>
       <c r="F94" s="3">
-        <v>-68000</v>
+        <v>-68100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1339800</v>
+        <v>-1341500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2341800</v>
+        <v>-2344800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2250400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2329800</v>
+        <v>-2253200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-2333700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1362300</v>
+        <v>-1364000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1344900</v>
+        <v>-1346600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2039600</v>
+        <v>-2042100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1325300</v>
+        <v>-1327000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1247900</v>
+        <v>-1249400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1189900</v>
+        <v>-1191400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1172500</v>
+        <v>-1174000</v>
       </c>
       <c r="K96" s="3">
         <v>-1045900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3060600</v>
+        <v>-3064500</v>
       </c>
       <c r="E100" s="3">
-        <v>480700</v>
+        <v>481300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4381500</v>
+        <v>-4387000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3299200</v>
+        <v>-3303300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1002700</v>
+        <v>-1004000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1668900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1538600</v>
+        <v>-1671100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-1558700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="E101" s="3">
-        <v>71100</v>
+        <v>71200</v>
       </c>
       <c r="F101" s="3">
-        <v>-31500</v>
+        <v>-31600</v>
       </c>
       <c r="G101" s="3">
         <v>50400</v>
       </c>
       <c r="H101" s="3">
-        <v>-49500</v>
+        <v>-49600</v>
       </c>
       <c r="I101" s="3">
         <v>9000</v>
       </c>
-      <c r="J101" s="3">
-        <v>102900</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>64200</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>675900</v>
+        <v>676700</v>
       </c>
       <c r="E102" s="3">
-        <v>-480500</v>
+        <v>-481100</v>
       </c>
       <c r="F102" s="3">
-        <v>-442700</v>
+        <v>-443300</v>
       </c>
       <c r="G102" s="3">
-        <v>-70100</v>
+        <v>-70200</v>
       </c>
       <c r="H102" s="3">
-        <v>1019700</v>
+        <v>1021000</v>
       </c>
       <c r="I102" s="3">
-        <v>207100</v>
+        <v>207300</v>
       </c>
       <c r="J102" s="3">
         <v>-9400</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12869700</v>
+        <v>11167400</v>
       </c>
       <c r="E8" s="3">
-        <v>12628300</v>
+        <v>11734500</v>
       </c>
       <c r="F8" s="3">
-        <v>11768000</v>
+        <v>11514400</v>
       </c>
       <c r="G8" s="3">
-        <v>12450900</v>
+        <v>10730000</v>
       </c>
       <c r="H8" s="3">
-        <v>13931400</v>
+        <v>11352600</v>
       </c>
       <c r="I8" s="3">
-        <v>14240200</v>
+        <v>12702500</v>
       </c>
       <c r="J8" s="3">
+        <v>12984100</v>
+      </c>
+      <c r="K8" s="3">
         <v>12381300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11223400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10405800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12147000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6533200</v>
+        <v>2955500</v>
       </c>
       <c r="E9" s="3">
-        <v>3101000</v>
+        <v>5956900</v>
       </c>
       <c r="F9" s="3">
-        <v>2659600</v>
+        <v>2827500</v>
       </c>
       <c r="G9" s="3">
-        <v>2991700</v>
+        <v>2425000</v>
       </c>
       <c r="H9" s="3">
-        <v>7403900</v>
+        <v>2727800</v>
       </c>
       <c r="I9" s="3">
-        <v>3904800</v>
+        <v>6750800</v>
       </c>
       <c r="J9" s="3">
+        <v>3560400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6850400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6231500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5971700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4729200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6336500</v>
+        <v>8211900</v>
       </c>
       <c r="E10" s="3">
-        <v>9527300</v>
+        <v>5777500</v>
       </c>
       <c r="F10" s="3">
-        <v>9108400</v>
+        <v>8686900</v>
       </c>
       <c r="G10" s="3">
-        <v>9459200</v>
+        <v>8305000</v>
       </c>
       <c r="H10" s="3">
-        <v>6527500</v>
+        <v>8624800</v>
       </c>
       <c r="I10" s="3">
-        <v>10335400</v>
+        <v>5951700</v>
       </c>
       <c r="J10" s="3">
+        <v>9423700</v>
+      </c>
+      <c r="K10" s="3">
         <v>5530900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4991900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4434100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7417900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>214600</v>
+        <v>145200</v>
       </c>
       <c r="E14" s="3">
-        <v>93700</v>
+        <v>195700</v>
       </c>
       <c r="F14" s="3">
-        <v>341400</v>
+        <v>85400</v>
       </c>
       <c r="G14" s="3">
-        <v>927100</v>
+        <v>311300</v>
       </c>
       <c r="H14" s="3">
-        <v>1098000</v>
+        <v>845300</v>
       </c>
       <c r="I14" s="3">
-        <v>265500</v>
+        <v>1001100</v>
       </c>
       <c r="J14" s="3">
+        <v>242100</v>
+      </c>
+      <c r="K14" s="3">
         <v>95900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>115800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1673700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>598500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6149500</v>
+        <v>2620400</v>
       </c>
       <c r="E15" s="3">
-        <v>2725200</v>
+        <v>5607100</v>
       </c>
       <c r="F15" s="3">
-        <v>2226600</v>
+        <v>2484800</v>
       </c>
       <c r="G15" s="3">
-        <v>2178900</v>
+        <v>2030200</v>
       </c>
       <c r="H15" s="3">
-        <v>4399900</v>
+        <v>1986700</v>
       </c>
       <c r="I15" s="3">
-        <v>2033700</v>
+        <v>4011800</v>
       </c>
       <c r="J15" s="3">
+        <v>1854300</v>
+      </c>
+      <c r="K15" s="3">
         <v>3440400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3015900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2936300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1887600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9760700</v>
+        <v>8986000</v>
       </c>
       <c r="E17" s="3">
-        <v>9759400</v>
+        <v>8899700</v>
       </c>
       <c r="F17" s="3">
-        <v>9440800</v>
+        <v>8898500</v>
       </c>
       <c r="G17" s="3">
-        <v>10335000</v>
+        <v>8608100</v>
       </c>
       <c r="H17" s="3">
-        <v>11150600</v>
+        <v>9423300</v>
       </c>
       <c r="I17" s="3">
-        <v>11683600</v>
+        <v>10167000</v>
       </c>
       <c r="J17" s="3">
+        <v>10653000</v>
+      </c>
+      <c r="K17" s="3">
         <v>9614300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8871800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9408500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10865600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3109000</v>
+        <v>2181400</v>
       </c>
       <c r="E18" s="3">
-        <v>2868900</v>
+        <v>2834800</v>
       </c>
       <c r="F18" s="3">
-        <v>2327200</v>
+        <v>2615900</v>
       </c>
       <c r="G18" s="3">
-        <v>2115900</v>
+        <v>2121900</v>
       </c>
       <c r="H18" s="3">
-        <v>2780800</v>
+        <v>1929300</v>
       </c>
       <c r="I18" s="3">
-        <v>2556600</v>
+        <v>2535500</v>
       </c>
       <c r="J18" s="3">
+        <v>2331100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2767100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2351600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>997200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1281500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>356500</v>
+        <v>-147000</v>
       </c>
       <c r="E20" s="3">
-        <v>-32700</v>
+        <v>325100</v>
       </c>
       <c r="F20" s="3">
-        <v>-124000</v>
+        <v>-29800</v>
       </c>
       <c r="G20" s="3">
-        <v>351100</v>
+        <v>-113100</v>
       </c>
       <c r="H20" s="3">
-        <v>-95700</v>
+        <v>320100</v>
       </c>
       <c r="I20" s="3">
-        <v>-853600</v>
+        <v>-87200</v>
       </c>
       <c r="J20" s="3">
+        <v>-778300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-236600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>57400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>348500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>274100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6733700</v>
+        <v>5561100</v>
       </c>
       <c r="E21" s="3">
-        <v>5605400</v>
+        <v>6142600</v>
       </c>
       <c r="F21" s="3">
-        <v>4547400</v>
+        <v>5113400</v>
       </c>
       <c r="G21" s="3">
-        <v>4959500</v>
+        <v>4148300</v>
       </c>
       <c r="H21" s="3">
-        <v>5837500</v>
+        <v>4524300</v>
       </c>
       <c r="I21" s="3">
-        <v>4015600</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>5325300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3663400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3973100</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3969400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>766700</v>
+        <v>303800</v>
       </c>
       <c r="E22" s="3">
-        <v>506700</v>
+        <v>699100</v>
       </c>
       <c r="F22" s="3">
-        <v>236600</v>
+        <v>462000</v>
       </c>
       <c r="G22" s="3">
-        <v>288900</v>
+        <v>215800</v>
       </c>
       <c r="H22" s="3">
-        <v>540700</v>
+        <v>263400</v>
       </c>
       <c r="I22" s="3">
-        <v>256500</v>
+        <v>493000</v>
       </c>
       <c r="J22" s="3">
+        <v>233900</v>
+      </c>
+      <c r="K22" s="3">
         <v>380000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>416600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>244000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2698800</v>
+        <v>1730600</v>
       </c>
       <c r="E23" s="3">
-        <v>2329500</v>
+        <v>2460800</v>
       </c>
       <c r="F23" s="3">
-        <v>1966600</v>
+        <v>2124100</v>
       </c>
       <c r="G23" s="3">
-        <v>2178100</v>
+        <v>1793100</v>
       </c>
       <c r="H23" s="3">
-        <v>2144500</v>
+        <v>1986000</v>
       </c>
       <c r="I23" s="3">
-        <v>1446500</v>
+        <v>1955300</v>
       </c>
       <c r="J23" s="3">
+        <v>1318900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2150500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1992400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1101800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1550500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>713200</v>
+        <v>581500</v>
       </c>
       <c r="E24" s="3">
-        <v>1003600</v>
+        <v>650200</v>
       </c>
       <c r="F24" s="3">
-        <v>669300</v>
+        <v>915000</v>
       </c>
       <c r="G24" s="3">
-        <v>721200</v>
+        <v>610200</v>
       </c>
       <c r="H24" s="3">
-        <v>658200</v>
+        <v>657500</v>
       </c>
       <c r="I24" s="3">
-        <v>701800</v>
+        <v>600100</v>
       </c>
       <c r="J24" s="3">
+        <v>639900</v>
+      </c>
+      <c r="K24" s="3">
         <v>733000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>641800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>178300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>660600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1985700</v>
+        <v>1149100</v>
       </c>
       <c r="E26" s="3">
-        <v>1326000</v>
+        <v>1810500</v>
       </c>
       <c r="F26" s="3">
-        <v>1297300</v>
+        <v>1209000</v>
       </c>
       <c r="G26" s="3">
-        <v>1457000</v>
+        <v>1182900</v>
       </c>
       <c r="H26" s="3">
-        <v>1486300</v>
+        <v>1328400</v>
       </c>
       <c r="I26" s="3">
-        <v>744700</v>
+        <v>1355200</v>
       </c>
       <c r="J26" s="3">
+        <v>679000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1417400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1350600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>923500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>889900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1572600</v>
+        <v>838900</v>
       </c>
       <c r="E27" s="3">
-        <v>946000</v>
+        <v>1433900</v>
       </c>
       <c r="F27" s="3">
-        <v>996100</v>
+        <v>862600</v>
       </c>
       <c r="G27" s="3">
-        <v>1133100</v>
+        <v>908300</v>
       </c>
       <c r="H27" s="3">
-        <v>1155800</v>
+        <v>1033200</v>
       </c>
       <c r="I27" s="3">
-        <v>379300</v>
+        <v>1053800</v>
       </c>
       <c r="J27" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1008500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>968400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>901200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>883400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>354000</v>
+        <v>-684100</v>
       </c>
       <c r="E29" s="3">
-        <v>-82400</v>
+        <v>322700</v>
       </c>
       <c r="F29" s="3">
-        <v>640500</v>
+        <v>-75200</v>
       </c>
       <c r="G29" s="3">
-        <v>198200</v>
+        <v>584000</v>
       </c>
       <c r="H29" s="3">
-        <v>-841200</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>180700</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-767000</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-11100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>21800</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-356500</v>
+        <v>147000</v>
       </c>
       <c r="E32" s="3">
-        <v>32700</v>
+        <v>-325100</v>
       </c>
       <c r="F32" s="3">
-        <v>124000</v>
+        <v>29800</v>
       </c>
       <c r="G32" s="3">
-        <v>-351100</v>
+        <v>113100</v>
       </c>
       <c r="H32" s="3">
-        <v>95700</v>
+        <v>-320100</v>
       </c>
       <c r="I32" s="3">
-        <v>853600</v>
+        <v>87200</v>
       </c>
       <c r="J32" s="3">
+        <v>778300</v>
+      </c>
+      <c r="K32" s="3">
         <v>236600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-57400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-348500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-274100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1926600</v>
+        <v>154800</v>
       </c>
       <c r="E33" s="3">
-        <v>863600</v>
+        <v>1756600</v>
       </c>
       <c r="F33" s="3">
-        <v>1636600</v>
+        <v>787400</v>
       </c>
       <c r="G33" s="3">
-        <v>1331300</v>
+        <v>1492300</v>
       </c>
       <c r="H33" s="3">
-        <v>314500</v>
+        <v>1213900</v>
       </c>
       <c r="I33" s="3">
-        <v>379300</v>
+        <v>286800</v>
       </c>
       <c r="J33" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K33" s="3">
         <v>997300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>990200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>901200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>883400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1926600</v>
+        <v>154800</v>
       </c>
       <c r="E35" s="3">
-        <v>863600</v>
+        <v>1756600</v>
       </c>
       <c r="F35" s="3">
-        <v>1636600</v>
+        <v>787400</v>
       </c>
       <c r="G35" s="3">
-        <v>1331300</v>
+        <v>1492300</v>
       </c>
       <c r="H35" s="3">
-        <v>314500</v>
+        <v>1213900</v>
       </c>
       <c r="I35" s="3">
-        <v>379300</v>
+        <v>286800</v>
       </c>
       <c r="J35" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K35" s="3">
         <v>997300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>990200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>901200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>883400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1691300</v>
+        <v>1542100</v>
       </c>
       <c r="E41" s="3">
-        <v>2286100</v>
+        <v>2084500</v>
       </c>
       <c r="F41" s="3">
-        <v>1540600</v>
+        <v>1404700</v>
       </c>
       <c r="G41" s="3">
-        <v>2054500</v>
+        <v>1873200</v>
       </c>
       <c r="H41" s="3">
-        <v>2504900</v>
+        <v>2283900</v>
       </c>
       <c r="I41" s="3">
-        <v>2564700</v>
+        <v>2338500</v>
       </c>
       <c r="J41" s="3">
+        <v>1413700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1550500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1356000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>907800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1590400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>93200</v>
+        <v>38100</v>
       </c>
       <c r="E42" s="3">
-        <v>44300</v>
+        <v>40400</v>
       </c>
       <c r="F42" s="3">
-        <v>62500</v>
+        <v>57000</v>
       </c>
       <c r="G42" s="3">
-        <v>65800</v>
+        <v>60000</v>
       </c>
       <c r="H42" s="3">
-        <v>112300</v>
+        <v>102400</v>
       </c>
       <c r="I42" s="3">
-        <v>259500</v>
+        <v>236600</v>
       </c>
       <c r="J42" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K42" s="3">
         <v>133800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>291900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>282600</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2415200</v>
+        <v>1965500</v>
       </c>
       <c r="E43" s="3">
-        <v>2441500</v>
+        <v>2226200</v>
       </c>
       <c r="F43" s="3">
-        <v>2401200</v>
+        <v>2189400</v>
       </c>
       <c r="G43" s="3">
-        <v>2127200</v>
+        <v>1939600</v>
       </c>
       <c r="H43" s="3">
-        <v>1669300</v>
+        <v>1522000</v>
       </c>
       <c r="I43" s="3">
-        <v>1568200</v>
+        <v>1429800</v>
       </c>
       <c r="J43" s="3">
+        <v>1434900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1573700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1440800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4983500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1343000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>173600</v>
+        <v>158300</v>
       </c>
       <c r="E44" s="3">
-        <v>145900</v>
+        <v>133000</v>
       </c>
       <c r="F44" s="3">
-        <v>165000</v>
+        <v>150400</v>
       </c>
       <c r="G44" s="3">
-        <v>189200</v>
+        <v>172500</v>
       </c>
       <c r="H44" s="3">
-        <v>197000</v>
+        <v>179600</v>
       </c>
       <c r="I44" s="3">
-        <v>200200</v>
+        <v>182500</v>
       </c>
       <c r="J44" s="3">
+        <v>230100</v>
+      </c>
+      <c r="K44" s="3">
         <v>252300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>179700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>123500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>122300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>497600</v>
+        <v>737300</v>
       </c>
       <c r="E45" s="3">
-        <v>644400</v>
+        <v>587500</v>
       </c>
       <c r="F45" s="3">
-        <v>1036600</v>
+        <v>945100</v>
       </c>
       <c r="G45" s="3">
-        <v>481100</v>
+        <v>438600</v>
       </c>
       <c r="H45" s="3">
-        <v>1456900</v>
+        <v>1328300</v>
       </c>
       <c r="I45" s="3">
-        <v>1294600</v>
+        <v>1180400</v>
       </c>
       <c r="J45" s="3">
+        <v>1085600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1190700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>852500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>826800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>892900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4871000</v>
+        <v>4441300</v>
       </c>
       <c r="E46" s="3">
-        <v>5562200</v>
+        <v>5071600</v>
       </c>
       <c r="F46" s="3">
-        <v>5205900</v>
+        <v>4746700</v>
       </c>
       <c r="G46" s="3">
-        <v>4917700</v>
+        <v>4483900</v>
       </c>
       <c r="H46" s="3">
-        <v>5940300</v>
+        <v>5416300</v>
       </c>
       <c r="I46" s="3">
-        <v>5887300</v>
+        <v>5368000</v>
       </c>
       <c r="J46" s="3">
+        <v>4286300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4701000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3943100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3086900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4231300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>631400</v>
+        <v>817800</v>
       </c>
       <c r="E47" s="3">
-        <v>1051900</v>
+        <v>959100</v>
       </c>
       <c r="F47" s="3">
-        <v>829900</v>
+        <v>756700</v>
       </c>
       <c r="G47" s="3">
-        <v>1130900</v>
+        <v>1031100</v>
       </c>
       <c r="H47" s="3">
-        <v>1277200</v>
+        <v>1164500</v>
       </c>
       <c r="I47" s="3">
-        <v>2089200</v>
+        <v>1904900</v>
       </c>
       <c r="J47" s="3">
+        <v>2315300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2539300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4135100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4300700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4188100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13813300</v>
+        <v>12594800</v>
       </c>
       <c r="E48" s="3">
-        <v>15796200</v>
+        <v>14402800</v>
       </c>
       <c r="F48" s="3">
-        <v>15838400</v>
+        <v>14441300</v>
       </c>
       <c r="G48" s="3">
-        <v>8150400</v>
+        <v>7431500</v>
       </c>
       <c r="H48" s="3">
-        <v>8394400</v>
+        <v>7653900</v>
       </c>
       <c r="I48" s="3">
-        <v>8001000</v>
+        <v>7295200</v>
       </c>
       <c r="J48" s="3">
+        <v>7011100</v>
+      </c>
+      <c r="K48" s="3">
         <v>7689300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5609200</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6118100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4182100</v>
+        <v>3813200</v>
       </c>
       <c r="E49" s="3">
-        <v>4462800</v>
+        <v>4069100</v>
       </c>
       <c r="F49" s="3">
-        <v>4313000</v>
+        <v>3932600</v>
       </c>
       <c r="G49" s="3">
-        <v>5641000</v>
+        <v>5143400</v>
       </c>
       <c r="H49" s="3">
-        <v>6337900</v>
+        <v>5778900</v>
       </c>
       <c r="I49" s="3">
-        <v>6396700</v>
+        <v>5832400</v>
       </c>
       <c r="J49" s="3">
+        <v>6530100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7161800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6080800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12559400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5415200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1582000</v>
+        <v>1200300</v>
       </c>
       <c r="E52" s="3">
-        <v>1627300</v>
+        <v>1483700</v>
       </c>
       <c r="F52" s="3">
-        <v>1465400</v>
+        <v>1336100</v>
       </c>
       <c r="G52" s="3">
-        <v>1410300</v>
+        <v>1285900</v>
       </c>
       <c r="H52" s="3">
-        <v>466300</v>
+        <v>425200</v>
       </c>
       <c r="I52" s="3">
-        <v>547800</v>
+        <v>499500</v>
       </c>
       <c r="J52" s="3">
+        <v>614500</v>
+      </c>
+      <c r="K52" s="3">
         <v>673900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>719400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1074900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>556800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25079700</v>
+        <v>22867500</v>
       </c>
       <c r="E54" s="3">
-        <v>28500400</v>
+        <v>25986400</v>
       </c>
       <c r="F54" s="3">
-        <v>27652700</v>
+        <v>25213500</v>
       </c>
       <c r="G54" s="3">
-        <v>21250300</v>
+        <v>19375900</v>
       </c>
       <c r="H54" s="3">
-        <v>22416100</v>
+        <v>20438800</v>
       </c>
       <c r="I54" s="3">
-        <v>22922000</v>
+        <v>20900100</v>
       </c>
       <c r="J54" s="3">
+        <v>20757300</v>
+      </c>
+      <c r="K54" s="3">
         <v>22765400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20487700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17307200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20509600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3590200</v>
+        <v>1370600</v>
       </c>
       <c r="E57" s="3">
-        <v>1007000</v>
+        <v>918200</v>
       </c>
       <c r="F57" s="3">
-        <v>1045300</v>
+        <v>953100</v>
       </c>
       <c r="G57" s="3">
-        <v>910400</v>
+        <v>830100</v>
       </c>
       <c r="H57" s="3">
-        <v>976200</v>
+        <v>890100</v>
       </c>
       <c r="I57" s="3">
-        <v>518300</v>
+        <v>472600</v>
       </c>
       <c r="J57" s="3">
+        <v>429700</v>
+      </c>
+      <c r="K57" s="3">
         <v>471300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3169200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1805700</v>
+        <v>1646400</v>
       </c>
       <c r="E58" s="3">
-        <v>1843600</v>
+        <v>1681000</v>
       </c>
       <c r="F58" s="3">
-        <v>2672600</v>
+        <v>2436900</v>
       </c>
       <c r="G58" s="3">
-        <v>1748700</v>
+        <v>1594500</v>
       </c>
       <c r="H58" s="3">
-        <v>2523100</v>
+        <v>2300500</v>
       </c>
       <c r="I58" s="3">
-        <v>2885300</v>
+        <v>2630800</v>
       </c>
       <c r="J58" s="3">
+        <v>1279000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1402700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1647800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1059400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1329400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1510800</v>
+        <v>3280500</v>
       </c>
       <c r="E59" s="3">
-        <v>3874900</v>
+        <v>3533100</v>
       </c>
       <c r="F59" s="3">
-        <v>4395900</v>
+        <v>4008100</v>
       </c>
       <c r="G59" s="3">
-        <v>4835300</v>
+        <v>4408800</v>
       </c>
       <c r="H59" s="3">
-        <v>5020200</v>
+        <v>4577300</v>
       </c>
       <c r="I59" s="3">
-        <v>5219800</v>
+        <v>4759400</v>
       </c>
       <c r="J59" s="3">
+        <v>4873500</v>
+      </c>
+      <c r="K59" s="3">
         <v>5345000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3896000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5125100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3739300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6906800</v>
+        <v>6297500</v>
       </c>
       <c r="E60" s="3">
-        <v>6725500</v>
+        <v>6132300</v>
       </c>
       <c r="F60" s="3">
-        <v>8113900</v>
+        <v>7398100</v>
       </c>
       <c r="G60" s="3">
-        <v>7494400</v>
+        <v>6833300</v>
       </c>
       <c r="H60" s="3">
-        <v>8519500</v>
+        <v>7768000</v>
       </c>
       <c r="I60" s="3">
-        <v>8623400</v>
+        <v>7862700</v>
       </c>
       <c r="J60" s="3">
+        <v>6582300</v>
+      </c>
+      <c r="K60" s="3">
         <v>7219100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5022200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4529500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5867600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12877800</v>
+        <v>11741900</v>
       </c>
       <c r="E61" s="3">
-        <v>14910800</v>
+        <v>13595600</v>
       </c>
       <c r="F61" s="3">
-        <v>12886400</v>
+        <v>11749700</v>
       </c>
       <c r="G61" s="3">
-        <v>6213400</v>
+        <v>5665300</v>
       </c>
       <c r="H61" s="3">
-        <v>5731300</v>
+        <v>5225800</v>
       </c>
       <c r="I61" s="3">
-        <v>6709400</v>
+        <v>6117600</v>
       </c>
       <c r="J61" s="3">
+        <v>6463100</v>
+      </c>
+      <c r="K61" s="3">
         <v>7088400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5773800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4106100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2855300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1795500</v>
+        <v>1637100</v>
       </c>
       <c r="E62" s="3">
-        <v>1984700</v>
+        <v>1809600</v>
       </c>
       <c r="F62" s="3">
-        <v>1837500</v>
+        <v>1675400</v>
       </c>
       <c r="G62" s="3">
-        <v>1492600</v>
+        <v>1361000</v>
       </c>
       <c r="H62" s="3">
-        <v>1239900</v>
+        <v>1130500</v>
       </c>
       <c r="I62" s="3">
-        <v>1434700</v>
+        <v>1308200</v>
       </c>
       <c r="J62" s="3">
+        <v>1317200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1444600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>970300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>925000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1071600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22158500</v>
+        <v>20203900</v>
       </c>
       <c r="E66" s="3">
-        <v>24242600</v>
+        <v>22104200</v>
       </c>
       <c r="F66" s="3">
-        <v>23425000</v>
+        <v>21358700</v>
       </c>
       <c r="G66" s="3">
-        <v>15756900</v>
+        <v>14367000</v>
       </c>
       <c r="H66" s="3">
-        <v>16028300</v>
+        <v>14614400</v>
       </c>
       <c r="I66" s="3">
-        <v>17269400</v>
+        <v>15746100</v>
       </c>
       <c r="J66" s="3">
+        <v>14834700</v>
+      </c>
+      <c r="K66" s="3">
         <v>16269800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12182100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9744300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10153300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>2274300</v>
       </c>
       <c r="E72" s="3">
-        <v>3670200</v>
+        <v>3346400</v>
       </c>
       <c r="F72" s="3">
-        <v>3576300</v>
+        <v>3260800</v>
       </c>
       <c r="G72" s="3">
-        <v>4754400</v>
+        <v>4335000</v>
       </c>
       <c r="H72" s="3">
-        <v>5762600</v>
+        <v>5254300</v>
       </c>
       <c r="I72" s="3">
-        <v>4628100</v>
+        <v>4219900</v>
       </c>
       <c r="J72" s="3">
+        <v>4587500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5031300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7839500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15664800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9950600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2921300</v>
+        <v>2663600</v>
       </c>
       <c r="E76" s="3">
-        <v>4257800</v>
+        <v>3882200</v>
       </c>
       <c r="F76" s="3">
-        <v>4227700</v>
+        <v>3854800</v>
       </c>
       <c r="G76" s="3">
-        <v>5493500</v>
+        <v>5008900</v>
       </c>
       <c r="H76" s="3">
-        <v>6387800</v>
+        <v>5824300</v>
       </c>
       <c r="I76" s="3">
-        <v>5652700</v>
+        <v>5154000</v>
       </c>
       <c r="J76" s="3">
+        <v>5922600</v>
+      </c>
+      <c r="K76" s="3">
         <v>6495600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8305700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7562900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10356200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1926600</v>
+        <v>154800</v>
       </c>
       <c r="E81" s="3">
-        <v>863600</v>
+        <v>1756600</v>
       </c>
       <c r="F81" s="3">
-        <v>1636600</v>
+        <v>787400</v>
       </c>
       <c r="G81" s="3">
-        <v>1331300</v>
+        <v>1492300</v>
       </c>
       <c r="H81" s="3">
-        <v>314500</v>
+        <v>1213900</v>
       </c>
       <c r="I81" s="3">
-        <v>379300</v>
+        <v>286800</v>
       </c>
       <c r="J81" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K81" s="3">
         <v>997300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>990200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>901200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>883400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3228900</v>
+        <v>3481000</v>
       </c>
       <c r="E83" s="3">
-        <v>2735800</v>
+        <v>2944100</v>
       </c>
       <c r="F83" s="3">
-        <v>2316000</v>
+        <v>2494500</v>
       </c>
       <c r="G83" s="3">
-        <v>2462600</v>
+        <v>2111700</v>
       </c>
       <c r="H83" s="3">
-        <v>3114500</v>
+        <v>2245400</v>
       </c>
       <c r="I83" s="3">
-        <v>2284800</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>2839700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2083200</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1571600</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2422700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4868300</v>
+        <v>4282300</v>
       </c>
       <c r="E89" s="3">
-        <v>3802200</v>
+        <v>4438900</v>
       </c>
       <c r="F89" s="3">
-        <v>4043400</v>
+        <v>3466800</v>
       </c>
       <c r="G89" s="3">
-        <v>4524200</v>
+        <v>3686700</v>
       </c>
       <c r="H89" s="3">
-        <v>4419300</v>
+        <v>4125100</v>
       </c>
       <c r="I89" s="3">
-        <v>4122600</v>
+        <v>4029500</v>
       </c>
       <c r="J89" s="3">
+        <v>3758900</v>
+      </c>
+      <c r="K89" s="3">
         <v>3760800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4187600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2455400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3340400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2110900</v>
+        <v>-1970000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2561900</v>
+        <v>-1924700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2334300</v>
+        <v>-2335900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2302700</v>
+        <v>-2128400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2636100</v>
+        <v>-2099500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2351800</v>
+        <v>-2403500</v>
       </c>
       <c r="J91" s="3">
+        <v>-2144300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2299000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1767400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1728100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1635100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1173800</v>
+        <v>-1745200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4835700</v>
+        <v>-1070200</v>
       </c>
       <c r="F94" s="3">
-        <v>-68100</v>
+        <v>-4409200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1341500</v>
+        <v>-62100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2344800</v>
+        <v>-1223200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2253200</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-2137900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2054500</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2333700</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1781800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1364000</v>
+        <v>-1275900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1346600</v>
+        <v>-1243700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2042100</v>
+        <v>-1227900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1327000</v>
+        <v>-1862000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1249400</v>
+        <v>-1209900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1191400</v>
+        <v>-1139200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1086300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1174000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1045900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-810700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-765200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3064500</v>
+        <v>-2826600</v>
       </c>
       <c r="E100" s="3">
-        <v>481300</v>
+        <v>-2794200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4387000</v>
+        <v>438800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3303300</v>
+        <v>-4000000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1004000</v>
+        <v>-3012000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1671100</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-915400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1523700</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1558700</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1586600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>46700</v>
+        <v>-24800</v>
       </c>
       <c r="E101" s="3">
-        <v>71200</v>
+        <v>42500</v>
       </c>
       <c r="F101" s="3">
-        <v>-31600</v>
+        <v>64900</v>
       </c>
       <c r="G101" s="3">
-        <v>50400</v>
+        <v>-28800</v>
       </c>
       <c r="H101" s="3">
-        <v>-49600</v>
+        <v>46000</v>
       </c>
       <c r="I101" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-45200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>64200</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-59300</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>676700</v>
+        <v>-314300</v>
       </c>
       <c r="E102" s="3">
-        <v>-481100</v>
+        <v>617000</v>
       </c>
       <c r="F102" s="3">
-        <v>-443300</v>
+        <v>-438600</v>
       </c>
       <c r="G102" s="3">
-        <v>-70200</v>
+        <v>-404200</v>
       </c>
       <c r="H102" s="3">
-        <v>1021000</v>
+        <v>-64000</v>
       </c>
       <c r="I102" s="3">
-        <v>207300</v>
+        <v>930900</v>
       </c>
       <c r="J102" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>359400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-418900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-87000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11167400</v>
+        <v>11418800</v>
       </c>
       <c r="E8" s="3">
-        <v>11734500</v>
+        <v>11998600</v>
       </c>
       <c r="F8" s="3">
-        <v>11514400</v>
+        <v>11773500</v>
       </c>
       <c r="G8" s="3">
-        <v>10730000</v>
+        <v>10971500</v>
       </c>
       <c r="H8" s="3">
-        <v>11352600</v>
+        <v>11608100</v>
       </c>
       <c r="I8" s="3">
-        <v>12702500</v>
+        <v>12988400</v>
       </c>
       <c r="J8" s="3">
-        <v>12984100</v>
+        <v>13276400</v>
       </c>
       <c r="K8" s="3">
         <v>12381300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2955500</v>
+        <v>3022100</v>
       </c>
       <c r="E9" s="3">
-        <v>5956900</v>
+        <v>6091000</v>
       </c>
       <c r="F9" s="3">
-        <v>2827500</v>
+        <v>2891100</v>
       </c>
       <c r="G9" s="3">
-        <v>2425000</v>
+        <v>2479600</v>
       </c>
       <c r="H9" s="3">
-        <v>2727800</v>
+        <v>2789200</v>
       </c>
       <c r="I9" s="3">
-        <v>6750800</v>
+        <v>6902800</v>
       </c>
       <c r="J9" s="3">
-        <v>3560400</v>
+        <v>3640500</v>
       </c>
       <c r="K9" s="3">
         <v>6850400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8211900</v>
+        <v>8396700</v>
       </c>
       <c r="E10" s="3">
-        <v>5777500</v>
+        <v>5907600</v>
       </c>
       <c r="F10" s="3">
-        <v>8686900</v>
+        <v>8882400</v>
       </c>
       <c r="G10" s="3">
-        <v>8305000</v>
+        <v>8491900</v>
       </c>
       <c r="H10" s="3">
-        <v>8624800</v>
+        <v>8818900</v>
       </c>
       <c r="I10" s="3">
-        <v>5951700</v>
+        <v>6085600</v>
       </c>
       <c r="J10" s="3">
-        <v>9423700</v>
+        <v>9635800</v>
       </c>
       <c r="K10" s="3">
         <v>5530900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>145200</v>
+        <v>148400</v>
       </c>
       <c r="E14" s="3">
-        <v>195700</v>
+        <v>200100</v>
       </c>
       <c r="F14" s="3">
-        <v>85400</v>
+        <v>87300</v>
       </c>
       <c r="G14" s="3">
-        <v>311300</v>
+        <v>318300</v>
       </c>
       <c r="H14" s="3">
-        <v>845300</v>
+        <v>864400</v>
       </c>
       <c r="I14" s="3">
-        <v>1001100</v>
+        <v>1023700</v>
       </c>
       <c r="J14" s="3">
-        <v>242100</v>
+        <v>247600</v>
       </c>
       <c r="K14" s="3">
         <v>95900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2620400</v>
+        <v>2679400</v>
       </c>
       <c r="E15" s="3">
-        <v>5607100</v>
+        <v>5733300</v>
       </c>
       <c r="F15" s="3">
-        <v>2484800</v>
+        <v>2540700</v>
       </c>
       <c r="G15" s="3">
-        <v>2030200</v>
+        <v>2075800</v>
       </c>
       <c r="H15" s="3">
-        <v>1986700</v>
+        <v>2031400</v>
       </c>
       <c r="I15" s="3">
-        <v>4011800</v>
+        <v>4102100</v>
       </c>
       <c r="J15" s="3">
-        <v>1854300</v>
+        <v>1896000</v>
       </c>
       <c r="K15" s="3">
         <v>3440400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8986000</v>
+        <v>9188300</v>
       </c>
       <c r="E17" s="3">
-        <v>8899700</v>
+        <v>9100000</v>
       </c>
       <c r="F17" s="3">
-        <v>8898500</v>
+        <v>9098800</v>
       </c>
       <c r="G17" s="3">
-        <v>8608100</v>
+        <v>8801800</v>
       </c>
       <c r="H17" s="3">
-        <v>9423300</v>
+        <v>9635400</v>
       </c>
       <c r="I17" s="3">
-        <v>10167000</v>
+        <v>10395800</v>
       </c>
       <c r="J17" s="3">
-        <v>10653000</v>
+        <v>10892800</v>
       </c>
       <c r="K17" s="3">
         <v>9614300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2181400</v>
+        <v>2230500</v>
       </c>
       <c r="E18" s="3">
-        <v>2834800</v>
+        <v>2898600</v>
       </c>
       <c r="F18" s="3">
-        <v>2615900</v>
+        <v>2674700</v>
       </c>
       <c r="G18" s="3">
-        <v>2121900</v>
+        <v>2169700</v>
       </c>
       <c r="H18" s="3">
-        <v>1929300</v>
+        <v>1972700</v>
       </c>
       <c r="I18" s="3">
-        <v>2535500</v>
+        <v>2592600</v>
       </c>
       <c r="J18" s="3">
-        <v>2331100</v>
+        <v>2383600</v>
       </c>
       <c r="K18" s="3">
         <v>2767100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-147000</v>
+        <v>-150300</v>
       </c>
       <c r="E20" s="3">
-        <v>325100</v>
+        <v>332400</v>
       </c>
       <c r="F20" s="3">
-        <v>-29800</v>
+        <v>-30500</v>
       </c>
       <c r="G20" s="3">
-        <v>-113100</v>
+        <v>-115600</v>
       </c>
       <c r="H20" s="3">
-        <v>320100</v>
+        <v>327300</v>
       </c>
       <c r="I20" s="3">
-        <v>-87200</v>
+        <v>-89200</v>
       </c>
       <c r="J20" s="3">
-        <v>-778300</v>
+        <v>-795800</v>
       </c>
       <c r="K20" s="3">
         <v>-236600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5561100</v>
+        <v>5627100</v>
       </c>
       <c r="E21" s="3">
-        <v>6142600</v>
+        <v>6230900</v>
       </c>
       <c r="F21" s="3">
-        <v>5113400</v>
+        <v>5186100</v>
       </c>
       <c r="G21" s="3">
-        <v>4148300</v>
+        <v>4205800</v>
       </c>
       <c r="H21" s="3">
-        <v>4524300</v>
+        <v>4588000</v>
       </c>
       <c r="I21" s="3">
-        <v>5325300</v>
+        <v>5397000</v>
       </c>
       <c r="J21" s="3">
-        <v>3663400</v>
+        <v>3710500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>303800</v>
+        <v>310600</v>
       </c>
       <c r="E22" s="3">
-        <v>699100</v>
+        <v>714800</v>
       </c>
       <c r="F22" s="3">
-        <v>462000</v>
+        <v>472400</v>
       </c>
       <c r="G22" s="3">
-        <v>215800</v>
+        <v>220600</v>
       </c>
       <c r="H22" s="3">
-        <v>263400</v>
+        <v>269300</v>
       </c>
       <c r="I22" s="3">
-        <v>493000</v>
+        <v>504100</v>
       </c>
       <c r="J22" s="3">
-        <v>233900</v>
+        <v>239200</v>
       </c>
       <c r="K22" s="3">
         <v>380000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1730600</v>
+        <v>1769600</v>
       </c>
       <c r="E23" s="3">
-        <v>2460800</v>
+        <v>2516200</v>
       </c>
       <c r="F23" s="3">
-        <v>2124100</v>
+        <v>2171900</v>
       </c>
       <c r="G23" s="3">
-        <v>1793100</v>
+        <v>1833500</v>
       </c>
       <c r="H23" s="3">
-        <v>1986000</v>
+        <v>2030700</v>
       </c>
       <c r="I23" s="3">
-        <v>1955300</v>
+        <v>1999300</v>
       </c>
       <c r="J23" s="3">
-        <v>1318900</v>
+        <v>1348600</v>
       </c>
       <c r="K23" s="3">
         <v>2150500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>581500</v>
+        <v>594500</v>
       </c>
       <c r="E24" s="3">
-        <v>650200</v>
+        <v>664900</v>
       </c>
       <c r="F24" s="3">
-        <v>915000</v>
+        <v>935600</v>
       </c>
       <c r="G24" s="3">
-        <v>610200</v>
+        <v>624000</v>
       </c>
       <c r="H24" s="3">
-        <v>657500</v>
+        <v>672300</v>
       </c>
       <c r="I24" s="3">
-        <v>600100</v>
+        <v>613600</v>
       </c>
       <c r="J24" s="3">
-        <v>639900</v>
+        <v>654300</v>
       </c>
       <c r="K24" s="3">
         <v>733000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1149100</v>
+        <v>1175000</v>
       </c>
       <c r="E26" s="3">
-        <v>1810500</v>
+        <v>1851300</v>
       </c>
       <c r="F26" s="3">
-        <v>1209000</v>
+        <v>1236200</v>
       </c>
       <c r="G26" s="3">
-        <v>1182900</v>
+        <v>1209500</v>
       </c>
       <c r="H26" s="3">
-        <v>1328400</v>
+        <v>1358300</v>
       </c>
       <c r="I26" s="3">
-        <v>1355200</v>
+        <v>1385700</v>
       </c>
       <c r="J26" s="3">
-        <v>679000</v>
+        <v>694300</v>
       </c>
       <c r="K26" s="3">
         <v>1417400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>838900</v>
+        <v>857700</v>
       </c>
       <c r="E27" s="3">
-        <v>1433900</v>
+        <v>1466200</v>
       </c>
       <c r="F27" s="3">
-        <v>862600</v>
+        <v>882000</v>
       </c>
       <c r="G27" s="3">
-        <v>908300</v>
+        <v>928700</v>
       </c>
       <c r="H27" s="3">
-        <v>1033200</v>
+        <v>1056400</v>
       </c>
       <c r="I27" s="3">
-        <v>1053800</v>
+        <v>1077500</v>
       </c>
       <c r="J27" s="3">
-        <v>345800</v>
+        <v>353600</v>
       </c>
       <c r="K27" s="3">
         <v>1008500</v>
@@ -1473,22 +1473,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-684100</v>
+        <v>-699500</v>
       </c>
       <c r="E29" s="3">
-        <v>322700</v>
+        <v>330000</v>
       </c>
       <c r="F29" s="3">
-        <v>-75200</v>
+        <v>-76900</v>
       </c>
       <c r="G29" s="3">
-        <v>584000</v>
+        <v>597100</v>
       </c>
       <c r="H29" s="3">
-        <v>180700</v>
+        <v>184800</v>
       </c>
       <c r="I29" s="3">
-        <v>-767000</v>
+        <v>-784300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>147000</v>
+        <v>150300</v>
       </c>
       <c r="E32" s="3">
-        <v>-325100</v>
+        <v>-332400</v>
       </c>
       <c r="F32" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="G32" s="3">
-        <v>113100</v>
+        <v>115600</v>
       </c>
       <c r="H32" s="3">
-        <v>-320100</v>
+        <v>-327300</v>
       </c>
       <c r="I32" s="3">
-        <v>87200</v>
+        <v>89200</v>
       </c>
       <c r="J32" s="3">
-        <v>778300</v>
+        <v>795800</v>
       </c>
       <c r="K32" s="3">
         <v>236600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>154800</v>
+        <v>158300</v>
       </c>
       <c r="E33" s="3">
-        <v>1756600</v>
+        <v>1796200</v>
       </c>
       <c r="F33" s="3">
-        <v>787400</v>
+        <v>805100</v>
       </c>
       <c r="G33" s="3">
-        <v>1492300</v>
+        <v>1525800</v>
       </c>
       <c r="H33" s="3">
-        <v>1213900</v>
+        <v>1241200</v>
       </c>
       <c r="I33" s="3">
-        <v>286800</v>
+        <v>293200</v>
       </c>
       <c r="J33" s="3">
-        <v>345800</v>
+        <v>353600</v>
       </c>
       <c r="K33" s="3">
         <v>997300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>154800</v>
+        <v>158300</v>
       </c>
       <c r="E35" s="3">
-        <v>1756600</v>
+        <v>1796200</v>
       </c>
       <c r="F35" s="3">
-        <v>787400</v>
+        <v>805100</v>
       </c>
       <c r="G35" s="3">
-        <v>1492300</v>
+        <v>1525800</v>
       </c>
       <c r="H35" s="3">
-        <v>1213900</v>
+        <v>1241200</v>
       </c>
       <c r="I35" s="3">
-        <v>286800</v>
+        <v>293200</v>
       </c>
       <c r="J35" s="3">
-        <v>345800</v>
+        <v>353600</v>
       </c>
       <c r="K35" s="3">
         <v>997300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1542100</v>
+        <v>1576800</v>
       </c>
       <c r="E41" s="3">
-        <v>2084500</v>
+        <v>2131400</v>
       </c>
       <c r="F41" s="3">
-        <v>1404700</v>
+        <v>1436300</v>
       </c>
       <c r="G41" s="3">
-        <v>1873200</v>
+        <v>1915400</v>
       </c>
       <c r="H41" s="3">
-        <v>2283900</v>
+        <v>2335300</v>
       </c>
       <c r="I41" s="3">
-        <v>2338500</v>
+        <v>2391100</v>
       </c>
       <c r="J41" s="3">
-        <v>1413700</v>
+        <v>1445600</v>
       </c>
       <c r="K41" s="3">
         <v>1550500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38100</v>
+        <v>38900</v>
       </c>
       <c r="E42" s="3">
-        <v>40400</v>
+        <v>41300</v>
       </c>
       <c r="F42" s="3">
-        <v>57000</v>
+        <v>58300</v>
       </c>
       <c r="G42" s="3">
-        <v>60000</v>
+        <v>61300</v>
       </c>
       <c r="H42" s="3">
-        <v>102400</v>
+        <v>104700</v>
       </c>
       <c r="I42" s="3">
-        <v>236600</v>
+        <v>242000</v>
       </c>
       <c r="J42" s="3">
-        <v>122000</v>
+        <v>124700</v>
       </c>
       <c r="K42" s="3">
         <v>133800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1965500</v>
+        <v>2009800</v>
       </c>
       <c r="E43" s="3">
-        <v>2226200</v>
+        <v>2276300</v>
       </c>
       <c r="F43" s="3">
-        <v>2189400</v>
+        <v>2238700</v>
       </c>
       <c r="G43" s="3">
-        <v>1939600</v>
+        <v>1983200</v>
       </c>
       <c r="H43" s="3">
-        <v>1522000</v>
+        <v>1556300</v>
       </c>
       <c r="I43" s="3">
-        <v>1429800</v>
+        <v>1462000</v>
       </c>
       <c r="J43" s="3">
-        <v>1434900</v>
+        <v>1467200</v>
       </c>
       <c r="K43" s="3">
         <v>1573700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>158300</v>
+        <v>161900</v>
       </c>
       <c r="E44" s="3">
-        <v>133000</v>
+        <v>136000</v>
       </c>
       <c r="F44" s="3">
-        <v>150400</v>
+        <v>153800</v>
       </c>
       <c r="G44" s="3">
-        <v>172500</v>
+        <v>176400</v>
       </c>
       <c r="H44" s="3">
-        <v>179600</v>
+        <v>183600</v>
       </c>
       <c r="I44" s="3">
-        <v>182500</v>
+        <v>186700</v>
       </c>
       <c r="J44" s="3">
-        <v>230100</v>
+        <v>235200</v>
       </c>
       <c r="K44" s="3">
         <v>252300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>737300</v>
+        <v>753900</v>
       </c>
       <c r="E45" s="3">
-        <v>587500</v>
+        <v>600800</v>
       </c>
       <c r="F45" s="3">
-        <v>945100</v>
+        <v>966400</v>
       </c>
       <c r="G45" s="3">
-        <v>438600</v>
+        <v>448500</v>
       </c>
       <c r="H45" s="3">
-        <v>1328300</v>
+        <v>1358200</v>
       </c>
       <c r="I45" s="3">
-        <v>1180400</v>
+        <v>1207000</v>
       </c>
       <c r="J45" s="3">
-        <v>1085600</v>
+        <v>1110100</v>
       </c>
       <c r="K45" s="3">
         <v>1190700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4441300</v>
+        <v>4541300</v>
       </c>
       <c r="E46" s="3">
-        <v>5071600</v>
+        <v>5185700</v>
       </c>
       <c r="F46" s="3">
-        <v>4746700</v>
+        <v>4853600</v>
       </c>
       <c r="G46" s="3">
-        <v>4483900</v>
+        <v>4584900</v>
       </c>
       <c r="H46" s="3">
-        <v>5416300</v>
+        <v>5538200</v>
       </c>
       <c r="I46" s="3">
-        <v>5368000</v>
+        <v>5488800</v>
       </c>
       <c r="J46" s="3">
-        <v>4286300</v>
+        <v>4382800</v>
       </c>
       <c r="K46" s="3">
         <v>4701000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>817800</v>
+        <v>836200</v>
       </c>
       <c r="E47" s="3">
-        <v>959100</v>
+        <v>980700</v>
       </c>
       <c r="F47" s="3">
-        <v>756700</v>
+        <v>773700</v>
       </c>
       <c r="G47" s="3">
-        <v>1031100</v>
+        <v>1054300</v>
       </c>
       <c r="H47" s="3">
-        <v>1164500</v>
+        <v>1190800</v>
       </c>
       <c r="I47" s="3">
-        <v>1904900</v>
+        <v>1947800</v>
       </c>
       <c r="J47" s="3">
-        <v>2315300</v>
+        <v>2367400</v>
       </c>
       <c r="K47" s="3">
         <v>2539300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12594800</v>
+        <v>12878300</v>
       </c>
       <c r="E48" s="3">
-        <v>14402800</v>
+        <v>14727000</v>
       </c>
       <c r="F48" s="3">
-        <v>14441300</v>
+        <v>14766400</v>
       </c>
       <c r="G48" s="3">
-        <v>7431500</v>
+        <v>7598700</v>
       </c>
       <c r="H48" s="3">
-        <v>7653900</v>
+        <v>7826200</v>
       </c>
       <c r="I48" s="3">
-        <v>7295200</v>
+        <v>7459400</v>
       </c>
       <c r="J48" s="3">
-        <v>7011100</v>
+        <v>7168900</v>
       </c>
       <c r="K48" s="3">
         <v>7689300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3813200</v>
+        <v>3899100</v>
       </c>
       <c r="E49" s="3">
-        <v>4069100</v>
+        <v>4160700</v>
       </c>
       <c r="F49" s="3">
-        <v>3932600</v>
+        <v>4021100</v>
       </c>
       <c r="G49" s="3">
-        <v>5143400</v>
+        <v>5259200</v>
       </c>
       <c r="H49" s="3">
-        <v>5778900</v>
+        <v>5908900</v>
       </c>
       <c r="I49" s="3">
-        <v>5832400</v>
+        <v>5963700</v>
       </c>
       <c r="J49" s="3">
-        <v>6530100</v>
+        <v>6677100</v>
       </c>
       <c r="K49" s="3">
         <v>7161800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200300</v>
+        <v>1227300</v>
       </c>
       <c r="E52" s="3">
-        <v>1483700</v>
+        <v>1517100</v>
       </c>
       <c r="F52" s="3">
-        <v>1336100</v>
+        <v>1366200</v>
       </c>
       <c r="G52" s="3">
-        <v>1285900</v>
+        <v>1314800</v>
       </c>
       <c r="H52" s="3">
-        <v>425200</v>
+        <v>434700</v>
       </c>
       <c r="I52" s="3">
-        <v>499500</v>
+        <v>510800</v>
       </c>
       <c r="J52" s="3">
-        <v>614500</v>
+        <v>628300</v>
       </c>
       <c r="K52" s="3">
         <v>673900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22867500</v>
+        <v>23382100</v>
       </c>
       <c r="E54" s="3">
-        <v>25986400</v>
+        <v>26571300</v>
       </c>
       <c r="F54" s="3">
-        <v>25213500</v>
+        <v>25781000</v>
       </c>
       <c r="G54" s="3">
-        <v>19375900</v>
+        <v>19812000</v>
       </c>
       <c r="H54" s="3">
-        <v>20438800</v>
+        <v>20898800</v>
       </c>
       <c r="I54" s="3">
-        <v>20900100</v>
+        <v>21370500</v>
       </c>
       <c r="J54" s="3">
-        <v>20757300</v>
+        <v>21224500</v>
       </c>
       <c r="K54" s="3">
         <v>22765400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1370600</v>
+        <v>1401400</v>
       </c>
       <c r="E57" s="3">
-        <v>918200</v>
+        <v>938800</v>
       </c>
       <c r="F57" s="3">
-        <v>953100</v>
+        <v>974600</v>
       </c>
       <c r="G57" s="3">
-        <v>830100</v>
+        <v>848700</v>
       </c>
       <c r="H57" s="3">
-        <v>890100</v>
+        <v>910200</v>
       </c>
       <c r="I57" s="3">
-        <v>472600</v>
+        <v>483200</v>
       </c>
       <c r="J57" s="3">
-        <v>429700</v>
+        <v>439400</v>
       </c>
       <c r="K57" s="3">
         <v>471300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1646400</v>
+        <v>1683500</v>
       </c>
       <c r="E58" s="3">
-        <v>1681000</v>
+        <v>1718800</v>
       </c>
       <c r="F58" s="3">
-        <v>2436900</v>
+        <v>2491700</v>
       </c>
       <c r="G58" s="3">
-        <v>1594500</v>
+        <v>1630300</v>
       </c>
       <c r="H58" s="3">
-        <v>2300500</v>
+        <v>2352300</v>
       </c>
       <c r="I58" s="3">
-        <v>2630800</v>
+        <v>2690000</v>
       </c>
       <c r="J58" s="3">
-        <v>1279000</v>
+        <v>1307800</v>
       </c>
       <c r="K58" s="3">
         <v>1402700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3280500</v>
+        <v>3354300</v>
       </c>
       <c r="E59" s="3">
-        <v>3533100</v>
+        <v>3612700</v>
       </c>
       <c r="F59" s="3">
-        <v>4008100</v>
+        <v>4098300</v>
       </c>
       <c r="G59" s="3">
-        <v>4408800</v>
+        <v>4508000</v>
       </c>
       <c r="H59" s="3">
-        <v>4577300</v>
+        <v>4680400</v>
       </c>
       <c r="I59" s="3">
-        <v>4759400</v>
+        <v>4866500</v>
       </c>
       <c r="J59" s="3">
-        <v>4873500</v>
+        <v>4983200</v>
       </c>
       <c r="K59" s="3">
         <v>5345000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6297500</v>
+        <v>6439300</v>
       </c>
       <c r="E60" s="3">
-        <v>6132300</v>
+        <v>6270300</v>
       </c>
       <c r="F60" s="3">
-        <v>7398100</v>
+        <v>7564700</v>
       </c>
       <c r="G60" s="3">
-        <v>6833300</v>
+        <v>6987100</v>
       </c>
       <c r="H60" s="3">
-        <v>7768000</v>
+        <v>7942800</v>
       </c>
       <c r="I60" s="3">
-        <v>7862700</v>
+        <v>8039700</v>
       </c>
       <c r="J60" s="3">
-        <v>6582300</v>
+        <v>6730400</v>
       </c>
       <c r="K60" s="3">
         <v>7219100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11741900</v>
+        <v>12006200</v>
       </c>
       <c r="E61" s="3">
-        <v>13595600</v>
+        <v>13901600</v>
       </c>
       <c r="F61" s="3">
-        <v>11749700</v>
+        <v>12014100</v>
       </c>
       <c r="G61" s="3">
-        <v>5665300</v>
+        <v>5792800</v>
       </c>
       <c r="H61" s="3">
-        <v>5225800</v>
+        <v>5343400</v>
       </c>
       <c r="I61" s="3">
-        <v>6117600</v>
+        <v>6255300</v>
       </c>
       <c r="J61" s="3">
-        <v>6463100</v>
+        <v>6608600</v>
       </c>
       <c r="K61" s="3">
         <v>7088400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1637100</v>
+        <v>1674000</v>
       </c>
       <c r="E62" s="3">
-        <v>1809600</v>
+        <v>1850400</v>
       </c>
       <c r="F62" s="3">
-        <v>1675400</v>
+        <v>1713100</v>
       </c>
       <c r="G62" s="3">
-        <v>1361000</v>
+        <v>1391600</v>
       </c>
       <c r="H62" s="3">
-        <v>1130500</v>
+        <v>1156000</v>
       </c>
       <c r="I62" s="3">
-        <v>1308200</v>
+        <v>1337600</v>
       </c>
       <c r="J62" s="3">
-        <v>1317200</v>
+        <v>1346900</v>
       </c>
       <c r="K62" s="3">
         <v>1444600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20203900</v>
+        <v>20658600</v>
       </c>
       <c r="E66" s="3">
-        <v>22104200</v>
+        <v>22601700</v>
       </c>
       <c r="F66" s="3">
-        <v>21358700</v>
+        <v>21839400</v>
       </c>
       <c r="G66" s="3">
-        <v>14367000</v>
+        <v>14690300</v>
       </c>
       <c r="H66" s="3">
-        <v>14614400</v>
+        <v>14943400</v>
       </c>
       <c r="I66" s="3">
-        <v>15746100</v>
+        <v>16100500</v>
       </c>
       <c r="J66" s="3">
-        <v>14834700</v>
+        <v>15168600</v>
       </c>
       <c r="K66" s="3">
         <v>16269800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2274300</v>
+        <v>2325500</v>
       </c>
       <c r="E72" s="3">
-        <v>3346400</v>
+        <v>3421800</v>
       </c>
       <c r="F72" s="3">
-        <v>3260800</v>
+        <v>3334200</v>
       </c>
       <c r="G72" s="3">
-        <v>4335000</v>
+        <v>4432600</v>
       </c>
       <c r="H72" s="3">
-        <v>5254300</v>
+        <v>5372600</v>
       </c>
       <c r="I72" s="3">
-        <v>4219900</v>
+        <v>4314800</v>
       </c>
       <c r="J72" s="3">
-        <v>4587500</v>
+        <v>4690700</v>
       </c>
       <c r="K72" s="3">
         <v>5031300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2663600</v>
+        <v>2723500</v>
       </c>
       <c r="E76" s="3">
-        <v>3882200</v>
+        <v>3969600</v>
       </c>
       <c r="F76" s="3">
-        <v>3854800</v>
+        <v>3941500</v>
       </c>
       <c r="G76" s="3">
-        <v>5008900</v>
+        <v>5121600</v>
       </c>
       <c r="H76" s="3">
-        <v>5824300</v>
+        <v>5955400</v>
       </c>
       <c r="I76" s="3">
-        <v>5154000</v>
+        <v>5270000</v>
       </c>
       <c r="J76" s="3">
-        <v>5922600</v>
+        <v>6055900</v>
       </c>
       <c r="K76" s="3">
         <v>6495600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>154800</v>
+        <v>158300</v>
       </c>
       <c r="E81" s="3">
-        <v>1756600</v>
+        <v>1796200</v>
       </c>
       <c r="F81" s="3">
-        <v>787400</v>
+        <v>805100</v>
       </c>
       <c r="G81" s="3">
-        <v>1492300</v>
+        <v>1525800</v>
       </c>
       <c r="H81" s="3">
-        <v>1213900</v>
+        <v>1241200</v>
       </c>
       <c r="I81" s="3">
-        <v>286800</v>
+        <v>293200</v>
       </c>
       <c r="J81" s="3">
-        <v>345800</v>
+        <v>353600</v>
       </c>
       <c r="K81" s="3">
         <v>997300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3481000</v>
+        <v>3559300</v>
       </c>
       <c r="E83" s="3">
-        <v>2944100</v>
+        <v>3010300</v>
       </c>
       <c r="F83" s="3">
-        <v>2494500</v>
+        <v>2550700</v>
       </c>
       <c r="G83" s="3">
-        <v>2111700</v>
+        <v>2159200</v>
       </c>
       <c r="H83" s="3">
-        <v>2245400</v>
+        <v>2296000</v>
       </c>
       <c r="I83" s="3">
-        <v>2839700</v>
+        <v>2903700</v>
       </c>
       <c r="J83" s="3">
-        <v>2083200</v>
+        <v>2130100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4282300</v>
+        <v>4378600</v>
       </c>
       <c r="E89" s="3">
-        <v>4438900</v>
+        <v>4538800</v>
       </c>
       <c r="F89" s="3">
-        <v>3466800</v>
+        <v>3544800</v>
       </c>
       <c r="G89" s="3">
-        <v>3686700</v>
+        <v>3769700</v>
       </c>
       <c r="H89" s="3">
-        <v>4125100</v>
+        <v>4218000</v>
       </c>
       <c r="I89" s="3">
-        <v>4029500</v>
+        <v>4120200</v>
       </c>
       <c r="J89" s="3">
-        <v>3758900</v>
+        <v>3843500</v>
       </c>
       <c r="K89" s="3">
         <v>3760800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1970000</v>
+        <v>-2014300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1924700</v>
+        <v>-1968000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2335900</v>
+        <v>-2388500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2128400</v>
+        <v>-2176300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2099500</v>
+        <v>-2146800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2403500</v>
+        <v>-2457600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2144300</v>
+        <v>-2192600</v>
       </c>
       <c r="K91" s="3">
         <v>-2299000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1745200</v>
+        <v>-1784500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1070200</v>
+        <v>-1094300</v>
       </c>
       <c r="F94" s="3">
-        <v>-4409200</v>
+        <v>-4508400</v>
       </c>
       <c r="G94" s="3">
-        <v>-62100</v>
+        <v>-63500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1223200</v>
+        <v>-1250700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2137900</v>
+        <v>-2186100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2054500</v>
+        <v>-2100700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1275900</v>
+        <v>-1304600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1243700</v>
+        <v>-1271700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1227900</v>
+        <v>-1255500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1862000</v>
+        <v>-1903900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1209900</v>
+        <v>-1237200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1139200</v>
+        <v>-1164900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1086300</v>
+        <v>-1110800</v>
       </c>
       <c r="K96" s="3">
         <v>-1174000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2826600</v>
+        <v>-2890200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2794200</v>
+        <v>-2857000</v>
       </c>
       <c r="F100" s="3">
-        <v>438800</v>
+        <v>448700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4000000</v>
+        <v>-4090100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3012000</v>
+        <v>-3079700</v>
       </c>
       <c r="I100" s="3">
-        <v>-915400</v>
+        <v>-936100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1523700</v>
+        <v>-1557900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24800</v>
+        <v>-25400</v>
       </c>
       <c r="E101" s="3">
-        <v>42500</v>
+        <v>43500</v>
       </c>
       <c r="F101" s="3">
-        <v>64900</v>
+        <v>66400</v>
       </c>
       <c r="G101" s="3">
-        <v>-28800</v>
+        <v>-29400</v>
       </c>
       <c r="H101" s="3">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="I101" s="3">
-        <v>-45200</v>
+        <v>-46200</v>
       </c>
       <c r="J101" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-314300</v>
+        <v>-321400</v>
       </c>
       <c r="E102" s="3">
-        <v>617000</v>
+        <v>630900</v>
       </c>
       <c r="F102" s="3">
-        <v>-438600</v>
+        <v>-448500</v>
       </c>
       <c r="G102" s="3">
-        <v>-404200</v>
+        <v>-413300</v>
       </c>
       <c r="H102" s="3">
-        <v>-64000</v>
+        <v>-65500</v>
       </c>
       <c r="I102" s="3">
-        <v>930900</v>
+        <v>951900</v>
       </c>
       <c r="J102" s="3">
-        <v>189000</v>
+        <v>193300</v>
       </c>
       <c r="K102" s="3">
         <v>-9400</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11418800</v>
+        <v>10937000</v>
       </c>
       <c r="E8" s="3">
-        <v>11998600</v>
+        <v>11492400</v>
       </c>
       <c r="F8" s="3">
-        <v>11773500</v>
+        <v>11276800</v>
       </c>
       <c r="G8" s="3">
-        <v>10971500</v>
+        <v>10508600</v>
       </c>
       <c r="H8" s="3">
-        <v>11608100</v>
+        <v>11118400</v>
       </c>
       <c r="I8" s="3">
-        <v>12988400</v>
+        <v>12440400</v>
       </c>
       <c r="J8" s="3">
-        <v>13276400</v>
+        <v>12716200</v>
       </c>
       <c r="K8" s="3">
         <v>12381300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3022100</v>
+        <v>2894600</v>
       </c>
       <c r="E9" s="3">
-        <v>6091000</v>
+        <v>5834000</v>
       </c>
       <c r="F9" s="3">
-        <v>2891100</v>
+        <v>2769100</v>
       </c>
       <c r="G9" s="3">
-        <v>2479600</v>
+        <v>2375000</v>
       </c>
       <c r="H9" s="3">
-        <v>2789200</v>
+        <v>2671500</v>
       </c>
       <c r="I9" s="3">
-        <v>6902800</v>
+        <v>6611600</v>
       </c>
       <c r="J9" s="3">
-        <v>3640500</v>
+        <v>3486900</v>
       </c>
       <c r="K9" s="3">
         <v>6850400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8396700</v>
+        <v>8042500</v>
       </c>
       <c r="E10" s="3">
-        <v>5907600</v>
+        <v>5658300</v>
       </c>
       <c r="F10" s="3">
-        <v>8882400</v>
+        <v>8507700</v>
       </c>
       <c r="G10" s="3">
-        <v>8491900</v>
+        <v>8133600</v>
       </c>
       <c r="H10" s="3">
-        <v>8818900</v>
+        <v>8446800</v>
       </c>
       <c r="I10" s="3">
-        <v>6085600</v>
+        <v>5828900</v>
       </c>
       <c r="J10" s="3">
-        <v>9635800</v>
+        <v>9229300</v>
       </c>
       <c r="K10" s="3">
         <v>5530900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>148400</v>
+        <v>142200</v>
       </c>
       <c r="E14" s="3">
-        <v>200100</v>
+        <v>191700</v>
       </c>
       <c r="F14" s="3">
-        <v>87300</v>
+        <v>83600</v>
       </c>
       <c r="G14" s="3">
-        <v>318300</v>
+        <v>304900</v>
       </c>
       <c r="H14" s="3">
-        <v>864400</v>
+        <v>827900</v>
       </c>
       <c r="I14" s="3">
-        <v>1023700</v>
+        <v>980500</v>
       </c>
       <c r="J14" s="3">
-        <v>247600</v>
+        <v>237100</v>
       </c>
       <c r="K14" s="3">
         <v>95900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2679400</v>
+        <v>2566400</v>
       </c>
       <c r="E15" s="3">
-        <v>5733300</v>
+        <v>5491400</v>
       </c>
       <c r="F15" s="3">
-        <v>2540700</v>
+        <v>2433500</v>
       </c>
       <c r="G15" s="3">
-        <v>2075800</v>
+        <v>1988300</v>
       </c>
       <c r="H15" s="3">
-        <v>2031400</v>
+        <v>1945700</v>
       </c>
       <c r="I15" s="3">
-        <v>4102100</v>
+        <v>3929000</v>
       </c>
       <c r="J15" s="3">
-        <v>1896000</v>
+        <v>1816000</v>
       </c>
       <c r="K15" s="3">
         <v>3440400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9188300</v>
+        <v>8800600</v>
       </c>
       <c r="E17" s="3">
-        <v>9100000</v>
+        <v>8716100</v>
       </c>
       <c r="F17" s="3">
-        <v>9098800</v>
+        <v>8714900</v>
       </c>
       <c r="G17" s="3">
-        <v>8801800</v>
+        <v>8430500</v>
       </c>
       <c r="H17" s="3">
-        <v>9635400</v>
+        <v>9228900</v>
       </c>
       <c r="I17" s="3">
-        <v>10395800</v>
+        <v>9957200</v>
       </c>
       <c r="J17" s="3">
-        <v>10892800</v>
+        <v>10433200</v>
       </c>
       <c r="K17" s="3">
         <v>9614300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2230500</v>
+        <v>2136400</v>
       </c>
       <c r="E18" s="3">
-        <v>2898600</v>
+        <v>2776300</v>
       </c>
       <c r="F18" s="3">
-        <v>2674700</v>
+        <v>2561900</v>
       </c>
       <c r="G18" s="3">
-        <v>2169700</v>
+        <v>2078200</v>
       </c>
       <c r="H18" s="3">
-        <v>1972700</v>
+        <v>1889500</v>
       </c>
       <c r="I18" s="3">
-        <v>2592600</v>
+        <v>2483200</v>
       </c>
       <c r="J18" s="3">
-        <v>2383600</v>
+        <v>2283000</v>
       </c>
       <c r="K18" s="3">
         <v>2767100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-150300</v>
+        <v>-144000</v>
       </c>
       <c r="E20" s="3">
-        <v>332400</v>
+        <v>318400</v>
       </c>
       <c r="F20" s="3">
-        <v>-30500</v>
+        <v>-29200</v>
       </c>
       <c r="G20" s="3">
-        <v>-115600</v>
+        <v>-110700</v>
       </c>
       <c r="H20" s="3">
-        <v>327300</v>
+        <v>313500</v>
       </c>
       <c r="I20" s="3">
-        <v>-89200</v>
+        <v>-85400</v>
       </c>
       <c r="J20" s="3">
-        <v>-795800</v>
+        <v>-762200</v>
       </c>
       <c r="K20" s="3">
         <v>-236600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5627100</v>
+        <v>5308800</v>
       </c>
       <c r="E21" s="3">
-        <v>6230900</v>
+        <v>5899500</v>
       </c>
       <c r="F21" s="3">
-        <v>5186100</v>
+        <v>4909300</v>
       </c>
       <c r="G21" s="3">
-        <v>4205800</v>
+        <v>3979300</v>
       </c>
       <c r="H21" s="3">
-        <v>4588000</v>
+        <v>4342200</v>
       </c>
       <c r="I21" s="3">
-        <v>5397000</v>
+        <v>5103300</v>
       </c>
       <c r="J21" s="3">
-        <v>3710500</v>
+        <v>3505500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>310600</v>
+        <v>297500</v>
       </c>
       <c r="E22" s="3">
-        <v>714800</v>
+        <v>684600</v>
       </c>
       <c r="F22" s="3">
-        <v>472400</v>
+        <v>452500</v>
       </c>
       <c r="G22" s="3">
-        <v>220600</v>
+        <v>211300</v>
       </c>
       <c r="H22" s="3">
-        <v>269300</v>
+        <v>257900</v>
       </c>
       <c r="I22" s="3">
-        <v>504100</v>
+        <v>482900</v>
       </c>
       <c r="J22" s="3">
-        <v>239200</v>
+        <v>229100</v>
       </c>
       <c r="K22" s="3">
         <v>380000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1769600</v>
+        <v>1694900</v>
       </c>
       <c r="E23" s="3">
-        <v>2516200</v>
+        <v>2410000</v>
       </c>
       <c r="F23" s="3">
-        <v>2171900</v>
+        <v>2080200</v>
       </c>
       <c r="G23" s="3">
-        <v>1833500</v>
+        <v>1756100</v>
       </c>
       <c r="H23" s="3">
-        <v>2030700</v>
+        <v>1945000</v>
       </c>
       <c r="I23" s="3">
-        <v>1999300</v>
+        <v>1915000</v>
       </c>
       <c r="J23" s="3">
-        <v>1348600</v>
+        <v>1291700</v>
       </c>
       <c r="K23" s="3">
         <v>2150500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>594500</v>
+        <v>569500</v>
       </c>
       <c r="E24" s="3">
-        <v>664900</v>
+        <v>636800</v>
       </c>
       <c r="F24" s="3">
-        <v>935600</v>
+        <v>896200</v>
       </c>
       <c r="G24" s="3">
-        <v>624000</v>
+        <v>597600</v>
       </c>
       <c r="H24" s="3">
-        <v>672300</v>
+        <v>644000</v>
       </c>
       <c r="I24" s="3">
-        <v>613600</v>
+        <v>587700</v>
       </c>
       <c r="J24" s="3">
-        <v>654300</v>
+        <v>626700</v>
       </c>
       <c r="K24" s="3">
         <v>733000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1175000</v>
+        <v>1125400</v>
       </c>
       <c r="E26" s="3">
-        <v>1851300</v>
+        <v>1773200</v>
       </c>
       <c r="F26" s="3">
-        <v>1236200</v>
+        <v>1184100</v>
       </c>
       <c r="G26" s="3">
-        <v>1209500</v>
+        <v>1158500</v>
       </c>
       <c r="H26" s="3">
-        <v>1358300</v>
+        <v>1301000</v>
       </c>
       <c r="I26" s="3">
-        <v>1385700</v>
+        <v>1327200</v>
       </c>
       <c r="J26" s="3">
-        <v>694300</v>
+        <v>665000</v>
       </c>
       <c r="K26" s="3">
         <v>1417400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>857700</v>
+        <v>821600</v>
       </c>
       <c r="E27" s="3">
-        <v>1466200</v>
+        <v>1404300</v>
       </c>
       <c r="F27" s="3">
-        <v>882000</v>
+        <v>844800</v>
       </c>
       <c r="G27" s="3">
-        <v>928700</v>
+        <v>889500</v>
       </c>
       <c r="H27" s="3">
-        <v>1056400</v>
+        <v>1011800</v>
       </c>
       <c r="I27" s="3">
-        <v>1077500</v>
+        <v>1032100</v>
       </c>
       <c r="J27" s="3">
-        <v>353600</v>
+        <v>338700</v>
       </c>
       <c r="K27" s="3">
         <v>1008500</v>
@@ -1473,22 +1473,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-699500</v>
+        <v>-670000</v>
       </c>
       <c r="E29" s="3">
-        <v>330000</v>
+        <v>316100</v>
       </c>
       <c r="F29" s="3">
-        <v>-76900</v>
+        <v>-73600</v>
       </c>
       <c r="G29" s="3">
-        <v>597100</v>
+        <v>571900</v>
       </c>
       <c r="H29" s="3">
-        <v>184800</v>
+        <v>177000</v>
       </c>
       <c r="I29" s="3">
-        <v>-784300</v>
+        <v>-751200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>150300</v>
+        <v>144000</v>
       </c>
       <c r="E32" s="3">
-        <v>-332400</v>
+        <v>-318400</v>
       </c>
       <c r="F32" s="3">
-        <v>30500</v>
+        <v>29200</v>
       </c>
       <c r="G32" s="3">
-        <v>115600</v>
+        <v>110700</v>
       </c>
       <c r="H32" s="3">
-        <v>-327300</v>
+        <v>-313500</v>
       </c>
       <c r="I32" s="3">
-        <v>89200</v>
+        <v>85400</v>
       </c>
       <c r="J32" s="3">
-        <v>795800</v>
+        <v>762200</v>
       </c>
       <c r="K32" s="3">
         <v>236600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>158300</v>
+        <v>151600</v>
       </c>
       <c r="E33" s="3">
-        <v>1796200</v>
+        <v>1720400</v>
       </c>
       <c r="F33" s="3">
-        <v>805100</v>
+        <v>771200</v>
       </c>
       <c r="G33" s="3">
-        <v>1525800</v>
+        <v>1461500</v>
       </c>
       <c r="H33" s="3">
-        <v>1241200</v>
+        <v>1188800</v>
       </c>
       <c r="I33" s="3">
-        <v>293200</v>
+        <v>280900</v>
       </c>
       <c r="J33" s="3">
-        <v>353600</v>
+        <v>338700</v>
       </c>
       <c r="K33" s="3">
         <v>997300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>158300</v>
+        <v>151600</v>
       </c>
       <c r="E35" s="3">
-        <v>1796200</v>
+        <v>1720400</v>
       </c>
       <c r="F35" s="3">
-        <v>805100</v>
+        <v>771200</v>
       </c>
       <c r="G35" s="3">
-        <v>1525800</v>
+        <v>1461500</v>
       </c>
       <c r="H35" s="3">
-        <v>1241200</v>
+        <v>1188800</v>
       </c>
       <c r="I35" s="3">
-        <v>293200</v>
+        <v>280900</v>
       </c>
       <c r="J35" s="3">
-        <v>353600</v>
+        <v>338700</v>
       </c>
       <c r="K35" s="3">
         <v>997300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1576800</v>
+        <v>1510300</v>
       </c>
       <c r="E41" s="3">
-        <v>2131400</v>
+        <v>2041400</v>
       </c>
       <c r="F41" s="3">
-        <v>1436300</v>
+        <v>1375700</v>
       </c>
       <c r="G41" s="3">
-        <v>1915400</v>
+        <v>1834600</v>
       </c>
       <c r="H41" s="3">
-        <v>2335300</v>
+        <v>2236800</v>
       </c>
       <c r="I41" s="3">
-        <v>2391100</v>
+        <v>2290300</v>
       </c>
       <c r="J41" s="3">
-        <v>1445600</v>
+        <v>1384600</v>
       </c>
       <c r="K41" s="3">
         <v>1550500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38900</v>
+        <v>37300</v>
       </c>
       <c r="E42" s="3">
-        <v>41300</v>
+        <v>39600</v>
       </c>
       <c r="F42" s="3">
-        <v>58300</v>
+        <v>55900</v>
       </c>
       <c r="G42" s="3">
-        <v>61300</v>
+        <v>58700</v>
       </c>
       <c r="H42" s="3">
-        <v>104700</v>
+        <v>100300</v>
       </c>
       <c r="I42" s="3">
-        <v>242000</v>
+        <v>231800</v>
       </c>
       <c r="J42" s="3">
-        <v>124700</v>
+        <v>119400</v>
       </c>
       <c r="K42" s="3">
         <v>133800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2009800</v>
+        <v>1925000</v>
       </c>
       <c r="E43" s="3">
-        <v>2276300</v>
+        <v>2180200</v>
       </c>
       <c r="F43" s="3">
-        <v>2238700</v>
+        <v>2144200</v>
       </c>
       <c r="G43" s="3">
-        <v>1983200</v>
+        <v>1899600</v>
       </c>
       <c r="H43" s="3">
-        <v>1556300</v>
+        <v>1490600</v>
       </c>
       <c r="I43" s="3">
-        <v>1462000</v>
+        <v>1400300</v>
       </c>
       <c r="J43" s="3">
-        <v>1467200</v>
+        <v>1405300</v>
       </c>
       <c r="K43" s="3">
         <v>1573700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>161900</v>
+        <v>155100</v>
       </c>
       <c r="E44" s="3">
-        <v>136000</v>
+        <v>130300</v>
       </c>
       <c r="F44" s="3">
-        <v>153800</v>
+        <v>147300</v>
       </c>
       <c r="G44" s="3">
-        <v>176400</v>
+        <v>169000</v>
       </c>
       <c r="H44" s="3">
-        <v>183600</v>
+        <v>175900</v>
       </c>
       <c r="I44" s="3">
-        <v>186700</v>
+        <v>178800</v>
       </c>
       <c r="J44" s="3">
-        <v>235200</v>
+        <v>225300</v>
       </c>
       <c r="K44" s="3">
         <v>252300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>753900</v>
+        <v>722100</v>
       </c>
       <c r="E45" s="3">
-        <v>600800</v>
+        <v>575400</v>
       </c>
       <c r="F45" s="3">
-        <v>966400</v>
+        <v>925600</v>
       </c>
       <c r="G45" s="3">
-        <v>448500</v>
+        <v>429600</v>
       </c>
       <c r="H45" s="3">
-        <v>1358200</v>
+        <v>1300900</v>
       </c>
       <c r="I45" s="3">
-        <v>1207000</v>
+        <v>1156100</v>
       </c>
       <c r="J45" s="3">
-        <v>1110100</v>
+        <v>1063200</v>
       </c>
       <c r="K45" s="3">
         <v>1190700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4541300</v>
+        <v>4349700</v>
       </c>
       <c r="E46" s="3">
-        <v>5185700</v>
+        <v>4966900</v>
       </c>
       <c r="F46" s="3">
-        <v>4853600</v>
+        <v>4648800</v>
       </c>
       <c r="G46" s="3">
-        <v>4584900</v>
+        <v>4391400</v>
       </c>
       <c r="H46" s="3">
-        <v>5538200</v>
+        <v>5304600</v>
       </c>
       <c r="I46" s="3">
-        <v>5488800</v>
+        <v>5257200</v>
       </c>
       <c r="J46" s="3">
-        <v>4382800</v>
+        <v>4197900</v>
       </c>
       <c r="K46" s="3">
         <v>4701000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>836200</v>
+        <v>800900</v>
       </c>
       <c r="E47" s="3">
-        <v>980700</v>
+        <v>939300</v>
       </c>
       <c r="F47" s="3">
-        <v>773700</v>
+        <v>741100</v>
       </c>
       <c r="G47" s="3">
-        <v>1054300</v>
+        <v>1009900</v>
       </c>
       <c r="H47" s="3">
-        <v>1190800</v>
+        <v>1140500</v>
       </c>
       <c r="I47" s="3">
-        <v>1947800</v>
+        <v>1865600</v>
       </c>
       <c r="J47" s="3">
-        <v>2367400</v>
+        <v>2267500</v>
       </c>
       <c r="K47" s="3">
         <v>2539300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12878300</v>
+        <v>12335000</v>
       </c>
       <c r="E48" s="3">
-        <v>14727000</v>
+        <v>14105700</v>
       </c>
       <c r="F48" s="3">
-        <v>14766400</v>
+        <v>14143400</v>
       </c>
       <c r="G48" s="3">
-        <v>7598700</v>
+        <v>7278100</v>
       </c>
       <c r="H48" s="3">
-        <v>7826200</v>
+        <v>7496000</v>
       </c>
       <c r="I48" s="3">
-        <v>7459400</v>
+        <v>7144700</v>
       </c>
       <c r="J48" s="3">
-        <v>7168900</v>
+        <v>6866400</v>
       </c>
       <c r="K48" s="3">
         <v>7689300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3899100</v>
+        <v>3734600</v>
       </c>
       <c r="E49" s="3">
-        <v>4160700</v>
+        <v>3985200</v>
       </c>
       <c r="F49" s="3">
-        <v>4021100</v>
+        <v>3851400</v>
       </c>
       <c r="G49" s="3">
-        <v>5259200</v>
+        <v>5037300</v>
       </c>
       <c r="H49" s="3">
-        <v>5908900</v>
+        <v>5659600</v>
       </c>
       <c r="I49" s="3">
-        <v>5963700</v>
+        <v>5712100</v>
       </c>
       <c r="J49" s="3">
-        <v>6677100</v>
+        <v>6395400</v>
       </c>
       <c r="K49" s="3">
         <v>7161800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1227300</v>
+        <v>1175500</v>
       </c>
       <c r="E52" s="3">
-        <v>1517100</v>
+        <v>1453100</v>
       </c>
       <c r="F52" s="3">
-        <v>1366200</v>
+        <v>1308600</v>
       </c>
       <c r="G52" s="3">
-        <v>1314800</v>
+        <v>1259400</v>
       </c>
       <c r="H52" s="3">
-        <v>434700</v>
+        <v>416400</v>
       </c>
       <c r="I52" s="3">
-        <v>510800</v>
+        <v>489200</v>
       </c>
       <c r="J52" s="3">
-        <v>628300</v>
+        <v>601800</v>
       </c>
       <c r="K52" s="3">
         <v>673900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23382100</v>
+        <v>22395700</v>
       </c>
       <c r="E54" s="3">
-        <v>26571300</v>
+        <v>25450200</v>
       </c>
       <c r="F54" s="3">
-        <v>25781000</v>
+        <v>24693300</v>
       </c>
       <c r="G54" s="3">
-        <v>19812000</v>
+        <v>18976100</v>
       </c>
       <c r="H54" s="3">
-        <v>20898800</v>
+        <v>20017100</v>
       </c>
       <c r="I54" s="3">
-        <v>21370500</v>
+        <v>20468900</v>
       </c>
       <c r="J54" s="3">
-        <v>21224500</v>
+        <v>20329000</v>
       </c>
       <c r="K54" s="3">
         <v>22765400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1401400</v>
+        <v>1342300</v>
       </c>
       <c r="E57" s="3">
-        <v>938800</v>
+        <v>899200</v>
       </c>
       <c r="F57" s="3">
-        <v>974600</v>
+        <v>933500</v>
       </c>
       <c r="G57" s="3">
-        <v>848700</v>
+        <v>812900</v>
       </c>
       <c r="H57" s="3">
-        <v>910200</v>
+        <v>871800</v>
       </c>
       <c r="I57" s="3">
-        <v>483200</v>
+        <v>462800</v>
       </c>
       <c r="J57" s="3">
-        <v>439400</v>
+        <v>420800</v>
       </c>
       <c r="K57" s="3">
         <v>471300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1683500</v>
+        <v>1612500</v>
       </c>
       <c r="E58" s="3">
-        <v>1718800</v>
+        <v>1646300</v>
       </c>
       <c r="F58" s="3">
-        <v>2491700</v>
+        <v>2386600</v>
       </c>
       <c r="G58" s="3">
-        <v>1630300</v>
+        <v>1561600</v>
       </c>
       <c r="H58" s="3">
-        <v>2352300</v>
+        <v>2253100</v>
       </c>
       <c r="I58" s="3">
-        <v>2690000</v>
+        <v>2576500</v>
       </c>
       <c r="J58" s="3">
-        <v>1307800</v>
+        <v>1252600</v>
       </c>
       <c r="K58" s="3">
         <v>1402700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3354300</v>
+        <v>3212800</v>
       </c>
       <c r="E59" s="3">
-        <v>3612700</v>
+        <v>3460200</v>
       </c>
       <c r="F59" s="3">
-        <v>4098300</v>
+        <v>3925400</v>
       </c>
       <c r="G59" s="3">
-        <v>4508000</v>
+        <v>4317800</v>
       </c>
       <c r="H59" s="3">
-        <v>4680400</v>
+        <v>4482900</v>
       </c>
       <c r="I59" s="3">
-        <v>4866500</v>
+        <v>4661200</v>
       </c>
       <c r="J59" s="3">
-        <v>4983200</v>
+        <v>4773000</v>
       </c>
       <c r="K59" s="3">
         <v>5345000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6439300</v>
+        <v>6167600</v>
       </c>
       <c r="E60" s="3">
-        <v>6270300</v>
+        <v>6005800</v>
       </c>
       <c r="F60" s="3">
-        <v>7564700</v>
+        <v>7245500</v>
       </c>
       <c r="G60" s="3">
-        <v>6987100</v>
+        <v>6692300</v>
       </c>
       <c r="H60" s="3">
-        <v>7942800</v>
+        <v>7607700</v>
       </c>
       <c r="I60" s="3">
-        <v>8039700</v>
+        <v>7700500</v>
       </c>
       <c r="J60" s="3">
-        <v>6730400</v>
+        <v>6446500</v>
       </c>
       <c r="K60" s="3">
         <v>7219100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12006200</v>
+        <v>11499600</v>
       </c>
       <c r="E61" s="3">
-        <v>13901600</v>
+        <v>13315100</v>
       </c>
       <c r="F61" s="3">
-        <v>12014100</v>
+        <v>11507300</v>
       </c>
       <c r="G61" s="3">
-        <v>5792800</v>
+        <v>5548400</v>
       </c>
       <c r="H61" s="3">
-        <v>5343400</v>
+        <v>5117900</v>
       </c>
       <c r="I61" s="3">
-        <v>6255300</v>
+        <v>5991400</v>
       </c>
       <c r="J61" s="3">
-        <v>6608600</v>
+        <v>6329800</v>
       </c>
       <c r="K61" s="3">
         <v>7088400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1674000</v>
+        <v>1603300</v>
       </c>
       <c r="E62" s="3">
-        <v>1850400</v>
+        <v>1772300</v>
       </c>
       <c r="F62" s="3">
-        <v>1713100</v>
+        <v>1640800</v>
       </c>
       <c r="G62" s="3">
-        <v>1391600</v>
+        <v>1332900</v>
       </c>
       <c r="H62" s="3">
-        <v>1156000</v>
+        <v>1107200</v>
       </c>
       <c r="I62" s="3">
-        <v>1337600</v>
+        <v>1281200</v>
       </c>
       <c r="J62" s="3">
-        <v>1346900</v>
+        <v>1290000</v>
       </c>
       <c r="K62" s="3">
         <v>1444600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20658600</v>
+        <v>19787000</v>
       </c>
       <c r="E66" s="3">
-        <v>22601700</v>
+        <v>21648100</v>
       </c>
       <c r="F66" s="3">
-        <v>21839400</v>
+        <v>20918000</v>
       </c>
       <c r="G66" s="3">
-        <v>14690300</v>
+        <v>14070600</v>
       </c>
       <c r="H66" s="3">
-        <v>14943400</v>
+        <v>14312900</v>
       </c>
       <c r="I66" s="3">
-        <v>16100500</v>
+        <v>15421200</v>
       </c>
       <c r="J66" s="3">
-        <v>15168600</v>
+        <v>14528600</v>
       </c>
       <c r="K66" s="3">
         <v>16269800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2325500</v>
+        <v>2227400</v>
       </c>
       <c r="E72" s="3">
-        <v>3421800</v>
+        <v>3277400</v>
       </c>
       <c r="F72" s="3">
-        <v>3334200</v>
+        <v>3193600</v>
       </c>
       <c r="G72" s="3">
-        <v>4432600</v>
+        <v>4245600</v>
       </c>
       <c r="H72" s="3">
-        <v>5372600</v>
+        <v>5145900</v>
       </c>
       <c r="I72" s="3">
-        <v>4314800</v>
+        <v>4132800</v>
       </c>
       <c r="J72" s="3">
-        <v>4690700</v>
+        <v>4492800</v>
       </c>
       <c r="K72" s="3">
         <v>5031300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2723500</v>
+        <v>2608600</v>
       </c>
       <c r="E76" s="3">
-        <v>3969600</v>
+        <v>3802100</v>
       </c>
       <c r="F76" s="3">
-        <v>3941500</v>
+        <v>3775200</v>
       </c>
       <c r="G76" s="3">
-        <v>5121600</v>
+        <v>4905500</v>
       </c>
       <c r="H76" s="3">
-        <v>5955400</v>
+        <v>5704200</v>
       </c>
       <c r="I76" s="3">
-        <v>5270000</v>
+        <v>5047700</v>
       </c>
       <c r="J76" s="3">
-        <v>6055900</v>
+        <v>5800400</v>
       </c>
       <c r="K76" s="3">
         <v>6495600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>158300</v>
+        <v>151600</v>
       </c>
       <c r="E81" s="3">
-        <v>1796200</v>
+        <v>1720400</v>
       </c>
       <c r="F81" s="3">
-        <v>805100</v>
+        <v>771200</v>
       </c>
       <c r="G81" s="3">
-        <v>1525800</v>
+        <v>1461500</v>
       </c>
       <c r="H81" s="3">
-        <v>1241200</v>
+        <v>1188800</v>
       </c>
       <c r="I81" s="3">
-        <v>293200</v>
+        <v>280900</v>
       </c>
       <c r="J81" s="3">
-        <v>353600</v>
+        <v>338700</v>
       </c>
       <c r="K81" s="3">
         <v>997300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3559300</v>
+        <v>3409200</v>
       </c>
       <c r="E83" s="3">
-        <v>3010300</v>
+        <v>2883300</v>
       </c>
       <c r="F83" s="3">
-        <v>2550700</v>
+        <v>2443000</v>
       </c>
       <c r="G83" s="3">
-        <v>2159200</v>
+        <v>2068100</v>
       </c>
       <c r="H83" s="3">
-        <v>2296000</v>
+        <v>2199100</v>
       </c>
       <c r="I83" s="3">
-        <v>2903700</v>
+        <v>2781200</v>
       </c>
       <c r="J83" s="3">
-        <v>2130100</v>
+        <v>2040300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4378600</v>
+        <v>4193900</v>
       </c>
       <c r="E89" s="3">
-        <v>4538800</v>
+        <v>4347300</v>
       </c>
       <c r="F89" s="3">
-        <v>3544800</v>
+        <v>3395300</v>
       </c>
       <c r="G89" s="3">
-        <v>3769700</v>
+        <v>3610600</v>
       </c>
       <c r="H89" s="3">
-        <v>4218000</v>
+        <v>4040000</v>
       </c>
       <c r="I89" s="3">
-        <v>4120200</v>
+        <v>3946400</v>
       </c>
       <c r="J89" s="3">
-        <v>3843500</v>
+        <v>3681400</v>
       </c>
       <c r="K89" s="3">
         <v>3760800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2014300</v>
+        <v>-1929300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1968000</v>
+        <v>-1885000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2388500</v>
+        <v>-2287700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2176300</v>
+        <v>-2084500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2146800</v>
+        <v>-2056200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2457600</v>
+        <v>-2354000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2192600</v>
+        <v>-2100100</v>
       </c>
       <c r="K91" s="3">
         <v>-2299000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1784500</v>
+        <v>-1709200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1094300</v>
+        <v>-1048200</v>
       </c>
       <c r="F94" s="3">
-        <v>-4508400</v>
+        <v>-4318200</v>
       </c>
       <c r="G94" s="3">
-        <v>-63500</v>
+        <v>-60800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1250700</v>
+        <v>-1198000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2186100</v>
+        <v>-2093800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2100700</v>
+        <v>-2012100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1304600</v>
+        <v>-1249500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1271700</v>
+        <v>-1218000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1255500</v>
+        <v>-1202500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1903900</v>
+        <v>-1823600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1237200</v>
+        <v>-1185000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1164900</v>
+        <v>-1115700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1110800</v>
+        <v>-1063900</v>
       </c>
       <c r="K96" s="3">
         <v>-1174000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2890200</v>
+        <v>-2768300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2857000</v>
+        <v>-2736500</v>
       </c>
       <c r="F100" s="3">
-        <v>448700</v>
+        <v>429800</v>
       </c>
       <c r="G100" s="3">
-        <v>-4090100</v>
+        <v>-3917500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3079700</v>
+        <v>-2949800</v>
       </c>
       <c r="I100" s="3">
-        <v>-936100</v>
+        <v>-896600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1557900</v>
+        <v>-1492200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-25400</v>
+        <v>-24300</v>
       </c>
       <c r="E101" s="3">
-        <v>43500</v>
+        <v>41700</v>
       </c>
       <c r="F101" s="3">
-        <v>66400</v>
+        <v>63600</v>
       </c>
       <c r="G101" s="3">
-        <v>-29400</v>
+        <v>-28200</v>
       </c>
       <c r="H101" s="3">
-        <v>47000</v>
+        <v>45000</v>
       </c>
       <c r="I101" s="3">
-        <v>-46200</v>
+        <v>-44200</v>
       </c>
       <c r="J101" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-321400</v>
+        <v>-307800</v>
       </c>
       <c r="E102" s="3">
-        <v>630900</v>
+        <v>604300</v>
       </c>
       <c r="F102" s="3">
-        <v>-448500</v>
+        <v>-429600</v>
       </c>
       <c r="G102" s="3">
-        <v>-413300</v>
+        <v>-395800</v>
       </c>
       <c r="H102" s="3">
-        <v>-65500</v>
+        <v>-62700</v>
       </c>
       <c r="I102" s="3">
-        <v>951900</v>
+        <v>911700</v>
       </c>
       <c r="J102" s="3">
-        <v>193300</v>
+        <v>185100</v>
       </c>
       <c r="K102" s="3">
         <v>-9400</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10937000</v>
+        <v>10351600</v>
       </c>
       <c r="E8" s="3">
-        <v>11492400</v>
+        <v>10877300</v>
       </c>
       <c r="F8" s="3">
-        <v>11276800</v>
+        <v>10673200</v>
       </c>
       <c r="G8" s="3">
-        <v>10508600</v>
+        <v>9946200</v>
       </c>
       <c r="H8" s="3">
-        <v>11118400</v>
+        <v>10523300</v>
       </c>
       <c r="I8" s="3">
-        <v>12440400</v>
+        <v>11774600</v>
       </c>
       <c r="J8" s="3">
-        <v>12716200</v>
+        <v>12035600</v>
       </c>
       <c r="K8" s="3">
         <v>12381300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2894600</v>
+        <v>2739600</v>
       </c>
       <c r="E9" s="3">
-        <v>5834000</v>
+        <v>5521800</v>
       </c>
       <c r="F9" s="3">
-        <v>2769100</v>
+        <v>2620900</v>
       </c>
       <c r="G9" s="3">
-        <v>2375000</v>
+        <v>2247900</v>
       </c>
       <c r="H9" s="3">
-        <v>2671500</v>
+        <v>2528500</v>
       </c>
       <c r="I9" s="3">
-        <v>6611600</v>
+        <v>6257700</v>
       </c>
       <c r="J9" s="3">
-        <v>3486900</v>
+        <v>3300300</v>
       </c>
       <c r="K9" s="3">
         <v>6850400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8042500</v>
+        <v>7612000</v>
       </c>
       <c r="E10" s="3">
-        <v>5658300</v>
+        <v>5355500</v>
       </c>
       <c r="F10" s="3">
-        <v>8507700</v>
+        <v>8052300</v>
       </c>
       <c r="G10" s="3">
-        <v>8133600</v>
+        <v>7698300</v>
       </c>
       <c r="H10" s="3">
-        <v>8446800</v>
+        <v>7994700</v>
       </c>
       <c r="I10" s="3">
-        <v>5828900</v>
+        <v>5516900</v>
       </c>
       <c r="J10" s="3">
-        <v>9229300</v>
+        <v>8735300</v>
       </c>
       <c r="K10" s="3">
         <v>5530900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>142200</v>
+        <v>134600</v>
       </c>
       <c r="E14" s="3">
-        <v>191700</v>
+        <v>181400</v>
       </c>
       <c r="F14" s="3">
-        <v>83600</v>
+        <v>79200</v>
       </c>
       <c r="G14" s="3">
-        <v>304900</v>
+        <v>288600</v>
       </c>
       <c r="H14" s="3">
-        <v>827900</v>
+        <v>783600</v>
       </c>
       <c r="I14" s="3">
-        <v>980500</v>
+        <v>928000</v>
       </c>
       <c r="J14" s="3">
-        <v>237100</v>
+        <v>224400</v>
       </c>
       <c r="K14" s="3">
         <v>95900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2566400</v>
+        <v>2429000</v>
       </c>
       <c r="E15" s="3">
-        <v>5491400</v>
+        <v>5197500</v>
       </c>
       <c r="F15" s="3">
-        <v>2433500</v>
+        <v>2303300</v>
       </c>
       <c r="G15" s="3">
-        <v>1988300</v>
+        <v>1881800</v>
       </c>
       <c r="H15" s="3">
-        <v>1945700</v>
+        <v>1841600</v>
       </c>
       <c r="I15" s="3">
-        <v>3929000</v>
+        <v>3718700</v>
       </c>
       <c r="J15" s="3">
-        <v>1816000</v>
+        <v>1718800</v>
       </c>
       <c r="K15" s="3">
         <v>3440400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8800600</v>
+        <v>8329600</v>
       </c>
       <c r="E17" s="3">
-        <v>8716100</v>
+        <v>8249600</v>
       </c>
       <c r="F17" s="3">
-        <v>8714900</v>
+        <v>8248500</v>
       </c>
       <c r="G17" s="3">
-        <v>8430500</v>
+        <v>7979200</v>
       </c>
       <c r="H17" s="3">
-        <v>9228900</v>
+        <v>8735000</v>
       </c>
       <c r="I17" s="3">
-        <v>9957200</v>
+        <v>9424300</v>
       </c>
       <c r="J17" s="3">
-        <v>10433200</v>
+        <v>9874800</v>
       </c>
       <c r="K17" s="3">
         <v>9614300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2136400</v>
+        <v>2022000</v>
       </c>
       <c r="E18" s="3">
-        <v>2776300</v>
+        <v>2627700</v>
       </c>
       <c r="F18" s="3">
-        <v>2561900</v>
+        <v>2424800</v>
       </c>
       <c r="G18" s="3">
-        <v>2078200</v>
+        <v>1966900</v>
       </c>
       <c r="H18" s="3">
-        <v>1889500</v>
+        <v>1788300</v>
       </c>
       <c r="I18" s="3">
-        <v>2483200</v>
+        <v>2350300</v>
       </c>
       <c r="J18" s="3">
-        <v>2283000</v>
+        <v>2160800</v>
       </c>
       <c r="K18" s="3">
         <v>2767100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-144000</v>
+        <v>-136200</v>
       </c>
       <c r="E20" s="3">
-        <v>318400</v>
+        <v>301300</v>
       </c>
       <c r="F20" s="3">
-        <v>-29200</v>
+        <v>-27600</v>
       </c>
       <c r="G20" s="3">
-        <v>-110700</v>
+        <v>-104800</v>
       </c>
       <c r="H20" s="3">
-        <v>313500</v>
+        <v>296700</v>
       </c>
       <c r="I20" s="3">
-        <v>-85400</v>
+        <v>-80800</v>
       </c>
       <c r="J20" s="3">
-        <v>-762200</v>
+        <v>-721400</v>
       </c>
       <c r="K20" s="3">
         <v>-236600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5308800</v>
+        <v>4625000</v>
       </c>
       <c r="E21" s="3">
-        <v>5899500</v>
+        <v>5249900</v>
       </c>
       <c r="F21" s="3">
-        <v>4909300</v>
+        <v>4361900</v>
       </c>
       <c r="G21" s="3">
-        <v>3979300</v>
+        <v>3951300</v>
       </c>
       <c r="H21" s="3">
-        <v>4342200</v>
+        <v>4727200</v>
       </c>
       <c r="I21" s="3">
-        <v>5103300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3505500</v>
+        <v>4207700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>297500</v>
+        <v>281600</v>
       </c>
       <c r="E22" s="3">
-        <v>684600</v>
+        <v>648000</v>
       </c>
       <c r="F22" s="3">
-        <v>452500</v>
+        <v>428300</v>
       </c>
       <c r="G22" s="3">
-        <v>211300</v>
+        <v>200000</v>
       </c>
       <c r="H22" s="3">
-        <v>257900</v>
+        <v>244100</v>
       </c>
       <c r="I22" s="3">
-        <v>482900</v>
+        <v>457000</v>
       </c>
       <c r="J22" s="3">
-        <v>229100</v>
+        <v>216800</v>
       </c>
       <c r="K22" s="3">
         <v>380000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1694900</v>
+        <v>1604200</v>
       </c>
       <c r="E23" s="3">
-        <v>2410000</v>
+        <v>2281000</v>
       </c>
       <c r="F23" s="3">
-        <v>2080200</v>
+        <v>1968900</v>
       </c>
       <c r="G23" s="3">
-        <v>1756100</v>
+        <v>1662100</v>
       </c>
       <c r="H23" s="3">
-        <v>1945000</v>
+        <v>1840900</v>
       </c>
       <c r="I23" s="3">
-        <v>1915000</v>
+        <v>1812500</v>
       </c>
       <c r="J23" s="3">
-        <v>1291700</v>
+        <v>1222600</v>
       </c>
       <c r="K23" s="3">
         <v>2150500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>569500</v>
+        <v>539000</v>
       </c>
       <c r="E24" s="3">
-        <v>636800</v>
+        <v>602700</v>
       </c>
       <c r="F24" s="3">
-        <v>896200</v>
+        <v>848200</v>
       </c>
       <c r="G24" s="3">
-        <v>597600</v>
+        <v>565700</v>
       </c>
       <c r="H24" s="3">
-        <v>644000</v>
+        <v>609500</v>
       </c>
       <c r="I24" s="3">
-        <v>587700</v>
+        <v>556300</v>
       </c>
       <c r="J24" s="3">
-        <v>626700</v>
+        <v>593200</v>
       </c>
       <c r="K24" s="3">
         <v>733000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1125400</v>
+        <v>1065200</v>
       </c>
       <c r="E26" s="3">
-        <v>1773200</v>
+        <v>1678300</v>
       </c>
       <c r="F26" s="3">
-        <v>1184100</v>
+        <v>1120700</v>
       </c>
       <c r="G26" s="3">
-        <v>1158500</v>
+        <v>1096500</v>
       </c>
       <c r="H26" s="3">
-        <v>1301000</v>
+        <v>1231400</v>
       </c>
       <c r="I26" s="3">
-        <v>1327200</v>
+        <v>1256200</v>
       </c>
       <c r="J26" s="3">
-        <v>665000</v>
+        <v>629400</v>
       </c>
       <c r="K26" s="3">
         <v>1417400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>821600</v>
+        <v>777600</v>
       </c>
       <c r="E27" s="3">
-        <v>1404300</v>
+        <v>1329200</v>
       </c>
       <c r="F27" s="3">
-        <v>844800</v>
+        <v>799600</v>
       </c>
       <c r="G27" s="3">
-        <v>889500</v>
+        <v>841900</v>
       </c>
       <c r="H27" s="3">
-        <v>1011800</v>
+        <v>957700</v>
       </c>
       <c r="I27" s="3">
-        <v>1032100</v>
+        <v>976800</v>
       </c>
       <c r="J27" s="3">
-        <v>338700</v>
+        <v>320600</v>
       </c>
       <c r="K27" s="3">
         <v>1008500</v>
@@ -1473,22 +1473,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-670000</v>
+        <v>-634100</v>
       </c>
       <c r="E29" s="3">
-        <v>316100</v>
+        <v>299200</v>
       </c>
       <c r="F29" s="3">
-        <v>-73600</v>
+        <v>-69700</v>
       </c>
       <c r="G29" s="3">
-        <v>571900</v>
+        <v>989500</v>
       </c>
       <c r="H29" s="3">
-        <v>177000</v>
+        <v>167500</v>
       </c>
       <c r="I29" s="3">
-        <v>-751200</v>
+        <v>-711000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>144000</v>
+        <v>136200</v>
       </c>
       <c r="E32" s="3">
-        <v>-318400</v>
+        <v>-301300</v>
       </c>
       <c r="F32" s="3">
-        <v>29200</v>
+        <v>27600</v>
       </c>
       <c r="G32" s="3">
-        <v>110700</v>
+        <v>104800</v>
       </c>
       <c r="H32" s="3">
-        <v>-313500</v>
+        <v>-296700</v>
       </c>
       <c r="I32" s="3">
-        <v>85400</v>
+        <v>80800</v>
       </c>
       <c r="J32" s="3">
-        <v>762200</v>
+        <v>721400</v>
       </c>
       <c r="K32" s="3">
         <v>236600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>151600</v>
+        <v>143500</v>
       </c>
       <c r="E33" s="3">
-        <v>1720400</v>
+        <v>1628300</v>
       </c>
       <c r="F33" s="3">
-        <v>771200</v>
+        <v>729900</v>
       </c>
       <c r="G33" s="3">
-        <v>1461500</v>
+        <v>1831400</v>
       </c>
       <c r="H33" s="3">
-        <v>1188800</v>
+        <v>1125200</v>
       </c>
       <c r="I33" s="3">
-        <v>280900</v>
+        <v>265800</v>
       </c>
       <c r="J33" s="3">
-        <v>338700</v>
+        <v>320600</v>
       </c>
       <c r="K33" s="3">
         <v>997300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>151600</v>
+        <v>143500</v>
       </c>
       <c r="E35" s="3">
-        <v>1720400</v>
+        <v>1628300</v>
       </c>
       <c r="F35" s="3">
-        <v>771200</v>
+        <v>729900</v>
       </c>
       <c r="G35" s="3">
-        <v>1461500</v>
+        <v>1831400</v>
       </c>
       <c r="H35" s="3">
-        <v>1188800</v>
+        <v>1125200</v>
       </c>
       <c r="I35" s="3">
-        <v>280900</v>
+        <v>265800</v>
       </c>
       <c r="J35" s="3">
-        <v>338700</v>
+        <v>320600</v>
       </c>
       <c r="K35" s="3">
         <v>997300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1510300</v>
+        <v>1429400</v>
       </c>
       <c r="E41" s="3">
-        <v>2041400</v>
+        <v>1932200</v>
       </c>
       <c r="F41" s="3">
-        <v>1375700</v>
+        <v>1302100</v>
       </c>
       <c r="G41" s="3">
-        <v>1834600</v>
+        <v>1736400</v>
       </c>
       <c r="H41" s="3">
-        <v>2236800</v>
+        <v>2117100</v>
       </c>
       <c r="I41" s="3">
-        <v>2290300</v>
+        <v>2167700</v>
       </c>
       <c r="J41" s="3">
-        <v>1384600</v>
+        <v>1310500</v>
       </c>
       <c r="K41" s="3">
         <v>1550500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37300</v>
+        <v>35300</v>
       </c>
       <c r="E42" s="3">
-        <v>39600</v>
+        <v>37500</v>
       </c>
       <c r="F42" s="3">
-        <v>55900</v>
+        <v>52900</v>
       </c>
       <c r="G42" s="3">
-        <v>58700</v>
+        <v>55600</v>
       </c>
       <c r="H42" s="3">
-        <v>100300</v>
+        <v>94900</v>
       </c>
       <c r="I42" s="3">
-        <v>231800</v>
+        <v>219400</v>
       </c>
       <c r="J42" s="3">
-        <v>119400</v>
+        <v>113100</v>
       </c>
       <c r="K42" s="3">
         <v>133800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1925000</v>
+        <v>1821900</v>
       </c>
       <c r="E43" s="3">
-        <v>2180200</v>
+        <v>2063500</v>
       </c>
       <c r="F43" s="3">
-        <v>2144200</v>
+        <v>2029500</v>
       </c>
       <c r="G43" s="3">
-        <v>1899600</v>
+        <v>1797900</v>
       </c>
       <c r="H43" s="3">
-        <v>1490600</v>
+        <v>1410800</v>
       </c>
       <c r="I43" s="3">
-        <v>1400300</v>
+        <v>1325400</v>
       </c>
       <c r="J43" s="3">
-        <v>1405300</v>
+        <v>1330100</v>
       </c>
       <c r="K43" s="3">
         <v>1573700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>155100</v>
+        <v>146800</v>
       </c>
       <c r="E44" s="3">
-        <v>130300</v>
+        <v>123300</v>
       </c>
       <c r="F44" s="3">
-        <v>147300</v>
+        <v>139400</v>
       </c>
       <c r="G44" s="3">
-        <v>169000</v>
+        <v>159900</v>
       </c>
       <c r="H44" s="3">
-        <v>175900</v>
+        <v>166500</v>
       </c>
       <c r="I44" s="3">
-        <v>178800</v>
+        <v>169200</v>
       </c>
       <c r="J44" s="3">
-        <v>225300</v>
+        <v>213200</v>
       </c>
       <c r="K44" s="3">
         <v>252300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>722100</v>
+        <v>683400</v>
       </c>
       <c r="E45" s="3">
-        <v>575400</v>
+        <v>544600</v>
       </c>
       <c r="F45" s="3">
-        <v>925600</v>
+        <v>876100</v>
       </c>
       <c r="G45" s="3">
-        <v>429600</v>
+        <v>406600</v>
       </c>
       <c r="H45" s="3">
-        <v>1300900</v>
+        <v>1231300</v>
       </c>
       <c r="I45" s="3">
-        <v>1156100</v>
+        <v>1094200</v>
       </c>
       <c r="J45" s="3">
-        <v>1063200</v>
+        <v>1006300</v>
       </c>
       <c r="K45" s="3">
         <v>1190700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4349700</v>
+        <v>4116900</v>
       </c>
       <c r="E46" s="3">
-        <v>4966900</v>
+        <v>4701100</v>
       </c>
       <c r="F46" s="3">
-        <v>4648800</v>
+        <v>4400000</v>
       </c>
       <c r="G46" s="3">
-        <v>4391400</v>
+        <v>4156400</v>
       </c>
       <c r="H46" s="3">
-        <v>5304600</v>
+        <v>5020600</v>
       </c>
       <c r="I46" s="3">
-        <v>5257200</v>
+        <v>4975900</v>
       </c>
       <c r="J46" s="3">
-        <v>4197900</v>
+        <v>3973200</v>
       </c>
       <c r="K46" s="3">
         <v>4701000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800900</v>
+        <v>758100</v>
       </c>
       <c r="E47" s="3">
-        <v>939300</v>
+        <v>889000</v>
       </c>
       <c r="F47" s="3">
-        <v>741100</v>
+        <v>701400</v>
       </c>
       <c r="G47" s="3">
-        <v>1009900</v>
+        <v>955800</v>
       </c>
       <c r="H47" s="3">
-        <v>1140500</v>
+        <v>1079500</v>
       </c>
       <c r="I47" s="3">
-        <v>1865600</v>
+        <v>1765800</v>
       </c>
       <c r="J47" s="3">
-        <v>2267500</v>
+        <v>2146200</v>
       </c>
       <c r="K47" s="3">
         <v>2539300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12335000</v>
+        <v>11674800</v>
       </c>
       <c r="E48" s="3">
-        <v>14105700</v>
+        <v>13350700</v>
       </c>
       <c r="F48" s="3">
-        <v>14143400</v>
+        <v>13386400</v>
       </c>
       <c r="G48" s="3">
-        <v>7278100</v>
+        <v>6888600</v>
       </c>
       <c r="H48" s="3">
-        <v>7496000</v>
+        <v>7094800</v>
       </c>
       <c r="I48" s="3">
-        <v>7144700</v>
+        <v>6762300</v>
       </c>
       <c r="J48" s="3">
-        <v>6866400</v>
+        <v>6498900</v>
       </c>
       <c r="K48" s="3">
         <v>7689300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3734600</v>
+        <v>3534700</v>
       </c>
       <c r="E49" s="3">
-        <v>3985200</v>
+        <v>3771900</v>
       </c>
       <c r="F49" s="3">
-        <v>3851400</v>
+        <v>3645300</v>
       </c>
       <c r="G49" s="3">
-        <v>5037300</v>
+        <v>4767700</v>
       </c>
       <c r="H49" s="3">
-        <v>5659600</v>
+        <v>5356700</v>
       </c>
       <c r="I49" s="3">
-        <v>5712100</v>
+        <v>5406400</v>
       </c>
       <c r="J49" s="3">
-        <v>6395400</v>
+        <v>6053100</v>
       </c>
       <c r="K49" s="3">
         <v>7161800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1175500</v>
+        <v>1112600</v>
       </c>
       <c r="E52" s="3">
-        <v>1453100</v>
+        <v>1375400</v>
       </c>
       <c r="F52" s="3">
-        <v>1308600</v>
+        <v>1238500</v>
       </c>
       <c r="G52" s="3">
-        <v>1259400</v>
+        <v>1192000</v>
       </c>
       <c r="H52" s="3">
-        <v>416400</v>
+        <v>394100</v>
       </c>
       <c r="I52" s="3">
-        <v>489200</v>
+        <v>463000</v>
       </c>
       <c r="J52" s="3">
-        <v>601800</v>
+        <v>569600</v>
       </c>
       <c r="K52" s="3">
         <v>673900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22395700</v>
+        <v>21197000</v>
       </c>
       <c r="E54" s="3">
-        <v>25450200</v>
+        <v>24088100</v>
       </c>
       <c r="F54" s="3">
-        <v>24693300</v>
+        <v>23371600</v>
       </c>
       <c r="G54" s="3">
-        <v>18976100</v>
+        <v>17960400</v>
       </c>
       <c r="H54" s="3">
-        <v>20017100</v>
+        <v>18945700</v>
       </c>
       <c r="I54" s="3">
-        <v>20468900</v>
+        <v>19373400</v>
       </c>
       <c r="J54" s="3">
-        <v>20329000</v>
+        <v>19241000</v>
       </c>
       <c r="K54" s="3">
         <v>22765400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1342300</v>
+        <v>1270500</v>
       </c>
       <c r="E57" s="3">
-        <v>899200</v>
+        <v>851100</v>
       </c>
       <c r="F57" s="3">
-        <v>933500</v>
+        <v>883500</v>
       </c>
       <c r="G57" s="3">
-        <v>812900</v>
+        <v>769400</v>
       </c>
       <c r="H57" s="3">
-        <v>871800</v>
+        <v>825100</v>
       </c>
       <c r="I57" s="3">
-        <v>462800</v>
+        <v>438000</v>
       </c>
       <c r="J57" s="3">
-        <v>420800</v>
+        <v>398300</v>
       </c>
       <c r="K57" s="3">
         <v>471300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1612500</v>
+        <v>1526200</v>
       </c>
       <c r="E58" s="3">
-        <v>1646300</v>
+        <v>1558200</v>
       </c>
       <c r="F58" s="3">
-        <v>2386600</v>
+        <v>2258900</v>
       </c>
       <c r="G58" s="3">
-        <v>1561600</v>
+        <v>1478000</v>
       </c>
       <c r="H58" s="3">
-        <v>2253100</v>
+        <v>2132500</v>
       </c>
       <c r="I58" s="3">
-        <v>2576500</v>
+        <v>2438600</v>
       </c>
       <c r="J58" s="3">
-        <v>1252600</v>
+        <v>1185600</v>
       </c>
       <c r="K58" s="3">
         <v>1402700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3212800</v>
+        <v>3040900</v>
       </c>
       <c r="E59" s="3">
-        <v>3460200</v>
+        <v>3275000</v>
       </c>
       <c r="F59" s="3">
-        <v>3925400</v>
+        <v>3715300</v>
       </c>
       <c r="G59" s="3">
-        <v>4317800</v>
+        <v>4086700</v>
       </c>
       <c r="H59" s="3">
-        <v>4482900</v>
+        <v>4243000</v>
       </c>
       <c r="I59" s="3">
-        <v>4661200</v>
+        <v>4411700</v>
       </c>
       <c r="J59" s="3">
-        <v>4773000</v>
+        <v>4517500</v>
       </c>
       <c r="K59" s="3">
         <v>5345000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6167600</v>
+        <v>5837500</v>
       </c>
       <c r="E60" s="3">
-        <v>6005800</v>
+        <v>5684300</v>
       </c>
       <c r="F60" s="3">
-        <v>7245500</v>
+        <v>6857700</v>
       </c>
       <c r="G60" s="3">
-        <v>6692300</v>
+        <v>6334100</v>
       </c>
       <c r="H60" s="3">
-        <v>7607700</v>
+        <v>7200500</v>
       </c>
       <c r="I60" s="3">
-        <v>7700500</v>
+        <v>7288300</v>
       </c>
       <c r="J60" s="3">
-        <v>6446500</v>
+        <v>6101400</v>
       </c>
       <c r="K60" s="3">
         <v>7219100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11499600</v>
+        <v>10884100</v>
       </c>
       <c r="E61" s="3">
-        <v>13315100</v>
+        <v>12602400</v>
       </c>
       <c r="F61" s="3">
-        <v>11507300</v>
+        <v>10891400</v>
       </c>
       <c r="G61" s="3">
-        <v>5548400</v>
+        <v>5251500</v>
       </c>
       <c r="H61" s="3">
-        <v>5117900</v>
+        <v>4844000</v>
       </c>
       <c r="I61" s="3">
-        <v>5991400</v>
+        <v>5670700</v>
       </c>
       <c r="J61" s="3">
-        <v>6329800</v>
+        <v>5991000</v>
       </c>
       <c r="K61" s="3">
         <v>7088400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1603300</v>
+        <v>1517500</v>
       </c>
       <c r="E62" s="3">
-        <v>1772300</v>
+        <v>1677400</v>
       </c>
       <c r="F62" s="3">
-        <v>1640800</v>
+        <v>1553000</v>
       </c>
       <c r="G62" s="3">
-        <v>1332900</v>
+        <v>1261500</v>
       </c>
       <c r="H62" s="3">
-        <v>1107200</v>
+        <v>1047900</v>
       </c>
       <c r="I62" s="3">
-        <v>1281200</v>
+        <v>1212600</v>
       </c>
       <c r="J62" s="3">
-        <v>1290000</v>
+        <v>1221000</v>
       </c>
       <c r="K62" s="3">
         <v>1444600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19787000</v>
+        <v>18728000</v>
       </c>
       <c r="E66" s="3">
-        <v>21648100</v>
+        <v>20489400</v>
       </c>
       <c r="F66" s="3">
-        <v>20918000</v>
+        <v>19798400</v>
       </c>
       <c r="G66" s="3">
-        <v>14070600</v>
+        <v>13317500</v>
       </c>
       <c r="H66" s="3">
-        <v>14312900</v>
+        <v>13546900</v>
       </c>
       <c r="I66" s="3">
-        <v>15421200</v>
+        <v>14595800</v>
       </c>
       <c r="J66" s="3">
-        <v>14528600</v>
+        <v>13751000</v>
       </c>
       <c r="K66" s="3">
         <v>16269800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2227400</v>
+        <v>2108100</v>
       </c>
       <c r="E72" s="3">
-        <v>3277400</v>
+        <v>3102000</v>
       </c>
       <c r="F72" s="3">
-        <v>3193600</v>
+        <v>3022600</v>
       </c>
       <c r="G72" s="3">
-        <v>4245600</v>
+        <v>4018400</v>
       </c>
       <c r="H72" s="3">
-        <v>5145900</v>
+        <v>4870500</v>
       </c>
       <c r="I72" s="3">
-        <v>4132800</v>
+        <v>3911600</v>
       </c>
       <c r="J72" s="3">
-        <v>4492800</v>
+        <v>4252400</v>
       </c>
       <c r="K72" s="3">
         <v>5031300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2608600</v>
+        <v>2469000</v>
       </c>
       <c r="E76" s="3">
-        <v>3802100</v>
+        <v>3598600</v>
       </c>
       <c r="F76" s="3">
-        <v>3775200</v>
+        <v>3573200</v>
       </c>
       <c r="G76" s="3">
-        <v>4905500</v>
+        <v>4643000</v>
       </c>
       <c r="H76" s="3">
-        <v>5704200</v>
+        <v>5398900</v>
       </c>
       <c r="I76" s="3">
-        <v>5047700</v>
+        <v>4777500</v>
       </c>
       <c r="J76" s="3">
-        <v>5800400</v>
+        <v>5490000</v>
       </c>
       <c r="K76" s="3">
         <v>6495600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>151600</v>
+        <v>143500</v>
       </c>
       <c r="E81" s="3">
-        <v>1720400</v>
+        <v>1628300</v>
       </c>
       <c r="F81" s="3">
-        <v>771200</v>
+        <v>729900</v>
       </c>
       <c r="G81" s="3">
-        <v>1461500</v>
+        <v>1831400</v>
       </c>
       <c r="H81" s="3">
-        <v>1188800</v>
+        <v>1125200</v>
       </c>
       <c r="I81" s="3">
-        <v>280900</v>
+        <v>265800</v>
       </c>
       <c r="J81" s="3">
-        <v>338700</v>
+        <v>320600</v>
       </c>
       <c r="K81" s="3">
         <v>997300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3409200</v>
+        <v>2729000</v>
       </c>
       <c r="E83" s="3">
-        <v>2883300</v>
+        <v>2312300</v>
       </c>
       <c r="F83" s="3">
-        <v>2443000</v>
+        <v>1957400</v>
       </c>
       <c r="G83" s="3">
-        <v>2068100</v>
+        <v>2081400</v>
       </c>
       <c r="H83" s="3">
-        <v>2199100</v>
+        <v>2632300</v>
       </c>
       <c r="I83" s="3">
-        <v>2781200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2040300</v>
+        <v>1931100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4193900</v>
+        <v>4114600</v>
       </c>
       <c r="E89" s="3">
-        <v>4347300</v>
+        <v>3213500</v>
       </c>
       <c r="F89" s="3">
-        <v>3395300</v>
+        <v>3417400</v>
       </c>
       <c r="G89" s="3">
-        <v>3610600</v>
+        <v>3823800</v>
       </c>
       <c r="H89" s="3">
-        <v>4040000</v>
+        <v>3735200</v>
       </c>
       <c r="I89" s="3">
-        <v>3946400</v>
+        <v>3484300</v>
       </c>
       <c r="J89" s="3">
-        <v>3681400</v>
+        <v>3178600</v>
       </c>
       <c r="K89" s="3">
         <v>3760800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1929300</v>
+        <v>-1784100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1885000</v>
+        <v>-2165200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2287700</v>
+        <v>-1972900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2084500</v>
+        <v>-1946200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2056200</v>
+        <v>-2228000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2354000</v>
+        <v>-1987700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2100100</v>
+        <v>-1943100</v>
       </c>
       <c r="K91" s="3">
         <v>-2299000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1709200</v>
+        <v>-992100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1048200</v>
+        <v>-4087100</v>
       </c>
       <c r="F94" s="3">
-        <v>-4318200</v>
+        <v>-57600</v>
       </c>
       <c r="G94" s="3">
-        <v>-60800</v>
+        <v>-1133800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1198000</v>
+        <v>-1981800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2093800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2012100</v>
+        <v>-1904400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1249500</v>
+        <v>-1152800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1218000</v>
+        <v>-1138200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1202500</v>
+        <v>-1726000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1823600</v>
+        <v>-1121500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1185000</v>
+        <v>-1056000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1115700</v>
+        <v>-1007000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1063900</v>
+        <v>-992200</v>
       </c>
       <c r="K96" s="3">
         <v>-1174000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2768300</v>
+        <v>-2590000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2736500</v>
+        <v>406800</v>
       </c>
       <c r="F100" s="3">
-        <v>429800</v>
+        <v>-3707800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3917500</v>
+        <v>-2791900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2949800</v>
+        <v>-848600</v>
       </c>
       <c r="I100" s="3">
-        <v>-896600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1492200</v>
+        <v>-1412300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24300</v>
+        <v>39400</v>
       </c>
       <c r="E101" s="3">
-        <v>41700</v>
+        <v>60200</v>
       </c>
       <c r="F101" s="3">
-        <v>63600</v>
+        <v>-26700</v>
       </c>
       <c r="G101" s="3">
-        <v>-28200</v>
+        <v>42600</v>
       </c>
       <c r="H101" s="3">
-        <v>45000</v>
+        <v>-41900</v>
       </c>
       <c r="I101" s="3">
-        <v>-44200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>8000</v>
+        <v>7600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-307800</v>
+        <v>571900</v>
       </c>
       <c r="E102" s="3">
-        <v>604300</v>
+        <v>-406600</v>
       </c>
       <c r="F102" s="3">
-        <v>-429600</v>
+        <v>-374700</v>
       </c>
       <c r="G102" s="3">
-        <v>-395800</v>
+        <v>-59300</v>
       </c>
       <c r="H102" s="3">
-        <v>-62700</v>
+        <v>862900</v>
       </c>
       <c r="I102" s="3">
-        <v>911700</v>
+        <v>175200</v>
       </c>
       <c r="J102" s="3">
-        <v>185100</v>
+        <v>-8000</v>
       </c>
       <c r="K102" s="3">
         <v>-9400</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10351600</v>
+        <v>9078900</v>
       </c>
       <c r="E8" s="3">
-        <v>10877300</v>
+        <v>8913800</v>
       </c>
       <c r="F8" s="3">
-        <v>10673200</v>
+        <v>10628200</v>
       </c>
       <c r="G8" s="3">
-        <v>9946200</v>
+        <v>10428900</v>
       </c>
       <c r="H8" s="3">
-        <v>10523300</v>
+        <v>9718400</v>
       </c>
       <c r="I8" s="3">
-        <v>11774600</v>
+        <v>10282300</v>
       </c>
       <c r="J8" s="3">
+        <v>11505000</v>
+      </c>
+      <c r="K8" s="3">
         <v>12035600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12381300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11223400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10405800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12147000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2739600</v>
+        <v>2422600</v>
       </c>
       <c r="E9" s="3">
-        <v>5521800</v>
+        <v>2347900</v>
       </c>
       <c r="F9" s="3">
-        <v>2620900</v>
+        <v>5395400</v>
       </c>
       <c r="G9" s="3">
-        <v>2247900</v>
+        <v>2560900</v>
       </c>
       <c r="H9" s="3">
-        <v>2528500</v>
+        <v>2196400</v>
       </c>
       <c r="I9" s="3">
-        <v>6257700</v>
+        <v>2470600</v>
       </c>
       <c r="J9" s="3">
+        <v>6114400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3300300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6850400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6231500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5971700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4729200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7612000</v>
+        <v>6656400</v>
       </c>
       <c r="E10" s="3">
-        <v>5355500</v>
+        <v>6565900</v>
       </c>
       <c r="F10" s="3">
-        <v>8052300</v>
+        <v>5232900</v>
       </c>
       <c r="G10" s="3">
-        <v>7698300</v>
+        <v>7867900</v>
       </c>
       <c r="H10" s="3">
-        <v>7994700</v>
+        <v>7522000</v>
       </c>
       <c r="I10" s="3">
-        <v>5516900</v>
+        <v>7811700</v>
       </c>
       <c r="J10" s="3">
+        <v>5390600</v>
+      </c>
+      <c r="K10" s="3">
         <v>8735300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5530900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4991900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4434100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7417900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>134600</v>
+        <v>309400</v>
       </c>
       <c r="E14" s="3">
-        <v>181400</v>
+        <v>131600</v>
       </c>
       <c r="F14" s="3">
-        <v>79200</v>
+        <v>177300</v>
       </c>
       <c r="G14" s="3">
-        <v>288600</v>
+        <v>77300</v>
       </c>
       <c r="H14" s="3">
-        <v>783600</v>
+        <v>281900</v>
       </c>
       <c r="I14" s="3">
-        <v>928000</v>
+        <v>765700</v>
       </c>
       <c r="J14" s="3">
+        <v>906800</v>
+      </c>
+      <c r="K14" s="3">
         <v>224400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>95900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>115800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1673700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>598500</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2429000</v>
+        <v>2134900</v>
       </c>
       <c r="E15" s="3">
-        <v>5197500</v>
+        <v>2132800</v>
       </c>
       <c r="F15" s="3">
-        <v>2303300</v>
+        <v>5078500</v>
       </c>
       <c r="G15" s="3">
-        <v>1881800</v>
+        <v>2250500</v>
       </c>
       <c r="H15" s="3">
-        <v>1841600</v>
+        <v>1838800</v>
       </c>
       <c r="I15" s="3">
-        <v>3718700</v>
+        <v>1799400</v>
       </c>
       <c r="J15" s="3">
+        <v>3633600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1718800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3440400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3015900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2936300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1887600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8329600</v>
+        <v>7493900</v>
       </c>
       <c r="E17" s="3">
-        <v>8249600</v>
+        <v>7291500</v>
       </c>
       <c r="F17" s="3">
-        <v>8248500</v>
+        <v>8060700</v>
       </c>
       <c r="G17" s="3">
-        <v>7979200</v>
+        <v>8059600</v>
       </c>
       <c r="H17" s="3">
-        <v>8735000</v>
+        <v>7796500</v>
       </c>
       <c r="I17" s="3">
-        <v>9424300</v>
+        <v>8535000</v>
       </c>
       <c r="J17" s="3">
+        <v>9208500</v>
+      </c>
+      <c r="K17" s="3">
         <v>9874800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9614300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8871800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9408500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10865600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2022000</v>
+        <v>1585100</v>
       </c>
       <c r="E18" s="3">
-        <v>2627700</v>
+        <v>1622300</v>
       </c>
       <c r="F18" s="3">
-        <v>2424800</v>
+        <v>2567500</v>
       </c>
       <c r="G18" s="3">
-        <v>1966900</v>
+        <v>2369300</v>
       </c>
       <c r="H18" s="3">
-        <v>1788300</v>
+        <v>1921900</v>
       </c>
       <c r="I18" s="3">
-        <v>2350300</v>
+        <v>1747400</v>
       </c>
       <c r="J18" s="3">
+        <v>2296500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2160800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2767100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2351600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>997200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1281500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-136200</v>
+        <v>-358200</v>
       </c>
       <c r="E20" s="3">
-        <v>301300</v>
+        <v>-135200</v>
       </c>
       <c r="F20" s="3">
-        <v>-27600</v>
+        <v>294400</v>
       </c>
       <c r="G20" s="3">
-        <v>-104800</v>
+        <v>-27000</v>
       </c>
       <c r="H20" s="3">
-        <v>296700</v>
+        <v>-102400</v>
       </c>
       <c r="I20" s="3">
-        <v>-80800</v>
+        <v>289900</v>
       </c>
       <c r="J20" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-721400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-236600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>57400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>348500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>274100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4625000</v>
+        <v>3844900</v>
       </c>
       <c r="E21" s="3">
-        <v>5249900</v>
+        <v>4675300</v>
       </c>
       <c r="F21" s="3">
-        <v>4361900</v>
+        <v>5558400</v>
       </c>
       <c r="G21" s="3">
-        <v>3951300</v>
+        <v>4627000</v>
       </c>
       <c r="H21" s="3">
-        <v>4727200</v>
+        <v>3753600</v>
       </c>
       <c r="I21" s="3">
-        <v>4207700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>4093900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4818400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>3973100</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3969400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>281600</v>
+        <v>242200</v>
       </c>
       <c r="E22" s="3">
-        <v>648000</v>
+        <v>228000</v>
       </c>
       <c r="F22" s="3">
-        <v>428300</v>
+        <v>633200</v>
       </c>
       <c r="G22" s="3">
-        <v>200000</v>
+        <v>418500</v>
       </c>
       <c r="H22" s="3">
-        <v>244100</v>
+        <v>195400</v>
       </c>
       <c r="I22" s="3">
-        <v>457000</v>
+        <v>238600</v>
       </c>
       <c r="J22" s="3">
+        <v>446500</v>
+      </c>
+      <c r="K22" s="3">
         <v>216800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>380000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>416600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>244000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1604200</v>
+        <v>984700</v>
       </c>
       <c r="E23" s="3">
-        <v>2281000</v>
+        <v>1259100</v>
       </c>
       <c r="F23" s="3">
-        <v>1968900</v>
+        <v>2228800</v>
       </c>
       <c r="G23" s="3">
-        <v>1662100</v>
+        <v>1923800</v>
       </c>
       <c r="H23" s="3">
-        <v>1840900</v>
+        <v>1624100</v>
       </c>
       <c r="I23" s="3">
-        <v>1812500</v>
+        <v>1798800</v>
       </c>
       <c r="J23" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1222600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2150500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1992400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1101800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1550500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>539000</v>
+        <v>-267400</v>
       </c>
       <c r="E24" s="3">
-        <v>602700</v>
+        <v>459500</v>
       </c>
       <c r="F24" s="3">
-        <v>848200</v>
+        <v>588900</v>
       </c>
       <c r="G24" s="3">
-        <v>565700</v>
+        <v>828800</v>
       </c>
       <c r="H24" s="3">
-        <v>609500</v>
+        <v>552700</v>
       </c>
       <c r="I24" s="3">
-        <v>556300</v>
+        <v>595500</v>
       </c>
       <c r="J24" s="3">
+        <v>543500</v>
+      </c>
+      <c r="K24" s="3">
         <v>593200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>733000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>641800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>178300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>660600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1065200</v>
+        <v>1252000</v>
       </c>
       <c r="E26" s="3">
-        <v>1678300</v>
+        <v>799600</v>
       </c>
       <c r="F26" s="3">
-        <v>1120700</v>
+        <v>1639800</v>
       </c>
       <c r="G26" s="3">
-        <v>1096500</v>
+        <v>1095000</v>
       </c>
       <c r="H26" s="3">
-        <v>1231400</v>
+        <v>1071400</v>
       </c>
       <c r="I26" s="3">
-        <v>1256200</v>
+        <v>1203200</v>
       </c>
       <c r="J26" s="3">
+        <v>1227400</v>
+      </c>
+      <c r="K26" s="3">
         <v>629400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1417400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1350600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>923500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>889900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>777600</v>
+        <v>1007500</v>
       </c>
       <c r="E27" s="3">
-        <v>1329200</v>
+        <v>518500</v>
       </c>
       <c r="F27" s="3">
-        <v>799600</v>
+        <v>1298700</v>
       </c>
       <c r="G27" s="3">
-        <v>841900</v>
+        <v>781300</v>
       </c>
       <c r="H27" s="3">
-        <v>957700</v>
+        <v>822600</v>
       </c>
       <c r="I27" s="3">
-        <v>976800</v>
+        <v>935800</v>
       </c>
       <c r="J27" s="3">
+        <v>954500</v>
+      </c>
+      <c r="K27" s="3">
         <v>320600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1008500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>968400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>901200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>883400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-634100</v>
+        <v>3113300</v>
       </c>
       <c r="E29" s="3">
-        <v>299200</v>
+        <v>-997900</v>
       </c>
       <c r="F29" s="3">
-        <v>-69700</v>
+        <v>292300</v>
       </c>
       <c r="G29" s="3">
-        <v>989500</v>
+        <v>-68100</v>
       </c>
       <c r="H29" s="3">
-        <v>167500</v>
+        <v>966900</v>
       </c>
       <c r="I29" s="3">
-        <v>-711000</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>163700</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-694700</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-11100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>21800</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>136200</v>
+        <v>358200</v>
       </c>
       <c r="E32" s="3">
-        <v>-301300</v>
+        <v>135200</v>
       </c>
       <c r="F32" s="3">
-        <v>27600</v>
+        <v>-294400</v>
       </c>
       <c r="G32" s="3">
-        <v>104800</v>
+        <v>27000</v>
       </c>
       <c r="H32" s="3">
-        <v>-296700</v>
+        <v>102400</v>
       </c>
       <c r="I32" s="3">
-        <v>80800</v>
+        <v>-289900</v>
       </c>
       <c r="J32" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K32" s="3">
         <v>721400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>236600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-57400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-348500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-274100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>143500</v>
+        <v>4120800</v>
       </c>
       <c r="E33" s="3">
-        <v>1628300</v>
+        <v>-479400</v>
       </c>
       <c r="F33" s="3">
-        <v>729900</v>
+        <v>1591000</v>
       </c>
       <c r="G33" s="3">
-        <v>1831400</v>
+        <v>713200</v>
       </c>
       <c r="H33" s="3">
-        <v>1125200</v>
+        <v>1789500</v>
       </c>
       <c r="I33" s="3">
-        <v>265800</v>
+        <v>1099400</v>
       </c>
       <c r="J33" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K33" s="3">
         <v>320600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>997300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>990200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>901200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>883400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>143500</v>
+        <v>4120800</v>
       </c>
       <c r="E35" s="3">
-        <v>1628300</v>
+        <v>-479400</v>
       </c>
       <c r="F35" s="3">
-        <v>729900</v>
+        <v>1591000</v>
       </c>
       <c r="G35" s="3">
-        <v>1831400</v>
+        <v>713200</v>
       </c>
       <c r="H35" s="3">
-        <v>1125200</v>
+        <v>1789500</v>
       </c>
       <c r="I35" s="3">
-        <v>265800</v>
+        <v>1099400</v>
       </c>
       <c r="J35" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K35" s="3">
         <v>320600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>997300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>990200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>901200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>883400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1429400</v>
+        <v>911000</v>
       </c>
       <c r="E41" s="3">
-        <v>1932200</v>
+        <v>1396700</v>
       </c>
       <c r="F41" s="3">
-        <v>1302100</v>
+        <v>1887900</v>
       </c>
       <c r="G41" s="3">
-        <v>1736400</v>
+        <v>1272300</v>
       </c>
       <c r="H41" s="3">
-        <v>2117100</v>
+        <v>1696600</v>
       </c>
       <c r="I41" s="3">
-        <v>2167700</v>
+        <v>2068600</v>
       </c>
       <c r="J41" s="3">
+        <v>2118000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1310500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1550500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1356000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>907800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1590400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35300</v>
+        <v>32800</v>
       </c>
       <c r="E42" s="3">
-        <v>37500</v>
+        <v>34500</v>
       </c>
       <c r="F42" s="3">
-        <v>52900</v>
+        <v>36600</v>
       </c>
       <c r="G42" s="3">
-        <v>55600</v>
+        <v>51700</v>
       </c>
       <c r="H42" s="3">
-        <v>94900</v>
+        <v>54300</v>
       </c>
       <c r="I42" s="3">
-        <v>219400</v>
+        <v>92800</v>
       </c>
       <c r="J42" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K42" s="3">
         <v>113100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>133800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>291900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>282600</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1821900</v>
+        <v>1575200</v>
       </c>
       <c r="E43" s="3">
-        <v>2063500</v>
+        <v>1780200</v>
       </c>
       <c r="F43" s="3">
-        <v>2029500</v>
+        <v>2016300</v>
       </c>
       <c r="G43" s="3">
-        <v>1797900</v>
+        <v>1983000</v>
       </c>
       <c r="H43" s="3">
-        <v>1410800</v>
+        <v>1756700</v>
       </c>
       <c r="I43" s="3">
-        <v>1325400</v>
+        <v>1378500</v>
       </c>
       <c r="J43" s="3">
+        <v>1295100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1330100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1573700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1440800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4983500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1343000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>146800</v>
+        <v>143000</v>
       </c>
       <c r="E44" s="3">
-        <v>123300</v>
+        <v>143400</v>
       </c>
       <c r="F44" s="3">
-        <v>139400</v>
+        <v>120500</v>
       </c>
       <c r="G44" s="3">
-        <v>159900</v>
+        <v>136200</v>
       </c>
       <c r="H44" s="3">
-        <v>166500</v>
+        <v>156300</v>
       </c>
       <c r="I44" s="3">
-        <v>169200</v>
+        <v>162700</v>
       </c>
       <c r="J44" s="3">
+        <v>165300</v>
+      </c>
+      <c r="K44" s="3">
         <v>213200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>252300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>179700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>123500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>122300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>683400</v>
+        <v>290800</v>
       </c>
       <c r="E45" s="3">
-        <v>544600</v>
+        <v>667800</v>
       </c>
       <c r="F45" s="3">
-        <v>876100</v>
+        <v>532100</v>
       </c>
       <c r="G45" s="3">
-        <v>406600</v>
+        <v>856000</v>
       </c>
       <c r="H45" s="3">
-        <v>1231300</v>
+        <v>397300</v>
       </c>
       <c r="I45" s="3">
-        <v>1094200</v>
+        <v>1203100</v>
       </c>
       <c r="J45" s="3">
+        <v>1069200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1006300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1190700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>852500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>826800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>892900</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4116900</v>
+        <v>2952700</v>
       </c>
       <c r="E46" s="3">
-        <v>4701100</v>
+        <v>4022600</v>
       </c>
       <c r="F46" s="3">
-        <v>4400000</v>
+        <v>4593500</v>
       </c>
       <c r="G46" s="3">
-        <v>4156400</v>
+        <v>4299200</v>
       </c>
       <c r="H46" s="3">
-        <v>5020600</v>
+        <v>4061200</v>
       </c>
       <c r="I46" s="3">
-        <v>4975900</v>
+        <v>4905700</v>
       </c>
       <c r="J46" s="3">
+        <v>4861900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3973200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4701000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3943100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3086900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4231300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>758100</v>
+        <v>3845900</v>
       </c>
       <c r="E47" s="3">
-        <v>889000</v>
+        <v>740700</v>
       </c>
       <c r="F47" s="3">
-        <v>701400</v>
+        <v>868700</v>
       </c>
       <c r="G47" s="3">
-        <v>955800</v>
+        <v>685400</v>
       </c>
       <c r="H47" s="3">
-        <v>1079500</v>
+        <v>933900</v>
       </c>
       <c r="I47" s="3">
-        <v>1765800</v>
+        <v>1054800</v>
       </c>
       <c r="J47" s="3">
+        <v>1725400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2146200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2539300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4135100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4300700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4188100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11674800</v>
+        <v>10215900</v>
       </c>
       <c r="E48" s="3">
-        <v>13350700</v>
+        <v>11407500</v>
       </c>
       <c r="F48" s="3">
-        <v>13386400</v>
+        <v>13045000</v>
       </c>
       <c r="G48" s="3">
-        <v>6888600</v>
+        <v>13079900</v>
       </c>
       <c r="H48" s="3">
-        <v>7094800</v>
+        <v>6730900</v>
       </c>
       <c r="I48" s="3">
-        <v>6762300</v>
+        <v>6932400</v>
       </c>
       <c r="J48" s="3">
+        <v>6607500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6498900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7689300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5609200</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6118100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3534700</v>
+        <v>3396900</v>
       </c>
       <c r="E49" s="3">
-        <v>3771900</v>
+        <v>3453700</v>
       </c>
       <c r="F49" s="3">
-        <v>3645300</v>
+        <v>3685500</v>
       </c>
       <c r="G49" s="3">
-        <v>4767700</v>
+        <v>3561800</v>
       </c>
       <c r="H49" s="3">
-        <v>5356700</v>
+        <v>4658500</v>
       </c>
       <c r="I49" s="3">
-        <v>5406400</v>
+        <v>5234100</v>
       </c>
       <c r="J49" s="3">
+        <v>5282600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6053100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7161800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6080800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12559400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5415200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1112600</v>
+        <v>1539700</v>
       </c>
       <c r="E52" s="3">
-        <v>1375400</v>
+        <v>1087100</v>
       </c>
       <c r="F52" s="3">
-        <v>1238500</v>
+        <v>1343900</v>
       </c>
       <c r="G52" s="3">
-        <v>1192000</v>
+        <v>1210200</v>
       </c>
       <c r="H52" s="3">
-        <v>394100</v>
+        <v>1164700</v>
       </c>
       <c r="I52" s="3">
-        <v>463000</v>
+        <v>385100</v>
       </c>
       <c r="J52" s="3">
+        <v>452400</v>
+      </c>
+      <c r="K52" s="3">
         <v>569600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>673900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>719400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1074900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>556800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21197000</v>
+        <v>21951100</v>
       </c>
       <c r="E54" s="3">
-        <v>24088100</v>
+        <v>20711600</v>
       </c>
       <c r="F54" s="3">
-        <v>23371600</v>
+        <v>23536500</v>
       </c>
       <c r="G54" s="3">
-        <v>17960400</v>
+        <v>22836500</v>
       </c>
       <c r="H54" s="3">
-        <v>18945700</v>
+        <v>17549200</v>
       </c>
       <c r="I54" s="3">
-        <v>19373400</v>
+        <v>18511900</v>
       </c>
       <c r="J54" s="3">
+        <v>18929800</v>
+      </c>
+      <c r="K54" s="3">
         <v>19241000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22765400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20487700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17307200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20509600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1270500</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>851100</v>
+        <v>1241400</v>
       </c>
       <c r="F57" s="3">
-        <v>883500</v>
+        <v>831600</v>
       </c>
       <c r="G57" s="3">
-        <v>769400</v>
+        <v>863300</v>
       </c>
       <c r="H57" s="3">
-        <v>825100</v>
+        <v>751800</v>
       </c>
       <c r="I57" s="3">
-        <v>438000</v>
+        <v>806200</v>
       </c>
       <c r="J57" s="3">
+        <v>428000</v>
+      </c>
+      <c r="K57" s="3">
         <v>398300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>471300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3169200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1526200</v>
+        <v>1453600</v>
       </c>
       <c r="E58" s="3">
-        <v>1558200</v>
+        <v>1491200</v>
       </c>
       <c r="F58" s="3">
-        <v>2258900</v>
+        <v>1522500</v>
       </c>
       <c r="G58" s="3">
-        <v>1478000</v>
+        <v>2207100</v>
       </c>
       <c r="H58" s="3">
-        <v>2132500</v>
+        <v>1444100</v>
       </c>
       <c r="I58" s="3">
-        <v>2438600</v>
+        <v>2083600</v>
       </c>
       <c r="J58" s="3">
+        <v>2382700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1185600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1402700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1647800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1059400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1329400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3040900</v>
+        <v>3480400</v>
       </c>
       <c r="E59" s="3">
-        <v>3275000</v>
+        <v>2971200</v>
       </c>
       <c r="F59" s="3">
-        <v>3715300</v>
+        <v>3200100</v>
       </c>
       <c r="G59" s="3">
-        <v>4086700</v>
+        <v>3630300</v>
       </c>
       <c r="H59" s="3">
-        <v>4243000</v>
+        <v>3993100</v>
       </c>
       <c r="I59" s="3">
-        <v>4411700</v>
+        <v>4145800</v>
       </c>
       <c r="J59" s="3">
+        <v>4310700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4517500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5345000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3896000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5125100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3739300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5837500</v>
+        <v>4934000</v>
       </c>
       <c r="E60" s="3">
-        <v>5684300</v>
+        <v>5703800</v>
       </c>
       <c r="F60" s="3">
-        <v>6857700</v>
+        <v>5554200</v>
       </c>
       <c r="G60" s="3">
-        <v>6334100</v>
+        <v>6700700</v>
       </c>
       <c r="H60" s="3">
-        <v>7200500</v>
+        <v>6189100</v>
       </c>
       <c r="I60" s="3">
-        <v>7288300</v>
+        <v>7035700</v>
       </c>
       <c r="J60" s="3">
+        <v>7121500</v>
+      </c>
+      <c r="K60" s="3">
         <v>6101400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7219100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5022200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4529500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5867600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10884100</v>
+        <v>9830200</v>
       </c>
       <c r="E61" s="3">
-        <v>12602400</v>
+        <v>10634900</v>
       </c>
       <c r="F61" s="3">
-        <v>10891400</v>
+        <v>12313900</v>
       </c>
       <c r="G61" s="3">
-        <v>5251500</v>
+        <v>10642000</v>
       </c>
       <c r="H61" s="3">
-        <v>4844000</v>
+        <v>5131200</v>
       </c>
       <c r="I61" s="3">
-        <v>5670700</v>
+        <v>4733100</v>
       </c>
       <c r="J61" s="3">
+        <v>5540900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5991000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7088400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5773800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4106100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2855300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1280500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1482800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1639000</v>
+      </c>
+      <c r="G62" s="3">
         <v>1517500</v>
       </c>
-      <c r="E62" s="3">
-        <v>1677400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1553000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1261500</v>
-      </c>
       <c r="H62" s="3">
-        <v>1047900</v>
+        <v>1232700</v>
       </c>
       <c r="I62" s="3">
-        <v>1212600</v>
+        <v>1023900</v>
       </c>
       <c r="J62" s="3">
+        <v>1184900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1221000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1444600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>970300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>925000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1071600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18728000</v>
+        <v>16433400</v>
       </c>
       <c r="E66" s="3">
-        <v>20489400</v>
+        <v>18299200</v>
       </c>
       <c r="F66" s="3">
-        <v>19798400</v>
+        <v>20020300</v>
       </c>
       <c r="G66" s="3">
-        <v>13317500</v>
+        <v>19345100</v>
       </c>
       <c r="H66" s="3">
-        <v>13546900</v>
+        <v>13012500</v>
       </c>
       <c r="I66" s="3">
-        <v>14595800</v>
+        <v>13236700</v>
       </c>
       <c r="J66" s="3">
+        <v>14261600</v>
+      </c>
+      <c r="K66" s="3">
         <v>13751000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16269800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12182100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9744300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10153300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2108100</v>
+        <v>5054600</v>
       </c>
       <c r="E72" s="3">
-        <v>3102000</v>
+        <v>2059900</v>
       </c>
       <c r="F72" s="3">
-        <v>3022600</v>
+        <v>3031000</v>
       </c>
       <c r="G72" s="3">
-        <v>4018400</v>
+        <v>2953400</v>
       </c>
       <c r="H72" s="3">
-        <v>4870500</v>
+        <v>3926300</v>
       </c>
       <c r="I72" s="3">
-        <v>3911600</v>
+        <v>4759000</v>
       </c>
       <c r="J72" s="3">
+        <v>3822000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4252400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5031300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7839500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15664800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9950600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2469000</v>
+        <v>5517700</v>
       </c>
       <c r="E76" s="3">
-        <v>3598600</v>
+        <v>2412500</v>
       </c>
       <c r="F76" s="3">
-        <v>3573200</v>
+        <v>3516200</v>
       </c>
       <c r="G76" s="3">
-        <v>4643000</v>
+        <v>3491400</v>
       </c>
       <c r="H76" s="3">
-        <v>5398900</v>
+        <v>4536700</v>
       </c>
       <c r="I76" s="3">
-        <v>4777500</v>
+        <v>5275300</v>
       </c>
       <c r="J76" s="3">
+        <v>4668100</v>
+      </c>
+      <c r="K76" s="3">
         <v>5490000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6495600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8305700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7562900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10356200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>143500</v>
+        <v>4120800</v>
       </c>
       <c r="E81" s="3">
-        <v>1628300</v>
+        <v>-479400</v>
       </c>
       <c r="F81" s="3">
-        <v>729900</v>
+        <v>1591000</v>
       </c>
       <c r="G81" s="3">
-        <v>1831400</v>
+        <v>713200</v>
       </c>
       <c r="H81" s="3">
-        <v>1125200</v>
+        <v>1789500</v>
       </c>
       <c r="I81" s="3">
-        <v>265800</v>
+        <v>1099400</v>
       </c>
       <c r="J81" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K81" s="3">
         <v>320600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>997300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>990200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>901200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>883400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2729000</v>
+        <v>2588900</v>
       </c>
       <c r="E83" s="3">
-        <v>2312300</v>
+        <v>3152800</v>
       </c>
       <c r="F83" s="3">
-        <v>1957400</v>
+        <v>2666500</v>
       </c>
       <c r="G83" s="3">
-        <v>2081400</v>
+        <v>2259300</v>
       </c>
       <c r="H83" s="3">
-        <v>2632300</v>
+        <v>1912600</v>
       </c>
       <c r="I83" s="3">
-        <v>1931100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>2033700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2572000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>1571600</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2422700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4114600</v>
+        <v>3598700</v>
       </c>
       <c r="E89" s="3">
-        <v>3213500</v>
+        <v>3878500</v>
       </c>
       <c r="F89" s="3">
-        <v>3417400</v>
+        <v>4020400</v>
       </c>
       <c r="G89" s="3">
-        <v>3823800</v>
+        <v>3140000</v>
       </c>
       <c r="H89" s="3">
-        <v>3735200</v>
+        <v>3339100</v>
       </c>
       <c r="I89" s="3">
-        <v>3484300</v>
+        <v>3736200</v>
       </c>
       <c r="J89" s="3">
+        <v>3649600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3178600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3760800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4187600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2455400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3340400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1784100</v>
+        <v>-2198300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2165200</v>
+        <v>-1784300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1972900</v>
+        <v>-1743300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1946200</v>
+        <v>-2115700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2228000</v>
+        <v>-1927800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1987700</v>
+        <v>-1901600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2177000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1943100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2299000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1767400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1728100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1635100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-992100</v>
+        <v>-2123600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4087100</v>
+        <v>-1580700</v>
       </c>
       <c r="F94" s="3">
-        <v>-57600</v>
+        <v>-969300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1133800</v>
+        <v>-3993500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1981800</v>
+        <v>-56200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1904400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-1107900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1936400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2333700</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1781800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1152800</v>
+        <v>-1194100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1138200</v>
+        <v>-1155600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1726000</v>
+        <v>-1126400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1121500</v>
+        <v>-1112100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1056000</v>
+        <v>-1686500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1007000</v>
+        <v>-1095900</v>
       </c>
       <c r="J96" s="3">
+        <v>-1031800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-992200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1174000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1045900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-810700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-765200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2590000</v>
+        <v>-2200500</v>
       </c>
       <c r="E100" s="3">
-        <v>406800</v>
+        <v>-2560100</v>
       </c>
       <c r="F100" s="3">
-        <v>-3707800</v>
+        <v>-2530700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2791900</v>
+        <v>397500</v>
       </c>
       <c r="H100" s="3">
-        <v>-848600</v>
+        <v>-3622900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1412300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-2728000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-829100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1558700</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1586600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39400</v>
+        <v>55100</v>
       </c>
       <c r="E101" s="3">
-        <v>60200</v>
+        <v>-22500</v>
       </c>
       <c r="F101" s="3">
-        <v>-26700</v>
+        <v>38500</v>
       </c>
       <c r="G101" s="3">
-        <v>42600</v>
+        <v>58800</v>
       </c>
       <c r="H101" s="3">
-        <v>-41900</v>
+        <v>-26100</v>
       </c>
       <c r="I101" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>41700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-40900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>64200</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-59300</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>571900</v>
+        <v>-670300</v>
       </c>
       <c r="E102" s="3">
-        <v>-406600</v>
+        <v>-284700</v>
       </c>
       <c r="F102" s="3">
-        <v>-374700</v>
+        <v>558800</v>
       </c>
       <c r="G102" s="3">
-        <v>-59300</v>
+        <v>-397300</v>
       </c>
       <c r="H102" s="3">
-        <v>862900</v>
+        <v>-366100</v>
       </c>
       <c r="I102" s="3">
-        <v>175200</v>
+        <v>-58000</v>
       </c>
       <c r="J102" s="3">
+        <v>843200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>359400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-418900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-87000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9078900</v>
+        <v>9307500</v>
       </c>
       <c r="E8" s="3">
-        <v>8913800</v>
+        <v>9138200</v>
       </c>
       <c r="F8" s="3">
-        <v>10628200</v>
+        <v>10895800</v>
       </c>
       <c r="G8" s="3">
-        <v>10428900</v>
+        <v>10691400</v>
       </c>
       <c r="H8" s="3">
-        <v>9718400</v>
+        <v>9963100</v>
       </c>
       <c r="I8" s="3">
-        <v>10282300</v>
+        <v>10541200</v>
       </c>
       <c r="J8" s="3">
-        <v>11505000</v>
+        <v>11794700</v>
       </c>
       <c r="K8" s="3">
         <v>12035600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2422600</v>
+        <v>2483600</v>
       </c>
       <c r="E9" s="3">
-        <v>2347900</v>
+        <v>2407000</v>
       </c>
       <c r="F9" s="3">
-        <v>5395400</v>
+        <v>5531200</v>
       </c>
       <c r="G9" s="3">
-        <v>2560900</v>
+        <v>2625400</v>
       </c>
       <c r="H9" s="3">
-        <v>2196400</v>
+        <v>2251700</v>
       </c>
       <c r="I9" s="3">
-        <v>2470600</v>
+        <v>2532800</v>
       </c>
       <c r="J9" s="3">
-        <v>6114400</v>
+        <v>6268300</v>
       </c>
       <c r="K9" s="3">
         <v>3300300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6656400</v>
+        <v>6824000</v>
       </c>
       <c r="E10" s="3">
-        <v>6565900</v>
+        <v>6731200</v>
       </c>
       <c r="F10" s="3">
-        <v>5232900</v>
+        <v>5364600</v>
       </c>
       <c r="G10" s="3">
-        <v>7867900</v>
+        <v>8066000</v>
       </c>
       <c r="H10" s="3">
-        <v>7522000</v>
+        <v>7711400</v>
       </c>
       <c r="I10" s="3">
-        <v>7811700</v>
+        <v>8008400</v>
       </c>
       <c r="J10" s="3">
-        <v>5390600</v>
+        <v>5526300</v>
       </c>
       <c r="K10" s="3">
         <v>8735300</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>309400</v>
+        <v>317200</v>
       </c>
       <c r="E14" s="3">
-        <v>131600</v>
+        <v>134900</v>
       </c>
       <c r="F14" s="3">
-        <v>177300</v>
+        <v>181700</v>
       </c>
       <c r="G14" s="3">
-        <v>77300</v>
+        <v>79300</v>
       </c>
       <c r="H14" s="3">
-        <v>281900</v>
+        <v>289000</v>
       </c>
       <c r="I14" s="3">
-        <v>765700</v>
+        <v>784900</v>
       </c>
       <c r="J14" s="3">
-        <v>906800</v>
+        <v>929600</v>
       </c>
       <c r="K14" s="3">
         <v>224400</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2134900</v>
+        <v>2188700</v>
       </c>
       <c r="E15" s="3">
-        <v>2132800</v>
+        <v>2186500</v>
       </c>
       <c r="F15" s="3">
-        <v>5078500</v>
+        <v>5206300</v>
       </c>
       <c r="G15" s="3">
-        <v>2250500</v>
+        <v>2307200</v>
       </c>
       <c r="H15" s="3">
-        <v>1838800</v>
+        <v>1885100</v>
       </c>
       <c r="I15" s="3">
-        <v>1799400</v>
+        <v>1844700</v>
       </c>
       <c r="J15" s="3">
-        <v>3633600</v>
+        <v>3725100</v>
       </c>
       <c r="K15" s="3">
         <v>1718800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7493900</v>
+        <v>7682500</v>
       </c>
       <c r="E17" s="3">
-        <v>7291500</v>
+        <v>7475000</v>
       </c>
       <c r="F17" s="3">
-        <v>8060700</v>
+        <v>8263600</v>
       </c>
       <c r="G17" s="3">
-        <v>8059600</v>
+        <v>8262500</v>
       </c>
       <c r="H17" s="3">
-        <v>7796500</v>
+        <v>7992800</v>
       </c>
       <c r="I17" s="3">
-        <v>8535000</v>
+        <v>8749800</v>
       </c>
       <c r="J17" s="3">
-        <v>9208500</v>
+        <v>9440300</v>
       </c>
       <c r="K17" s="3">
         <v>9874800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1585100</v>
+        <v>1625000</v>
       </c>
       <c r="E18" s="3">
-        <v>1622300</v>
+        <v>1663200</v>
       </c>
       <c r="F18" s="3">
-        <v>2567500</v>
+        <v>2632200</v>
       </c>
       <c r="G18" s="3">
-        <v>2369300</v>
+        <v>2428900</v>
       </c>
       <c r="H18" s="3">
-        <v>1921900</v>
+        <v>1970300</v>
       </c>
       <c r="I18" s="3">
-        <v>1747400</v>
+        <v>1791400</v>
       </c>
       <c r="J18" s="3">
-        <v>2296500</v>
+        <v>2354300</v>
       </c>
       <c r="K18" s="3">
         <v>2160800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-358200</v>
+        <v>-367200</v>
       </c>
       <c r="E20" s="3">
-        <v>-135200</v>
+        <v>-138600</v>
       </c>
       <c r="F20" s="3">
-        <v>294400</v>
+        <v>301800</v>
       </c>
       <c r="G20" s="3">
-        <v>-27000</v>
+        <v>-27700</v>
       </c>
       <c r="H20" s="3">
-        <v>-102400</v>
+        <v>-105000</v>
       </c>
       <c r="I20" s="3">
-        <v>289900</v>
+        <v>297200</v>
       </c>
       <c r="J20" s="3">
-        <v>-79000</v>
+        <v>-81000</v>
       </c>
       <c r="K20" s="3">
         <v>-721400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3844900</v>
+        <v>3911900</v>
       </c>
       <c r="E21" s="3">
-        <v>4675300</v>
+        <v>4756700</v>
       </c>
       <c r="F21" s="3">
-        <v>5558400</v>
+        <v>5667700</v>
       </c>
       <c r="G21" s="3">
-        <v>4627000</v>
+        <v>4717500</v>
       </c>
       <c r="H21" s="3">
-        <v>3753600</v>
+        <v>3826100</v>
       </c>
       <c r="I21" s="3">
-        <v>4093900</v>
+        <v>4173500</v>
       </c>
       <c r="J21" s="3">
-        <v>4818400</v>
+        <v>4910100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>242200</v>
+        <v>248300</v>
       </c>
       <c r="E22" s="3">
-        <v>228000</v>
+        <v>233700</v>
       </c>
       <c r="F22" s="3">
-        <v>633200</v>
+        <v>649100</v>
       </c>
       <c r="G22" s="3">
-        <v>418500</v>
+        <v>429000</v>
       </c>
       <c r="H22" s="3">
-        <v>195400</v>
+        <v>200300</v>
       </c>
       <c r="I22" s="3">
-        <v>238600</v>
+        <v>244600</v>
       </c>
       <c r="J22" s="3">
-        <v>446500</v>
+        <v>457800</v>
       </c>
       <c r="K22" s="3">
         <v>216800</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>984700</v>
+        <v>1009500</v>
       </c>
       <c r="E23" s="3">
-        <v>1259100</v>
+        <v>1290800</v>
       </c>
       <c r="F23" s="3">
-        <v>2228800</v>
+        <v>2284900</v>
       </c>
       <c r="G23" s="3">
-        <v>1923800</v>
+        <v>1972300</v>
       </c>
       <c r="H23" s="3">
-        <v>1624100</v>
+        <v>1665000</v>
       </c>
       <c r="I23" s="3">
-        <v>1798800</v>
+        <v>1844000</v>
       </c>
       <c r="J23" s="3">
-        <v>1771000</v>
+        <v>1815500</v>
       </c>
       <c r="K23" s="3">
         <v>1222600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-267400</v>
+        <v>-274100</v>
       </c>
       <c r="E24" s="3">
-        <v>459500</v>
+        <v>471100</v>
       </c>
       <c r="F24" s="3">
-        <v>588900</v>
+        <v>603800</v>
       </c>
       <c r="G24" s="3">
-        <v>828800</v>
+        <v>849600</v>
       </c>
       <c r="H24" s="3">
-        <v>552700</v>
+        <v>566600</v>
       </c>
       <c r="I24" s="3">
-        <v>595500</v>
+        <v>610500</v>
       </c>
       <c r="J24" s="3">
-        <v>543500</v>
+        <v>557200</v>
       </c>
       <c r="K24" s="3">
         <v>593200</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1252000</v>
+        <v>1283500</v>
       </c>
       <c r="E26" s="3">
-        <v>799600</v>
+        <v>819700</v>
       </c>
       <c r="F26" s="3">
-        <v>1639800</v>
+        <v>1681100</v>
       </c>
       <c r="G26" s="3">
-        <v>1095000</v>
+        <v>1122600</v>
       </c>
       <c r="H26" s="3">
-        <v>1071400</v>
+        <v>1098300</v>
       </c>
       <c r="I26" s="3">
-        <v>1203200</v>
+        <v>1233500</v>
       </c>
       <c r="J26" s="3">
-        <v>1227400</v>
+        <v>1258300</v>
       </c>
       <c r="K26" s="3">
         <v>629400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1007500</v>
+        <v>1032900</v>
       </c>
       <c r="E27" s="3">
-        <v>518500</v>
+        <v>531500</v>
       </c>
       <c r="F27" s="3">
-        <v>1298700</v>
+        <v>1331400</v>
       </c>
       <c r="G27" s="3">
-        <v>781300</v>
+        <v>800900</v>
       </c>
       <c r="H27" s="3">
-        <v>822600</v>
+        <v>843300</v>
       </c>
       <c r="I27" s="3">
-        <v>935800</v>
+        <v>959300</v>
       </c>
       <c r="J27" s="3">
-        <v>954500</v>
+        <v>978500</v>
       </c>
       <c r="K27" s="3">
         <v>320600</v>
@@ -1533,25 +1533,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>3113300</v>
+        <v>3191600</v>
       </c>
       <c r="E29" s="3">
-        <v>-997900</v>
+        <v>-1023000</v>
       </c>
       <c r="F29" s="3">
-        <v>292300</v>
+        <v>299700</v>
       </c>
       <c r="G29" s="3">
-        <v>-68100</v>
+        <v>-69800</v>
       </c>
       <c r="H29" s="3">
-        <v>966900</v>
+        <v>991200</v>
       </c>
       <c r="I29" s="3">
-        <v>163700</v>
+        <v>167800</v>
       </c>
       <c r="J29" s="3">
-        <v>-694700</v>
+        <v>-712200</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>358200</v>
+        <v>367200</v>
       </c>
       <c r="E32" s="3">
-        <v>135200</v>
+        <v>138600</v>
       </c>
       <c r="F32" s="3">
-        <v>-294400</v>
+        <v>-301800</v>
       </c>
       <c r="G32" s="3">
-        <v>27000</v>
+        <v>27700</v>
       </c>
       <c r="H32" s="3">
-        <v>102400</v>
+        <v>105000</v>
       </c>
       <c r="I32" s="3">
-        <v>-289900</v>
+        <v>-297200</v>
       </c>
       <c r="J32" s="3">
-        <v>79000</v>
+        <v>81000</v>
       </c>
       <c r="K32" s="3">
         <v>721400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4120800</v>
+        <v>4224500</v>
       </c>
       <c r="E33" s="3">
-        <v>-479400</v>
+        <v>-491500</v>
       </c>
       <c r="F33" s="3">
-        <v>1591000</v>
+        <v>1631100</v>
       </c>
       <c r="G33" s="3">
-        <v>713200</v>
+        <v>731100</v>
       </c>
       <c r="H33" s="3">
-        <v>1789500</v>
+        <v>1834500</v>
       </c>
       <c r="I33" s="3">
-        <v>1099400</v>
+        <v>1127100</v>
       </c>
       <c r="J33" s="3">
-        <v>259700</v>
+        <v>266300</v>
       </c>
       <c r="K33" s="3">
         <v>320600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4120800</v>
+        <v>4224500</v>
       </c>
       <c r="E35" s="3">
-        <v>-479400</v>
+        <v>-491500</v>
       </c>
       <c r="F35" s="3">
-        <v>1591000</v>
+        <v>1631100</v>
       </c>
       <c r="G35" s="3">
-        <v>713200</v>
+        <v>731100</v>
       </c>
       <c r="H35" s="3">
-        <v>1789500</v>
+        <v>1834500</v>
       </c>
       <c r="I35" s="3">
-        <v>1099400</v>
+        <v>1127100</v>
       </c>
       <c r="J35" s="3">
-        <v>259700</v>
+        <v>266300</v>
       </c>
       <c r="K35" s="3">
         <v>320600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>911000</v>
+        <v>933900</v>
       </c>
       <c r="E41" s="3">
-        <v>1396700</v>
+        <v>1431900</v>
       </c>
       <c r="F41" s="3">
-        <v>1887900</v>
+        <v>1935500</v>
       </c>
       <c r="G41" s="3">
-        <v>1272300</v>
+        <v>1304300</v>
       </c>
       <c r="H41" s="3">
-        <v>1696600</v>
+        <v>1739400</v>
       </c>
       <c r="I41" s="3">
-        <v>2068600</v>
+        <v>2120700</v>
       </c>
       <c r="J41" s="3">
-        <v>2118000</v>
+        <v>2171400</v>
       </c>
       <c r="K41" s="3">
         <v>1310500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32800</v>
+        <v>33600</v>
       </c>
       <c r="E42" s="3">
-        <v>34500</v>
+        <v>35400</v>
       </c>
       <c r="F42" s="3">
-        <v>36600</v>
+        <v>37500</v>
       </c>
       <c r="G42" s="3">
-        <v>51700</v>
+        <v>53000</v>
       </c>
       <c r="H42" s="3">
-        <v>54300</v>
+        <v>55700</v>
       </c>
       <c r="I42" s="3">
-        <v>92800</v>
+        <v>95100</v>
       </c>
       <c r="J42" s="3">
-        <v>214300</v>
+        <v>219700</v>
       </c>
       <c r="K42" s="3">
         <v>113100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1575200</v>
+        <v>1614800</v>
       </c>
       <c r="E43" s="3">
-        <v>1780200</v>
+        <v>1825000</v>
       </c>
       <c r="F43" s="3">
-        <v>2016300</v>
+        <v>2067100</v>
       </c>
       <c r="G43" s="3">
-        <v>1983000</v>
+        <v>2032900</v>
       </c>
       <c r="H43" s="3">
-        <v>1756700</v>
+        <v>1801000</v>
       </c>
       <c r="I43" s="3">
-        <v>1378500</v>
+        <v>1413300</v>
       </c>
       <c r="J43" s="3">
-        <v>1295100</v>
+        <v>1327700</v>
       </c>
       <c r="K43" s="3">
         <v>1330100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>143000</v>
+        <v>146600</v>
       </c>
       <c r="E44" s="3">
-        <v>143400</v>
+        <v>147000</v>
       </c>
       <c r="F44" s="3">
-        <v>120500</v>
+        <v>123500</v>
       </c>
       <c r="G44" s="3">
-        <v>136200</v>
+        <v>139700</v>
       </c>
       <c r="H44" s="3">
-        <v>156300</v>
+        <v>160200</v>
       </c>
       <c r="I44" s="3">
-        <v>162700</v>
+        <v>166800</v>
       </c>
       <c r="J44" s="3">
-        <v>165300</v>
+        <v>169500</v>
       </c>
       <c r="K44" s="3">
         <v>213200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>290800</v>
+        <v>298100</v>
       </c>
       <c r="E45" s="3">
-        <v>667800</v>
+        <v>684600</v>
       </c>
       <c r="F45" s="3">
-        <v>532100</v>
+        <v>545500</v>
       </c>
       <c r="G45" s="3">
-        <v>856000</v>
+        <v>877600</v>
       </c>
       <c r="H45" s="3">
-        <v>397300</v>
+        <v>407300</v>
       </c>
       <c r="I45" s="3">
-        <v>1203100</v>
+        <v>1233400</v>
       </c>
       <c r="J45" s="3">
-        <v>1069200</v>
+        <v>1096100</v>
       </c>
       <c r="K45" s="3">
         <v>1006300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2952700</v>
+        <v>3027000</v>
       </c>
       <c r="E46" s="3">
-        <v>4022600</v>
+        <v>4123900</v>
       </c>
       <c r="F46" s="3">
-        <v>4593500</v>
+        <v>4709100</v>
       </c>
       <c r="G46" s="3">
-        <v>4299200</v>
+        <v>4407500</v>
       </c>
       <c r="H46" s="3">
-        <v>4061200</v>
+        <v>4163500</v>
       </c>
       <c r="I46" s="3">
-        <v>4905700</v>
+        <v>5029200</v>
       </c>
       <c r="J46" s="3">
-        <v>4861900</v>
+        <v>4984300</v>
       </c>
       <c r="K46" s="3">
         <v>3973200</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3845900</v>
+        <v>3942700</v>
       </c>
       <c r="E47" s="3">
-        <v>740700</v>
+        <v>759300</v>
       </c>
       <c r="F47" s="3">
-        <v>868700</v>
+        <v>890600</v>
       </c>
       <c r="G47" s="3">
-        <v>685400</v>
+        <v>702600</v>
       </c>
       <c r="H47" s="3">
-        <v>933900</v>
+        <v>957400</v>
       </c>
       <c r="I47" s="3">
-        <v>1054800</v>
+        <v>1081300</v>
       </c>
       <c r="J47" s="3">
-        <v>1725400</v>
+        <v>1768800</v>
       </c>
       <c r="K47" s="3">
         <v>2146200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10215900</v>
+        <v>10473100</v>
       </c>
       <c r="E48" s="3">
-        <v>11407500</v>
+        <v>11694700</v>
       </c>
       <c r="F48" s="3">
-        <v>13045000</v>
+        <v>13373500</v>
       </c>
       <c r="G48" s="3">
-        <v>13079900</v>
+        <v>13409200</v>
       </c>
       <c r="H48" s="3">
-        <v>6730900</v>
+        <v>6900300</v>
       </c>
       <c r="I48" s="3">
-        <v>6932400</v>
+        <v>7106900</v>
       </c>
       <c r="J48" s="3">
-        <v>6607500</v>
+        <v>6773800</v>
       </c>
       <c r="K48" s="3">
         <v>6498900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3396900</v>
+        <v>3482400</v>
       </c>
       <c r="E49" s="3">
-        <v>3453700</v>
+        <v>3540700</v>
       </c>
       <c r="F49" s="3">
-        <v>3685500</v>
+        <v>3778300</v>
       </c>
       <c r="G49" s="3">
-        <v>3561800</v>
+        <v>3651500</v>
       </c>
       <c r="H49" s="3">
-        <v>4658500</v>
+        <v>4775800</v>
       </c>
       <c r="I49" s="3">
-        <v>5234100</v>
+        <v>5365800</v>
       </c>
       <c r="J49" s="3">
-        <v>5282600</v>
+        <v>5415600</v>
       </c>
       <c r="K49" s="3">
         <v>6053100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1539700</v>
+        <v>1578500</v>
       </c>
       <c r="E52" s="3">
-        <v>1087100</v>
+        <v>1114500</v>
       </c>
       <c r="F52" s="3">
-        <v>1343900</v>
+        <v>1377700</v>
       </c>
       <c r="G52" s="3">
-        <v>1210200</v>
+        <v>1240700</v>
       </c>
       <c r="H52" s="3">
-        <v>1164700</v>
+        <v>1194000</v>
       </c>
       <c r="I52" s="3">
-        <v>385100</v>
+        <v>394800</v>
       </c>
       <c r="J52" s="3">
-        <v>452400</v>
+        <v>463800</v>
       </c>
       <c r="K52" s="3">
         <v>569600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21951100</v>
+        <v>22503800</v>
       </c>
       <c r="E54" s="3">
-        <v>20711600</v>
+        <v>21233100</v>
       </c>
       <c r="F54" s="3">
-        <v>23536500</v>
+        <v>24129100</v>
       </c>
       <c r="G54" s="3">
-        <v>22836500</v>
+        <v>23411400</v>
       </c>
       <c r="H54" s="3">
-        <v>17549200</v>
+        <v>17991000</v>
       </c>
       <c r="I54" s="3">
-        <v>18511900</v>
+        <v>18978000</v>
       </c>
       <c r="J54" s="3">
-        <v>18929800</v>
+        <v>19406400</v>
       </c>
       <c r="K54" s="3">
         <v>19241000</v>
@@ -2537,22 +2537,22 @@
         <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>1241400</v>
+        <v>1272600</v>
       </c>
       <c r="F57" s="3">
-        <v>831600</v>
+        <v>852600</v>
       </c>
       <c r="G57" s="3">
-        <v>863300</v>
+        <v>885000</v>
       </c>
       <c r="H57" s="3">
-        <v>751800</v>
+        <v>770700</v>
       </c>
       <c r="I57" s="3">
-        <v>806200</v>
+        <v>826500</v>
       </c>
       <c r="J57" s="3">
-        <v>428000</v>
+        <v>438800</v>
       </c>
       <c r="K57" s="3">
         <v>398300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1453600</v>
+        <v>1490200</v>
       </c>
       <c r="E58" s="3">
-        <v>1491200</v>
+        <v>1528800</v>
       </c>
       <c r="F58" s="3">
-        <v>1522500</v>
+        <v>1560800</v>
       </c>
       <c r="G58" s="3">
-        <v>2207100</v>
+        <v>2262700</v>
       </c>
       <c r="H58" s="3">
-        <v>1444100</v>
+        <v>1480500</v>
       </c>
       <c r="I58" s="3">
-        <v>2083600</v>
+        <v>2136100</v>
       </c>
       <c r="J58" s="3">
-        <v>2382700</v>
+        <v>2442700</v>
       </c>
       <c r="K58" s="3">
         <v>1185600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3480400</v>
+        <v>3568100</v>
       </c>
       <c r="E59" s="3">
-        <v>2971200</v>
+        <v>3046000</v>
       </c>
       <c r="F59" s="3">
-        <v>3200100</v>
+        <v>3280600</v>
       </c>
       <c r="G59" s="3">
-        <v>3630300</v>
+        <v>3721700</v>
       </c>
       <c r="H59" s="3">
-        <v>3993100</v>
+        <v>4093700</v>
       </c>
       <c r="I59" s="3">
-        <v>4145800</v>
+        <v>4250200</v>
       </c>
       <c r="J59" s="3">
-        <v>4310700</v>
+        <v>4419200</v>
       </c>
       <c r="K59" s="3">
         <v>4517500</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4934000</v>
+        <v>5058300</v>
       </c>
       <c r="E60" s="3">
-        <v>5703800</v>
+        <v>5847400</v>
       </c>
       <c r="F60" s="3">
-        <v>5554200</v>
+        <v>5694000</v>
       </c>
       <c r="G60" s="3">
-        <v>6700700</v>
+        <v>6869400</v>
       </c>
       <c r="H60" s="3">
-        <v>6189100</v>
+        <v>6344900</v>
       </c>
       <c r="I60" s="3">
-        <v>7035700</v>
+        <v>7212800</v>
       </c>
       <c r="J60" s="3">
-        <v>7121500</v>
+        <v>7300700</v>
       </c>
       <c r="K60" s="3">
         <v>6101400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9830200</v>
+        <v>10077700</v>
       </c>
       <c r="E61" s="3">
-        <v>10634900</v>
+        <v>10902700</v>
       </c>
       <c r="F61" s="3">
-        <v>12313900</v>
+        <v>12623900</v>
       </c>
       <c r="G61" s="3">
-        <v>10642000</v>
+        <v>10909900</v>
       </c>
       <c r="H61" s="3">
-        <v>5131200</v>
+        <v>5260400</v>
       </c>
       <c r="I61" s="3">
-        <v>4733100</v>
+        <v>4852300</v>
       </c>
       <c r="J61" s="3">
-        <v>5540900</v>
+        <v>5680400</v>
       </c>
       <c r="K61" s="3">
         <v>5991000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1280500</v>
+        <v>1312700</v>
       </c>
       <c r="E62" s="3">
-        <v>1482800</v>
+        <v>1520100</v>
       </c>
       <c r="F62" s="3">
-        <v>1639000</v>
+        <v>1680300</v>
       </c>
       <c r="G62" s="3">
-        <v>1517500</v>
+        <v>1555700</v>
       </c>
       <c r="H62" s="3">
-        <v>1232700</v>
+        <v>1263700</v>
       </c>
       <c r="I62" s="3">
-        <v>1023900</v>
+        <v>1049700</v>
       </c>
       <c r="J62" s="3">
-        <v>1184900</v>
+        <v>1214700</v>
       </c>
       <c r="K62" s="3">
         <v>1221000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16433400</v>
+        <v>16847200</v>
       </c>
       <c r="E66" s="3">
-        <v>18299200</v>
+        <v>18759900</v>
       </c>
       <c r="F66" s="3">
-        <v>20020300</v>
+        <v>20524400</v>
       </c>
       <c r="G66" s="3">
-        <v>19345100</v>
+        <v>19832200</v>
       </c>
       <c r="H66" s="3">
-        <v>13012500</v>
+        <v>13340200</v>
       </c>
       <c r="I66" s="3">
-        <v>13236700</v>
+        <v>13569900</v>
       </c>
       <c r="J66" s="3">
-        <v>14261600</v>
+        <v>14620700</v>
       </c>
       <c r="K66" s="3">
         <v>13751000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5054600</v>
+        <v>5181900</v>
       </c>
       <c r="E72" s="3">
-        <v>2059900</v>
+        <v>2111700</v>
       </c>
       <c r="F72" s="3">
-        <v>3031000</v>
+        <v>3107300</v>
       </c>
       <c r="G72" s="3">
-        <v>2953400</v>
+        <v>3027800</v>
       </c>
       <c r="H72" s="3">
-        <v>3926300</v>
+        <v>4025200</v>
       </c>
       <c r="I72" s="3">
-        <v>4759000</v>
+        <v>4878800</v>
       </c>
       <c r="J72" s="3">
-        <v>3822000</v>
+        <v>3918300</v>
       </c>
       <c r="K72" s="3">
         <v>4252400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5517700</v>
+        <v>5656600</v>
       </c>
       <c r="E76" s="3">
-        <v>2412500</v>
+        <v>2473200</v>
       </c>
       <c r="F76" s="3">
-        <v>3516200</v>
+        <v>3604800</v>
       </c>
       <c r="G76" s="3">
-        <v>3491400</v>
+        <v>3579300</v>
       </c>
       <c r="H76" s="3">
-        <v>4536700</v>
+        <v>4650900</v>
       </c>
       <c r="I76" s="3">
-        <v>5275300</v>
+        <v>5408100</v>
       </c>
       <c r="J76" s="3">
-        <v>4668100</v>
+        <v>4785700</v>
       </c>
       <c r="K76" s="3">
         <v>5490000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4120800</v>
+        <v>4224500</v>
       </c>
       <c r="E81" s="3">
-        <v>-479400</v>
+        <v>-491500</v>
       </c>
       <c r="F81" s="3">
-        <v>1591000</v>
+        <v>1631100</v>
       </c>
       <c r="G81" s="3">
-        <v>713200</v>
+        <v>731100</v>
       </c>
       <c r="H81" s="3">
-        <v>1789500</v>
+        <v>1834500</v>
       </c>
       <c r="I81" s="3">
-        <v>1099400</v>
+        <v>1127100</v>
       </c>
       <c r="J81" s="3">
-        <v>259700</v>
+        <v>266300</v>
       </c>
       <c r="K81" s="3">
         <v>320600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2588900</v>
+        <v>2654100</v>
       </c>
       <c r="E83" s="3">
-        <v>3152800</v>
+        <v>3232200</v>
       </c>
       <c r="F83" s="3">
-        <v>2666500</v>
+        <v>2733700</v>
       </c>
       <c r="G83" s="3">
-        <v>2259300</v>
+        <v>2316200</v>
       </c>
       <c r="H83" s="3">
-        <v>1912600</v>
+        <v>1960800</v>
       </c>
       <c r="I83" s="3">
-        <v>2033700</v>
+        <v>2084900</v>
       </c>
       <c r="J83" s="3">
-        <v>2572000</v>
+        <v>2636800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3598700</v>
+        <v>3689300</v>
       </c>
       <c r="E89" s="3">
-        <v>3878500</v>
+        <v>3976200</v>
       </c>
       <c r="F89" s="3">
-        <v>4020400</v>
+        <v>4121600</v>
       </c>
       <c r="G89" s="3">
-        <v>3140000</v>
+        <v>3219000</v>
       </c>
       <c r="H89" s="3">
-        <v>3339100</v>
+        <v>3423200</v>
       </c>
       <c r="I89" s="3">
-        <v>3736200</v>
+        <v>3830300</v>
       </c>
       <c r="J89" s="3">
-        <v>3649600</v>
+        <v>3741500</v>
       </c>
       <c r="K89" s="3">
         <v>3178600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2198300</v>
+        <v>-2253700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1784300</v>
+        <v>-1829200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1743300</v>
+        <v>-1787100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2115700</v>
+        <v>-2168900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1927800</v>
+        <v>-1976300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1901600</v>
+        <v>-1949500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2177000</v>
+        <v>-2231800</v>
       </c>
       <c r="K91" s="3">
         <v>-1943100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2123600</v>
+        <v>-2177000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1580700</v>
+        <v>-1620500</v>
       </c>
       <c r="F94" s="3">
-        <v>-969300</v>
+        <v>-993700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3993500</v>
+        <v>-4094100</v>
       </c>
       <c r="H94" s="3">
-        <v>-56200</v>
+        <v>-57700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1107900</v>
+        <v>-1135800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1936400</v>
+        <v>-1985100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1194100</v>
+        <v>-1224200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1155600</v>
+        <v>-1184700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1126400</v>
+        <v>-1154800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1112100</v>
+        <v>-1140100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1686500</v>
+        <v>-1728900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1095900</v>
+        <v>-1123500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1031800</v>
+        <v>-1057800</v>
       </c>
       <c r="K96" s="3">
         <v>-992200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2200500</v>
+        <v>-2255900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2560100</v>
+        <v>-2624600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2530700</v>
+        <v>-2594500</v>
       </c>
       <c r="G100" s="3">
-        <v>397500</v>
+        <v>407500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3622900</v>
+        <v>-3714100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2728000</v>
+        <v>-2796700</v>
       </c>
       <c r="J100" s="3">
-        <v>-829100</v>
+        <v>-850000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>55100</v>
+        <v>56400</v>
       </c>
       <c r="E101" s="3">
-        <v>-22500</v>
+        <v>-23000</v>
       </c>
       <c r="F101" s="3">
-        <v>38500</v>
+        <v>39500</v>
       </c>
       <c r="G101" s="3">
-        <v>58800</v>
+        <v>60300</v>
       </c>
       <c r="H101" s="3">
-        <v>-26100</v>
+        <v>-26700</v>
       </c>
       <c r="I101" s="3">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="J101" s="3">
-        <v>-40900</v>
+        <v>-42000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-670300</v>
+        <v>-687200</v>
       </c>
       <c r="E102" s="3">
-        <v>-284700</v>
+        <v>-291900</v>
       </c>
       <c r="F102" s="3">
-        <v>558800</v>
+        <v>572900</v>
       </c>
       <c r="G102" s="3">
-        <v>-397300</v>
+        <v>-407300</v>
       </c>
       <c r="H102" s="3">
-        <v>-366100</v>
+        <v>-375300</v>
       </c>
       <c r="I102" s="3">
-        <v>-58000</v>
+        <v>-59400</v>
       </c>
       <c r="J102" s="3">
-        <v>843200</v>
+        <v>864400</v>
       </c>
       <c r="K102" s="3">
         <v>-8000</v>

--- a/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9307500</v>
+        <v>9050200</v>
       </c>
       <c r="E8" s="3">
-        <v>9138200</v>
+        <v>8885600</v>
       </c>
       <c r="F8" s="3">
-        <v>10895800</v>
+        <v>10594600</v>
       </c>
       <c r="G8" s="3">
-        <v>10691400</v>
+        <v>10395900</v>
       </c>
       <c r="H8" s="3">
-        <v>9963100</v>
+        <v>9687700</v>
       </c>
       <c r="I8" s="3">
-        <v>10541200</v>
+        <v>10249800</v>
       </c>
       <c r="J8" s="3">
-        <v>11794700</v>
+        <v>11468600</v>
       </c>
       <c r="K8" s="3">
         <v>12035600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2483600</v>
+        <v>2414900</v>
       </c>
       <c r="E9" s="3">
-        <v>2407000</v>
+        <v>2340500</v>
       </c>
       <c r="F9" s="3">
-        <v>5531200</v>
+        <v>5378300</v>
       </c>
       <c r="G9" s="3">
-        <v>2625400</v>
+        <v>2552800</v>
       </c>
       <c r="H9" s="3">
-        <v>2251700</v>
+        <v>2189500</v>
       </c>
       <c r="I9" s="3">
-        <v>2532800</v>
+        <v>2462800</v>
       </c>
       <c r="J9" s="3">
-        <v>6268300</v>
+        <v>6095100</v>
       </c>
       <c r="K9" s="3">
         <v>3300300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6824000</v>
+        <v>6635300</v>
       </c>
       <c r="E10" s="3">
-        <v>6731200</v>
+        <v>6545200</v>
       </c>
       <c r="F10" s="3">
-        <v>5364600</v>
+        <v>5216300</v>
       </c>
       <c r="G10" s="3">
-        <v>8066000</v>
+        <v>7843100</v>
       </c>
       <c r="H10" s="3">
-        <v>7711400</v>
+        <v>7498300</v>
       </c>
       <c r="I10" s="3">
-        <v>8008400</v>
+        <v>7787000</v>
       </c>
       <c r="J10" s="3">
-        <v>5526300</v>
+        <v>5373500</v>
       </c>
       <c r="K10" s="3">
         <v>8735300</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>317200</v>
+        <v>308400</v>
       </c>
       <c r="E14" s="3">
-        <v>134900</v>
+        <v>131200</v>
       </c>
       <c r="F14" s="3">
-        <v>181700</v>
+        <v>176700</v>
       </c>
       <c r="G14" s="3">
-        <v>79300</v>
+        <v>77100</v>
       </c>
       <c r="H14" s="3">
-        <v>289000</v>
+        <v>281100</v>
       </c>
       <c r="I14" s="3">
-        <v>784900</v>
+        <v>763200</v>
       </c>
       <c r="J14" s="3">
-        <v>929600</v>
+        <v>903900</v>
       </c>
       <c r="K14" s="3">
         <v>224400</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2188700</v>
+        <v>2128200</v>
       </c>
       <c r="E15" s="3">
-        <v>2186500</v>
+        <v>2126100</v>
       </c>
       <c r="F15" s="3">
-        <v>5206300</v>
+        <v>5062400</v>
       </c>
       <c r="G15" s="3">
-        <v>2307200</v>
+        <v>2243400</v>
       </c>
       <c r="H15" s="3">
-        <v>1885100</v>
+        <v>1832900</v>
       </c>
       <c r="I15" s="3">
-        <v>1844700</v>
+        <v>1793700</v>
       </c>
       <c r="J15" s="3">
-        <v>3725100</v>
+        <v>3622100</v>
       </c>
       <c r="K15" s="3">
         <v>1718800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7682500</v>
+        <v>7470200</v>
       </c>
       <c r="E17" s="3">
-        <v>7475000</v>
+        <v>7268400</v>
       </c>
       <c r="F17" s="3">
-        <v>8263600</v>
+        <v>8035200</v>
       </c>
       <c r="G17" s="3">
-        <v>8262500</v>
+        <v>8034100</v>
       </c>
       <c r="H17" s="3">
-        <v>7992800</v>
+        <v>7771900</v>
       </c>
       <c r="I17" s="3">
-        <v>8749800</v>
+        <v>8508000</v>
       </c>
       <c r="J17" s="3">
-        <v>9440300</v>
+        <v>9179400</v>
       </c>
       <c r="K17" s="3">
         <v>9874800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1625000</v>
+        <v>1580100</v>
       </c>
       <c r="E18" s="3">
-        <v>1663200</v>
+        <v>1617200</v>
       </c>
       <c r="F18" s="3">
-        <v>2632200</v>
+        <v>2559400</v>
       </c>
       <c r="G18" s="3">
-        <v>2428900</v>
+        <v>2361800</v>
       </c>
       <c r="H18" s="3">
-        <v>1970300</v>
+        <v>1915800</v>
       </c>
       <c r="I18" s="3">
-        <v>1791400</v>
+        <v>1741900</v>
       </c>
       <c r="J18" s="3">
-        <v>2354300</v>
+        <v>2289200</v>
       </c>
       <c r="K18" s="3">
         <v>2160800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-367200</v>
+        <v>-357100</v>
       </c>
       <c r="E20" s="3">
-        <v>-138600</v>
+        <v>-134800</v>
       </c>
       <c r="F20" s="3">
-        <v>301800</v>
+        <v>293500</v>
       </c>
       <c r="G20" s="3">
-        <v>-27700</v>
+        <v>-26900</v>
       </c>
       <c r="H20" s="3">
-        <v>-105000</v>
+        <v>-102100</v>
       </c>
       <c r="I20" s="3">
-        <v>297200</v>
+        <v>289000</v>
       </c>
       <c r="J20" s="3">
-        <v>-81000</v>
+        <v>-78700</v>
       </c>
       <c r="K20" s="3">
         <v>-721400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3911900</v>
+        <v>3831400</v>
       </c>
       <c r="E21" s="3">
-        <v>4756700</v>
+        <v>4658900</v>
       </c>
       <c r="F21" s="3">
-        <v>5667700</v>
+        <v>5539500</v>
       </c>
       <c r="G21" s="3">
-        <v>4717500</v>
+        <v>4611200</v>
       </c>
       <c r="H21" s="3">
-        <v>3826100</v>
+        <v>3740700</v>
       </c>
       <c r="I21" s="3">
-        <v>4173500</v>
+        <v>4079900</v>
       </c>
       <c r="J21" s="3">
-        <v>4910100</v>
+        <v>4801900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>248300</v>
+        <v>241500</v>
       </c>
       <c r="E22" s="3">
-        <v>233700</v>
+        <v>227300</v>
       </c>
       <c r="F22" s="3">
-        <v>649100</v>
+        <v>631200</v>
       </c>
       <c r="G22" s="3">
-        <v>429000</v>
+        <v>417100</v>
       </c>
       <c r="H22" s="3">
-        <v>200300</v>
+        <v>194800</v>
       </c>
       <c r="I22" s="3">
-        <v>244600</v>
+        <v>237800</v>
       </c>
       <c r="J22" s="3">
-        <v>457800</v>
+        <v>445100</v>
       </c>
       <c r="K22" s="3">
         <v>216800</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1009500</v>
+        <v>981500</v>
       </c>
       <c r="E23" s="3">
-        <v>1290800</v>
+        <v>1255100</v>
       </c>
       <c r="F23" s="3">
-        <v>2284900</v>
+        <v>2221700</v>
       </c>
       <c r="G23" s="3">
-        <v>1972300</v>
+        <v>1917700</v>
       </c>
       <c r="H23" s="3">
-        <v>1665000</v>
+        <v>1618900</v>
       </c>
       <c r="I23" s="3">
-        <v>1844000</v>
+        <v>1793100</v>
       </c>
       <c r="J23" s="3">
-        <v>1815500</v>
+        <v>1765400</v>
       </c>
       <c r="K23" s="3">
         <v>1222600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-274100</v>
+        <v>-266500</v>
       </c>
       <c r="E24" s="3">
-        <v>471100</v>
+        <v>458000</v>
       </c>
       <c r="F24" s="3">
-        <v>603800</v>
+        <v>587100</v>
       </c>
       <c r="G24" s="3">
-        <v>849600</v>
+        <v>826200</v>
       </c>
       <c r="H24" s="3">
-        <v>566600</v>
+        <v>551000</v>
       </c>
       <c r="I24" s="3">
-        <v>610500</v>
+        <v>593700</v>
       </c>
       <c r="J24" s="3">
-        <v>557200</v>
+        <v>541800</v>
       </c>
       <c r="K24" s="3">
         <v>593200</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1283500</v>
+        <v>1248100</v>
       </c>
       <c r="E26" s="3">
-        <v>819700</v>
+        <v>797100</v>
       </c>
       <c r="F26" s="3">
-        <v>1681100</v>
+        <v>1634700</v>
       </c>
       <c r="G26" s="3">
-        <v>1122600</v>
+        <v>1091600</v>
       </c>
       <c r="H26" s="3">
-        <v>1098300</v>
+        <v>1068000</v>
       </c>
       <c r="I26" s="3">
-        <v>1233500</v>
+        <v>1199400</v>
       </c>
       <c r="J26" s="3">
-        <v>1258300</v>
+        <v>1223600</v>
       </c>
       <c r="K26" s="3">
         <v>629400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1032900</v>
+        <v>1004300</v>
       </c>
       <c r="E27" s="3">
-        <v>531500</v>
+        <v>516800</v>
       </c>
       <c r="F27" s="3">
-        <v>1331400</v>
+        <v>1294600</v>
       </c>
       <c r="G27" s="3">
-        <v>800900</v>
+        <v>778800</v>
       </c>
       <c r="H27" s="3">
-        <v>843300</v>
+        <v>820000</v>
       </c>
       <c r="I27" s="3">
-        <v>959300</v>
+        <v>932800</v>
       </c>
       <c r="J27" s="3">
-        <v>978500</v>
+        <v>951500</v>
       </c>
       <c r="K27" s="3">
         <v>320600</v>
@@ -1533,25 +1533,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>3191600</v>
+        <v>3103400</v>
       </c>
       <c r="E29" s="3">
-        <v>-1023000</v>
+        <v>-994700</v>
       </c>
       <c r="F29" s="3">
-        <v>299700</v>
+        <v>291400</v>
       </c>
       <c r="G29" s="3">
-        <v>-69800</v>
+        <v>-67900</v>
       </c>
       <c r="H29" s="3">
-        <v>991200</v>
+        <v>963800</v>
       </c>
       <c r="I29" s="3">
-        <v>167800</v>
+        <v>163200</v>
       </c>
       <c r="J29" s="3">
-        <v>-712200</v>
+        <v>-692500</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>367200</v>
+        <v>357100</v>
       </c>
       <c r="E32" s="3">
-        <v>138600</v>
+        <v>134800</v>
       </c>
       <c r="F32" s="3">
-        <v>-301800</v>
+        <v>-293500</v>
       </c>
       <c r="G32" s="3">
-        <v>27700</v>
+        <v>26900</v>
       </c>
       <c r="H32" s="3">
-        <v>105000</v>
+        <v>102100</v>
       </c>
       <c r="I32" s="3">
-        <v>-297200</v>
+        <v>-289000</v>
       </c>
       <c r="J32" s="3">
-        <v>81000</v>
+        <v>78700</v>
       </c>
       <c r="K32" s="3">
         <v>721400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4224500</v>
+        <v>4107700</v>
       </c>
       <c r="E33" s="3">
-        <v>-491500</v>
+        <v>-477900</v>
       </c>
       <c r="F33" s="3">
-        <v>1631100</v>
+        <v>1586000</v>
       </c>
       <c r="G33" s="3">
-        <v>731100</v>
+        <v>710900</v>
       </c>
       <c r="H33" s="3">
-        <v>1834500</v>
+        <v>1783800</v>
       </c>
       <c r="I33" s="3">
-        <v>1127100</v>
+        <v>1096000</v>
       </c>
       <c r="J33" s="3">
-        <v>266300</v>
+        <v>258900</v>
       </c>
       <c r="K33" s="3">
         <v>320600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4224500</v>
+        <v>4107700</v>
       </c>
       <c r="E35" s="3">
-        <v>-491500</v>
+        <v>-477900</v>
       </c>
       <c r="F35" s="3">
-        <v>1631100</v>
+        <v>1586000</v>
       </c>
       <c r="G35" s="3">
-        <v>731100</v>
+        <v>710900</v>
       </c>
       <c r="H35" s="3">
-        <v>1834500</v>
+        <v>1783800</v>
       </c>
       <c r="I35" s="3">
-        <v>1127100</v>
+        <v>1096000</v>
       </c>
       <c r="J35" s="3">
-        <v>266300</v>
+        <v>258900</v>
       </c>
       <c r="K35" s="3">
         <v>320600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>933900</v>
+        <v>908100</v>
       </c>
       <c r="E41" s="3">
-        <v>1431900</v>
+        <v>1392300</v>
       </c>
       <c r="F41" s="3">
-        <v>1935500</v>
+        <v>1882000</v>
       </c>
       <c r="G41" s="3">
-        <v>1304300</v>
+        <v>1268300</v>
       </c>
       <c r="H41" s="3">
-        <v>1739400</v>
+        <v>1691300</v>
       </c>
       <c r="I41" s="3">
-        <v>2120700</v>
+        <v>2062100</v>
       </c>
       <c r="J41" s="3">
-        <v>2171400</v>
+        <v>2111400</v>
       </c>
       <c r="K41" s="3">
         <v>1310500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33600</v>
+        <v>32700</v>
       </c>
       <c r="E42" s="3">
-        <v>35400</v>
+        <v>34400</v>
       </c>
       <c r="F42" s="3">
-        <v>37500</v>
+        <v>36500</v>
       </c>
       <c r="G42" s="3">
-        <v>53000</v>
+        <v>51500</v>
       </c>
       <c r="H42" s="3">
-        <v>55700</v>
+        <v>54100</v>
       </c>
       <c r="I42" s="3">
-        <v>95100</v>
+        <v>92500</v>
       </c>
       <c r="J42" s="3">
-        <v>219700</v>
+        <v>213700</v>
       </c>
       <c r="K42" s="3">
         <v>113100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1614800</v>
+        <v>1570200</v>
       </c>
       <c r="E43" s="3">
-        <v>1825000</v>
+        <v>1774600</v>
       </c>
       <c r="F43" s="3">
-        <v>2067100</v>
+        <v>2009900</v>
       </c>
       <c r="G43" s="3">
-        <v>2032900</v>
+        <v>1976700</v>
       </c>
       <c r="H43" s="3">
-        <v>1801000</v>
+        <v>1751200</v>
       </c>
       <c r="I43" s="3">
-        <v>1413300</v>
+        <v>1374200</v>
       </c>
       <c r="J43" s="3">
-        <v>1327700</v>
+        <v>1291000</v>
       </c>
       <c r="K43" s="3">
         <v>1330100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>146600</v>
+        <v>142600</v>
       </c>
       <c r="E44" s="3">
-        <v>147000</v>
+        <v>143000</v>
       </c>
       <c r="F44" s="3">
-        <v>123500</v>
+        <v>120100</v>
       </c>
       <c r="G44" s="3">
-        <v>139700</v>
+        <v>135800</v>
       </c>
       <c r="H44" s="3">
-        <v>160200</v>
+        <v>155800</v>
       </c>
       <c r="I44" s="3">
-        <v>166800</v>
+        <v>162200</v>
       </c>
       <c r="J44" s="3">
-        <v>169500</v>
+        <v>164800</v>
       </c>
       <c r="K44" s="3">
         <v>213200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>298100</v>
+        <v>289800</v>
       </c>
       <c r="E45" s="3">
-        <v>684600</v>
+        <v>665600</v>
       </c>
       <c r="F45" s="3">
-        <v>545500</v>
+        <v>530500</v>
       </c>
       <c r="G45" s="3">
-        <v>877600</v>
+        <v>853300</v>
       </c>
       <c r="H45" s="3">
-        <v>407300</v>
+        <v>396000</v>
       </c>
       <c r="I45" s="3">
-        <v>1233400</v>
+        <v>1199300</v>
       </c>
       <c r="J45" s="3">
-        <v>1096100</v>
+        <v>1065800</v>
       </c>
       <c r="K45" s="3">
         <v>1006300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3027000</v>
+        <v>2943400</v>
       </c>
       <c r="E46" s="3">
-        <v>4123900</v>
+        <v>4009900</v>
       </c>
       <c r="F46" s="3">
-        <v>4709100</v>
+        <v>4578900</v>
       </c>
       <c r="G46" s="3">
-        <v>4407500</v>
+        <v>4285600</v>
       </c>
       <c r="H46" s="3">
-        <v>4163500</v>
+        <v>4048400</v>
       </c>
       <c r="I46" s="3">
-        <v>5029200</v>
+        <v>4890200</v>
       </c>
       <c r="J46" s="3">
-        <v>4984300</v>
+        <v>4846600</v>
       </c>
       <c r="K46" s="3">
         <v>3973200</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3942700</v>
+        <v>3833700</v>
       </c>
       <c r="E47" s="3">
-        <v>759300</v>
+        <v>738400</v>
       </c>
       <c r="F47" s="3">
-        <v>890600</v>
+        <v>865900</v>
       </c>
       <c r="G47" s="3">
-        <v>702600</v>
+        <v>683200</v>
       </c>
       <c r="H47" s="3">
-        <v>957400</v>
+        <v>931000</v>
       </c>
       <c r="I47" s="3">
-        <v>1081300</v>
+        <v>1051400</v>
       </c>
       <c r="J47" s="3">
-        <v>1768800</v>
+        <v>1719900</v>
       </c>
       <c r="K47" s="3">
         <v>2146200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10473100</v>
+        <v>10183600</v>
       </c>
       <c r="E48" s="3">
-        <v>11694700</v>
+        <v>11371400</v>
       </c>
       <c r="F48" s="3">
-        <v>13373500</v>
+        <v>13003800</v>
       </c>
       <c r="G48" s="3">
-        <v>13409200</v>
+        <v>13038500</v>
       </c>
       <c r="H48" s="3">
-        <v>6900300</v>
+        <v>6709600</v>
       </c>
       <c r="I48" s="3">
-        <v>7106900</v>
+        <v>6910400</v>
       </c>
       <c r="J48" s="3">
-        <v>6773800</v>
+        <v>6586600</v>
       </c>
       <c r="K48" s="3">
         <v>6498900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3482400</v>
+        <v>3386100</v>
       </c>
       <c r="E49" s="3">
-        <v>3540700</v>
+        <v>3442800</v>
       </c>
       <c r="F49" s="3">
-        <v>3778300</v>
+        <v>3673900</v>
       </c>
       <c r="G49" s="3">
-        <v>3651500</v>
+        <v>3550600</v>
       </c>
       <c r="H49" s="3">
-        <v>4775800</v>
+        <v>4643800</v>
       </c>
       <c r="I49" s="3">
-        <v>5365800</v>
+        <v>5217500</v>
       </c>
       <c r="J49" s="3">
-        <v>5415600</v>
+        <v>5265900</v>
       </c>
       <c r="K49" s="3">
         <v>6053100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1578500</v>
+        <v>1534900</v>
       </c>
       <c r="E52" s="3">
-        <v>1114500</v>
+        <v>1083700</v>
       </c>
       <c r="F52" s="3">
-        <v>1377700</v>
+        <v>1339600</v>
       </c>
       <c r="G52" s="3">
-        <v>1240700</v>
+        <v>1206400</v>
       </c>
       <c r="H52" s="3">
-        <v>1194000</v>
+        <v>1161000</v>
       </c>
       <c r="I52" s="3">
-        <v>394800</v>
+        <v>383900</v>
       </c>
       <c r="J52" s="3">
-        <v>463800</v>
+        <v>451000</v>
       </c>
       <c r="K52" s="3">
         <v>569600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22503800</v>
+        <v>21881700</v>
       </c>
       <c r="E54" s="3">
-        <v>21233100</v>
+        <v>20646200</v>
       </c>
       <c r="F54" s="3">
-        <v>24129100</v>
+        <v>23462100</v>
       </c>
       <c r="G54" s="3">
-        <v>23411400</v>
+        <v>22764300</v>
       </c>
       <c r="H54" s="3">
-        <v>17991000</v>
+        <v>17493700</v>
       </c>
       <c r="I54" s="3">
-        <v>18978000</v>
+        <v>18453400</v>
       </c>
       <c r="J54" s="3">
-        <v>19406400</v>
+        <v>18869900</v>
       </c>
       <c r="K54" s="3">
         <v>19241000</v>
@@ -2537,22 +2537,22 @@
         <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>1272600</v>
+        <v>1237500</v>
       </c>
       <c r="F57" s="3">
-        <v>852600</v>
+        <v>829000</v>
       </c>
       <c r="G57" s="3">
-        <v>885000</v>
+        <v>860500</v>
       </c>
       <c r="H57" s="3">
-        <v>770700</v>
+        <v>749400</v>
       </c>
       <c r="I57" s="3">
-        <v>826500</v>
+        <v>803700</v>
       </c>
       <c r="J57" s="3">
-        <v>438800</v>
+        <v>426700</v>
       </c>
       <c r="K57" s="3">
         <v>398300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1490200</v>
+        <v>1449000</v>
       </c>
       <c r="E58" s="3">
-        <v>1528800</v>
+        <v>1486500</v>
       </c>
       <c r="F58" s="3">
-        <v>1560800</v>
+        <v>1517700</v>
       </c>
       <c r="G58" s="3">
-        <v>2262700</v>
+        <v>2200200</v>
       </c>
       <c r="H58" s="3">
-        <v>1480500</v>
+        <v>1439600</v>
       </c>
       <c r="I58" s="3">
-        <v>2136100</v>
+        <v>2077100</v>
       </c>
       <c r="J58" s="3">
-        <v>2442700</v>
+        <v>2375200</v>
       </c>
       <c r="K58" s="3">
         <v>1185600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3568100</v>
+        <v>3469400</v>
       </c>
       <c r="E59" s="3">
-        <v>3046000</v>
+        <v>2961800</v>
       </c>
       <c r="F59" s="3">
-        <v>3280600</v>
+        <v>3189900</v>
       </c>
       <c r="G59" s="3">
-        <v>3721700</v>
+        <v>3618800</v>
       </c>
       <c r="H59" s="3">
-        <v>4093700</v>
+        <v>3980500</v>
       </c>
       <c r="I59" s="3">
-        <v>4250200</v>
+        <v>4132700</v>
       </c>
       <c r="J59" s="3">
-        <v>4419200</v>
+        <v>4297100</v>
       </c>
       <c r="K59" s="3">
         <v>4517500</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5058300</v>
+        <v>4918400</v>
       </c>
       <c r="E60" s="3">
-        <v>5847400</v>
+        <v>5685800</v>
       </c>
       <c r="F60" s="3">
-        <v>5694000</v>
+        <v>5536600</v>
       </c>
       <c r="G60" s="3">
-        <v>6869400</v>
+        <v>6679500</v>
       </c>
       <c r="H60" s="3">
-        <v>6344900</v>
+        <v>6169500</v>
       </c>
       <c r="I60" s="3">
-        <v>7212800</v>
+        <v>7013400</v>
       </c>
       <c r="J60" s="3">
-        <v>7300700</v>
+        <v>7098900</v>
       </c>
       <c r="K60" s="3">
         <v>6101400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10077700</v>
+        <v>9799100</v>
       </c>
       <c r="E61" s="3">
-        <v>10902700</v>
+        <v>10601300</v>
       </c>
       <c r="F61" s="3">
-        <v>12623900</v>
+        <v>12274900</v>
       </c>
       <c r="G61" s="3">
-        <v>10909900</v>
+        <v>10608400</v>
       </c>
       <c r="H61" s="3">
-        <v>5260400</v>
+        <v>5115000</v>
       </c>
       <c r="I61" s="3">
-        <v>4852300</v>
+        <v>4718100</v>
       </c>
       <c r="J61" s="3">
-        <v>5680400</v>
+        <v>5523400</v>
       </c>
       <c r="K61" s="3">
         <v>5991000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1312700</v>
+        <v>1276400</v>
       </c>
       <c r="E62" s="3">
-        <v>1520100</v>
+        <v>1478100</v>
       </c>
       <c r="F62" s="3">
-        <v>1680300</v>
+        <v>1633800</v>
       </c>
       <c r="G62" s="3">
-        <v>1555700</v>
+        <v>1512700</v>
       </c>
       <c r="H62" s="3">
-        <v>1263700</v>
+        <v>1228800</v>
       </c>
       <c r="I62" s="3">
-        <v>1049700</v>
+        <v>1020700</v>
       </c>
       <c r="J62" s="3">
-        <v>1214700</v>
+        <v>1181100</v>
       </c>
       <c r="K62" s="3">
         <v>1221000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16847200</v>
+        <v>16381500</v>
       </c>
       <c r="E66" s="3">
-        <v>18759900</v>
+        <v>18241300</v>
       </c>
       <c r="F66" s="3">
-        <v>20524400</v>
+        <v>19957000</v>
       </c>
       <c r="G66" s="3">
-        <v>19832200</v>
+        <v>19284000</v>
       </c>
       <c r="H66" s="3">
-        <v>13340200</v>
+        <v>12971400</v>
       </c>
       <c r="I66" s="3">
-        <v>13569900</v>
+        <v>13194800</v>
       </c>
       <c r="J66" s="3">
-        <v>14620700</v>
+        <v>14216500</v>
       </c>
       <c r="K66" s="3">
         <v>13751000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5181900</v>
+        <v>5038600</v>
       </c>
       <c r="E72" s="3">
-        <v>2111700</v>
+        <v>2053400</v>
       </c>
       <c r="F72" s="3">
-        <v>3107300</v>
+        <v>3021400</v>
       </c>
       <c r="G72" s="3">
-        <v>3027800</v>
+        <v>2944100</v>
       </c>
       <c r="H72" s="3">
-        <v>4025200</v>
+        <v>3913900</v>
       </c>
       <c r="I72" s="3">
-        <v>4878800</v>
+        <v>4743900</v>
       </c>
       <c r="J72" s="3">
-        <v>3918300</v>
+        <v>3809900</v>
       </c>
       <c r="K72" s="3">
         <v>4252400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5656600</v>
+        <v>5500200</v>
       </c>
       <c r="E76" s="3">
-        <v>2473200</v>
+        <v>2404800</v>
       </c>
       <c r="F76" s="3">
-        <v>3604800</v>
+        <v>3505100</v>
       </c>
       <c r="G76" s="3">
-        <v>3579300</v>
+        <v>3480300</v>
       </c>
       <c r="H76" s="3">
-        <v>4650900</v>
+        <v>4522300</v>
       </c>
       <c r="I76" s="3">
-        <v>5408100</v>
+        <v>5258600</v>
       </c>
       <c r="J76" s="3">
-        <v>4785700</v>
+        <v>4653400</v>
       </c>
       <c r="K76" s="3">
         <v>5490000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4224500</v>
+        <v>4107700</v>
       </c>
       <c r="E81" s="3">
-        <v>-491500</v>
+        <v>-477900</v>
       </c>
       <c r="F81" s="3">
-        <v>1631100</v>
+        <v>1586000</v>
       </c>
       <c r="G81" s="3">
-        <v>731100</v>
+        <v>710900</v>
       </c>
       <c r="H81" s="3">
-        <v>1834500</v>
+        <v>1783800</v>
       </c>
       <c r="I81" s="3">
-        <v>1127100</v>
+        <v>1096000</v>
       </c>
       <c r="J81" s="3">
-        <v>266300</v>
+        <v>258900</v>
       </c>
       <c r="K81" s="3">
         <v>320600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2654100</v>
+        <v>2580700</v>
       </c>
       <c r="E83" s="3">
-        <v>3232200</v>
+        <v>3142800</v>
       </c>
       <c r="F83" s="3">
-        <v>2733700</v>
+        <v>2658100</v>
       </c>
       <c r="G83" s="3">
-        <v>2316200</v>
+        <v>2252200</v>
       </c>
       <c r="H83" s="3">
-        <v>1960800</v>
+        <v>1906600</v>
       </c>
       <c r="I83" s="3">
-        <v>2084900</v>
+        <v>2027300</v>
       </c>
       <c r="J83" s="3">
-        <v>2636800</v>
+        <v>2563900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3689300</v>
+        <v>3587300</v>
       </c>
       <c r="E89" s="3">
-        <v>3976200</v>
+        <v>3866300</v>
       </c>
       <c r="F89" s="3">
-        <v>4121600</v>
+        <v>4007700</v>
       </c>
       <c r="G89" s="3">
-        <v>3219000</v>
+        <v>3130000</v>
       </c>
       <c r="H89" s="3">
-        <v>3423200</v>
+        <v>3328600</v>
       </c>
       <c r="I89" s="3">
-        <v>3830300</v>
+        <v>3724400</v>
       </c>
       <c r="J89" s="3">
-        <v>3741500</v>
+        <v>3638100</v>
       </c>
       <c r="K89" s="3">
         <v>3178600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2253700</v>
+        <v>-2191400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1829200</v>
+        <v>-1778600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1787100</v>
+        <v>-1737700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2168900</v>
+        <v>-2109000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1976300</v>
+        <v>-1921700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1949500</v>
+        <v>-1895600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2231800</v>
+        <v>-2170100</v>
       </c>
       <c r="K91" s="3">
         <v>-1943100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2177000</v>
+        <v>-2116800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1620500</v>
+        <v>-1575700</v>
       </c>
       <c r="F94" s="3">
-        <v>-993700</v>
+        <v>-966300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4094100</v>
+        <v>-3980900</v>
       </c>
       <c r="H94" s="3">
-        <v>-57700</v>
+        <v>-56100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1135800</v>
+        <v>-1104400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1985100</v>
+        <v>-1930300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1224200</v>
+        <v>-1190400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1184700</v>
+        <v>-1151900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1154800</v>
+        <v>-1122900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1140100</v>
+        <v>-1108600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1728900</v>
+        <v>-1681100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1123500</v>
+        <v>-1092400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1057800</v>
+        <v>-1028600</v>
       </c>
       <c r="K96" s="3">
         <v>-992200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2255900</v>
+        <v>-2193600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2624600</v>
+        <v>-2552000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2594500</v>
+        <v>-2522700</v>
       </c>
       <c r="G100" s="3">
-        <v>407500</v>
+        <v>396200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3714100</v>
+        <v>-3611500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2796700</v>
+        <v>-2719400</v>
       </c>
       <c r="J100" s="3">
-        <v>-850000</v>
+        <v>-826500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>56400</v>
+        <v>54900</v>
       </c>
       <c r="E101" s="3">
-        <v>-23000</v>
+        <v>-22400</v>
       </c>
       <c r="F101" s="3">
-        <v>39500</v>
+        <v>38400</v>
       </c>
       <c r="G101" s="3">
-        <v>60300</v>
+        <v>58600</v>
       </c>
       <c r="H101" s="3">
-        <v>-26700</v>
+        <v>-26000</v>
       </c>
       <c r="I101" s="3">
-        <v>42700</v>
+        <v>41500</v>
       </c>
       <c r="J101" s="3">
-        <v>-42000</v>
+        <v>-40800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-687200</v>
+        <v>-668200</v>
       </c>
       <c r="E102" s="3">
-        <v>-291900</v>
+        <v>-283800</v>
       </c>
       <c r="F102" s="3">
-        <v>572900</v>
+        <v>557100</v>
       </c>
       <c r="G102" s="3">
-        <v>-407300</v>
+        <v>-396000</v>
       </c>
       <c r="H102" s="3">
-        <v>-375300</v>
+        <v>-364900</v>
       </c>
       <c r="I102" s="3">
-        <v>-59400</v>
+        <v>-57800</v>
       </c>
       <c r="J102" s="3">
-        <v>864400</v>
+        <v>840500</v>
       </c>
       <c r="K102" s="3">
         <v>-8000</v>
